--- a/test_templates/test_batch_template5.xlsx
+++ b/test_templates/test_batch_template5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="493">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -1728,30 +1728,6 @@
     <t xml:space="preserve">Note: Always leave an empty row between Comparisons/ Comparison Group(s) and preferences below. </t>
   </si>
   <si>
-    <t>End Row Number</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Required: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Input the bottom row number for "Comparison Group(s)" and "Comparisons"</t>
-    </r>
-  </si>
-  <si>
     <t>A skip is also green.</t>
   </si>
   <si>
@@ -2447,7 +2423,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2687,14 +2663,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3369,7 +3337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="321">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3895,13 +3863,10 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3926,14 +3891,8 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3963,10 +3922,88 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4011,89 +4048,11 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4173,31 +4132,31 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4253,6 +4212,42 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5105,86 +5100,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="239" t="s">
-        <v>380</v>
-      </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="241"/>
+      <c r="A1" s="225" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="227"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="218" t="s">
+      <c r="A3" s="241" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="219"/>
+      <c r="B3" s="242"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="239" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="233"/>
+      <c r="B4" s="240"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="234" t="s">
+      <c r="A5" s="255" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="235"/>
+      <c r="B5" s="256"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="218" t="s">
+      <c r="A7" s="241" t="s">
         <v>272</v>
       </c>
-      <c r="B7" s="220"/>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="219"/>
+      <c r="B7" s="243"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
+      <c r="E7" s="243"/>
+      <c r="F7" s="243"/>
+      <c r="G7" s="243"/>
+      <c r="H7" s="243"/>
+      <c r="I7" s="243"/>
+      <c r="J7" s="243"/>
+      <c r="K7" s="242"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="242" t="s">
+      <c r="A8" s="228" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="243"/>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="243"/>
-      <c r="G8" s="243"/>
-      <c r="H8" s="243"/>
-      <c r="I8" s="243"/>
-      <c r="J8" s="243"/>
-      <c r="K8" s="244"/>
+      <c r="B8" s="229"/>
+      <c r="C8" s="229"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="229"/>
+      <c r="H8" s="229"/>
+      <c r="I8" s="229"/>
+      <c r="J8" s="229"/>
+      <c r="K8" s="230"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="245"/>
-      <c r="B9" s="246"/>
-      <c r="C9" s="246"/>
-      <c r="D9" s="246"/>
-      <c r="E9" s="246"/>
-      <c r="F9" s="246"/>
-      <c r="G9" s="246"/>
-      <c r="H9" s="246"/>
-      <c r="I9" s="246"/>
-      <c r="J9" s="246"/>
-      <c r="K9" s="247"/>
+      <c r="A9" s="231"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="232"/>
+      <c r="E9" s="232"/>
+      <c r="F9" s="232"/>
+      <c r="G9" s="232"/>
+      <c r="H9" s="232"/>
+      <c r="I9" s="232"/>
+      <c r="J9" s="232"/>
+      <c r="K9" s="233"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="156"/>
@@ -5195,62 +5190,62 @@
       <c r="F10" s="142"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="221" t="s">
+      <c r="A11" s="244" t="s">
         <v>273</v>
       </c>
-      <c r="B11" s="222"/>
-      <c r="C11" s="222"/>
-      <c r="D11" s="223"/>
+      <c r="B11" s="245"/>
+      <c r="C11" s="245"/>
+      <c r="D11" s="246"/>
       <c r="E11" s="87"/>
       <c r="F11" s="142"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="224" t="s">
+      <c r="A12" s="247" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="225"/>
-      <c r="C12" s="226" t="s">
+      <c r="B12" s="248"/>
+      <c r="C12" s="249" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="227"/>
+      <c r="D12" s="250"/>
       <c r="E12" s="87"/>
       <c r="F12" s="142"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="228"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="230"/>
-      <c r="D13" s="231"/>
+      <c r="A13" s="251"/>
+      <c r="B13" s="252"/>
+      <c r="C13" s="253"/>
+      <c r="D13" s="254"/>
       <c r="E13" s="87"/>
       <c r="F13" s="142"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="221" t="s">
+      <c r="A15" s="244" t="s">
         <v>274</v>
       </c>
-      <c r="B15" s="223"/>
-      <c r="E15" s="221" t="s">
+      <c r="B15" s="246"/>
+      <c r="E15" s="244" t="s">
         <v>315</v>
       </c>
-      <c r="F15" s="222"/>
-      <c r="G15" s="222"/>
-      <c r="H15" s="222"/>
-      <c r="I15" s="223"/>
+      <c r="F15" s="245"/>
+      <c r="G15" s="245"/>
+      <c r="H15" s="245"/>
+      <c r="I15" s="246"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="232" t="s">
+      <c r="A16" s="239" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="233"/>
+      <c r="B16" s="240"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="248" t="s">
+      <c r="E16" s="234" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="249"/>
-      <c r="G16" s="249"/>
-      <c r="H16" s="249"/>
-      <c r="I16" s="250"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="235"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="236"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="157" t="s">
@@ -5260,18 +5255,18 @@
         <v>277</v>
       </c>
       <c r="C17" s="89"/>
-      <c r="E17" s="251" t="s">
+      <c r="E17" s="237" t="s">
         <v>231</v>
       </c>
-      <c r="F17" s="252"/>
-      <c r="G17" s="213" t="s">
+      <c r="F17" s="238"/>
+      <c r="G17" s="210" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="213" t="s">
+      <c r="H17" s="210" t="s">
         <v>158</v>
       </c>
-      <c r="I17" s="195" t="s">
-        <v>358</v>
+      <c r="I17" s="194" t="s">
+        <v>356</v>
       </c>
       <c r="J17" s="81"/>
     </row>
@@ -5293,8 +5288,8 @@
       <c r="H18" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="236" t="s">
-        <v>489</v>
+      <c r="I18" s="213" t="s">
+        <v>487</v>
       </c>
       <c r="J18" s="81"/>
     </row>
@@ -5316,7 +5311,7 @@
       <c r="H19" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="I19" s="236"/>
+      <c r="I19" s="213"/>
       <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5333,7 +5328,7 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="237"/>
+      <c r="I20" s="214"/>
       <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5355,32 +5350,32 @@
       <c r="A23" s="161"/>
       <c r="B23" s="92"/>
       <c r="C23" s="91"/>
-      <c r="E23" s="216" t="s">
+      <c r="E23" s="215" t="s">
         <v>194</v>
       </c>
-      <c r="F23" s="238"/>
-      <c r="G23" s="238"/>
-      <c r="H23" s="238"/>
+      <c r="F23" s="216"/>
+      <c r="G23" s="216"/>
+      <c r="H23" s="216"/>
       <c r="I23" s="217"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="216" t="s">
+      <c r="A24" s="215" t="s">
         <v>236</v>
       </c>
       <c r="B24" s="217"/>
       <c r="C24" s="32"/>
-      <c r="E24" s="256" t="s">
+      <c r="E24" s="221" t="s">
         <v>231</v>
       </c>
-      <c r="F24" s="257"/>
-      <c r="G24" s="213" t="s">
+      <c r="F24" s="222"/>
+      <c r="G24" s="210" t="s">
         <v>157</v>
       </c>
-      <c r="H24" s="213" t="s">
+      <c r="H24" s="210" t="s">
         <v>158</v>
       </c>
-      <c r="I24" s="195" t="s">
-        <v>359</v>
+      <c r="I24" s="194" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5401,8 +5396,8 @@
       <c r="H25" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="253" t="s">
-        <v>490</v>
+      <c r="I25" s="218" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -5425,7 +5420,7 @@
       <c r="H26" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="I26" s="254"/>
+      <c r="I26" s="219"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="159" t="s">
@@ -5441,7 +5436,7 @@
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
-      <c r="I27" s="255"/>
+      <c r="I27" s="220"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="159" t="s">
@@ -5465,34 +5460,34 @@
       <c r="A30" s="160"/>
       <c r="B30" s="117"/>
       <c r="C30" s="89"/>
-      <c r="E30" s="216" t="s">
+      <c r="E30" s="215" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="238"/>
-      <c r="G30" s="238"/>
-      <c r="H30" s="238"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="216"/>
       <c r="I30" s="217"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="161"/>
       <c r="B31" s="91"/>
       <c r="C31" s="91"/>
-      <c r="E31" s="258" t="s">
-        <v>467</v>
-      </c>
-      <c r="F31" s="259"/>
-      <c r="G31" s="211" t="s">
+      <c r="E31" s="223" t="s">
+        <v>465</v>
+      </c>
+      <c r="F31" s="224"/>
+      <c r="G31" s="208" t="s">
         <v>157</v>
       </c>
-      <c r="H31" s="211" t="s">
+      <c r="H31" s="208" t="s">
         <v>158</v>
       </c>
-      <c r="I31" s="195" t="s">
-        <v>360</v>
+      <c r="I31" s="194" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="216" t="s">
+      <c r="A32" s="215" t="s">
         <v>237</v>
       </c>
       <c r="B32" s="217"/>
@@ -5505,7 +5500,7 @@
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="236"/>
+      <c r="I32" s="213"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="157" t="s">
@@ -5525,7 +5520,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="236"/>
+      <c r="I33" s="213"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="158" t="s">
@@ -5540,7 +5535,7 @@
       <c r="F34" s="93"/>
       <c r="G34" s="33"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="236"/>
+      <c r="I34" s="213"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="159" t="s">
@@ -5553,7 +5548,7 @@
       <c r="F35" s="93"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="236"/>
+      <c r="I35" s="213"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="159" t="s">
@@ -5566,7 +5561,7 @@
       <c r="F36" s="93"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="236"/>
+      <c r="I36" s="213"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="159" t="s">
@@ -5579,7 +5574,7 @@
       <c r="F37" s="140"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="237"/>
+      <c r="I37" s="214"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="160" t="s">
@@ -5592,25 +5587,25 @@
       <c r="B39" s="121"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="216" t="s">
+      <c r="E40" s="215" t="s">
         <v>196</v>
       </c>
-      <c r="F40" s="238"/>
-      <c r="G40" s="238"/>
-      <c r="H40" s="238"/>
+      <c r="F40" s="216"/>
+      <c r="G40" s="216"/>
+      <c r="H40" s="216"/>
       <c r="I40" s="217"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="256"/>
-      <c r="F41" s="257"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="222"/>
       <c r="G41" s="82" t="s">
         <v>157</v>
       </c>
       <c r="H41" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="I41" s="195" t="s">
-        <v>361</v>
+      <c r="I41" s="194" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5620,7 +5615,7 @@
       <c r="F42" s="93"/>
       <c r="G42" s="33"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="236"/>
+      <c r="I42" s="213"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="83">
@@ -5629,7 +5624,7 @@
       <c r="F43" s="93"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="236"/>
+      <c r="I43" s="213"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="83">
@@ -5638,7 +5633,7 @@
       <c r="F44" s="93"/>
       <c r="G44" s="33"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="236"/>
+      <c r="I44" s="213"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="83">
@@ -5647,7 +5642,7 @@
       <c r="F45" s="93"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="236"/>
+      <c r="I45" s="213"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="83">
@@ -5656,7 +5651,7 @@
       <c r="F46" s="93"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="236"/>
+      <c r="I46" s="213"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="84">
@@ -5665,25 +5660,11 @@
       <c r="F47" s="140"/>
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
-      <c r="I47" s="237"/>
+      <c r="I47" s="214"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5699,6 +5680,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5738,32 +5733,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="262" t="s">
-        <v>381</v>
-      </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="263"/>
-      <c r="J1" s="264"/>
+      <c r="A1" s="259" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="261"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="262" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="267"/>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="264"/>
       <c r="K2" s="79"/>
       <c r="L2" s="79"/>
       <c r="M2" s="75"/>
@@ -5777,13 +5772,13 @@
       <c r="B3" s="181" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="268" t="s">
+      <c r="C3" s="265" t="s">
         <v>288</v>
       </c>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
-      <c r="G3" s="270"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="267"/>
       <c r="H3" s="181" t="s">
         <v>318</v>
       </c>
@@ -5827,8 +5822,8 @@
       <c r="I4" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="199" t="s">
-        <v>410</v>
+      <c r="J4" s="198" t="s">
+        <v>408</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5838,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C5" s="109">
         <v>0.1</v>
@@ -5862,8 +5857,8 @@
         <v>199</v>
       </c>
       <c r="J5" s="112"/>
-      <c r="K5" s="212" t="s">
-        <v>468</v>
+      <c r="K5" s="209" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5896,8 +5891,8 @@
         <v>200</v>
       </c>
       <c r="J6" s="112"/>
-      <c r="K6" s="212" t="s">
-        <v>469</v>
+      <c r="K6" s="209" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5926,8 +5921,8 @@
         <v>201</v>
       </c>
       <c r="J7" s="112"/>
-      <c r="K7" s="212" t="s">
-        <v>470</v>
+      <c r="K7" s="209" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5960,8 +5955,8 @@
         <v>202</v>
       </c>
       <c r="J8" s="112"/>
-      <c r="K8" s="212" t="s">
-        <v>471</v>
+      <c r="K8" s="209" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5992,8 +5987,8 @@
         <v>203</v>
       </c>
       <c r="J9" s="112"/>
-      <c r="K9" s="212" t="s">
-        <v>472</v>
+      <c r="K9" s="209" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6022,8 +6017,8 @@
         <v>204</v>
       </c>
       <c r="J10" s="112"/>
-      <c r="K10" s="212" t="s">
-        <v>473</v>
+      <c r="K10" s="209" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6052,8 +6047,8 @@
         <v>205</v>
       </c>
       <c r="J11" s="112"/>
-      <c r="K11" s="212" t="s">
-        <v>474</v>
+      <c r="K11" s="209" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6082,8 +6077,8 @@
         <v>206</v>
       </c>
       <c r="J12" s="112"/>
-      <c r="K12" s="212" t="s">
-        <v>475</v>
+      <c r="K12" s="209" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6112,8 +6107,8 @@
         <v>207</v>
       </c>
       <c r="J13" s="112"/>
-      <c r="K13" s="212" t="s">
-        <v>476</v>
+      <c r="K13" s="209" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6144,8 +6139,8 @@
         <v>208</v>
       </c>
       <c r="J14" s="112"/>
-      <c r="K14" s="212" t="s">
-        <v>477</v>
+      <c r="K14" s="209" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6178,8 +6173,8 @@
         <v>209</v>
       </c>
       <c r="J15" s="112"/>
-      <c r="K15" s="212" t="s">
-        <v>478</v>
+      <c r="K15" s="209" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6208,8 +6203,8 @@
         <v>210</v>
       </c>
       <c r="J16" s="112"/>
-      <c r="K16" s="212" t="s">
-        <v>479</v>
+      <c r="K16" s="209" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6242,8 +6237,8 @@
         <v>211</v>
       </c>
       <c r="J17" s="112"/>
-      <c r="K17" s="212" t="s">
-        <v>480</v>
+      <c r="K17" s="209" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6276,8 +6271,8 @@
         <v>212</v>
       </c>
       <c r="J18" s="112"/>
-      <c r="K18" s="212" t="s">
-        <v>481</v>
+      <c r="K18" s="209" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6300,8 +6295,8 @@
       <c r="J19" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="212" t="s">
-        <v>482</v>
+      <c r="K19" s="209" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6324,8 +6319,8 @@
       <c r="J20" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="212" t="s">
-        <v>483</v>
+      <c r="K20" s="209" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6348,8 +6343,8 @@
       <c r="J21" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="212" t="s">
-        <v>484</v>
+      <c r="K21" s="209" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6372,8 +6367,8 @@
       <c r="J22" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="212" t="s">
-        <v>485</v>
+      <c r="K22" s="209" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6396,8 +6391,8 @@
       <c r="J23" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="212" t="s">
-        <v>486</v>
+      <c r="K23" s="209" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6420,8 +6415,8 @@
       <c r="J24" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="212" t="s">
-        <v>487</v>
+      <c r="K24" s="209" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6444,65 +6439,65 @@
       <c r="J25" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="212" t="s">
-        <v>488</v>
+      <c r="K25" s="209" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="280" t="s">
+      <c r="A27" s="277" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="281"/>
-      <c r="C27" s="281"/>
-      <c r="D27" s="281"/>
-      <c r="E27" s="281"/>
-      <c r="F27" s="281"/>
-      <c r="G27" s="281"/>
-      <c r="H27" s="281"/>
-      <c r="I27" s="281"/>
-      <c r="J27" s="281"/>
-      <c r="K27" s="281"/>
-      <c r="L27" s="281"/>
-      <c r="M27" s="281"/>
-      <c r="N27" s="281"/>
-      <c r="O27" s="281"/>
-      <c r="P27" s="281"/>
-      <c r="Q27" s="282"/>
+      <c r="B27" s="278"/>
+      <c r="C27" s="278"/>
+      <c r="D27" s="278"/>
+      <c r="E27" s="278"/>
+      <c r="F27" s="278"/>
+      <c r="G27" s="278"/>
+      <c r="H27" s="278"/>
+      <c r="I27" s="278"/>
+      <c r="J27" s="278"/>
+      <c r="K27" s="278"/>
+      <c r="L27" s="278"/>
+      <c r="M27" s="278"/>
+      <c r="N27" s="278"/>
+      <c r="O27" s="278"/>
+      <c r="P27" s="278"/>
+      <c r="Q27" s="279"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="137" t="s">
         <v>280</v>
       </c>
-      <c r="B28" s="196" t="s">
+      <c r="B28" s="195" t="s">
+        <v>364</v>
+      </c>
+      <c r="C28" s="193" t="s">
+        <v>332</v>
+      </c>
+      <c r="D28" s="193" t="s">
         <v>366</v>
       </c>
-      <c r="C28" s="194" t="s">
-        <v>332</v>
-      </c>
-      <c r="D28" s="194" t="s">
-        <v>368</v>
-      </c>
-      <c r="E28" s="194" t="s">
+      <c r="E28" s="193" t="s">
         <v>266</v>
       </c>
-      <c r="F28" s="194" t="s">
-        <v>383</v>
-      </c>
-      <c r="G28" s="194" t="s">
-        <v>437</v>
-      </c>
-      <c r="H28" s="198" t="s">
+      <c r="F28" s="193" t="s">
+        <v>381</v>
+      </c>
+      <c r="G28" s="193" t="s">
+        <v>435</v>
+      </c>
+      <c r="H28" s="197" t="s">
         <v>266</v>
       </c>
-      <c r="I28" s="198" t="s">
-        <v>437</v>
-      </c>
-      <c r="J28" s="198" t="s">
-        <v>449</v>
-      </c>
-      <c r="K28" s="198" t="s">
-        <v>437</v>
+      <c r="I28" s="197" t="s">
+        <v>435</v>
+      </c>
+      <c r="J28" s="197" t="s">
+        <v>447</v>
+      </c>
+      <c r="K28" s="197" t="s">
+        <v>435</v>
       </c>
       <c r="L28" s="123" t="s">
         <v>269</v>
@@ -6513,13 +6508,13 @@
       <c r="N28" s="123" t="s">
         <v>269</v>
       </c>
-      <c r="O28" s="194" t="s">
+      <c r="O28" s="193" t="s">
         <v>275</v>
       </c>
-      <c r="P28" s="194" t="s">
+      <c r="P28" s="193" t="s">
         <v>275</v>
       </c>
-      <c r="Q28" s="197" t="s">
+      <c r="Q28" s="196" t="s">
         <v>275</v>
       </c>
     </row>
@@ -6532,7 +6527,7 @@
         <v>249</v>
       </c>
       <c r="D29" s="96" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E29" s="96" t="s">
         <v>250</v>
@@ -6541,19 +6536,19 @@
         <v>152</v>
       </c>
       <c r="G29" s="96" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H29" s="96" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I29" s="96" t="s">
+        <v>439</v>
+      </c>
+      <c r="J29" s="96" t="s">
         <v>441</v>
       </c>
-      <c r="J29" s="96" t="s">
-        <v>443</v>
-      </c>
       <c r="K29" s="96" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L29" s="96" t="s">
         <v>92</v>
@@ -6576,25 +6571,25 @@
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="146"/>
-      <c r="B30" s="208" t="s">
-        <v>440</v>
+      <c r="B30" s="205" t="s">
+        <v>438</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="97"/>
       <c r="E30" s="153"/>
       <c r="F30" s="153"/>
       <c r="G30" s="153" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H30" s="153"/>
       <c r="I30" s="153" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J30" s="153">
         <v>3</v>
       </c>
       <c r="K30" s="153" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L30" s="153">
         <v>100</v>
@@ -6615,70 +6610,70 @@
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="277" t="s">
+      <c r="A32" s="274" t="s">
         <v>279</v>
       </c>
-      <c r="B32" s="278"/>
-      <c r="C32" s="278"/>
-      <c r="D32" s="278"/>
-      <c r="E32" s="278"/>
-      <c r="F32" s="278"/>
-      <c r="G32" s="278"/>
-      <c r="H32" s="279"/>
+      <c r="B32" s="275"/>
+      <c r="C32" s="275"/>
+      <c r="D32" s="275"/>
+      <c r="E32" s="275"/>
+      <c r="F32" s="275"/>
+      <c r="G32" s="275"/>
+      <c r="H32" s="276"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="271" t="s">
-        <v>363</v>
-      </c>
-      <c r="B33" s="272"/>
-      <c r="C33" s="272"/>
-      <c r="D33" s="272"/>
-      <c r="E33" s="272"/>
-      <c r="F33" s="272"/>
-      <c r="G33" s="272"/>
-      <c r="H33" s="273"/>
+      <c r="A33" s="268" t="s">
+        <v>361</v>
+      </c>
+      <c r="B33" s="269"/>
+      <c r="C33" s="269"/>
+      <c r="D33" s="269"/>
+      <c r="E33" s="269"/>
+      <c r="F33" s="269"/>
+      <c r="G33" s="269"/>
+      <c r="H33" s="270"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="271"/>
-      <c r="B34" s="272"/>
-      <c r="C34" s="272"/>
-      <c r="D34" s="272"/>
-      <c r="E34" s="272"/>
-      <c r="F34" s="272"/>
-      <c r="G34" s="272"/>
-      <c r="H34" s="273"/>
+      <c r="A34" s="268"/>
+      <c r="B34" s="269"/>
+      <c r="C34" s="269"/>
+      <c r="D34" s="269"/>
+      <c r="E34" s="269"/>
+      <c r="F34" s="269"/>
+      <c r="G34" s="269"/>
+      <c r="H34" s="270"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="271"/>
-      <c r="B35" s="272"/>
-      <c r="C35" s="272"/>
-      <c r="D35" s="272"/>
-      <c r="E35" s="272"/>
-      <c r="F35" s="272"/>
-      <c r="G35" s="272"/>
-      <c r="H35" s="273"/>
+      <c r="A35" s="268"/>
+      <c r="B35" s="269"/>
+      <c r="C35" s="269"/>
+      <c r="D35" s="269"/>
+      <c r="E35" s="269"/>
+      <c r="F35" s="269"/>
+      <c r="G35" s="269"/>
+      <c r="H35" s="270"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="274"/>
-      <c r="B36" s="275"/>
-      <c r="C36" s="275"/>
-      <c r="D36" s="275"/>
-      <c r="E36" s="275"/>
-      <c r="F36" s="275"/>
-      <c r="G36" s="275"/>
-      <c r="H36" s="276"/>
+      <c r="A36" s="271"/>
+      <c r="B36" s="272"/>
+      <c r="C36" s="272"/>
+      <c r="D36" s="272"/>
+      <c r="E36" s="272"/>
+      <c r="F36" s="272"/>
+      <c r="G36" s="272"/>
+      <c r="H36" s="273"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="261" t="s">
+      <c r="A38" s="258" t="s">
         <v>307</v>
       </c>
-      <c r="B38" s="261"/>
-      <c r="C38" s="261"/>
-      <c r="D38" s="261"/>
-      <c r="E38" s="261"/>
-      <c r="F38" s="261"/>
-      <c r="G38" s="261"/>
+      <c r="B38" s="258"/>
+      <c r="C38" s="258"/>
+      <c r="D38" s="258"/>
+      <c r="E38" s="258"/>
+      <c r="F38" s="258"/>
+      <c r="G38" s="258"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78" t="s">
@@ -6690,12 +6685,12 @@
       <c r="C39" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="D39" s="260" t="s">
+      <c r="D39" s="257" t="s">
         <v>310</v>
       </c>
-      <c r="E39" s="260"/>
-      <c r="F39" s="260"/>
-      <c r="G39" s="260"/>
+      <c r="E39" s="257"/>
+      <c r="F39" s="257"/>
+      <c r="G39" s="257"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6705,10 +6700,10 @@
         <v>312</v>
       </c>
       <c r="C40" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D40" s="180" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6719,9 +6714,9 @@
         <v>337</v>
       </c>
       <c r="C41" t="s">
-        <v>447</v>
-      </c>
-      <c r="D41" s="193" t="s">
+        <v>445</v>
+      </c>
+      <c r="D41" s="192" t="s">
         <v>334</v>
       </c>
     </row>
@@ -6733,7 +6728,7 @@
         <v>338</v>
       </c>
       <c r="C42" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D42" s="180" t="s">
         <v>335</v>
@@ -6747,10 +6742,10 @@
         <v>339</v>
       </c>
       <c r="C43" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D43" s="180" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -6761,7 +6756,7 @@
         <v>340</v>
       </c>
       <c r="C44" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D44" s="183" t="s">
         <v>336</v>
@@ -6769,380 +6764,380 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B45" t="s">
         <v>313</v>
       </c>
       <c r="C45" t="s">
-        <v>447</v>
-      </c>
-      <c r="D45" s="193" t="s">
-        <v>412</v>
+        <v>445</v>
+      </c>
+      <c r="D45" s="192" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B46" t="s">
         <v>313</v>
       </c>
       <c r="C46" t="s">
-        <v>447</v>
-      </c>
-      <c r="D46" s="193" t="s">
-        <v>392</v>
+        <v>445</v>
+      </c>
+      <c r="D46" s="192" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B47" t="s">
         <v>313</v>
       </c>
       <c r="C47" t="s">
-        <v>447</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>413</v>
+        <v>445</v>
+      </c>
+      <c r="D47" s="192" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B48" t="s">
         <v>313</v>
       </c>
       <c r="C48" t="s">
-        <v>447</v>
-      </c>
-      <c r="D48" s="193" t="s">
-        <v>415</v>
+        <v>445</v>
+      </c>
+      <c r="D48" s="192" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B49" t="s">
         <v>313</v>
       </c>
       <c r="C49" t="s">
-        <v>447</v>
-      </c>
-      <c r="D49" s="193" t="s">
-        <v>414</v>
+        <v>445</v>
+      </c>
+      <c r="D49" s="192" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B50" t="s">
         <v>341</v>
       </c>
       <c r="C50" t="s">
-        <v>447</v>
-      </c>
-      <c r="D50" s="193" t="s">
-        <v>416</v>
+        <v>445</v>
+      </c>
+      <c r="D50" s="192" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>415</v>
+      </c>
+      <c r="B51" t="s">
+        <v>416</v>
+      </c>
+      <c r="C51" t="s">
+        <v>445</v>
+      </c>
+      <c r="D51" s="192" t="s">
         <v>417</v>
-      </c>
-      <c r="B51" t="s">
-        <v>418</v>
-      </c>
-      <c r="C51" t="s">
-        <v>447</v>
-      </c>
-      <c r="D51" s="193" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>444</v>
+      </c>
+      <c r="B52" t="s">
+        <v>377</v>
+      </c>
+      <c r="C52" t="s">
+        <v>445</v>
+      </c>
+      <c r="D52" s="180" t="s">
         <v>446</v>
-      </c>
-      <c r="B52" t="s">
-        <v>379</v>
-      </c>
-      <c r="C52" t="s">
-        <v>447</v>
-      </c>
-      <c r="D52" s="180" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>418</v>
+      </c>
+      <c r="B53" t="s">
+        <v>419</v>
+      </c>
+      <c r="C53" t="s">
+        <v>445</v>
+      </c>
+      <c r="D53" s="192" t="s">
         <v>420</v>
-      </c>
-      <c r="B53" t="s">
-        <v>421</v>
-      </c>
-      <c r="C53" t="s">
-        <v>447</v>
-      </c>
-      <c r="D53" s="193" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>418</v>
+      </c>
+      <c r="B54" t="s">
+        <v>419</v>
+      </c>
+      <c r="C54" t="s">
+        <v>445</v>
+      </c>
+      <c r="D54" s="192" t="s">
         <v>420</v>
-      </c>
-      <c r="B54" t="s">
-        <v>421</v>
-      </c>
-      <c r="C54" t="s">
-        <v>447</v>
-      </c>
-      <c r="D54" s="193" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>418</v>
+      </c>
+      <c r="B55" t="s">
+        <v>419</v>
+      </c>
+      <c r="C55" t="s">
+        <v>445</v>
+      </c>
+      <c r="D55" s="192" t="s">
         <v>420</v>
-      </c>
-      <c r="B55" t="s">
-        <v>421</v>
-      </c>
-      <c r="C55" t="s">
-        <v>447</v>
-      </c>
-      <c r="D55" s="193" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>418</v>
+      </c>
+      <c r="B56" t="s">
+        <v>419</v>
+      </c>
+      <c r="C56" t="s">
+        <v>445</v>
+      </c>
+      <c r="D56" s="192" t="s">
         <v>420</v>
-      </c>
-      <c r="B56" t="s">
-        <v>421</v>
-      </c>
-      <c r="C56" t="s">
-        <v>447</v>
-      </c>
-      <c r="D56" s="193" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>418</v>
+      </c>
+      <c r="B57" t="s">
+        <v>419</v>
+      </c>
+      <c r="C57" t="s">
+        <v>445</v>
+      </c>
+      <c r="D57" s="192" t="s">
         <v>420</v>
-      </c>
-      <c r="B57" t="s">
-        <v>421</v>
-      </c>
-      <c r="C57" t="s">
-        <v>447</v>
-      </c>
-      <c r="D57" s="193" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B58" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C58" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D58" s="180" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B59" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C59" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D59" s="180" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C60" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D60" s="180" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B61" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C61" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D61" s="180" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B62" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C62" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D62" s="180" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B63" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C63" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D63" s="180" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B64" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C64" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D64" s="180" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B65" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C65" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D65" s="180" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B66" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C66" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D66" s="180" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B67" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C67" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D67" s="180" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B68" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C68" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D68" s="180" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B69" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C69" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D69" s="180" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B70" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C70" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D70" s="180" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B71" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C71" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D71" s="180" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -7220,7 +7215,7 @@
   </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -7240,32 +7235,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="283" t="s">
-        <v>382</v>
-      </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="284"/>
-      <c r="G1" s="284"/>
-      <c r="H1" s="284"/>
-      <c r="I1" s="284"/>
-      <c r="J1" s="285"/>
+      <c r="A1" s="280" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="281"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="282"/>
     </row>
     <row r="2" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="280" t="s">
+      <c r="A2" s="277" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="281"/>
-      <c r="C2" s="281"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="281"/>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="282"/>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="279"/>
     </row>
     <row r="3" spans="1:10" s="113" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="131" t="s">
@@ -7336,7 +7331,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="210" t="s">
+      <c r="G5" s="207" t="s">
         <v>305</v>
       </c>
       <c r="H5" s="169"/>
@@ -7344,18 +7339,18 @@
       <c r="J5" s="169"/>
     </row>
     <row r="6" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="280" t="s">
+      <c r="A6" s="277" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="281"/>
-      <c r="C6" s="281"/>
-      <c r="D6" s="281"/>
-      <c r="E6" s="281"/>
-      <c r="F6" s="281"/>
-      <c r="G6" s="281"/>
-      <c r="H6" s="281"/>
-      <c r="I6" s="281"/>
-      <c r="J6" s="282"/>
+      <c r="B6" s="278"/>
+      <c r="C6" s="278"/>
+      <c r="D6" s="278"/>
+      <c r="E6" s="278"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="279"/>
     </row>
     <row r="7" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="124" t="s">
@@ -7406,18 +7401,18 @@
       <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="280" t="s">
+      <c r="A10" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="281"/>
-      <c r="C10" s="281"/>
-      <c r="D10" s="281"/>
-      <c r="E10" s="281"/>
-      <c r="F10" s="281"/>
-      <c r="G10" s="281"/>
-      <c r="H10" s="281"/>
-      <c r="I10" s="281"/>
-      <c r="J10" s="282"/>
+      <c r="B10" s="278"/>
+      <c r="C10" s="278"/>
+      <c r="D10" s="278"/>
+      <c r="E10" s="278"/>
+      <c r="F10" s="278"/>
+      <c r="G10" s="278"/>
+      <c r="H10" s="278"/>
+      <c r="I10" s="278"/>
+      <c r="J10" s="279"/>
     </row>
     <row r="11" spans="1:10" s="113" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="127"/>
@@ -7614,18 +7609,18 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" s="113" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="280" t="s">
+      <c r="A21" s="277" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="281"/>
-      <c r="C21" s="281"/>
-      <c r="D21" s="281"/>
-      <c r="E21" s="281"/>
-      <c r="F21" s="281"/>
-      <c r="G21" s="281"/>
-      <c r="H21" s="281"/>
-      <c r="I21" s="281"/>
-      <c r="J21" s="282"/>
+      <c r="B21" s="278"/>
+      <c r="C21" s="278"/>
+      <c r="D21" s="278"/>
+      <c r="E21" s="278"/>
+      <c r="F21" s="278"/>
+      <c r="G21" s="278"/>
+      <c r="H21" s="278"/>
+      <c r="I21" s="278"/>
+      <c r="J21" s="279"/>
     </row>
     <row r="22" spans="1:10" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="131" t="s">
@@ -7688,25 +7683,25 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="280" t="s">
+      <c r="A25" s="277" t="s">
         <v>151</v>
       </c>
-      <c r="B25" s="281"/>
-      <c r="C25" s="281"/>
-      <c r="D25" s="281"/>
-      <c r="E25" s="281"/>
-      <c r="F25" s="281"/>
-      <c r="G25" s="281"/>
-      <c r="H25" s="281"/>
-      <c r="I25" s="281"/>
-      <c r="J25" s="282"/>
+      <c r="B25" s="278"/>
+      <c r="C25" s="278"/>
+      <c r="D25" s="278"/>
+      <c r="E25" s="278"/>
+      <c r="F25" s="278"/>
+      <c r="G25" s="278"/>
+      <c r="H25" s="278"/>
+      <c r="I25" s="278"/>
+      <c r="J25" s="279"/>
     </row>
     <row r="26" spans="1:10" s="113" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="B26" s="198" t="s">
-        <v>368</v>
+      <c r="B26" s="197" t="s">
+        <v>366</v>
       </c>
       <c r="C26" s="132" t="s">
         <v>330</v>
@@ -7714,8 +7709,8 @@
       <c r="D26" s="132" t="s">
         <v>265</v>
       </c>
-      <c r="E26" s="194" t="s">
-        <v>368</v>
+      <c r="E26" s="193" t="s">
+        <v>366</v>
       </c>
       <c r="F26" s="128"/>
       <c r="G26" s="128"/>
@@ -7735,7 +7730,7 @@
         <v>152</v>
       </c>
       <c r="E27" s="96" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F27" s="147"/>
       <c r="G27" s="147"/>
@@ -7745,13 +7740,13 @@
     </row>
     <row r="28" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="146"/>
-      <c r="B28" s="209" t="s">
-        <v>461</v>
+      <c r="B28" s="206" t="s">
+        <v>459</v>
       </c>
       <c r="C28" s="190"/>
       <c r="D28" s="122"/>
       <c r="E28" s="153" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -7761,70 +7756,70 @@
     </row>
     <row r="29" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:10" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="277" t="s">
+      <c r="A30" s="274" t="s">
         <v>279</v>
       </c>
-      <c r="B30" s="278"/>
-      <c r="C30" s="278"/>
-      <c r="D30" s="278"/>
-      <c r="E30" s="278"/>
-      <c r="F30" s="278"/>
-      <c r="G30" s="278"/>
-      <c r="H30" s="279"/>
+      <c r="B30" s="275"/>
+      <c r="C30" s="275"/>
+      <c r="D30" s="275"/>
+      <c r="E30" s="275"/>
+      <c r="F30" s="275"/>
+      <c r="G30" s="275"/>
+      <c r="H30" s="276"/>
     </row>
     <row r="31" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="271" t="s">
-        <v>362</v>
-      </c>
-      <c r="B31" s="272"/>
-      <c r="C31" s="272"/>
-      <c r="D31" s="272"/>
-      <c r="E31" s="272"/>
-      <c r="F31" s="272"/>
-      <c r="G31" s="272"/>
-      <c r="H31" s="273"/>
+      <c r="A31" s="268" t="s">
+        <v>360</v>
+      </c>
+      <c r="B31" s="269"/>
+      <c r="C31" s="269"/>
+      <c r="D31" s="269"/>
+      <c r="E31" s="269"/>
+      <c r="F31" s="269"/>
+      <c r="G31" s="269"/>
+      <c r="H31" s="270"/>
     </row>
     <row r="32" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="271"/>
-      <c r="B32" s="272"/>
-      <c r="C32" s="272"/>
-      <c r="D32" s="272"/>
-      <c r="E32" s="272"/>
-      <c r="F32" s="272"/>
-      <c r="G32" s="272"/>
-      <c r="H32" s="273"/>
+      <c r="A32" s="268"/>
+      <c r="B32" s="269"/>
+      <c r="C32" s="269"/>
+      <c r="D32" s="269"/>
+      <c r="E32" s="269"/>
+      <c r="F32" s="269"/>
+      <c r="G32" s="269"/>
+      <c r="H32" s="270"/>
     </row>
     <row r="33" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="271"/>
-      <c r="B33" s="272"/>
-      <c r="C33" s="272"/>
-      <c r="D33" s="272"/>
-      <c r="E33" s="272"/>
-      <c r="F33" s="272"/>
-      <c r="G33" s="272"/>
-      <c r="H33" s="273"/>
+      <c r="A33" s="268"/>
+      <c r="B33" s="269"/>
+      <c r="C33" s="269"/>
+      <c r="D33" s="269"/>
+      <c r="E33" s="269"/>
+      <c r="F33" s="269"/>
+      <c r="G33" s="269"/>
+      <c r="H33" s="270"/>
     </row>
     <row r="34" spans="1:8" s="113" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="274"/>
-      <c r="B34" s="275"/>
-      <c r="C34" s="275"/>
-      <c r="D34" s="275"/>
-      <c r="E34" s="275"/>
-      <c r="F34" s="275"/>
-      <c r="G34" s="275"/>
-      <c r="H34" s="276"/>
+      <c r="A34" s="271"/>
+      <c r="B34" s="272"/>
+      <c r="C34" s="272"/>
+      <c r="D34" s="272"/>
+      <c r="E34" s="272"/>
+      <c r="F34" s="272"/>
+      <c r="G34" s="272"/>
+      <c r="H34" s="273"/>
     </row>
     <row r="35" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:8" s="113" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="261" t="s">
+      <c r="A36" s="258" t="s">
         <v>307</v>
       </c>
-      <c r="B36" s="261"/>
-      <c r="C36" s="261"/>
-      <c r="D36" s="261"/>
-      <c r="E36" s="261"/>
-      <c r="F36" s="261"/>
-      <c r="G36" s="261"/>
+      <c r="B36" s="258"/>
+      <c r="C36" s="258"/>
+      <c r="D36" s="258"/>
+      <c r="E36" s="258"/>
+      <c r="F36" s="258"/>
+      <c r="G36" s="258"/>
     </row>
     <row r="37" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78" t="s">
@@ -7836,12 +7831,12 @@
       <c r="C37" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="D37" s="260" t="s">
+      <c r="D37" s="257" t="s">
         <v>310</v>
       </c>
-      <c r="E37" s="260"/>
-      <c r="F37" s="260"/>
-      <c r="G37" s="260"/>
+      <c r="E37" s="257"/>
+      <c r="F37" s="257"/>
+      <c r="G37" s="257"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7851,10 +7846,10 @@
         <v>312</v>
       </c>
       <c r="C38" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D38" s="180" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -7865,9 +7860,9 @@
         <v>337</v>
       </c>
       <c r="C39" t="s">
-        <v>464</v>
-      </c>
-      <c r="D39" s="193" t="s">
+        <v>462</v>
+      </c>
+      <c r="D39" s="192" t="s">
         <v>334</v>
       </c>
     </row>
@@ -7879,7 +7874,7 @@
         <v>338</v>
       </c>
       <c r="C40" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D40" s="180" t="s">
         <v>335</v>
@@ -7893,10 +7888,10 @@
         <v>339</v>
       </c>
       <c r="C41" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D41" s="180" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -7907,7 +7902,7 @@
         <v>340</v>
       </c>
       <c r="C42" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D42" s="183" t="s">
         <v>336</v>
@@ -7915,72 +7910,72 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B43" t="s">
         <v>313</v>
       </c>
       <c r="C43" t="s">
-        <v>464</v>
-      </c>
-      <c r="D43" s="193" t="s">
-        <v>372</v>
+        <v>462</v>
+      </c>
+      <c r="D43" s="192" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>371</v>
+      </c>
+      <c r="B44" t="s">
+        <v>372</v>
+      </c>
+      <c r="C44" t="s">
+        <v>462</v>
+      </c>
+      <c r="D44" s="192" t="s">
         <v>373</v>
-      </c>
-      <c r="B44" t="s">
-        <v>374</v>
-      </c>
-      <c r="C44" t="s">
-        <v>464</v>
-      </c>
-      <c r="D44" s="193" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C45" t="s">
-        <v>464</v>
-      </c>
-      <c r="D45" s="193" t="s">
-        <v>463</v>
+        <v>462</v>
+      </c>
+      <c r="D45" s="192" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B46" t="s">
+        <v>372</v>
+      </c>
+      <c r="C46" t="s">
+        <v>462</v>
+      </c>
+      <c r="D46" s="192" t="s">
         <v>374</v>
-      </c>
-      <c r="C46" t="s">
-        <v>464</v>
-      </c>
-      <c r="D46" s="193" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C47" t="s">
-        <v>464</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>377</v>
+        <v>462</v>
+      </c>
+      <c r="D47" s="192" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -7988,13 +7983,13 @@
         <v>333</v>
       </c>
       <c r="B48" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C48" t="s">
+        <v>462</v>
+      </c>
+      <c r="D48" s="183" t="s">
         <v>464</v>
-      </c>
-      <c r="D48" s="183" t="s">
-        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -8052,8 +8047,8 @@
   </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8078,221 +8073,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="289" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="289"/>
+      <c r="G1" s="289"/>
+      <c r="H1" s="289"/>
+      <c r="I1" s="289"/>
+      <c r="J1" s="289"/>
+      <c r="K1" s="289"/>
+      <c r="L1" s="289"/>
+      <c r="M1" s="289"/>
+      <c r="N1" s="289"/>
+      <c r="O1" s="289"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
-        <v>355</v>
-      </c>
-      <c r="B2" s="288" t="s">
+      <c r="A2" s="309" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="288"/>
-      <c r="D2" s="288"/>
-      <c r="E2" s="288"/>
-      <c r="F2" s="288"/>
-      <c r="G2" s="288" t="s">
+      <c r="B2" s="310"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
+      <c r="F2" s="311"/>
+      <c r="G2" s="290" t="s">
         <v>244</v>
       </c>
-      <c r="H2" s="288"/>
-      <c r="I2" s="288"/>
-      <c r="J2" s="288"/>
-      <c r="K2" s="288"/>
-      <c r="L2" s="288"/>
-      <c r="M2" s="291" t="s">
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+      <c r="L2" s="290"/>
+      <c r="M2" s="285" t="s">
         <v>294</v>
       </c>
-      <c r="N2" s="291"/>
-      <c r="O2" s="291"/>
+      <c r="N2" s="285"/>
+      <c r="O2" s="285"/>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="201" t="s">
-        <v>356</v>
-      </c>
-      <c r="B3" s="290" t="s">
+      <c r="A3" s="312" t="s">
         <v>293</v>
       </c>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290" t="s">
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="314"/>
+      <c r="G3" s="291" t="s">
         <v>301</v>
       </c>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="201" t="s">
+      <c r="H3" s="291"/>
+      <c r="I3" s="291"/>
+      <c r="J3" s="291"/>
+      <c r="K3" s="291"/>
+      <c r="L3" s="291"/>
+      <c r="M3" s="200" t="s">
         <v>299</v>
       </c>
-      <c r="N3" s="201" t="s">
-        <v>368</v>
-      </c>
-      <c r="O3" s="203" t="s">
-        <v>368</v>
-      </c>
-      <c r="P3" s="206"/>
-    </row>
-    <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="204">
-        <v>8</v>
-      </c>
-      <c r="B4" s="289" t="s">
+      <c r="N3" s="200" t="s">
+        <v>366</v>
+      </c>
+      <c r="O3" s="201" t="s">
+        <v>366</v>
+      </c>
+      <c r="P3" s="203"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="315" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="289"/>
-      <c r="D4" s="289" t="s">
+      <c r="B4" s="316"/>
+      <c r="C4" s="317"/>
+      <c r="D4" s="283" t="s">
         <v>243</v>
       </c>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289" t="s">
+      <c r="E4" s="283"/>
+      <c r="F4" s="283"/>
+      <c r="G4" s="283" t="s">
         <v>245</v>
       </c>
-      <c r="H4" s="289"/>
-      <c r="I4" s="289"/>
-      <c r="J4" s="289" t="s">
+      <c r="H4" s="283"/>
+      <c r="I4" s="283"/>
+      <c r="J4" s="283" t="s">
         <v>302</v>
       </c>
-      <c r="K4" s="289"/>
-      <c r="L4" s="289"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="283"/>
       <c r="M4" s="166" t="s">
         <v>152</v>
       </c>
       <c r="N4" s="166" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O4" s="166" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="191"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="286" t="s">
+      <c r="A5" s="318"/>
+      <c r="B5" s="319"/>
+      <c r="C5" s="320"/>
+      <c r="D5" s="284"/>
+      <c r="E5" s="284"/>
+      <c r="F5" s="284"/>
+      <c r="G5" s="284" t="s">
         <v>277</v>
       </c>
-      <c r="H5" s="286"/>
-      <c r="I5" s="286"/>
-      <c r="J5" s="286" t="s">
+      <c r="H5" s="284"/>
+      <c r="I5" s="284"/>
+      <c r="J5" s="284" t="s">
         <v>290</v>
       </c>
-      <c r="K5" s="286"/>
-      <c r="L5" s="286"/>
-      <c r="M5" s="200"/>
-      <c r="N5" s="200" t="s">
+      <c r="K5" s="284"/>
+      <c r="L5" s="284"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199" t="s">
+        <v>384</v>
+      </c>
+      <c r="O5" s="204" t="s">
         <v>386</v>
       </c>
-      <c r="O5" s="207" t="s">
-        <v>388</v>
-      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="191"/>
-      <c r="B6" s="286" t="s">
+      <c r="A6" s="318" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286" t="s">
+      <c r="B6" s="319"/>
+      <c r="C6" s="320"/>
+      <c r="D6" s="284" t="s">
         <v>286</v>
       </c>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286" t="s">
+      <c r="E6" s="284"/>
+      <c r="F6" s="284"/>
+      <c r="G6" s="284" t="s">
         <v>283</v>
       </c>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="286"/>
-      <c r="K6" s="286"/>
-      <c r="L6" s="286"/>
-      <c r="M6" s="200"/>
-      <c r="N6" s="200" t="s">
+      <c r="H6" s="284"/>
+      <c r="I6" s="284"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="284"/>
+      <c r="L6" s="284"/>
+      <c r="M6" s="199"/>
+      <c r="N6" s="199" t="s">
+        <v>385</v>
+      </c>
+      <c r="O6" s="204" t="s">
         <v>387</v>
       </c>
-      <c r="O6" s="207" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="191"/>
-      <c r="B7" s="286" t="s">
+      <c r="A7" s="318" t="s">
         <v>277</v>
       </c>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286" t="s">
+      <c r="B7" s="319"/>
+      <c r="C7" s="320"/>
+      <c r="D7" s="284" t="s">
         <v>287</v>
       </c>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="286"/>
-      <c r="H7" s="286"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="286"/>
-      <c r="K7" s="286"/>
-      <c r="L7" s="286"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
+      <c r="E7" s="284"/>
+      <c r="F7" s="284"/>
+      <c r="G7" s="284"/>
+      <c r="H7" s="284"/>
+      <c r="I7" s="284"/>
+      <c r="J7" s="284"/>
+      <c r="K7" s="284"/>
+      <c r="L7" s="284"/>
+      <c r="M7" s="199"/>
+      <c r="N7" s="199"/>
       <c r="O7" s="164"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="191"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286" t="s">
+      <c r="A8" s="318"/>
+      <c r="B8" s="319"/>
+      <c r="C8" s="320"/>
+      <c r="D8" s="284" t="s">
         <v>268</v>
       </c>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="286"/>
-      <c r="H8" s="286"/>
-      <c r="I8" s="286"/>
-      <c r="J8" s="286"/>
-      <c r="K8" s="286"/>
-      <c r="L8" s="286"/>
-      <c r="M8" s="200"/>
-      <c r="N8" s="200"/>
+      <c r="E8" s="284"/>
+      <c r="F8" s="284"/>
+      <c r="G8" s="284"/>
+      <c r="H8" s="284"/>
+      <c r="I8" s="284"/>
+      <c r="J8" s="284"/>
+      <c r="K8" s="284"/>
+      <c r="L8" s="284"/>
+      <c r="M8" s="199"/>
+      <c r="N8" s="199"/>
       <c r="O8" s="164"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="292" t="s">
+      <c r="A10" s="286" t="s">
         <v>354</v>
       </c>
-      <c r="B10" s="293"/>
-      <c r="C10" s="293"/>
-      <c r="D10" s="293"/>
-      <c r="E10" s="293"/>
-      <c r="F10" s="293"/>
-      <c r="G10" s="293"/>
-      <c r="H10" s="293"/>
-      <c r="I10" s="294"/>
+      <c r="B10" s="287"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
+      <c r="G10" s="287"/>
+      <c r="H10" s="287"/>
+      <c r="I10" s="288"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
@@ -8301,8 +8290,8 @@
       <c r="B11" s="132" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="194" t="s">
-        <v>368</v>
+      <c r="C11" s="193" t="s">
+        <v>366</v>
       </c>
       <c r="D11" s="125" t="s">
         <v>269</v>
@@ -8322,8 +8311,8 @@
       <c r="I11" s="144" t="s">
         <v>275</v>
       </c>
-      <c r="K11" s="192"/>
-      <c r="L11" s="192"/>
+      <c r="K11" s="191"/>
+      <c r="L11" s="191"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="148"/>
@@ -8331,7 +8320,7 @@
         <v>249</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D12" s="147" t="s">
         <v>92</v>
@@ -8375,69 +8364,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="277" t="s">
+      <c r="A15" s="274" t="s">
         <v>279</v>
       </c>
-      <c r="B15" s="278"/>
-      <c r="C15" s="278"/>
-      <c r="D15" s="278"/>
-      <c r="E15" s="278"/>
-      <c r="F15" s="278"/>
-      <c r="G15" s="278"/>
-      <c r="H15" s="279"/>
+      <c r="B15" s="275"/>
+      <c r="C15" s="275"/>
+      <c r="D15" s="275"/>
+      <c r="E15" s="275"/>
+      <c r="F15" s="275"/>
+      <c r="G15" s="275"/>
+      <c r="H15" s="276"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="271" t="s">
-        <v>364</v>
-      </c>
-      <c r="B16" s="272"/>
-      <c r="C16" s="272"/>
-      <c r="D16" s="272"/>
-      <c r="E16" s="272"/>
-      <c r="F16" s="272"/>
-      <c r="G16" s="272"/>
-      <c r="H16" s="273"/>
+      <c r="A16" s="268" t="s">
+        <v>362</v>
+      </c>
+      <c r="B16" s="269"/>
+      <c r="C16" s="269"/>
+      <c r="D16" s="269"/>
+      <c r="E16" s="269"/>
+      <c r="F16" s="269"/>
+      <c r="G16" s="269"/>
+      <c r="H16" s="270"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="271"/>
-      <c r="B17" s="272"/>
-      <c r="C17" s="272"/>
-      <c r="D17" s="272"/>
-      <c r="E17" s="272"/>
-      <c r="F17" s="272"/>
-      <c r="G17" s="272"/>
-      <c r="H17" s="273"/>
+      <c r="A17" s="268"/>
+      <c r="B17" s="269"/>
+      <c r="C17" s="269"/>
+      <c r="D17" s="269"/>
+      <c r="E17" s="269"/>
+      <c r="F17" s="269"/>
+      <c r="G17" s="269"/>
+      <c r="H17" s="270"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="271"/>
-      <c r="B18" s="272"/>
-      <c r="C18" s="272"/>
-      <c r="D18" s="272"/>
-      <c r="E18" s="272"/>
-      <c r="F18" s="272"/>
-      <c r="G18" s="272"/>
-      <c r="H18" s="273"/>
+      <c r="A18" s="268"/>
+      <c r="B18" s="269"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="269"/>
+      <c r="E18" s="269"/>
+      <c r="F18" s="269"/>
+      <c r="G18" s="269"/>
+      <c r="H18" s="270"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="274"/>
-      <c r="B19" s="275"/>
-      <c r="C19" s="275"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
-      <c r="F19" s="275"/>
-      <c r="G19" s="275"/>
-      <c r="H19" s="276"/>
+      <c r="A19" s="271"/>
+      <c r="B19" s="272"/>
+      <c r="C19" s="272"/>
+      <c r="D19" s="272"/>
+      <c r="E19" s="272"/>
+      <c r="F19" s="272"/>
+      <c r="G19" s="272"/>
+      <c r="H19" s="273"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="261" t="s">
+      <c r="A21" s="258" t="s">
         <v>307</v>
       </c>
-      <c r="B21" s="261"/>
-      <c r="C21" s="261"/>
-      <c r="D21" s="261"/>
-      <c r="E21" s="261"/>
-      <c r="F21" s="261"/>
-      <c r="G21" s="261"/>
+      <c r="B21" s="258"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="258"/>
+      <c r="E21" s="258"/>
+      <c r="F21" s="258"/>
+      <c r="G21" s="258"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
@@ -8449,12 +8438,12 @@
       <c r="C22" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="260" t="s">
+      <c r="D22" s="257" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="260"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="260"/>
+      <c r="E22" s="257"/>
+      <c r="F22" s="257"/>
+      <c r="G22" s="257"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8464,10 +8453,10 @@
         <v>312</v>
       </c>
       <c r="C23" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D23" s="180" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -8478,9 +8467,9 @@
         <v>337</v>
       </c>
       <c r="C24" t="s">
-        <v>450</v>
-      </c>
-      <c r="D24" s="193" t="s">
+        <v>448</v>
+      </c>
+      <c r="D24" s="192" t="s">
         <v>334</v>
       </c>
     </row>
@@ -8492,7 +8481,7 @@
         <v>338</v>
       </c>
       <c r="C25" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D25" s="180" t="s">
         <v>335</v>
@@ -8506,10 +8495,10 @@
         <v>339</v>
       </c>
       <c r="C26" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D26" s="180" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -8520,7 +8509,7 @@
         <v>340</v>
       </c>
       <c r="C27" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D27" s="183" t="s">
         <v>336</v>
@@ -8534,10 +8523,10 @@
         <v>313</v>
       </c>
       <c r="C28" t="s">
-        <v>450</v>
-      </c>
-      <c r="D28" s="193" t="s">
-        <v>393</v>
+        <v>448</v>
+      </c>
+      <c r="D28" s="192" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -8548,10 +8537,10 @@
         <v>313</v>
       </c>
       <c r="C29" t="s">
-        <v>450</v>
-      </c>
-      <c r="D29" s="193" t="s">
-        <v>392</v>
+        <v>448</v>
+      </c>
+      <c r="D29" s="192" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -8562,10 +8551,10 @@
         <v>313</v>
       </c>
       <c r="C30" t="s">
-        <v>450</v>
-      </c>
-      <c r="D30" s="193" t="s">
-        <v>394</v>
+        <v>448</v>
+      </c>
+      <c r="D30" s="192" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -8576,9 +8565,9 @@
         <v>313</v>
       </c>
       <c r="C31" t="s">
-        <v>450</v>
-      </c>
-      <c r="D31" s="193" t="s">
+        <v>448</v>
+      </c>
+      <c r="D31" s="192" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8590,10 +8579,10 @@
         <v>313</v>
       </c>
       <c r="C32" t="s">
-        <v>450</v>
-      </c>
-      <c r="D32" s="193" t="s">
-        <v>395</v>
+        <v>448</v>
+      </c>
+      <c r="D32" s="192" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -8604,262 +8593,262 @@
         <v>341</v>
       </c>
       <c r="C33" t="s">
-        <v>450</v>
-      </c>
-      <c r="D33" s="193" t="s">
-        <v>396</v>
+        <v>448</v>
+      </c>
+      <c r="D33" s="192" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B34" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C34" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D34" s="180" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B35" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C35" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D35" s="180" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B36" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C36" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D36" s="180" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B37" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C37" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D37" s="180" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B38" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C38" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D38" s="180" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B39" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C39" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D39" s="180" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B40" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C40" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D40" s="180" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B41" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D41" s="180" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B42" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C42" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D42" s="180" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B43" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C43" t="s">
+        <v>448</v>
+      </c>
+      <c r="D43" s="180" t="s">
         <v>450</v>
-      </c>
-      <c r="D43" s="180" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B44" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C44" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D44" s="180" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B45" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C45" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D45" s="180" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B46" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C46" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D46" s="180" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B47" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C47" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D47" s="180" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B48" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C48" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D48" s="180" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C49" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D49" s="180" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B50" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C50" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D50" s="180" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B51" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D51" s="180" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -8870,28 +8859,46 @@
         <v>341</v>
       </c>
       <c r="C52" t="s">
-        <v>450</v>
-      </c>
-      <c r="D52" s="193" t="s">
-        <v>396</v>
+        <v>448</v>
+      </c>
+      <c r="D52" s="192" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C53" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D53" s="180" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="A21:G21"/>
@@ -8900,29 +8907,11 @@
     <mergeCell ref="A16:H19"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9014,101 +9003,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="289" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="289"/>
+      <c r="G1" s="289"/>
+      <c r="H1" s="289"/>
+      <c r="I1" s="289"/>
+      <c r="J1" s="289"/>
+      <c r="K1" s="289"/>
+      <c r="L1" s="289"/>
+      <c r="M1" s="289"/>
+      <c r="N1" s="289"/>
+      <c r="O1" s="289"/>
+      <c r="P1" s="289"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="288" t="s">
+      <c r="A2" s="290" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="288"/>
-      <c r="C2" s="288"/>
-      <c r="D2" s="288"/>
-      <c r="E2" s="288"/>
-      <c r="F2" s="288"/>
-      <c r="G2" s="288" t="s">
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290" t="s">
         <v>244</v>
       </c>
-      <c r="H2" s="288"/>
-      <c r="I2" s="288"/>
-      <c r="J2" s="288"/>
-      <c r="K2" s="288"/>
-      <c r="L2" s="288"/>
-      <c r="M2" s="291" t="s">
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+      <c r="L2" s="290"/>
+      <c r="M2" s="285" t="s">
         <v>292</v>
       </c>
-      <c r="N2" s="291"/>
-      <c r="O2" s="291"/>
-      <c r="P2" s="291"/>
+      <c r="N2" s="285"/>
+      <c r="O2" s="285"/>
+      <c r="P2" s="285"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="290" t="s">
+      <c r="A3" s="291" t="s">
         <v>296</v>
       </c>
-      <c r="B3" s="290"/>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290" t="s">
+      <c r="B3" s="291"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
+      <c r="F3" s="291"/>
+      <c r="G3" s="291" t="s">
         <v>295</v>
       </c>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="201" t="s">
+      <c r="H3" s="291"/>
+      <c r="I3" s="291"/>
+      <c r="J3" s="291"/>
+      <c r="K3" s="291"/>
+      <c r="L3" s="291"/>
+      <c r="M3" s="200" t="s">
         <v>298</v>
       </c>
-      <c r="N3" s="201" t="s">
+      <c r="N3" s="200" t="s">
         <v>297</v>
       </c>
-      <c r="O3" s="201" t="s">
-        <v>368</v>
-      </c>
-      <c r="P3" s="201" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q3" s="205"/>
+      <c r="O3" s="200" t="s">
+        <v>366</v>
+      </c>
+      <c r="P3" s="200" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q3" s="202"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="289" t="s">
+      <c r="A4" s="283" t="s">
         <v>242</v>
       </c>
-      <c r="B4" s="289"/>
-      <c r="C4" s="289"/>
-      <c r="D4" s="289" t="s">
+      <c r="B4" s="283"/>
+      <c r="C4" s="283"/>
+      <c r="D4" s="283" t="s">
         <v>243</v>
       </c>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289" t="s">
+      <c r="E4" s="283"/>
+      <c r="F4" s="283"/>
+      <c r="G4" s="283" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="289"/>
-      <c r="I4" s="289"/>
-      <c r="J4" s="289"/>
-      <c r="K4" s="289"/>
-      <c r="L4" s="289"/>
+      <c r="H4" s="283"/>
+      <c r="I4" s="283"/>
+      <c r="J4" s="283"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="283"/>
       <c r="M4" s="166" t="s">
         <v>250</v>
       </c>
@@ -9116,105 +9105,105 @@
         <v>152</v>
       </c>
       <c r="O4" s="166" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P4" s="166" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="286"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="295" t="s">
+      <c r="A5" s="284"/>
+      <c r="B5" s="284"/>
+      <c r="C5" s="284"/>
+      <c r="D5" s="284"/>
+      <c r="E5" s="284"/>
+      <c r="F5" s="284"/>
+      <c r="G5" s="292" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="295"/>
-      <c r="I5" s="295"/>
-      <c r="J5" s="295"/>
-      <c r="K5" s="295"/>
-      <c r="L5" s="295"/>
-      <c r="M5" s="200" t="s">
+      <c r="H5" s="292"/>
+      <c r="I5" s="292"/>
+      <c r="J5" s="292"/>
+      <c r="K5" s="292"/>
+      <c r="L5" s="292"/>
+      <c r="M5" s="199" t="s">
         <v>289</v>
       </c>
-      <c r="N5" s="200"/>
-      <c r="O5" s="200" t="s">
-        <v>390</v>
-      </c>
-      <c r="P5" s="200" t="s">
-        <v>391</v>
+      <c r="N5" s="199"/>
+      <c r="O5" s="199" t="s">
+        <v>388</v>
+      </c>
+      <c r="P5" s="199" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="286"/>
-      <c r="B6" s="286"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286"/>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="295"/>
-      <c r="H6" s="295"/>
-      <c r="I6" s="295"/>
-      <c r="J6" s="295"/>
-      <c r="K6" s="295"/>
-      <c r="L6" s="295"/>
-      <c r="M6" s="200"/>
-      <c r="N6" s="200"/>
-      <c r="O6" s="200"/>
+      <c r="A6" s="284"/>
+      <c r="B6" s="284"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="284"/>
+      <c r="F6" s="284"/>
+      <c r="G6" s="292"/>
+      <c r="H6" s="292"/>
+      <c r="I6" s="292"/>
+      <c r="J6" s="292"/>
+      <c r="K6" s="292"/>
+      <c r="L6" s="292"/>
+      <c r="M6" s="199"/>
+      <c r="N6" s="199"/>
+      <c r="O6" s="199"/>
       <c r="P6" s="167"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="286"/>
-      <c r="B7" s="286"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="295"/>
-      <c r="H7" s="295"/>
-      <c r="I7" s="295"/>
-      <c r="J7" s="295"/>
-      <c r="K7" s="295"/>
-      <c r="L7" s="295"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="200"/>
+      <c r="A7" s="284"/>
+      <c r="B7" s="284"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="284"/>
+      <c r="F7" s="284"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
+      <c r="I7" s="292"/>
+      <c r="J7" s="292"/>
+      <c r="K7" s="292"/>
+      <c r="L7" s="292"/>
+      <c r="M7" s="199"/>
+      <c r="N7" s="199"/>
+      <c r="O7" s="199"/>
       <c r="P7" s="165"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="286"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286"/>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="295"/>
-      <c r="H8" s="295"/>
-      <c r="I8" s="295"/>
-      <c r="J8" s="295"/>
-      <c r="K8" s="295"/>
-      <c r="L8" s="295"/>
-      <c r="M8" s="200"/>
-      <c r="N8" s="200"/>
-      <c r="O8" s="200"/>
+      <c r="A8" s="284"/>
+      <c r="B8" s="284"/>
+      <c r="C8" s="284"/>
+      <c r="D8" s="284"/>
+      <c r="E8" s="284"/>
+      <c r="F8" s="284"/>
+      <c r="G8" s="292"/>
+      <c r="H8" s="292"/>
+      <c r="I8" s="292"/>
+      <c r="J8" s="292"/>
+      <c r="K8" s="292"/>
+      <c r="L8" s="292"/>
+      <c r="M8" s="199"/>
+      <c r="N8" s="199"/>
+      <c r="O8" s="199"/>
       <c r="P8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="292" t="s">
+      <c r="A10" s="286" t="s">
         <v>353</v>
       </c>
-      <c r="B10" s="293"/>
-      <c r="C10" s="293"/>
-      <c r="D10" s="293"/>
-      <c r="E10" s="293"/>
-      <c r="F10" s="293"/>
-      <c r="G10" s="293"/>
-      <c r="H10" s="293"/>
-      <c r="I10" s="294"/>
+      <c r="B10" s="287"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
+      <c r="G10" s="287"/>
+      <c r="H10" s="287"/>
+      <c r="I10" s="288"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
@@ -9223,8 +9212,8 @@
       <c r="B11" s="132" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="194" t="s">
-        <v>368</v>
+      <c r="C11" s="193" t="s">
+        <v>366</v>
       </c>
       <c r="D11" s="125" t="s">
         <v>269</v>
@@ -9251,7 +9240,7 @@
         <v>249</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D12" s="147" t="s">
         <v>92</v>
@@ -9296,69 +9285,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="277" t="s">
+      <c r="A15" s="274" t="s">
         <v>279</v>
       </c>
-      <c r="B15" s="278"/>
-      <c r="C15" s="278"/>
-      <c r="D15" s="278"/>
-      <c r="E15" s="278"/>
-      <c r="F15" s="278"/>
-      <c r="G15" s="278"/>
-      <c r="H15" s="279"/>
+      <c r="B15" s="275"/>
+      <c r="C15" s="275"/>
+      <c r="D15" s="275"/>
+      <c r="E15" s="275"/>
+      <c r="F15" s="275"/>
+      <c r="G15" s="275"/>
+      <c r="H15" s="276"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="271" t="s">
-        <v>365</v>
-      </c>
-      <c r="B16" s="272"/>
-      <c r="C16" s="272"/>
-      <c r="D16" s="272"/>
-      <c r="E16" s="272"/>
-      <c r="F16" s="272"/>
-      <c r="G16" s="272"/>
-      <c r="H16" s="273"/>
+      <c r="A16" s="268" t="s">
+        <v>363</v>
+      </c>
+      <c r="B16" s="269"/>
+      <c r="C16" s="269"/>
+      <c r="D16" s="269"/>
+      <c r="E16" s="269"/>
+      <c r="F16" s="269"/>
+      <c r="G16" s="269"/>
+      <c r="H16" s="270"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="271"/>
-      <c r="B17" s="272"/>
-      <c r="C17" s="272"/>
-      <c r="D17" s="272"/>
-      <c r="E17" s="272"/>
-      <c r="F17" s="272"/>
-      <c r="G17" s="272"/>
-      <c r="H17" s="273"/>
+      <c r="A17" s="268"/>
+      <c r="B17" s="269"/>
+      <c r="C17" s="269"/>
+      <c r="D17" s="269"/>
+      <c r="E17" s="269"/>
+      <c r="F17" s="269"/>
+      <c r="G17" s="269"/>
+      <c r="H17" s="270"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="271"/>
-      <c r="B18" s="272"/>
-      <c r="C18" s="272"/>
-      <c r="D18" s="272"/>
-      <c r="E18" s="272"/>
-      <c r="F18" s="272"/>
-      <c r="G18" s="272"/>
-      <c r="H18" s="273"/>
+      <c r="A18" s="268"/>
+      <c r="B18" s="269"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="269"/>
+      <c r="E18" s="269"/>
+      <c r="F18" s="269"/>
+      <c r="G18" s="269"/>
+      <c r="H18" s="270"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="274"/>
-      <c r="B19" s="275"/>
-      <c r="C19" s="275"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
-      <c r="F19" s="275"/>
-      <c r="G19" s="275"/>
-      <c r="H19" s="276"/>
+      <c r="A19" s="271"/>
+      <c r="B19" s="272"/>
+      <c r="C19" s="272"/>
+      <c r="D19" s="272"/>
+      <c r="E19" s="272"/>
+      <c r="F19" s="272"/>
+      <c r="G19" s="272"/>
+      <c r="H19" s="273"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="261" t="s">
+      <c r="A21" s="258" t="s">
         <v>307</v>
       </c>
-      <c r="B21" s="261"/>
-      <c r="C21" s="261"/>
-      <c r="D21" s="261"/>
-      <c r="E21" s="261"/>
-      <c r="F21" s="261"/>
-      <c r="G21" s="261"/>
+      <c r="B21" s="258"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="258"/>
+      <c r="E21" s="258"/>
+      <c r="F21" s="258"/>
+      <c r="G21" s="258"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
@@ -9370,12 +9359,12 @@
       <c r="C22" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="260" t="s">
+      <c r="D22" s="257" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="260"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="260"/>
+      <c r="E22" s="257"/>
+      <c r="F22" s="257"/>
+      <c r="G22" s="257"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9385,10 +9374,10 @@
         <v>312</v>
       </c>
       <c r="C23" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D23" s="180" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -9399,9 +9388,9 @@
         <v>337</v>
       </c>
       <c r="C24" t="s">
-        <v>460</v>
-      </c>
-      <c r="D24" s="193" t="s">
+        <v>458</v>
+      </c>
+      <c r="D24" s="192" t="s">
         <v>334</v>
       </c>
     </row>
@@ -9413,7 +9402,7 @@
         <v>338</v>
       </c>
       <c r="C25" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D25" s="180" t="s">
         <v>335</v>
@@ -9427,10 +9416,10 @@
         <v>339</v>
       </c>
       <c r="C26" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D26" s="180" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -9441,7 +9430,7 @@
         <v>340</v>
       </c>
       <c r="C27" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D27" s="183" t="s">
         <v>336</v>
@@ -9455,10 +9444,10 @@
         <v>313</v>
       </c>
       <c r="C28" t="s">
-        <v>460</v>
-      </c>
-      <c r="D28" s="193" t="s">
-        <v>406</v>
+        <v>458</v>
+      </c>
+      <c r="D28" s="192" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -9469,10 +9458,10 @@
         <v>313</v>
       </c>
       <c r="C29" t="s">
-        <v>460</v>
-      </c>
-      <c r="D29" s="193" t="s">
-        <v>392</v>
+        <v>458</v>
+      </c>
+      <c r="D29" s="192" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -9483,10 +9472,10 @@
         <v>313</v>
       </c>
       <c r="C30" t="s">
-        <v>460</v>
-      </c>
-      <c r="D30" s="193" t="s">
-        <v>407</v>
+        <v>458</v>
+      </c>
+      <c r="D30" s="192" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -9497,9 +9486,9 @@
         <v>313</v>
       </c>
       <c r="C31" t="s">
-        <v>460</v>
-      </c>
-      <c r="D31" s="193" t="s">
+        <v>458</v>
+      </c>
+      <c r="D31" s="192" t="s">
         <v>345</v>
       </c>
     </row>
@@ -9511,24 +9500,24 @@
         <v>341</v>
       </c>
       <c r="C32" t="s">
-        <v>460</v>
-      </c>
-      <c r="D32" s="193" t="s">
+        <v>458</v>
+      </c>
+      <c r="D32" s="192" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B33" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C33" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D33" s="180" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -9539,24 +9528,14 @@
         <v>348</v>
       </c>
       <c r="C34" t="s">
-        <v>460</v>
-      </c>
-      <c r="D34" s="193" t="s">
+        <v>458</v>
+      </c>
+      <c r="D34" s="192" t="s">
         <v>349</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9573,6 +9552,16 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9654,12 +9643,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="296" t="s">
+      <c r="A1" s="293" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="298"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="295"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
@@ -9742,13 +9731,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="214" t="s">
-        <v>491</v>
+      <c r="A7" s="211" t="s">
+        <v>489</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="C7" s="215">
+        <v>490</v>
+      </c>
+      <c r="C7" s="212">
         <v>0</v>
       </c>
       <c r="D7" s="24">
@@ -9756,13 +9745,13 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="214" t="s">
-        <v>493</v>
+      <c r="A8" s="211" t="s">
+        <v>491</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="C8" s="215">
+        <v>492</v>
+      </c>
+      <c r="C8" s="212">
         <v>0</v>
       </c>
       <c r="D8" s="24">
@@ -10424,23 +10413,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="299" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="303"/>
-      <c r="C1" s="303"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="303"/>
-      <c r="F1" s="303"/>
-      <c r="G1" s="303"/>
-      <c r="H1" s="303"/>
-      <c r="I1" s="303"/>
-      <c r="J1" s="303"/>
-      <c r="K1" s="303"/>
-      <c r="L1" s="303"/>
-      <c r="M1" s="303"/>
-      <c r="N1" s="303"/>
-      <c r="O1" s="303"/>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
+      <c r="L1" s="300"/>
+      <c r="M1" s="300"/>
+      <c r="N1" s="300"/>
+      <c r="O1" s="300"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -10458,17 +10447,17 @@
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="299" t="s">
+      <c r="B3" s="296" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
-      <c r="H3" s="300"/>
-      <c r="I3" s="300"/>
-      <c r="J3" s="301"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="297"/>
+      <c r="I3" s="297"/>
+      <c r="J3" s="298"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="37"/>
@@ -10659,21 +10648,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="299" t="s">
+      <c r="B19" s="296" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="300"/>
-      <c r="D19" s="300"/>
-      <c r="E19" s="300"/>
-      <c r="F19" s="300"/>
-      <c r="G19" s="300"/>
-      <c r="H19" s="300"/>
-      <c r="I19" s="300"/>
-      <c r="J19" s="300"/>
-      <c r="K19" s="300"/>
-      <c r="L19" s="300"/>
-      <c r="M19" s="300"/>
-      <c r="N19" s="301"/>
+      <c r="C19" s="297"/>
+      <c r="D19" s="297"/>
+      <c r="E19" s="297"/>
+      <c r="F19" s="297"/>
+      <c r="G19" s="297"/>
+      <c r="H19" s="297"/>
+      <c r="I19" s="297"/>
+      <c r="J19" s="297"/>
+      <c r="K19" s="297"/>
+      <c r="L19" s="297"/>
+      <c r="M19" s="297"/>
+      <c r="N19" s="298"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
@@ -10875,27 +10864,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="304" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="308"/>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
-      <c r="F1" s="308"/>
-      <c r="G1" s="308"/>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="J1" s="308"/>
-      <c r="K1" s="308"/>
-      <c r="L1" s="308"/>
-      <c r="M1" s="308"/>
-      <c r="N1" s="308"/>
-      <c r="O1" s="308"/>
-      <c r="P1" s="308"/>
-      <c r="Q1" s="308"/>
-      <c r="R1" s="308"/>
-      <c r="S1" s="308"/>
+      <c r="B1" s="305"/>
+      <c r="C1" s="305"/>
+      <c r="D1" s="305"/>
+      <c r="E1" s="305"/>
+      <c r="F1" s="305"/>
+      <c r="G1" s="305"/>
+      <c r="H1" s="305"/>
+      <c r="I1" s="305"/>
+      <c r="J1" s="305"/>
+      <c r="K1" s="305"/>
+      <c r="L1" s="305"/>
+      <c r="M1" s="305"/>
+      <c r="N1" s="305"/>
+      <c r="O1" s="305"/>
+      <c r="P1" s="305"/>
+      <c r="Q1" s="305"/>
+      <c r="R1" s="305"/>
+      <c r="S1" s="305"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
@@ -10909,26 +10898,26 @@
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="299" t="s">
+      <c r="B3" s="296" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
-      <c r="H3" s="300"/>
-      <c r="I3" s="300"/>
-      <c r="J3" s="301"/>
-      <c r="L3" s="304" t="s">
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="297"/>
+      <c r="I3" s="297"/>
+      <c r="J3" s="298"/>
+      <c r="L3" s="301" t="s">
         <v>219</v>
       </c>
-      <c r="M3" s="305"/>
-      <c r="N3" s="305"/>
-      <c r="O3" s="305"/>
-      <c r="P3" s="305"/>
-      <c r="Q3" s="305"/>
-      <c r="R3" s="306"/>
+      <c r="M3" s="302"/>
+      <c r="N3" s="302"/>
+      <c r="O3" s="302"/>
+      <c r="P3" s="302"/>
+      <c r="Q3" s="302"/>
+      <c r="R3" s="303"/>
       <c r="S3" s="36"/>
       <c r="T3" s="36"/>
     </row>
@@ -11159,23 +11148,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="306" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="310"/>
-      <c r="F1" s="310"/>
-      <c r="G1" s="310"/>
-      <c r="H1" s="310"/>
-      <c r="I1" s="310"/>
-      <c r="J1" s="310"/>
-      <c r="K1" s="310"/>
-      <c r="L1" s="310"/>
-      <c r="M1" s="310"/>
-      <c r="N1" s="310"/>
-      <c r="O1" s="311"/>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="307"/>
+      <c r="M1" s="307"/>
+      <c r="N1" s="307"/>
+      <c r="O1" s="308"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11188,22 +11177,22 @@
       <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="299" t="s">
+      <c r="B3" s="296" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
-      <c r="H3" s="301"/>
-      <c r="J3" s="304" t="s">
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="298"/>
+      <c r="J3" s="301" t="s">
         <v>219</v>
       </c>
-      <c r="K3" s="305"/>
-      <c r="L3" s="305"/>
-      <c r="M3" s="305"/>
-      <c r="N3" s="306"/>
+      <c r="K3" s="302"/>
+      <c r="L3" s="302"/>
+      <c r="M3" s="302"/>
+      <c r="N3" s="303"/>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
     </row>

--- a/test_templates/test_batch_template5.xlsx
+++ b/test_templates/test_batch_template5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="496">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -761,12 +761,6 @@
   </si>
   <si>
     <t>Preferences for Transfer Curve Analysis</t>
-  </si>
-  <si>
-    <t>Sample Column Name</t>
-  </si>
-  <si>
-    <t>Value</t>
   </si>
   <si>
     <t>Comparisons</t>
@@ -877,9 +871,6 @@
   </si>
   <si>
     <t>Shortened Key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                       </t>
   </si>
   <si>
     <t>Optional</t>
@@ -1084,9 +1075,6 @@
   </si>
   <si>
     <t>Preferences potentially unique to each transfer curve analysis</t>
-  </si>
-  <si>
-    <t>Only samples with a given value for a specific condition/column in "Samples" are considered for analysis. There can be multiple groups for a single plusminus analysis. More than one plusminus analysis can be executed as long as the Comparison Groups are aligned with the correct Comparisons.</t>
   </si>
   <si>
     <t>Preferences potentially unique to each plusminus analysis</t>
@@ -1136,30 +1124,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Only samples with a given value for a specific condition/column in "Samples" are considered for analysis. Each group corresponds to a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>separate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> transfer curve analysis. Leave blank if not applicable. (There should be a Comparison for every Comparison Group.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -2058,12 +2022,6 @@
     <t>plusminus2/plots</t>
   </si>
   <si>
-    <t>transfercurve</t>
-  </si>
-  <si>
-    <t>transfercurve/plots</t>
-  </si>
-  <si>
     <t>Missing Output Filename in "Calibration" sheet. Defaulting to exp name.</t>
   </si>
   <si>
@@ -2418,35 +2376,105 @@
   <si>
     <t>if true, output statistics file for batch analysis</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Only samples with given values for listed condition/column(s) in "Samples" are considered for analysis. There can be multiple groups for a single plusminus analysis. More than one plusminus analysis can be executed as long as the Comparison Groups are aligned with the correct Comparisons. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FORMAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ColName1 = Value1, ColName2 = Value2</t>
+    </r>
+  </si>
+  <si>
+    <t>Sample Column Name=Value</t>
+  </si>
+  <si>
+    <t>DOSE=Low</t>
+  </si>
+  <si>
+    <t>DOSE = High</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Only samples with given values for listed condition/column(s) in "Samples" are considered for analysis. Each group corresponds to a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>separate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> transfer curve analysis. Leave blank if not applicable. (There should be a Comparison for every Comparison Group.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FORMAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ColName1 = Value1, ColName2 = Value2</t>
+    </r>
+  </si>
+  <si>
+    <t>transfercurve1</t>
+  </si>
+  <si>
+    <t>transfercurve1/plots</t>
+  </si>
+  <si>
+    <t>DOSE = Low, 10xDox = 0.1</t>
+  </si>
+  <si>
+    <t>transfercurve2</t>
+  </si>
+  <si>
+    <t>transfercurve2/plots</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3337,25 +3365,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -3371,7 +3399,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3382,28 +3410,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3424,62 +3452,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3490,54 +3518,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3555,19 +3583,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3576,46 +3604,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3633,83 +3661,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3724,37 +3752,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3763,53 +3791,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3824,20 +3840,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3860,45 +3876,33 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3908,11 +3912,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyProtection="1">
@@ -3922,20 +3926,116 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3946,145 +4046,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4105,149 +4109,168 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5100,86 +5123,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="225" t="s">
-        <v>378</v>
-      </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="227"/>
+      <c r="A1" s="228" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="230"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="241" t="s">
-        <v>316</v>
-      </c>
-      <c r="B3" s="242"/>
+      <c r="A3" s="207" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" s="208"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="239" t="s">
+      <c r="A4" s="221" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="240"/>
+      <c r="B4" s="222"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="223" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="256"/>
+      <c r="B5" s="224"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="241" t="s">
-        <v>272</v>
-      </c>
-      <c r="B7" s="243"/>
-      <c r="C7" s="243"/>
-      <c r="D7" s="243"/>
-      <c r="E7" s="243"/>
-      <c r="F7" s="243"/>
-      <c r="G7" s="243"/>
-      <c r="H7" s="243"/>
-      <c r="I7" s="243"/>
-      <c r="J7" s="243"/>
-      <c r="K7" s="242"/>
+      <c r="A7" s="207" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="209"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
+      <c r="H7" s="209"/>
+      <c r="I7" s="209"/>
+      <c r="J7" s="209"/>
+      <c r="K7" s="208"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="228" t="s">
+      <c r="A8" s="231" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="229"/>
-      <c r="C8" s="229"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
-      <c r="G8" s="229"/>
-      <c r="H8" s="229"/>
-      <c r="I8" s="229"/>
-      <c r="J8" s="229"/>
-      <c r="K8" s="230"/>
+      <c r="B8" s="232"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="232"/>
+      <c r="E8" s="232"/>
+      <c r="F8" s="232"/>
+      <c r="G8" s="232"/>
+      <c r="H8" s="232"/>
+      <c r="I8" s="232"/>
+      <c r="J8" s="232"/>
+      <c r="K8" s="233"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="231"/>
-      <c r="B9" s="232"/>
-      <c r="C9" s="232"/>
-      <c r="D9" s="232"/>
-      <c r="E9" s="232"/>
-      <c r="F9" s="232"/>
-      <c r="G9" s="232"/>
-      <c r="H9" s="232"/>
-      <c r="I9" s="232"/>
-      <c r="J9" s="232"/>
-      <c r="K9" s="233"/>
+      <c r="A9" s="234"/>
+      <c r="B9" s="235"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="235"/>
+      <c r="F9" s="235"/>
+      <c r="G9" s="235"/>
+      <c r="H9" s="235"/>
+      <c r="I9" s="235"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="236"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="156"/>
@@ -5190,89 +5213,89 @@
       <c r="F10" s="142"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="244" t="s">
-        <v>273</v>
-      </c>
-      <c r="B11" s="245"/>
-      <c r="C11" s="245"/>
-      <c r="D11" s="246"/>
+      <c r="A11" s="210" t="s">
+        <v>270</v>
+      </c>
+      <c r="B11" s="211"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="212"/>
       <c r="E11" s="87"/>
       <c r="F11" s="142"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="247" t="s">
+      <c r="A12" s="213" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="248"/>
-      <c r="C12" s="249" t="s">
+      <c r="B12" s="214"/>
+      <c r="C12" s="215" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="250"/>
+      <c r="D12" s="216"/>
       <c r="E12" s="87"/>
       <c r="F12" s="142"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="251"/>
-      <c r="B13" s="252"/>
-      <c r="C13" s="253"/>
-      <c r="D13" s="254"/>
+      <c r="A13" s="217"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="220"/>
       <c r="E13" s="87"/>
       <c r="F13" s="142"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="244" t="s">
-        <v>274</v>
-      </c>
-      <c r="B15" s="246"/>
-      <c r="E15" s="244" t="s">
-        <v>315</v>
-      </c>
-      <c r="F15" s="245"/>
-      <c r="G15" s="245"/>
-      <c r="H15" s="245"/>
-      <c r="I15" s="246"/>
+      <c r="A15" s="210" t="s">
+        <v>271</v>
+      </c>
+      <c r="B15" s="212"/>
+      <c r="E15" s="210" t="s">
+        <v>310</v>
+      </c>
+      <c r="F15" s="211"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="212"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="239" t="s">
+      <c r="A16" s="221" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="240"/>
+      <c r="B16" s="222"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="234" t="s">
+      <c r="E16" s="237" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="235"/>
-      <c r="G16" s="235"/>
-      <c r="H16" s="235"/>
-      <c r="I16" s="236"/>
+      <c r="F16" s="238"/>
+      <c r="G16" s="238"/>
+      <c r="H16" s="238"/>
+      <c r="I16" s="239"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="157" t="s">
         <v>233</v>
       </c>
       <c r="B17" s="115" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C17" s="89"/>
-      <c r="E17" s="237" t="s">
+      <c r="E17" s="240" t="s">
         <v>231</v>
       </c>
-      <c r="F17" s="238"/>
-      <c r="G17" s="210" t="s">
+      <c r="F17" s="241"/>
+      <c r="G17" s="202" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="210" t="s">
+      <c r="H17" s="202" t="s">
         <v>158</v>
       </c>
-      <c r="I17" s="194" t="s">
-        <v>356</v>
+      <c r="I17" s="190" t="s">
+        <v>351</v>
       </c>
       <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="158" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B18" s="90" t="s">
         <v>234</v>
@@ -5288,14 +5311,14 @@
       <c r="H18" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="213" t="s">
-        <v>487</v>
+      <c r="I18" s="225" t="s">
+        <v>480</v>
       </c>
       <c r="J18" s="81"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="159" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B19" s="116"/>
       <c r="C19" s="89"/>
@@ -5311,12 +5334,12 @@
       <c r="H19" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="I19" s="213"/>
+      <c r="I19" s="225"/>
       <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="159" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B20" s="116"/>
       <c r="C20" s="91"/>
@@ -5328,12 +5351,12 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="214"/>
+      <c r="I20" s="226"/>
       <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="159" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B21" s="116"/>
       <c r="C21" s="32"/>
@@ -5350,32 +5373,32 @@
       <c r="A23" s="161"/>
       <c r="B23" s="92"/>
       <c r="C23" s="91"/>
-      <c r="E23" s="215" t="s">
+      <c r="E23" s="205" t="s">
         <v>194</v>
       </c>
-      <c r="F23" s="216"/>
-      <c r="G23" s="216"/>
-      <c r="H23" s="216"/>
-      <c r="I23" s="217"/>
+      <c r="F23" s="227"/>
+      <c r="G23" s="227"/>
+      <c r="H23" s="227"/>
+      <c r="I23" s="206"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="215" t="s">
+      <c r="A24" s="205" t="s">
         <v>236</v>
       </c>
-      <c r="B24" s="217"/>
+      <c r="B24" s="206"/>
       <c r="C24" s="32"/>
-      <c r="E24" s="221" t="s">
+      <c r="E24" s="245" t="s">
         <v>231</v>
       </c>
-      <c r="F24" s="222"/>
-      <c r="G24" s="210" t="s">
+      <c r="F24" s="246"/>
+      <c r="G24" s="202" t="s">
         <v>157</v>
       </c>
-      <c r="H24" s="210" t="s">
+      <c r="H24" s="202" t="s">
         <v>158</v>
       </c>
-      <c r="I24" s="194" t="s">
-        <v>357</v>
+      <c r="I24" s="190" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5383,7 +5406,7 @@
         <v>233</v>
       </c>
       <c r="B25" s="115" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C25" s="32"/>
       <c r="E25" s="83">
@@ -5396,13 +5419,13 @@
       <c r="H25" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="218" t="s">
-        <v>488</v>
+      <c r="I25" s="242" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="158" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B26" s="90" t="s">
         <v>234</v>
@@ -5420,11 +5443,11 @@
       <c r="H26" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="I26" s="219"/>
+      <c r="I26" s="243"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="159" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B27" s="116"/>
       <c r="C27" s="91"/>
@@ -5436,11 +5459,11 @@
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
-      <c r="I27" s="220"/>
+      <c r="I27" s="244"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="159" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B28" s="116"/>
       <c r="C28" s="32"/>
@@ -5460,37 +5483,37 @@
       <c r="A30" s="160"/>
       <c r="B30" s="117"/>
       <c r="C30" s="89"/>
-      <c r="E30" s="215" t="s">
+      <c r="E30" s="205" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="216"/>
-      <c r="G30" s="216"/>
-      <c r="H30" s="216"/>
-      <c r="I30" s="217"/>
+      <c r="F30" s="227"/>
+      <c r="G30" s="227"/>
+      <c r="H30" s="227"/>
+      <c r="I30" s="206"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="161"/>
       <c r="B31" s="91"/>
       <c r="C31" s="91"/>
-      <c r="E31" s="223" t="s">
-        <v>465</v>
-      </c>
-      <c r="F31" s="224"/>
-      <c r="G31" s="208" t="s">
+      <c r="E31" s="247" t="s">
+        <v>458</v>
+      </c>
+      <c r="F31" s="248"/>
+      <c r="G31" s="200" t="s">
         <v>157</v>
       </c>
-      <c r="H31" s="208" t="s">
+      <c r="H31" s="200" t="s">
         <v>158</v>
       </c>
-      <c r="I31" s="194" t="s">
-        <v>358</v>
+      <c r="I31" s="190" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="215" t="s">
+      <c r="A32" s="205" t="s">
         <v>237</v>
       </c>
-      <c r="B32" s="217"/>
+      <c r="B32" s="206"/>
       <c r="C32" s="32"/>
       <c r="E32" s="83">
         <v>1</v>
@@ -5500,14 +5523,14 @@
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="213"/>
+      <c r="I32" s="225"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="157" t="s">
         <v>233</v>
       </c>
       <c r="B33" s="115" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C33" s="89"/>
       <c r="E33" s="83">
@@ -5520,7 +5543,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="213"/>
+      <c r="I33" s="225"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="158" t="s">
@@ -5535,7 +5558,7 @@
       <c r="F34" s="93"/>
       <c r="G34" s="33"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="213"/>
+      <c r="I34" s="225"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="159" t="s">
@@ -5548,7 +5571,7 @@
       <c r="F35" s="93"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="213"/>
+      <c r="I35" s="225"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="159" t="s">
@@ -5561,7 +5584,7 @@
       <c r="F36" s="93"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="213"/>
+      <c r="I36" s="225"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="159" t="s">
@@ -5574,7 +5597,7 @@
       <c r="F37" s="140"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="214"/>
+      <c r="I37" s="226"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="160" t="s">
@@ -5587,25 +5610,25 @@
       <c r="B39" s="121"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="215" t="s">
+      <c r="E40" s="205" t="s">
         <v>196</v>
       </c>
-      <c r="F40" s="216"/>
-      <c r="G40" s="216"/>
-      <c r="H40" s="216"/>
-      <c r="I40" s="217"/>
+      <c r="F40" s="227"/>
+      <c r="G40" s="227"/>
+      <c r="H40" s="227"/>
+      <c r="I40" s="206"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="221"/>
-      <c r="F41" s="222"/>
+      <c r="E41" s="245"/>
+      <c r="F41" s="246"/>
       <c r="G41" s="82" t="s">
         <v>157</v>
       </c>
       <c r="H41" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="I41" s="194" t="s">
-        <v>359</v>
+      <c r="I41" s="190" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5615,7 +5638,7 @@
       <c r="F42" s="93"/>
       <c r="G42" s="33"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="213"/>
+      <c r="I42" s="225"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="83">
@@ -5624,7 +5647,7 @@
       <c r="F43" s="93"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="213"/>
+      <c r="I43" s="225"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="83">
@@ -5633,7 +5656,7 @@
       <c r="F44" s="93"/>
       <c r="G44" s="33"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="213"/>
+      <c r="I44" s="225"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="83">
@@ -5642,7 +5665,7 @@
       <c r="F45" s="93"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="213"/>
+      <c r="I45" s="225"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="83">
@@ -5651,7 +5674,7 @@
       <c r="F46" s="93"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="213"/>
+      <c r="I46" s="225"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="84">
@@ -5660,11 +5683,25 @@
       <c r="F47" s="140"/>
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
-      <c r="I47" s="214"/>
+      <c r="I47" s="226"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5680,20 +5717,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5733,32 +5756,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="259" t="s">
-        <v>379</v>
-      </c>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="261"/>
+      <c r="A1" s="251" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="253"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="262" t="s">
+      <c r="A2" s="254" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="264"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="256"/>
       <c r="K2" s="79"/>
       <c r="L2" s="79"/>
       <c r="M2" s="75"/>
@@ -5766,27 +5789,27 @@
       <c r="O2" s="76"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="178" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3" s="181" t="s">
-        <v>317</v>
-      </c>
-      <c r="C3" s="265" t="s">
-        <v>288</v>
-      </c>
-      <c r="D3" s="266"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
-      <c r="G3" s="267"/>
-      <c r="H3" s="181" t="s">
-        <v>318</v>
-      </c>
-      <c r="I3" s="181" t="s">
-        <v>319</v>
-      </c>
-      <c r="J3" s="182" t="s">
-        <v>320</v>
+      <c r="A3" s="174" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="177" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="257" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="258"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="177" t="s">
+        <v>313</v>
+      </c>
+      <c r="I3" s="177" t="s">
+        <v>314</v>
+      </c>
+      <c r="J3" s="178" t="s">
+        <v>315</v>
       </c>
       <c r="K3" s="79"/>
       <c r="L3" s="79"/>
@@ -5805,16 +5828,16 @@
         <v>4</v>
       </c>
       <c r="D4" s="139" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E4" s="139" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F4" s="139" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G4" s="139" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H4" s="139" t="s">
         <v>198</v>
@@ -5822,8 +5845,8 @@
       <c r="I4" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="198" t="s">
-        <v>408</v>
+      <c r="J4" s="194" t="s">
+        <v>401</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5833,19 +5856,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C5" s="109">
         <v>0.1</v>
       </c>
       <c r="D5" s="109" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E5" s="109" t="s">
         <v>220</v>
       </c>
       <c r="F5" s="109" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G5" s="109">
         <v>0.1</v>
@@ -5857,8 +5880,8 @@
         <v>199</v>
       </c>
       <c r="J5" s="112"/>
-      <c r="K5" s="209" t="s">
-        <v>466</v>
+      <c r="K5" s="201" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5873,13 +5896,13 @@
         <v>0.2</v>
       </c>
       <c r="D6" s="109" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E6" s="109" t="s">
         <v>221</v>
       </c>
       <c r="F6" s="109" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G6" s="109">
         <v>0.2</v>
@@ -5891,8 +5914,8 @@
         <v>200</v>
       </c>
       <c r="J6" s="112"/>
-      <c r="K6" s="209" t="s">
-        <v>467</v>
+      <c r="K6" s="201" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5907,7 +5930,7 @@
         <v>0.5</v>
       </c>
       <c r="D7" s="109" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E7" s="109" t="s">
         <v>222</v>
@@ -5921,8 +5944,8 @@
         <v>201</v>
       </c>
       <c r="J7" s="112"/>
-      <c r="K7" s="209" t="s">
-        <v>468</v>
+      <c r="K7" s="201" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5937,13 +5960,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="109" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E8" s="109" t="s">
         <v>223</v>
       </c>
       <c r="F8" s="109" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G8" s="109">
         <v>0.1</v>
@@ -5955,8 +5978,8 @@
         <v>202</v>
       </c>
       <c r="J8" s="112"/>
-      <c r="K8" s="209" t="s">
-        <v>469</v>
+      <c r="K8" s="201" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5971,11 +5994,11 @@
         <v>2</v>
       </c>
       <c r="D9" s="109" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E9" s="109"/>
       <c r="F9" s="109" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G9" s="109">
         <v>0.2</v>
@@ -5987,8 +6010,8 @@
         <v>203</v>
       </c>
       <c r="J9" s="112"/>
-      <c r="K9" s="209" t="s">
-        <v>470</v>
+      <c r="K9" s="201" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6003,7 +6026,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="109" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E10" s="109" t="s">
         <v>220</v>
@@ -6017,8 +6040,8 @@
         <v>204</v>
       </c>
       <c r="J10" s="112"/>
-      <c r="K10" s="209" t="s">
-        <v>471</v>
+      <c r="K10" s="201" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6033,7 +6056,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="109" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E11" s="109" t="s">
         <v>221</v>
@@ -6047,8 +6070,8 @@
         <v>205</v>
       </c>
       <c r="J11" s="112"/>
-      <c r="K11" s="209" t="s">
-        <v>472</v>
+      <c r="K11" s="201" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6063,7 +6086,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="109" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E12" s="109" t="s">
         <v>222</v>
@@ -6077,8 +6100,8 @@
         <v>206</v>
       </c>
       <c r="J12" s="112"/>
-      <c r="K12" s="209" t="s">
-        <v>473</v>
+      <c r="K12" s="201" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6093,7 +6116,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="109" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E13" s="109" t="s">
         <v>223</v>
@@ -6107,8 +6130,8 @@
         <v>207</v>
       </c>
       <c r="J13" s="112"/>
-      <c r="K13" s="209" t="s">
-        <v>474</v>
+      <c r="K13" s="201" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6123,11 +6146,11 @@
         <v>100</v>
       </c>
       <c r="D14" s="109" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E14" s="109"/>
       <c r="F14" s="109" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G14" s="109">
         <v>100</v>
@@ -6139,8 +6162,8 @@
         <v>208</v>
       </c>
       <c r="J14" s="112"/>
-      <c r="K14" s="209" t="s">
-        <v>475</v>
+      <c r="K14" s="201" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6155,13 +6178,13 @@
         <v>200</v>
       </c>
       <c r="D15" s="109" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E15" s="109" t="s">
         <v>220</v>
       </c>
       <c r="F15" s="109" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G15" s="109">
         <v>200</v>
@@ -6173,8 +6196,8 @@
         <v>209</v>
       </c>
       <c r="J15" s="112"/>
-      <c r="K15" s="209" t="s">
-        <v>476</v>
+      <c r="K15" s="201" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6189,7 +6212,7 @@
         <v>500</v>
       </c>
       <c r="D16" s="109" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E16" s="109" t="s">
         <v>221</v>
@@ -6203,8 +6226,8 @@
         <v>210</v>
       </c>
       <c r="J16" s="112"/>
-      <c r="K16" s="209" t="s">
-        <v>477</v>
+      <c r="K16" s="201" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6219,13 +6242,13 @@
         <v>1000</v>
       </c>
       <c r="D17" s="109" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E17" s="109" t="s">
         <v>222</v>
       </c>
       <c r="F17" s="109" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G17" s="109">
         <v>100</v>
@@ -6237,8 +6260,8 @@
         <v>211</v>
       </c>
       <c r="J17" s="112"/>
-      <c r="K17" s="209" t="s">
-        <v>478</v>
+      <c r="K17" s="201" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6253,13 +6276,13 @@
         <v>2000</v>
       </c>
       <c r="D18" s="109" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E18" s="109" t="s">
         <v>223</v>
       </c>
       <c r="F18" s="109" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G18" s="109">
         <v>200</v>
@@ -6271,8 +6294,8 @@
         <v>212</v>
       </c>
       <c r="J18" s="112"/>
-      <c r="K18" s="209" t="s">
-        <v>479</v>
+      <c r="K18" s="201" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6295,8 +6318,8 @@
       <c r="J19" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="209" t="s">
-        <v>480</v>
+      <c r="K19" s="201" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6319,8 +6342,8 @@
       <c r="J20" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="209" t="s">
-        <v>481</v>
+      <c r="K20" s="201" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6343,8 +6366,8 @@
       <c r="J21" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="209" t="s">
-        <v>482</v>
+      <c r="K21" s="201" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6367,8 +6390,8 @@
       <c r="J22" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="209" t="s">
-        <v>483</v>
+      <c r="K22" s="201" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6391,8 +6414,8 @@
       <c r="J23" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="209" t="s">
-        <v>484</v>
+      <c r="K23" s="201" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6415,107 +6438,107 @@
       <c r="J24" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="209" t="s">
-        <v>485</v>
+      <c r="K24" s="201" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="172">
+      <c r="A25" s="168">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="173" t="s">
-        <v>306</v>
-      </c>
-      <c r="C25" s="174"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="175">
+      <c r="B25" s="169" t="s">
+        <v>301</v>
+      </c>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="171">
         <v>2</v>
       </c>
-      <c r="I25" s="176"/>
-      <c r="J25" s="177" t="s">
+      <c r="I25" s="172"/>
+      <c r="J25" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="209" t="s">
-        <v>486</v>
+      <c r="K25" s="201" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="277" t="s">
+      <c r="A27" s="269" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="278"/>
-      <c r="C27" s="278"/>
-      <c r="D27" s="278"/>
-      <c r="E27" s="278"/>
-      <c r="F27" s="278"/>
-      <c r="G27" s="278"/>
-      <c r="H27" s="278"/>
-      <c r="I27" s="278"/>
-      <c r="J27" s="278"/>
-      <c r="K27" s="278"/>
-      <c r="L27" s="278"/>
-      <c r="M27" s="278"/>
-      <c r="N27" s="278"/>
-      <c r="O27" s="278"/>
-      <c r="P27" s="278"/>
-      <c r="Q27" s="279"/>
+      <c r="B27" s="270"/>
+      <c r="C27" s="270"/>
+      <c r="D27" s="270"/>
+      <c r="E27" s="270"/>
+      <c r="F27" s="270"/>
+      <c r="G27" s="270"/>
+      <c r="H27" s="270"/>
+      <c r="I27" s="270"/>
+      <c r="J27" s="270"/>
+      <c r="K27" s="270"/>
+      <c r="L27" s="270"/>
+      <c r="M27" s="270"/>
+      <c r="N27" s="270"/>
+      <c r="O27" s="270"/>
+      <c r="P27" s="270"/>
+      <c r="Q27" s="271"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="137" t="s">
-        <v>280</v>
-      </c>
-      <c r="B28" s="195" t="s">
-        <v>364</v>
-      </c>
-      <c r="C28" s="193" t="s">
-        <v>332</v>
-      </c>
-      <c r="D28" s="193" t="s">
-        <v>366</v>
-      </c>
-      <c r="E28" s="193" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" s="191" t="s">
+        <v>359</v>
+      </c>
+      <c r="C28" s="189" t="s">
+        <v>327</v>
+      </c>
+      <c r="D28" s="189" t="s">
+        <v>361</v>
+      </c>
+      <c r="E28" s="189" t="s">
+        <v>264</v>
+      </c>
+      <c r="F28" s="189" t="s">
+        <v>376</v>
+      </c>
+      <c r="G28" s="189" t="s">
+        <v>428</v>
+      </c>
+      <c r="H28" s="193" t="s">
+        <v>264</v>
+      </c>
+      <c r="I28" s="193" t="s">
+        <v>428</v>
+      </c>
+      <c r="J28" s="193" t="s">
+        <v>440</v>
+      </c>
+      <c r="K28" s="193" t="s">
+        <v>428</v>
+      </c>
+      <c r="L28" s="123" t="s">
         <v>266</v>
       </c>
-      <c r="F28" s="193" t="s">
-        <v>381</v>
-      </c>
-      <c r="G28" s="193" t="s">
-        <v>435</v>
-      </c>
-      <c r="H28" s="197" t="s">
+      <c r="M28" s="123" t="s">
         <v>266</v>
       </c>
-      <c r="I28" s="197" t="s">
-        <v>435</v>
-      </c>
-      <c r="J28" s="197" t="s">
-        <v>447</v>
-      </c>
-      <c r="K28" s="197" t="s">
-        <v>435</v>
-      </c>
-      <c r="L28" s="123" t="s">
-        <v>269</v>
-      </c>
-      <c r="M28" s="123" t="s">
-        <v>269</v>
-      </c>
       <c r="N28" s="123" t="s">
-        <v>269</v>
-      </c>
-      <c r="O28" s="193" t="s">
-        <v>275</v>
-      </c>
-      <c r="P28" s="193" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q28" s="196" t="s">
-        <v>275</v>
+        <v>266</v>
+      </c>
+      <c r="O28" s="189" t="s">
+        <v>272</v>
+      </c>
+      <c r="P28" s="189" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q28" s="192" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6524,31 +6547,31 @@
         <v>18</v>
       </c>
       <c r="C29" s="96" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D29" s="96" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E29" s="96" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F29" s="96" t="s">
         <v>152</v>
       </c>
       <c r="G29" s="96" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H29" s="96" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="I29" s="96" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="J29" s="96" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="K29" s="96" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="L29" s="96" t="s">
         <v>92</v>
@@ -6560,36 +6583,36 @@
         <v>94</v>
       </c>
       <c r="O29" s="96" t="s">
+        <v>249</v>
+      </c>
+      <c r="P29" s="96" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q29" s="118" t="s">
         <v>251</v>
-      </c>
-      <c r="P29" s="96" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q29" s="118" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="146"/>
-      <c r="B30" s="205" t="s">
-        <v>438</v>
+      <c r="B30" s="197" t="s">
+        <v>431</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="97"/>
       <c r="E30" s="153"/>
       <c r="F30" s="153"/>
       <c r="G30" s="153" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="H30" s="153"/>
       <c r="I30" s="153" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J30" s="153">
         <v>3</v>
       </c>
       <c r="K30" s="153" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="L30" s="153">
         <v>100</v>
@@ -6610,534 +6633,534 @@
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="274" t="s">
-        <v>279</v>
-      </c>
-      <c r="B32" s="275"/>
-      <c r="C32" s="275"/>
-      <c r="D32" s="275"/>
-      <c r="E32" s="275"/>
-      <c r="F32" s="275"/>
-      <c r="G32" s="275"/>
-      <c r="H32" s="276"/>
+      <c r="A32" s="266" t="s">
+        <v>276</v>
+      </c>
+      <c r="B32" s="267"/>
+      <c r="C32" s="267"/>
+      <c r="D32" s="267"/>
+      <c r="E32" s="267"/>
+      <c r="F32" s="267"/>
+      <c r="G32" s="267"/>
+      <c r="H32" s="268"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="268" t="s">
-        <v>361</v>
-      </c>
-      <c r="B33" s="269"/>
-      <c r="C33" s="269"/>
-      <c r="D33" s="269"/>
-      <c r="E33" s="269"/>
-      <c r="F33" s="269"/>
-      <c r="G33" s="269"/>
-      <c r="H33" s="270"/>
+      <c r="A33" s="260" t="s">
+        <v>356</v>
+      </c>
+      <c r="B33" s="261"/>
+      <c r="C33" s="261"/>
+      <c r="D33" s="261"/>
+      <c r="E33" s="261"/>
+      <c r="F33" s="261"/>
+      <c r="G33" s="261"/>
+      <c r="H33" s="262"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="268"/>
-      <c r="B34" s="269"/>
-      <c r="C34" s="269"/>
-      <c r="D34" s="269"/>
-      <c r="E34" s="269"/>
-      <c r="F34" s="269"/>
-      <c r="G34" s="269"/>
-      <c r="H34" s="270"/>
+      <c r="A34" s="260"/>
+      <c r="B34" s="261"/>
+      <c r="C34" s="261"/>
+      <c r="D34" s="261"/>
+      <c r="E34" s="261"/>
+      <c r="F34" s="261"/>
+      <c r="G34" s="261"/>
+      <c r="H34" s="262"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="268"/>
-      <c r="B35" s="269"/>
-      <c r="C35" s="269"/>
-      <c r="D35" s="269"/>
-      <c r="E35" s="269"/>
-      <c r="F35" s="269"/>
-      <c r="G35" s="269"/>
-      <c r="H35" s="270"/>
+      <c r="A35" s="260"/>
+      <c r="B35" s="261"/>
+      <c r="C35" s="261"/>
+      <c r="D35" s="261"/>
+      <c r="E35" s="261"/>
+      <c r="F35" s="261"/>
+      <c r="G35" s="261"/>
+      <c r="H35" s="262"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="271"/>
-      <c r="B36" s="272"/>
-      <c r="C36" s="272"/>
-      <c r="D36" s="272"/>
-      <c r="E36" s="272"/>
-      <c r="F36" s="272"/>
-      <c r="G36" s="272"/>
-      <c r="H36" s="273"/>
+      <c r="A36" s="263"/>
+      <c r="B36" s="264"/>
+      <c r="C36" s="264"/>
+      <c r="D36" s="264"/>
+      <c r="E36" s="264"/>
+      <c r="F36" s="264"/>
+      <c r="G36" s="264"/>
+      <c r="H36" s="265"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="258" t="s">
-        <v>307</v>
-      </c>
-      <c r="B38" s="258"/>
-      <c r="C38" s="258"/>
-      <c r="D38" s="258"/>
-      <c r="E38" s="258"/>
-      <c r="F38" s="258"/>
-      <c r="G38" s="258"/>
+      <c r="A38" s="250" t="s">
+        <v>302</v>
+      </c>
+      <c r="B38" s="250"/>
+      <c r="C38" s="250"/>
+      <c r="D38" s="250"/>
+      <c r="E38" s="250"/>
+      <c r="F38" s="250"/>
+      <c r="G38" s="250"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B39" s="78" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C39" s="78" t="s">
-        <v>309</v>
-      </c>
-      <c r="D39" s="257" t="s">
-        <v>310</v>
-      </c>
-      <c r="E39" s="257"/>
-      <c r="F39" s="257"/>
-      <c r="G39" s="257"/>
+        <v>304</v>
+      </c>
+      <c r="D39" s="249" t="s">
+        <v>305</v>
+      </c>
+      <c r="E39" s="249"/>
+      <c r="F39" s="249"/>
+      <c r="G39" s="249"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C40" t="s">
-        <v>445</v>
-      </c>
-      <c r="D40" s="180" t="s">
-        <v>368</v>
+        <v>438</v>
+      </c>
+      <c r="D40" s="176" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C41" t="s">
-        <v>445</v>
-      </c>
-      <c r="D41" s="192" t="s">
-        <v>334</v>
+        <v>438</v>
+      </c>
+      <c r="D41" s="188" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>328</v>
+      </c>
+      <c r="B42" t="s">
         <v>333</v>
       </c>
-      <c r="B42" t="s">
-        <v>338</v>
-      </c>
       <c r="C42" t="s">
-        <v>445</v>
-      </c>
-      <c r="D42" s="180" t="s">
-        <v>335</v>
+        <v>438</v>
+      </c>
+      <c r="D42" s="176" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C43" t="s">
-        <v>445</v>
-      </c>
-      <c r="D43" s="180" t="s">
-        <v>355</v>
+        <v>438</v>
+      </c>
+      <c r="D43" s="176" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B44" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C44" t="s">
-        <v>445</v>
-      </c>
-      <c r="D44" s="183" t="s">
-        <v>336</v>
+        <v>438</v>
+      </c>
+      <c r="D44" s="179" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B45" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C45" t="s">
-        <v>445</v>
-      </c>
-      <c r="D45" s="192" t="s">
-        <v>410</v>
+        <v>438</v>
+      </c>
+      <c r="D45" s="188" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B46" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C46" t="s">
-        <v>445</v>
-      </c>
-      <c r="D46" s="192" t="s">
-        <v>390</v>
+        <v>438</v>
+      </c>
+      <c r="D46" s="188" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B47" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C47" t="s">
-        <v>445</v>
-      </c>
-      <c r="D47" s="192" t="s">
-        <v>411</v>
+        <v>438</v>
+      </c>
+      <c r="D47" s="188" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B48" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C48" t="s">
-        <v>445</v>
-      </c>
-      <c r="D48" s="192" t="s">
-        <v>413</v>
+        <v>438</v>
+      </c>
+      <c r="D48" s="188" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C49" t="s">
-        <v>445</v>
-      </c>
-      <c r="D49" s="192" t="s">
-        <v>412</v>
+        <v>438</v>
+      </c>
+      <c r="D49" s="188" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B50" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C50" t="s">
-        <v>445</v>
-      </c>
-      <c r="D50" s="192" t="s">
-        <v>414</v>
+        <v>438</v>
+      </c>
+      <c r="D50" s="188" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C51" t="s">
-        <v>445</v>
-      </c>
-      <c r="D51" s="192" t="s">
-        <v>417</v>
+        <v>438</v>
+      </c>
+      <c r="D51" s="188" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B52" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C52" t="s">
-        <v>445</v>
-      </c>
-      <c r="D52" s="180" t="s">
-        <v>446</v>
+        <v>438</v>
+      </c>
+      <c r="D52" s="176" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C53" t="s">
-        <v>445</v>
-      </c>
-      <c r="D53" s="192" t="s">
-        <v>420</v>
+        <v>438</v>
+      </c>
+      <c r="D53" s="188" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C54" t="s">
-        <v>445</v>
-      </c>
-      <c r="D54" s="192" t="s">
-        <v>420</v>
+        <v>438</v>
+      </c>
+      <c r="D54" s="188" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B55" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C55" t="s">
-        <v>445</v>
-      </c>
-      <c r="D55" s="192" t="s">
-        <v>420</v>
+        <v>438</v>
+      </c>
+      <c r="D55" s="188" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B56" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C56" t="s">
-        <v>445</v>
-      </c>
-      <c r="D56" s="192" t="s">
-        <v>420</v>
+        <v>438</v>
+      </c>
+      <c r="D56" s="188" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B57" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C57" t="s">
-        <v>445</v>
-      </c>
-      <c r="D57" s="192" t="s">
-        <v>420</v>
+        <v>438</v>
+      </c>
+      <c r="D57" s="188" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B58" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C58" t="s">
-        <v>445</v>
-      </c>
-      <c r="D58" s="180" t="s">
-        <v>421</v>
+        <v>438</v>
+      </c>
+      <c r="D58" s="176" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B59" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C59" t="s">
-        <v>445</v>
-      </c>
-      <c r="D59" s="180" t="s">
-        <v>422</v>
+        <v>438</v>
+      </c>
+      <c r="D59" s="176" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B60" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C60" t="s">
-        <v>445</v>
-      </c>
-      <c r="D60" s="180" t="s">
-        <v>423</v>
+        <v>438</v>
+      </c>
+      <c r="D60" s="176" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B61" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C61" t="s">
-        <v>445</v>
-      </c>
-      <c r="D61" s="180" t="s">
-        <v>424</v>
+        <v>438</v>
+      </c>
+      <c r="D61" s="176" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B62" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C62" t="s">
-        <v>445</v>
-      </c>
-      <c r="D62" s="180" t="s">
-        <v>425</v>
+        <v>438</v>
+      </c>
+      <c r="D62" s="176" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B63" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C63" t="s">
-        <v>445</v>
-      </c>
-      <c r="D63" s="180" t="s">
-        <v>426</v>
+        <v>438</v>
+      </c>
+      <c r="D63" s="176" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B64" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C64" t="s">
-        <v>445</v>
-      </c>
-      <c r="D64" s="180" t="s">
-        <v>427</v>
+        <v>438</v>
+      </c>
+      <c r="D64" s="176" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B65" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C65" t="s">
-        <v>445</v>
-      </c>
-      <c r="D65" s="180" t="s">
-        <v>428</v>
+        <v>438</v>
+      </c>
+      <c r="D65" s="176" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B66" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C66" t="s">
-        <v>445</v>
-      </c>
-      <c r="D66" s="180" t="s">
-        <v>429</v>
+        <v>438</v>
+      </c>
+      <c r="D66" s="176" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B67" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C67" t="s">
-        <v>445</v>
-      </c>
-      <c r="D67" s="180" t="s">
-        <v>430</v>
+        <v>438</v>
+      </c>
+      <c r="D67" s="176" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B68" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C68" t="s">
-        <v>445</v>
-      </c>
-      <c r="D68" s="180" t="s">
-        <v>431</v>
+        <v>438</v>
+      </c>
+      <c r="D68" s="176" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B69" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C69" t="s">
-        <v>445</v>
-      </c>
-      <c r="D69" s="180" t="s">
-        <v>432</v>
+        <v>438</v>
+      </c>
+      <c r="D69" s="176" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B70" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C70" t="s">
-        <v>445</v>
-      </c>
-      <c r="D70" s="180" t="s">
-        <v>433</v>
+        <v>438</v>
+      </c>
+      <c r="D70" s="176" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B71" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C71" t="s">
-        <v>445</v>
-      </c>
-      <c r="D71" s="180" t="s">
-        <v>434</v>
+        <v>438</v>
+      </c>
+      <c r="D71" s="176" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -7235,57 +7258,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="280" t="s">
-        <v>380</v>
-      </c>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="282"/>
+      <c r="A1" s="272" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="274"/>
     </row>
     <row r="2" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="277" t="s">
+      <c r="A2" s="269" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="278"/>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="278"/>
-      <c r="J2" s="279"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="271"/>
     </row>
     <row r="3" spans="1:10" s="113" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="131" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B3" s="131" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C3" s="128" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D3" s="128" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E3" s="125" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F3" s="126" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G3" s="132" t="s">
-        <v>322</v>
-      </c>
-      <c r="H3" s="170" t="s">
-        <v>303</v>
+        <v>317</v>
+      </c>
+      <c r="H3" s="166" t="s">
+        <v>298</v>
       </c>
       <c r="I3" s="128"/>
       <c r="J3" s="130"/>
@@ -7298,10 +7321,10 @@
         <v>95</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D4" s="100" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E4" s="100" t="s">
         <v>15</v>
@@ -7312,8 +7335,8 @@
       <c r="G4" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="171" t="s">
-        <v>304</v>
+      <c r="H4" s="167" t="s">
+        <v>299</v>
       </c>
       <c r="I4" s="101"/>
       <c r="J4" s="102"/>
@@ -7331,33 +7354,33 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="207" t="s">
-        <v>305</v>
-      </c>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
+      <c r="G5" s="199" t="s">
+        <v>300</v>
+      </c>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
     </row>
     <row r="6" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="277" t="s">
+      <c r="A6" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="278"/>
-      <c r="C6" s="278"/>
-      <c r="D6" s="278"/>
-      <c r="E6" s="278"/>
-      <c r="F6" s="278"/>
-      <c r="G6" s="278"/>
-      <c r="H6" s="278"/>
-      <c r="I6" s="278"/>
-      <c r="J6" s="279"/>
+      <c r="B6" s="270"/>
+      <c r="C6" s="270"/>
+      <c r="D6" s="270"/>
+      <c r="E6" s="270"/>
+      <c r="F6" s="270"/>
+      <c r="G6" s="270"/>
+      <c r="H6" s="270"/>
+      <c r="I6" s="270"/>
+      <c r="J6" s="271"/>
     </row>
     <row r="7" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="124" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B7" s="132" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C7" s="128"/>
       <c r="D7" s="128"/>
@@ -7401,41 +7424,41 @@
       <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="277" t="s">
+      <c r="A10" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="278"/>
-      <c r="C10" s="278"/>
-      <c r="D10" s="278"/>
-      <c r="E10" s="278"/>
-      <c r="F10" s="278"/>
-      <c r="G10" s="278"/>
-      <c r="H10" s="278"/>
-      <c r="I10" s="278"/>
-      <c r="J10" s="279"/>
+      <c r="B10" s="270"/>
+      <c r="C10" s="270"/>
+      <c r="D10" s="270"/>
+      <c r="E10" s="270"/>
+      <c r="F10" s="270"/>
+      <c r="G10" s="270"/>
+      <c r="H10" s="270"/>
+      <c r="I10" s="270"/>
+      <c r="J10" s="271"/>
     </row>
     <row r="11" spans="1:10" s="113" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="127"/>
       <c r="B11" s="128" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C11" s="128" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="175" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" s="128" t="s">
         <v>256</v>
       </c>
-      <c r="D11" s="179" t="s">
-        <v>331</v>
-      </c>
-      <c r="E11" s="128" t="s">
-        <v>258</v>
-      </c>
       <c r="F11" s="133" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G11" s="132" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H11" s="132" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="I11" s="128"/>
       <c r="J11" s="130"/>
@@ -7448,19 +7471,19 @@
         <v>13</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D12" s="96" t="s">
         <v>150</v>
       </c>
       <c r="E12" s="96" t="s">
+        <v>257</v>
+      </c>
+      <c r="F12" s="96" t="s">
+        <v>258</v>
+      </c>
+      <c r="G12" s="134" t="s">
         <v>259</v>
-      </c>
-      <c r="F12" s="96" t="s">
-        <v>260</v>
-      </c>
-      <c r="G12" s="134" t="s">
-        <v>261</v>
       </c>
       <c r="H12" s="99" t="s">
         <v>230</v>
@@ -7479,7 +7502,7 @@
         <v>172</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E13" s="4">
         <v>488</v>
@@ -7507,7 +7530,7 @@
         <v>176</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E14" s="4">
         <v>561</v>
@@ -7609,31 +7632,31 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" s="113" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="277" t="s">
+      <c r="A21" s="269" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="278"/>
-      <c r="C21" s="278"/>
-      <c r="D21" s="278"/>
-      <c r="E21" s="278"/>
-      <c r="F21" s="278"/>
-      <c r="G21" s="278"/>
-      <c r="H21" s="278"/>
-      <c r="I21" s="278"/>
-      <c r="J21" s="279"/>
+      <c r="B21" s="270"/>
+      <c r="C21" s="270"/>
+      <c r="D21" s="270"/>
+      <c r="E21" s="270"/>
+      <c r="F21" s="270"/>
+      <c r="G21" s="270"/>
+      <c r="H21" s="270"/>
+      <c r="I21" s="270"/>
+      <c r="J21" s="271"/>
     </row>
     <row r="22" spans="1:10" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="131" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B22" s="132" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C22" s="132" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D22" s="132" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E22" s="128"/>
       <c r="F22" s="129"/>
@@ -7647,10 +7670,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="96" t="s">
         <v>262</v>
-      </c>
-      <c r="C23" s="96" t="s">
-        <v>264</v>
       </c>
       <c r="D23" s="99" t="s">
         <v>230</v>
@@ -7683,34 +7706,34 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="277" t="s">
+      <c r="A25" s="269" t="s">
         <v>151</v>
       </c>
-      <c r="B25" s="278"/>
-      <c r="C25" s="278"/>
-      <c r="D25" s="278"/>
-      <c r="E25" s="278"/>
-      <c r="F25" s="278"/>
-      <c r="G25" s="278"/>
-      <c r="H25" s="278"/>
-      <c r="I25" s="278"/>
-      <c r="J25" s="279"/>
+      <c r="B25" s="270"/>
+      <c r="C25" s="270"/>
+      <c r="D25" s="270"/>
+      <c r="E25" s="270"/>
+      <c r="F25" s="270"/>
+      <c r="G25" s="270"/>
+      <c r="H25" s="270"/>
+      <c r="I25" s="270"/>
+      <c r="J25" s="271"/>
     </row>
     <row r="26" spans="1:10" s="113" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="131" t="s">
-        <v>280</v>
-      </c>
-      <c r="B26" s="197" t="s">
-        <v>366</v>
+        <v>277</v>
+      </c>
+      <c r="B26" s="193" t="s">
+        <v>361</v>
       </c>
       <c r="C26" s="132" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D26" s="132" t="s">
-        <v>265</v>
-      </c>
-      <c r="E26" s="193" t="s">
-        <v>366</v>
+        <v>263</v>
+      </c>
+      <c r="E26" s="189" t="s">
+        <v>361</v>
       </c>
       <c r="F26" s="128"/>
       <c r="G26" s="128"/>
@@ -7724,13 +7747,13 @@
         <v>18</v>
       </c>
       <c r="C27" s="147" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D27" s="96" t="s">
         <v>152</v>
       </c>
       <c r="E27" s="96" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F27" s="147"/>
       <c r="G27" s="147"/>
@@ -7740,13 +7763,13 @@
     </row>
     <row r="28" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="146"/>
-      <c r="B28" s="206" t="s">
-        <v>459</v>
-      </c>
-      <c r="C28" s="190"/>
+      <c r="B28" s="198" t="s">
+        <v>452</v>
+      </c>
+      <c r="C28" s="186"/>
       <c r="D28" s="122"/>
       <c r="E28" s="153" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -7756,240 +7779,240 @@
     </row>
     <row r="29" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:10" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="274" t="s">
-        <v>279</v>
-      </c>
-      <c r="B30" s="275"/>
-      <c r="C30" s="275"/>
-      <c r="D30" s="275"/>
-      <c r="E30" s="275"/>
-      <c r="F30" s="275"/>
-      <c r="G30" s="275"/>
-      <c r="H30" s="276"/>
+      <c r="A30" s="266" t="s">
+        <v>276</v>
+      </c>
+      <c r="B30" s="267"/>
+      <c r="C30" s="267"/>
+      <c r="D30" s="267"/>
+      <c r="E30" s="267"/>
+      <c r="F30" s="267"/>
+      <c r="G30" s="267"/>
+      <c r="H30" s="268"/>
     </row>
     <row r="31" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="268" t="s">
-        <v>360</v>
-      </c>
-      <c r="B31" s="269"/>
-      <c r="C31" s="269"/>
-      <c r="D31" s="269"/>
-      <c r="E31" s="269"/>
-      <c r="F31" s="269"/>
-      <c r="G31" s="269"/>
-      <c r="H31" s="270"/>
+      <c r="A31" s="260" t="s">
+        <v>355</v>
+      </c>
+      <c r="B31" s="261"/>
+      <c r="C31" s="261"/>
+      <c r="D31" s="261"/>
+      <c r="E31" s="261"/>
+      <c r="F31" s="261"/>
+      <c r="G31" s="261"/>
+      <c r="H31" s="262"/>
     </row>
     <row r="32" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="268"/>
-      <c r="B32" s="269"/>
-      <c r="C32" s="269"/>
-      <c r="D32" s="269"/>
-      <c r="E32" s="269"/>
-      <c r="F32" s="269"/>
-      <c r="G32" s="269"/>
-      <c r="H32" s="270"/>
+      <c r="A32" s="260"/>
+      <c r="B32" s="261"/>
+      <c r="C32" s="261"/>
+      <c r="D32" s="261"/>
+      <c r="E32" s="261"/>
+      <c r="F32" s="261"/>
+      <c r="G32" s="261"/>
+      <c r="H32" s="262"/>
     </row>
     <row r="33" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="268"/>
-      <c r="B33" s="269"/>
-      <c r="C33" s="269"/>
-      <c r="D33" s="269"/>
-      <c r="E33" s="269"/>
-      <c r="F33" s="269"/>
-      <c r="G33" s="269"/>
-      <c r="H33" s="270"/>
+      <c r="A33" s="260"/>
+      <c r="B33" s="261"/>
+      <c r="C33" s="261"/>
+      <c r="D33" s="261"/>
+      <c r="E33" s="261"/>
+      <c r="F33" s="261"/>
+      <c r="G33" s="261"/>
+      <c r="H33" s="262"/>
     </row>
     <row r="34" spans="1:8" s="113" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="271"/>
-      <c r="B34" s="272"/>
-      <c r="C34" s="272"/>
-      <c r="D34" s="272"/>
-      <c r="E34" s="272"/>
-      <c r="F34" s="272"/>
-      <c r="G34" s="272"/>
-      <c r="H34" s="273"/>
+      <c r="A34" s="263"/>
+      <c r="B34" s="264"/>
+      <c r="C34" s="264"/>
+      <c r="D34" s="264"/>
+      <c r="E34" s="264"/>
+      <c r="F34" s="264"/>
+      <c r="G34" s="264"/>
+      <c r="H34" s="265"/>
     </row>
     <row r="35" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:8" s="113" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="258" t="s">
-        <v>307</v>
-      </c>
-      <c r="B36" s="258"/>
-      <c r="C36" s="258"/>
-      <c r="D36" s="258"/>
-      <c r="E36" s="258"/>
-      <c r="F36" s="258"/>
-      <c r="G36" s="258"/>
+      <c r="A36" s="250" t="s">
+        <v>302</v>
+      </c>
+      <c r="B36" s="250"/>
+      <c r="C36" s="250"/>
+      <c r="D36" s="250"/>
+      <c r="E36" s="250"/>
+      <c r="F36" s="250"/>
+      <c r="G36" s="250"/>
     </row>
     <row r="37" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B37" s="78" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C37" s="78" t="s">
-        <v>309</v>
-      </c>
-      <c r="D37" s="257" t="s">
-        <v>310</v>
-      </c>
-      <c r="E37" s="257"/>
-      <c r="F37" s="257"/>
-      <c r="G37" s="257"/>
+        <v>304</v>
+      </c>
+      <c r="D37" s="249" t="s">
+        <v>305</v>
+      </c>
+      <c r="E37" s="249"/>
+      <c r="F37" s="249"/>
+      <c r="G37" s="249"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C38" t="s">
-        <v>462</v>
-      </c>
-      <c r="D38" s="180" t="s">
-        <v>368</v>
+        <v>455</v>
+      </c>
+      <c r="D38" s="176" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C39" t="s">
-        <v>462</v>
-      </c>
-      <c r="D39" s="192" t="s">
-        <v>334</v>
+        <v>455</v>
+      </c>
+      <c r="D39" s="188" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>328</v>
+      </c>
+      <c r="B40" t="s">
         <v>333</v>
       </c>
-      <c r="B40" t="s">
-        <v>338</v>
-      </c>
       <c r="C40" t="s">
-        <v>462</v>
-      </c>
-      <c r="D40" s="180" t="s">
-        <v>335</v>
+        <v>455</v>
+      </c>
+      <c r="D40" s="176" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C41" t="s">
-        <v>462</v>
-      </c>
-      <c r="D41" s="180" t="s">
-        <v>355</v>
+        <v>455</v>
+      </c>
+      <c r="D41" s="176" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B42" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C42" t="s">
-        <v>462</v>
-      </c>
-      <c r="D42" s="183" t="s">
-        <v>336</v>
+        <v>455</v>
+      </c>
+      <c r="D42" s="179" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B43" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C43" t="s">
-        <v>462</v>
-      </c>
-      <c r="D43" s="192" t="s">
-        <v>370</v>
+        <v>455</v>
+      </c>
+      <c r="D43" s="188" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C44" t="s">
-        <v>462</v>
-      </c>
-      <c r="D44" s="192" t="s">
-        <v>373</v>
+        <v>455</v>
+      </c>
+      <c r="D44" s="188" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B45" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C45" t="s">
-        <v>462</v>
-      </c>
-      <c r="D45" s="192" t="s">
-        <v>461</v>
+        <v>455</v>
+      </c>
+      <c r="D45" s="188" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C46" t="s">
-        <v>462</v>
-      </c>
-      <c r="D46" s="192" t="s">
-        <v>374</v>
+        <v>455</v>
+      </c>
+      <c r="D46" s="188" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B47" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C47" t="s">
-        <v>462</v>
-      </c>
-      <c r="D47" s="192" t="s">
-        <v>375</v>
+        <v>455</v>
+      </c>
+      <c r="D47" s="188" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B48" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C48" t="s">
-        <v>462</v>
-      </c>
-      <c r="D48" s="183" t="s">
-        <v>464</v>
+        <v>455</v>
+      </c>
+      <c r="D48" s="179" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -8047,8 +8070,8 @@
   </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8073,254 +8096,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="294" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="289"/>
-      <c r="H1" s="289"/>
-      <c r="I1" s="289"/>
-      <c r="J1" s="289"/>
-      <c r="K1" s="289"/>
-      <c r="L1" s="289"/>
-      <c r="M1" s="289"/>
-      <c r="N1" s="289"/>
-      <c r="O1" s="289"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="294"/>
+      <c r="K1" s="294"/>
+      <c r="L1" s="294"/>
+      <c r="M1" s="294"/>
+      <c r="N1" s="294"/>
+      <c r="O1" s="294"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="309" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" s="310"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
-      <c r="F2" s="311"/>
-      <c r="G2" s="290" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
-      <c r="L2" s="290"/>
-      <c r="M2" s="285" t="s">
-        <v>294</v>
-      </c>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
+      <c r="A2" s="295" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="296"/>
+      <c r="C2" s="296"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="298" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="298"/>
+      <c r="K2" s="298"/>
+      <c r="L2" s="298"/>
+      <c r="M2" s="299" t="s">
+        <v>290</v>
+      </c>
+      <c r="N2" s="299"/>
+      <c r="O2" s="299"/>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="312" t="s">
-        <v>293</v>
-      </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313"/>
-      <c r="F3" s="314"/>
-      <c r="G3" s="291" t="s">
-        <v>301</v>
-      </c>
-      <c r="H3" s="291"/>
-      <c r="I3" s="291"/>
-      <c r="J3" s="291"/>
-      <c r="K3" s="291"/>
-      <c r="L3" s="291"/>
-      <c r="M3" s="200" t="s">
-        <v>299</v>
-      </c>
-      <c r="N3" s="200" t="s">
-        <v>366</v>
-      </c>
-      <c r="O3" s="201" t="s">
-        <v>366</v>
-      </c>
-      <c r="P3" s="203"/>
+      <c r="A3" s="300" t="s">
+        <v>486</v>
+      </c>
+      <c r="B3" s="301"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="301"/>
+      <c r="E3" s="301"/>
+      <c r="F3" s="302"/>
+      <c r="G3" s="303" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3" s="303"/>
+      <c r="I3" s="303"/>
+      <c r="J3" s="303"/>
+      <c r="K3" s="303"/>
+      <c r="L3" s="303"/>
+      <c r="M3" s="304" t="s">
+        <v>294</v>
+      </c>
+      <c r="N3" s="304" t="s">
+        <v>361</v>
+      </c>
+      <c r="O3" s="304" t="s">
+        <v>361</v>
+      </c>
+      <c r="P3" s="196"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="315" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" s="316"/>
-      <c r="C4" s="317"/>
-      <c r="D4" s="283" t="s">
+      <c r="A4" s="305" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4" s="306"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="306"/>
+      <c r="F4" s="307"/>
+      <c r="G4" s="308" t="s">
         <v>243</v>
       </c>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
-      <c r="G4" s="283" t="s">
-        <v>245</v>
-      </c>
-      <c r="H4" s="283"/>
-      <c r="I4" s="283"/>
-      <c r="J4" s="283" t="s">
-        <v>302</v>
-      </c>
-      <c r="K4" s="283"/>
-      <c r="L4" s="283"/>
-      <c r="M4" s="166" t="s">
+      <c r="H4" s="308"/>
+      <c r="I4" s="308"/>
+      <c r="J4" s="308" t="s">
+        <v>297</v>
+      </c>
+      <c r="K4" s="308"/>
+      <c r="L4" s="308"/>
+      <c r="M4" s="309" t="s">
         <v>152</v>
       </c>
-      <c r="N4" s="166" t="s">
-        <v>367</v>
-      </c>
-      <c r="O4" s="166" t="s">
+      <c r="N4" s="309" t="s">
+        <v>362</v>
+      </c>
+      <c r="O4" s="309" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="318"/>
-      <c r="B5" s="319"/>
-      <c r="C5" s="320"/>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="284" t="s">
-        <v>277</v>
-      </c>
-      <c r="H5" s="284"/>
-      <c r="I5" s="284"/>
-      <c r="J5" s="284" t="s">
-        <v>290</v>
-      </c>
-      <c r="K5" s="284"/>
-      <c r="L5" s="284"/>
-      <c r="M5" s="199"/>
-      <c r="N5" s="199" t="s">
-        <v>384</v>
-      </c>
-      <c r="O5" s="204" t="s">
-        <v>386</v>
+      <c r="A5" s="310"/>
+      <c r="B5" s="311"/>
+      <c r="C5" s="311"/>
+      <c r="D5" s="311"/>
+      <c r="E5" s="311"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="313" t="s">
+        <v>274</v>
+      </c>
+      <c r="H5" s="313"/>
+      <c r="I5" s="313"/>
+      <c r="J5" s="313" t="s">
+        <v>287</v>
+      </c>
+      <c r="K5" s="313"/>
+      <c r="L5" s="313"/>
+      <c r="M5" s="314"/>
+      <c r="N5" s="314" t="s">
+        <v>379</v>
+      </c>
+      <c r="O5" s="315" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="318" t="s">
-        <v>277</v>
-      </c>
-      <c r="B6" s="319"/>
-      <c r="C6" s="320"/>
-      <c r="D6" s="284" t="s">
-        <v>286</v>
-      </c>
-      <c r="E6" s="284"/>
-      <c r="F6" s="284"/>
-      <c r="G6" s="284" t="s">
-        <v>283</v>
-      </c>
-      <c r="H6" s="284"/>
-      <c r="I6" s="284"/>
-      <c r="J6" s="284"/>
-      <c r="K6" s="284"/>
-      <c r="L6" s="284"/>
-      <c r="M6" s="199"/>
-      <c r="N6" s="199" t="s">
-        <v>385</v>
-      </c>
-      <c r="O6" s="204" t="s">
-        <v>387</v>
+      <c r="A6" s="310" t="s">
+        <v>488</v>
+      </c>
+      <c r="B6" s="311"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="311"/>
+      <c r="F6" s="312"/>
+      <c r="G6" s="313" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6" s="313"/>
+      <c r="I6" s="313"/>
+      <c r="J6" s="313"/>
+      <c r="K6" s="313"/>
+      <c r="L6" s="313"/>
+      <c r="M6" s="314"/>
+      <c r="N6" s="314" t="s">
+        <v>380</v>
+      </c>
+      <c r="O6" s="315" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="318" t="s">
-        <v>277</v>
-      </c>
-      <c r="B7" s="319"/>
-      <c r="C7" s="320"/>
-      <c r="D7" s="284" t="s">
-        <v>287</v>
-      </c>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
-      <c r="G7" s="284"/>
-      <c r="H7" s="284"/>
-      <c r="I7" s="284"/>
-      <c r="J7" s="284"/>
-      <c r="K7" s="284"/>
-      <c r="L7" s="284"/>
-      <c r="M7" s="199"/>
-      <c r="N7" s="199"/>
-      <c r="O7" s="164"/>
+      <c r="A7" s="310" t="s">
+        <v>489</v>
+      </c>
+      <c r="B7" s="311"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="311"/>
+      <c r="E7" s="311"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="313"/>
+      <c r="H7" s="313"/>
+      <c r="I7" s="313"/>
+      <c r="J7" s="313"/>
+      <c r="K7" s="313"/>
+      <c r="L7" s="313"/>
+      <c r="M7" s="314"/>
+      <c r="N7" s="314"/>
+      <c r="O7" s="315"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="318"/>
-      <c r="B8" s="319"/>
-      <c r="C8" s="320"/>
-      <c r="D8" s="284" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="284"/>
-      <c r="F8" s="284"/>
-      <c r="G8" s="284"/>
-      <c r="H8" s="284"/>
-      <c r="I8" s="284"/>
-      <c r="J8" s="284"/>
-      <c r="K8" s="284"/>
-      <c r="L8" s="284"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="199"/>
-      <c r="O8" s="164"/>
+      <c r="A8" s="310"/>
+      <c r="B8" s="311"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="311"/>
+      <c r="E8" s="311"/>
+      <c r="F8" s="312"/>
+      <c r="G8" s="313"/>
+      <c r="H8" s="313"/>
+      <c r="I8" s="313"/>
+      <c r="J8" s="313"/>
+      <c r="K8" s="313"/>
+      <c r="L8" s="313"/>
+      <c r="M8" s="314"/>
+      <c r="N8" s="314"/>
+      <c r="O8" s="315"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="286" t="s">
-        <v>354</v>
-      </c>
-      <c r="B10" s="287"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="287"/>
-      <c r="I10" s="288"/>
+      <c r="A10" s="275" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" s="276"/>
+      <c r="C10" s="276"/>
+      <c r="D10" s="276"/>
+      <c r="E10" s="276"/>
+      <c r="F10" s="276"/>
+      <c r="G10" s="276"/>
+      <c r="H10" s="276"/>
+      <c r="I10" s="277"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B11" s="132" t="s">
-        <v>332</v>
-      </c>
-      <c r="C11" s="193" t="s">
-        <v>366</v>
+        <v>327</v>
+      </c>
+      <c r="C11" s="189" t="s">
+        <v>361</v>
       </c>
       <c r="D11" s="125" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E11" s="125" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G11" s="132" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H11" s="132" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I11" s="144" t="s">
-        <v>275</v>
-      </c>
-      <c r="K11" s="191"/>
-      <c r="L11" s="191"/>
+        <v>272</v>
+      </c>
+      <c r="K11" s="187"/>
+      <c r="L11" s="187"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="148"/>
       <c r="B12" s="147" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D12" s="147" t="s">
         <v>92</v>
@@ -8332,13 +8347,13 @@
         <v>94</v>
       </c>
       <c r="G12" s="147" t="s">
+        <v>249</v>
+      </c>
+      <c r="H12" s="147" t="s">
+        <v>250</v>
+      </c>
+      <c r="I12" s="149" t="s">
         <v>251</v>
-      </c>
-      <c r="H12" s="147" t="s">
-        <v>252</v>
-      </c>
-      <c r="I12" s="149" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8364,554 +8379,549 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="274" t="s">
-        <v>279</v>
-      </c>
-      <c r="B15" s="275"/>
-      <c r="C15" s="275"/>
-      <c r="D15" s="275"/>
-      <c r="E15" s="275"/>
-      <c r="F15" s="275"/>
-      <c r="G15" s="275"/>
-      <c r="H15" s="276"/>
+      <c r="A15" s="266" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" s="267"/>
+      <c r="C15" s="267"/>
+      <c r="D15" s="267"/>
+      <c r="E15" s="267"/>
+      <c r="F15" s="267"/>
+      <c r="G15" s="267"/>
+      <c r="H15" s="268"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="268" t="s">
-        <v>362</v>
-      </c>
-      <c r="B16" s="269"/>
-      <c r="C16" s="269"/>
-      <c r="D16" s="269"/>
-      <c r="E16" s="269"/>
-      <c r="F16" s="269"/>
-      <c r="G16" s="269"/>
-      <c r="H16" s="270"/>
+      <c r="A16" s="260" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" s="261"/>
+      <c r="C16" s="261"/>
+      <c r="D16" s="261"/>
+      <c r="E16" s="261"/>
+      <c r="F16" s="261"/>
+      <c r="G16" s="261"/>
+      <c r="H16" s="262"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="268"/>
-      <c r="B17" s="269"/>
-      <c r="C17" s="269"/>
-      <c r="D17" s="269"/>
-      <c r="E17" s="269"/>
-      <c r="F17" s="269"/>
-      <c r="G17" s="269"/>
-      <c r="H17" s="270"/>
+      <c r="A17" s="260"/>
+      <c r="B17" s="261"/>
+      <c r="C17" s="261"/>
+      <c r="D17" s="261"/>
+      <c r="E17" s="261"/>
+      <c r="F17" s="261"/>
+      <c r="G17" s="261"/>
+      <c r="H17" s="262"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="268"/>
-      <c r="B18" s="269"/>
-      <c r="C18" s="269"/>
-      <c r="D18" s="269"/>
-      <c r="E18" s="269"/>
-      <c r="F18" s="269"/>
-      <c r="G18" s="269"/>
-      <c r="H18" s="270"/>
+      <c r="A18" s="260"/>
+      <c r="B18" s="261"/>
+      <c r="C18" s="261"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="261"/>
+      <c r="F18" s="261"/>
+      <c r="G18" s="261"/>
+      <c r="H18" s="262"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="271"/>
-      <c r="B19" s="272"/>
-      <c r="C19" s="272"/>
-      <c r="D19" s="272"/>
-      <c r="E19" s="272"/>
-      <c r="F19" s="272"/>
-      <c r="G19" s="272"/>
-      <c r="H19" s="273"/>
+      <c r="A19" s="263"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="264"/>
+      <c r="D19" s="264"/>
+      <c r="E19" s="264"/>
+      <c r="F19" s="264"/>
+      <c r="G19" s="264"/>
+      <c r="H19" s="265"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="258" t="s">
-        <v>307</v>
-      </c>
-      <c r="B21" s="258"/>
-      <c r="C21" s="258"/>
-      <c r="D21" s="258"/>
-      <c r="E21" s="258"/>
-      <c r="F21" s="258"/>
-      <c r="G21" s="258"/>
+      <c r="A21" s="250" t="s">
+        <v>302</v>
+      </c>
+      <c r="B21" s="250"/>
+      <c r="C21" s="250"/>
+      <c r="D21" s="250"/>
+      <c r="E21" s="250"/>
+      <c r="F21" s="250"/>
+      <c r="G21" s="250"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B22" s="78" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>309</v>
-      </c>
-      <c r="D22" s="257" t="s">
-        <v>310</v>
-      </c>
-      <c r="E22" s="257"/>
-      <c r="F22" s="257"/>
-      <c r="G22" s="257"/>
+        <v>304</v>
+      </c>
+      <c r="D22" s="249" t="s">
+        <v>305</v>
+      </c>
+      <c r="E22" s="249"/>
+      <c r="F22" s="249"/>
+      <c r="G22" s="249"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B23" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C23" t="s">
-        <v>448</v>
-      </c>
-      <c r="D23" s="180" t="s">
-        <v>368</v>
+        <v>441</v>
+      </c>
+      <c r="D23" s="176" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B24" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C24" t="s">
-        <v>448</v>
-      </c>
-      <c r="D24" s="192" t="s">
-        <v>334</v>
+        <v>441</v>
+      </c>
+      <c r="D24" s="188" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>328</v>
+      </c>
+      <c r="B25" t="s">
         <v>333</v>
       </c>
-      <c r="B25" t="s">
-        <v>338</v>
-      </c>
       <c r="C25" t="s">
-        <v>448</v>
-      </c>
-      <c r="D25" s="180" t="s">
-        <v>335</v>
+        <v>441</v>
+      </c>
+      <c r="D25" s="176" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B26" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C26" t="s">
-        <v>448</v>
-      </c>
-      <c r="D26" s="180" t="s">
-        <v>355</v>
+        <v>441</v>
+      </c>
+      <c r="D26" s="176" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B27" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C27" t="s">
-        <v>448</v>
-      </c>
-      <c r="D27" s="183" t="s">
-        <v>336</v>
+        <v>441</v>
+      </c>
+      <c r="D27" s="179" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B28" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C28" t="s">
-        <v>448</v>
-      </c>
-      <c r="D28" s="192" t="s">
-        <v>391</v>
+        <v>441</v>
+      </c>
+      <c r="D28" s="188" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B29" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C29" t="s">
-        <v>448</v>
-      </c>
-      <c r="D29" s="192" t="s">
-        <v>390</v>
+        <v>441</v>
+      </c>
+      <c r="D29" s="188" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B30" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C30" t="s">
-        <v>448</v>
-      </c>
-      <c r="D30" s="192" t="s">
-        <v>392</v>
+        <v>441</v>
+      </c>
+      <c r="D30" s="188" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B31" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C31" t="s">
-        <v>448</v>
-      </c>
-      <c r="D31" s="192" t="s">
-        <v>343</v>
+        <v>441</v>
+      </c>
+      <c r="D31" s="188" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B32" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C32" t="s">
-        <v>448</v>
-      </c>
-      <c r="D32" s="192" t="s">
-        <v>393</v>
+        <v>441</v>
+      </c>
+      <c r="D32" s="188" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B33" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C33" t="s">
-        <v>448</v>
-      </c>
-      <c r="D33" s="192" t="s">
-        <v>394</v>
+        <v>441</v>
+      </c>
+      <c r="D33" s="188" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B34" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C34" t="s">
-        <v>448</v>
-      </c>
-      <c r="D34" s="180" t="s">
-        <v>395</v>
+        <v>441</v>
+      </c>
+      <c r="D34" s="176" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B35" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C35" t="s">
-        <v>448</v>
-      </c>
-      <c r="D35" s="180" t="s">
-        <v>396</v>
+        <v>441</v>
+      </c>
+      <c r="D35" s="176" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B36" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C36" t="s">
-        <v>448</v>
-      </c>
-      <c r="D36" s="180" t="s">
-        <v>397</v>
+        <v>441</v>
+      </c>
+      <c r="D36" s="176" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B37" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C37" t="s">
-        <v>448</v>
-      </c>
-      <c r="D37" s="180" t="s">
-        <v>398</v>
+        <v>441</v>
+      </c>
+      <c r="D37" s="176" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B38" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C38" t="s">
-        <v>448</v>
-      </c>
-      <c r="D38" s="180" t="s">
-        <v>399</v>
+        <v>441</v>
+      </c>
+      <c r="D38" s="176" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B39" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C39" t="s">
-        <v>448</v>
-      </c>
-      <c r="D39" s="180" t="s">
-        <v>400</v>
+        <v>441</v>
+      </c>
+      <c r="D39" s="176" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B40" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C40" t="s">
-        <v>448</v>
-      </c>
-      <c r="D40" s="180" t="s">
-        <v>401</v>
+        <v>441</v>
+      </c>
+      <c r="D40" s="176" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B41" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C41" t="s">
-        <v>448</v>
-      </c>
-      <c r="D41" s="180" t="s">
-        <v>449</v>
+        <v>441</v>
+      </c>
+      <c r="D41" s="176" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B42" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C42" t="s">
-        <v>448</v>
-      </c>
-      <c r="D42" s="180" t="s">
-        <v>402</v>
+        <v>441</v>
+      </c>
+      <c r="D42" s="176" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B43" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C43" t="s">
-        <v>448</v>
-      </c>
-      <c r="D43" s="180" t="s">
-        <v>450</v>
+        <v>441</v>
+      </c>
+      <c r="D43" s="176" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B44" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C44" t="s">
-        <v>448</v>
-      </c>
-      <c r="D44" s="180" t="s">
-        <v>402</v>
+        <v>441</v>
+      </c>
+      <c r="D44" s="176" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B45" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C45" t="s">
-        <v>448</v>
-      </c>
-      <c r="D45" s="180" t="s">
-        <v>451</v>
+        <v>441</v>
+      </c>
+      <c r="D45" s="176" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C46" t="s">
-        <v>448</v>
-      </c>
-      <c r="D46" s="180" t="s">
-        <v>452</v>
+        <v>441</v>
+      </c>
+      <c r="D46" s="176" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B47" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C47" t="s">
-        <v>448</v>
-      </c>
-      <c r="D47" s="180" t="s">
-        <v>453</v>
+        <v>441</v>
+      </c>
+      <c r="D47" s="176" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B48" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C48" t="s">
-        <v>448</v>
-      </c>
-      <c r="D48" s="180" t="s">
-        <v>454</v>
+        <v>441</v>
+      </c>
+      <c r="D48" s="176" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C49" t="s">
+        <v>441</v>
+      </c>
+      <c r="D49" s="176" t="s">
         <v>448</v>
-      </c>
-      <c r="D49" s="180" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B50" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C50" t="s">
-        <v>448</v>
-      </c>
-      <c r="D50" s="180" t="s">
-        <v>456</v>
+        <v>441</v>
+      </c>
+      <c r="D50" s="176" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C51" t="s">
-        <v>448</v>
-      </c>
-      <c r="D51" s="180" t="s">
-        <v>457</v>
+        <v>441</v>
+      </c>
+      <c r="D51" s="176" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B52" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C52" t="s">
-        <v>448</v>
-      </c>
-      <c r="D52" s="192" t="s">
-        <v>394</v>
+        <v>441</v>
+      </c>
+      <c r="D52" s="188" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B53" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C53" t="s">
-        <v>448</v>
-      </c>
-      <c r="D53" s="180" t="s">
-        <v>403</v>
+        <v>441</v>
+      </c>
+      <c r="D53" s="176" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D4:F4"/>
+  <mergeCells count="26">
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8977,8 +8987,8 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9003,244 +9013,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="294" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="289"/>
-      <c r="H1" s="289"/>
-      <c r="I1" s="289"/>
-      <c r="J1" s="289"/>
-      <c r="K1" s="289"/>
-      <c r="L1" s="289"/>
-      <c r="M1" s="289"/>
-      <c r="N1" s="289"/>
-      <c r="O1" s="289"/>
-      <c r="P1" s="289"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="294"/>
+      <c r="K1" s="294"/>
+      <c r="L1" s="294"/>
+      <c r="M1" s="294"/>
+      <c r="N1" s="294"/>
+      <c r="O1" s="294"/>
+      <c r="P1" s="294"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="290" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" s="290"/>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290" t="s">
+      <c r="A2" s="298" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="298"/>
+      <c r="E2" s="298"/>
+      <c r="F2" s="298"/>
+      <c r="G2" s="298" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="298"/>
+      <c r="K2" s="298"/>
+      <c r="L2" s="298"/>
+      <c r="M2" s="299" t="s">
+        <v>289</v>
+      </c>
+      <c r="N2" s="299"/>
+      <c r="O2" s="299"/>
+      <c r="P2" s="299"/>
+      <c r="Q2" s="88"/>
+    </row>
+    <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="303" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3" s="303"/>
+      <c r="C3" s="303"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="303"/>
+      <c r="F3" s="303"/>
+      <c r="G3" s="303" t="s">
+        <v>291</v>
+      </c>
+      <c r="H3" s="303"/>
+      <c r="I3" s="303"/>
+      <c r="J3" s="303"/>
+      <c r="K3" s="303"/>
+      <c r="L3" s="303"/>
+      <c r="M3" s="304" t="s">
+        <v>293</v>
+      </c>
+      <c r="N3" s="304" t="s">
+        <v>292</v>
+      </c>
+      <c r="O3" s="304" t="s">
+        <v>361</v>
+      </c>
+      <c r="P3" s="304" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q3" s="195"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="305" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4" s="306"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="306"/>
+      <c r="F4" s="307"/>
+      <c r="G4" s="308" t="s">
         <v>244</v>
       </c>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
-      <c r="L2" s="290"/>
-      <c r="M2" s="285" t="s">
-        <v>292</v>
-      </c>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
-      <c r="P2" s="285"/>
-      <c r="Q2" s="88"/>
-    </row>
-    <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="291" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" s="291"/>
-      <c r="C3" s="291"/>
-      <c r="D3" s="291"/>
-      <c r="E3" s="291"/>
-      <c r="F3" s="291"/>
-      <c r="G3" s="291" t="s">
-        <v>295</v>
-      </c>
-      <c r="H3" s="291"/>
-      <c r="I3" s="291"/>
-      <c r="J3" s="291"/>
-      <c r="K3" s="291"/>
-      <c r="L3" s="291"/>
-      <c r="M3" s="200" t="s">
-        <v>298</v>
-      </c>
-      <c r="N3" s="200" t="s">
-        <v>297</v>
-      </c>
-      <c r="O3" s="200" t="s">
-        <v>366</v>
-      </c>
-      <c r="P3" s="200" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q3" s="202"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="283" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" s="283"/>
-      <c r="C4" s="283"/>
-      <c r="D4" s="283" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
-      <c r="G4" s="283" t="s">
-        <v>246</v>
-      </c>
-      <c r="H4" s="283"/>
-      <c r="I4" s="283"/>
-      <c r="J4" s="283"/>
-      <c r="K4" s="283"/>
-      <c r="L4" s="283"/>
-      <c r="M4" s="166" t="s">
-        <v>250</v>
-      </c>
-      <c r="N4" s="166" t="s">
+      <c r="H4" s="308"/>
+      <c r="I4" s="308"/>
+      <c r="J4" s="308"/>
+      <c r="K4" s="308"/>
+      <c r="L4" s="308"/>
+      <c r="M4" s="309" t="s">
+        <v>248</v>
+      </c>
+      <c r="N4" s="309" t="s">
         <v>152</v>
       </c>
-      <c r="O4" s="166" t="s">
-        <v>367</v>
-      </c>
-      <c r="P4" s="166" t="s">
+      <c r="O4" s="309" t="s">
+        <v>362</v>
+      </c>
+      <c r="P4" s="309" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="284"/>
-      <c r="B5" s="284"/>
-      <c r="C5" s="284"/>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="292" t="s">
+      <c r="A5" s="310"/>
+      <c r="B5" s="311"/>
+      <c r="C5" s="311"/>
+      <c r="D5" s="311"/>
+      <c r="E5" s="311"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="316" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="292"/>
-      <c r="I5" s="292"/>
-      <c r="J5" s="292"/>
-      <c r="K5" s="292"/>
-      <c r="L5" s="292"/>
-      <c r="M5" s="199" t="s">
-        <v>289</v>
-      </c>
-      <c r="N5" s="199"/>
-      <c r="O5" s="199" t="s">
-        <v>388</v>
-      </c>
-      <c r="P5" s="199" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="284"/>
-      <c r="B6" s="284"/>
-      <c r="C6" s="284"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="284"/>
-      <c r="F6" s="284"/>
-      <c r="G6" s="292"/>
-      <c r="H6" s="292"/>
-      <c r="I6" s="292"/>
-      <c r="J6" s="292"/>
-      <c r="K6" s="292"/>
-      <c r="L6" s="292"/>
-      <c r="M6" s="199"/>
-      <c r="N6" s="199"/>
-      <c r="O6" s="199"/>
-      <c r="P6" s="167"/>
+      <c r="H5" s="316"/>
+      <c r="I5" s="316"/>
+      <c r="J5" s="316"/>
+      <c r="K5" s="316"/>
+      <c r="L5" s="316"/>
+      <c r="M5" s="314" t="s">
+        <v>286</v>
+      </c>
+      <c r="N5" s="314"/>
+      <c r="O5" s="314" t="s">
+        <v>491</v>
+      </c>
+      <c r="P5" s="314" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="310" t="s">
+        <v>493</v>
+      </c>
+      <c r="B6" s="311"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="311"/>
+      <c r="F6" s="312"/>
+      <c r="G6" s="316" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="316"/>
+      <c r="I6" s="316"/>
+      <c r="J6" s="316"/>
+      <c r="K6" s="316"/>
+      <c r="L6" s="316"/>
+      <c r="M6" s="314"/>
+      <c r="N6" s="314"/>
+      <c r="O6" s="314" t="s">
+        <v>494</v>
+      </c>
+      <c r="P6" s="314" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="284"/>
-      <c r="B7" s="284"/>
-      <c r="C7" s="284"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
-      <c r="I7" s="292"/>
-      <c r="J7" s="292"/>
-      <c r="K7" s="292"/>
-      <c r="L7" s="292"/>
-      <c r="M7" s="199"/>
-      <c r="N7" s="199"/>
-      <c r="O7" s="199"/>
-      <c r="P7" s="165"/>
+      <c r="A7" s="310"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="311"/>
+      <c r="E7" s="311"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="316"/>
+      <c r="H7" s="316"/>
+      <c r="I7" s="316"/>
+      <c r="J7" s="316"/>
+      <c r="K7" s="316"/>
+      <c r="L7" s="316"/>
+      <c r="M7" s="314"/>
+      <c r="N7" s="314"/>
+      <c r="O7" s="314"/>
+      <c r="P7" s="315"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="284"/>
-      <c r="B8" s="284"/>
-      <c r="C8" s="284"/>
-      <c r="D8" s="284"/>
-      <c r="E8" s="284"/>
-      <c r="F8" s="284"/>
-      <c r="G8" s="292"/>
-      <c r="H8" s="292"/>
-      <c r="I8" s="292"/>
-      <c r="J8" s="292"/>
-      <c r="K8" s="292"/>
-      <c r="L8" s="292"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="199"/>
-      <c r="O8" s="199"/>
-      <c r="P8" s="165"/>
+      <c r="A8" s="310"/>
+      <c r="B8" s="311"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="311"/>
+      <c r="E8" s="311"/>
+      <c r="F8" s="312"/>
+      <c r="G8" s="316"/>
+      <c r="H8" s="316"/>
+      <c r="I8" s="316"/>
+      <c r="J8" s="316"/>
+      <c r="K8" s="316"/>
+      <c r="L8" s="316"/>
+      <c r="M8" s="314"/>
+      <c r="N8" s="314"/>
+      <c r="O8" s="314"/>
+      <c r="P8" s="315"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="286" t="s">
-        <v>353</v>
-      </c>
-      <c r="B10" s="287"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="287"/>
-      <c r="I10" s="288"/>
+      <c r="A10" s="275" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="276"/>
+      <c r="C10" s="276"/>
+      <c r="D10" s="276"/>
+      <c r="E10" s="276"/>
+      <c r="F10" s="276"/>
+      <c r="G10" s="276"/>
+      <c r="H10" s="276"/>
+      <c r="I10" s="277"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B11" s="132" t="s">
-        <v>332</v>
-      </c>
-      <c r="C11" s="193" t="s">
-        <v>366</v>
+        <v>327</v>
+      </c>
+      <c r="C11" s="189" t="s">
+        <v>361</v>
       </c>
       <c r="D11" s="125" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E11" s="125" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G11" s="132" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H11" s="132" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I11" s="144" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="148"/>
       <c r="B12" s="147" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D12" s="147" t="s">
         <v>92</v>
@@ -9252,15 +9268,15 @@
         <v>94</v>
       </c>
       <c r="G12" s="147" t="s">
+        <v>249</v>
+      </c>
+      <c r="H12" s="147" t="s">
+        <v>250</v>
+      </c>
+      <c r="I12" s="149" t="s">
         <v>251</v>
       </c>
-      <c r="H12" s="147" t="s">
-        <v>252</v>
-      </c>
-      <c r="I12" s="149" t="s">
-        <v>253</v>
-      </c>
-      <c r="K12" s="168"/>
+      <c r="K12" s="164"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="146"/>
@@ -9285,283 +9301,278 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="274" t="s">
-        <v>279</v>
-      </c>
-      <c r="B15" s="275"/>
-      <c r="C15" s="275"/>
-      <c r="D15" s="275"/>
-      <c r="E15" s="275"/>
-      <c r="F15" s="275"/>
-      <c r="G15" s="275"/>
-      <c r="H15" s="276"/>
+      <c r="A15" s="266" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" s="267"/>
+      <c r="C15" s="267"/>
+      <c r="D15" s="267"/>
+      <c r="E15" s="267"/>
+      <c r="F15" s="267"/>
+      <c r="G15" s="267"/>
+      <c r="H15" s="268"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="268" t="s">
-        <v>363</v>
-      </c>
-      <c r="B16" s="269"/>
-      <c r="C16" s="269"/>
-      <c r="D16" s="269"/>
-      <c r="E16" s="269"/>
-      <c r="F16" s="269"/>
-      <c r="G16" s="269"/>
-      <c r="H16" s="270"/>
+      <c r="A16" s="260" t="s">
+        <v>358</v>
+      </c>
+      <c r="B16" s="261"/>
+      <c r="C16" s="261"/>
+      <c r="D16" s="261"/>
+      <c r="E16" s="261"/>
+      <c r="F16" s="261"/>
+      <c r="G16" s="261"/>
+      <c r="H16" s="262"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="268"/>
-      <c r="B17" s="269"/>
-      <c r="C17" s="269"/>
-      <c r="D17" s="269"/>
-      <c r="E17" s="269"/>
-      <c r="F17" s="269"/>
-      <c r="G17" s="269"/>
-      <c r="H17" s="270"/>
+      <c r="A17" s="260"/>
+      <c r="B17" s="261"/>
+      <c r="C17" s="261"/>
+      <c r="D17" s="261"/>
+      <c r="E17" s="261"/>
+      <c r="F17" s="261"/>
+      <c r="G17" s="261"/>
+      <c r="H17" s="262"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="268"/>
-      <c r="B18" s="269"/>
-      <c r="C18" s="269"/>
-      <c r="D18" s="269"/>
-      <c r="E18" s="269"/>
-      <c r="F18" s="269"/>
-      <c r="G18" s="269"/>
-      <c r="H18" s="270"/>
+      <c r="A18" s="260"/>
+      <c r="B18" s="261"/>
+      <c r="C18" s="261"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="261"/>
+      <c r="F18" s="261"/>
+      <c r="G18" s="261"/>
+      <c r="H18" s="262"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="271"/>
-      <c r="B19" s="272"/>
-      <c r="C19" s="272"/>
-      <c r="D19" s="272"/>
-      <c r="E19" s="272"/>
-      <c r="F19" s="272"/>
-      <c r="G19" s="272"/>
-      <c r="H19" s="273"/>
+      <c r="A19" s="263"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="264"/>
+      <c r="D19" s="264"/>
+      <c r="E19" s="264"/>
+      <c r="F19" s="264"/>
+      <c r="G19" s="264"/>
+      <c r="H19" s="265"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="258" t="s">
-        <v>307</v>
-      </c>
-      <c r="B21" s="258"/>
-      <c r="C21" s="258"/>
-      <c r="D21" s="258"/>
-      <c r="E21" s="258"/>
-      <c r="F21" s="258"/>
-      <c r="G21" s="258"/>
+      <c r="A21" s="250" t="s">
+        <v>302</v>
+      </c>
+      <c r="B21" s="250"/>
+      <c r="C21" s="250"/>
+      <c r="D21" s="250"/>
+      <c r="E21" s="250"/>
+      <c r="F21" s="250"/>
+      <c r="G21" s="250"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B22" s="78" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>309</v>
-      </c>
-      <c r="D22" s="257" t="s">
-        <v>310</v>
-      </c>
-      <c r="E22" s="257"/>
-      <c r="F22" s="257"/>
-      <c r="G22" s="257"/>
+        <v>304</v>
+      </c>
+      <c r="D22" s="249" t="s">
+        <v>305</v>
+      </c>
+      <c r="E22" s="249"/>
+      <c r="F22" s="249"/>
+      <c r="G22" s="249"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B23" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C23" t="s">
-        <v>458</v>
-      </c>
-      <c r="D23" s="180" t="s">
-        <v>368</v>
+        <v>451</v>
+      </c>
+      <c r="D23" s="176" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B24" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C24" t="s">
-        <v>458</v>
-      </c>
-      <c r="D24" s="192" t="s">
-        <v>334</v>
+        <v>451</v>
+      </c>
+      <c r="D24" s="188" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>328</v>
+      </c>
+      <c r="B25" t="s">
         <v>333</v>
       </c>
-      <c r="B25" t="s">
-        <v>338</v>
-      </c>
       <c r="C25" t="s">
-        <v>458</v>
-      </c>
-      <c r="D25" s="180" t="s">
-        <v>335</v>
+        <v>451</v>
+      </c>
+      <c r="D25" s="176" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B26" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C26" t="s">
-        <v>458</v>
-      </c>
-      <c r="D26" s="180" t="s">
-        <v>355</v>
+        <v>451</v>
+      </c>
+      <c r="D26" s="176" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B27" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C27" t="s">
-        <v>458</v>
-      </c>
-      <c r="D27" s="183" t="s">
-        <v>336</v>
+        <v>451</v>
+      </c>
+      <c r="D27" s="179" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B28" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C28" t="s">
-        <v>458</v>
-      </c>
-      <c r="D28" s="192" t="s">
-        <v>404</v>
+        <v>451</v>
+      </c>
+      <c r="D28" s="188" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B29" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C29" t="s">
-        <v>458</v>
-      </c>
-      <c r="D29" s="192" t="s">
-        <v>390</v>
+        <v>451</v>
+      </c>
+      <c r="D29" s="188" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B30" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C30" t="s">
-        <v>458</v>
-      </c>
-      <c r="D30" s="192" t="s">
-        <v>405</v>
+        <v>451</v>
+      </c>
+      <c r="D30" s="188" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B31" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C31" t="s">
-        <v>458</v>
-      </c>
-      <c r="D31" s="192" t="s">
-        <v>345</v>
+        <v>451</v>
+      </c>
+      <c r="D31" s="188" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B32" t="s">
+        <v>336</v>
+      </c>
+      <c r="C32" t="s">
+        <v>451</v>
+      </c>
+      <c r="D32" s="188" t="s">
         <v>341</v>
-      </c>
-      <c r="C32" t="s">
-        <v>458</v>
-      </c>
-      <c r="D32" s="192" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B33" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C33" t="s">
-        <v>458</v>
-      </c>
-      <c r="D33" s="180" t="s">
-        <v>406</v>
+        <v>451</v>
+      </c>
+      <c r="D33" s="176" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B34" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C34" t="s">
-        <v>458</v>
-      </c>
-      <c r="D34" s="192" t="s">
-        <v>349</v>
+        <v>451</v>
+      </c>
+      <c r="D34" s="188" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="21">
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A7:F7"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="G4:L4"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A16:H19"/>
     <mergeCell ref="G6:L6"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9635,7 +9646,7 @@
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
     <col min="2" max="2" width="68.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="189" customWidth="1"/>
+    <col min="3" max="3" width="16" style="185" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="67" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
@@ -9643,12 +9654,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="293" t="s">
-        <v>247</v>
-      </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="295"/>
+      <c r="A1" s="278" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="279"/>
+      <c r="C1" s="279"/>
+      <c r="D1" s="280"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
@@ -9683,7 +9694,7 @@
       <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="186"/>
+      <c r="C3" s="182"/>
       <c r="D3" s="23"/>
       <c r="F3" s="136" t="s">
         <v>77</v>
@@ -9696,7 +9707,7 @@
       <c r="B4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="187"/>
+      <c r="C4" s="183"/>
       <c r="D4" s="24">
         <v>0</v>
       </c>
@@ -9711,7 +9722,7 @@
       <c r="B5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="187"/>
+      <c r="C5" s="183"/>
       <c r="D5" s="24">
         <v>7</v>
       </c>
@@ -9723,7 +9734,7 @@
       <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="187">
+      <c r="C6" s="183">
         <v>1</v>
       </c>
       <c r="D6" s="24">
@@ -9731,13 +9742,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="211" t="s">
-        <v>489</v>
+      <c r="A7" s="203" t="s">
+        <v>482</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="C7" s="212">
+        <v>483</v>
+      </c>
+      <c r="C7" s="204">
         <v>0</v>
       </c>
       <c r="D7" s="24">
@@ -9745,13 +9756,13 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="211" t="s">
-        <v>491</v>
+      <c r="A8" s="203" t="s">
+        <v>484</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="C8" s="212">
+        <v>485</v>
+      </c>
+      <c r="C8" s="204">
         <v>0</v>
       </c>
       <c r="D8" s="24">
@@ -9765,7 +9776,7 @@
       <c r="B9" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="187"/>
+      <c r="C9" s="183"/>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -9775,7 +9786,7 @@
       <c r="B10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="186"/>
+      <c r="C10" s="182"/>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -9785,7 +9796,7 @@
       <c r="B11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="187"/>
+      <c r="C11" s="183"/>
       <c r="D11" s="24">
         <v>0</v>
       </c>
@@ -9797,7 +9808,7 @@
       <c r="B12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="187"/>
+      <c r="C12" s="183"/>
       <c r="D12" s="25" t="s">
         <v>66</v>
       </c>
@@ -9809,7 +9820,7 @@
       <c r="B13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="187"/>
+      <c r="C13" s="183"/>
       <c r="D13" s="25" t="s">
         <v>67</v>
       </c>
@@ -9821,7 +9832,7 @@
       <c r="B14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="187"/>
+      <c r="C14" s="183"/>
       <c r="D14" s="24">
         <v>0</v>
       </c>
@@ -9833,7 +9844,7 @@
       <c r="B15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="187"/>
+      <c r="C15" s="183"/>
       <c r="D15" s="24" t="s">
         <v>29</v>
       </c>
@@ -9845,7 +9856,7 @@
       <c r="B16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="186"/>
+      <c r="C16" s="182"/>
       <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9855,7 +9866,7 @@
       <c r="B17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="187"/>
+      <c r="C17" s="183"/>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -9865,7 +9876,7 @@
       <c r="B18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="187"/>
+      <c r="C18" s="183"/>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -9875,7 +9886,7 @@
       <c r="B19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="187"/>
+      <c r="C19" s="183"/>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9885,7 +9896,7 @@
       <c r="B20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="187"/>
+      <c r="C20" s="183"/>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -9895,7 +9906,7 @@
       <c r="B21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="187"/>
+      <c r="C21" s="183"/>
       <c r="D21" s="24">
         <v>1</v>
       </c>
@@ -9907,7 +9918,7 @@
       <c r="B22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="187"/>
+      <c r="C22" s="183"/>
       <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -9917,7 +9928,7 @@
       <c r="B23" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="187"/>
+      <c r="C23" s="183"/>
       <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -9927,7 +9938,7 @@
       <c r="B24" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="187"/>
+      <c r="C24" s="183"/>
       <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -9937,7 +9948,7 @@
       <c r="B25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="186"/>
+      <c r="C25" s="182"/>
       <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -9947,7 +9958,7 @@
       <c r="B26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="187"/>
+      <c r="C26" s="183"/>
       <c r="D26" s="24">
         <v>100</v>
       </c>
@@ -9959,7 +9970,7 @@
       <c r="B27" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="187"/>
+      <c r="C27" s="183"/>
       <c r="D27" s="24">
         <v>65535</v>
       </c>
@@ -9971,7 +9982,7 @@
       <c r="B28" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="187"/>
+      <c r="C28" s="183"/>
       <c r="D28" s="24">
         <v>10</v>
       </c>
@@ -9983,7 +9994,7 @@
       <c r="B29" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="187"/>
+      <c r="C29" s="183"/>
       <c r="D29" s="24">
         <v>0.1</v>
       </c>
@@ -9995,7 +10006,7 @@
       <c r="B30" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="187"/>
+      <c r="C30" s="183"/>
       <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -10005,7 +10016,7 @@
       <c r="B31" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="187"/>
+      <c r="C31" s="183"/>
       <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -10015,7 +10026,7 @@
       <c r="B32" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="187"/>
+      <c r="C32" s="183"/>
       <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -10025,7 +10036,7 @@
       <c r="B33" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="186"/>
+      <c r="C33" s="182"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -10035,7 +10046,7 @@
       <c r="B34" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="187"/>
+      <c r="C34" s="183"/>
       <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -10045,7 +10056,7 @@
       <c r="B35" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="187"/>
+      <c r="C35" s="183"/>
       <c r="D35" s="24">
         <v>0.02</v>
       </c>
@@ -10057,7 +10068,7 @@
       <c r="B36" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="187"/>
+      <c r="C36" s="183"/>
       <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -10067,7 +10078,7 @@
       <c r="B37" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="187"/>
+      <c r="C37" s="183"/>
       <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -10077,7 +10088,7 @@
       <c r="B38" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="187"/>
+      <c r="C38" s="183"/>
       <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -10087,7 +10098,7 @@
       <c r="B39" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="187"/>
+      <c r="C39" s="183"/>
       <c r="D39" s="25" t="s">
         <v>70</v>
       </c>
@@ -10099,7 +10110,7 @@
       <c r="B40" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="187"/>
+      <c r="C40" s="183"/>
       <c r="D40" s="25">
         <v>0</v>
       </c>
@@ -10111,7 +10122,7 @@
       <c r="B41" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="186"/>
+      <c r="C41" s="182"/>
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -10119,7 +10130,7 @@
         <v>127</v>
       </c>
       <c r="B42" s="15"/>
-      <c r="C42" s="187"/>
+      <c r="C42" s="183"/>
       <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -10129,7 +10140,7 @@
       <c r="B43" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="187"/>
+      <c r="C43" s="183"/>
       <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -10139,7 +10150,7 @@
       <c r="B44" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="187"/>
+      <c r="C44" s="183"/>
       <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -10149,7 +10160,7 @@
       <c r="B45" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="187"/>
+      <c r="C45" s="183"/>
       <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -10159,7 +10170,7 @@
       <c r="B46" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C46" s="187"/>
+      <c r="C46" s="183"/>
       <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -10169,7 +10180,7 @@
       <c r="B47" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="187"/>
+      <c r="C47" s="183"/>
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -10179,7 +10190,7 @@
       <c r="B48" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="187"/>
+      <c r="C48" s="183"/>
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -10189,7 +10200,7 @@
       <c r="B49" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="187"/>
+      <c r="C49" s="183"/>
       <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -10199,7 +10210,7 @@
       <c r="B50" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="187"/>
+      <c r="C50" s="183"/>
       <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -10209,7 +10220,7 @@
       <c r="B51" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="187"/>
+      <c r="C51" s="183"/>
       <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -10219,7 +10230,7 @@
       <c r="B52" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="187"/>
+      <c r="C52" s="183"/>
       <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -10229,7 +10240,7 @@
       <c r="B53" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="187"/>
+      <c r="C53" s="183"/>
       <c r="D53" s="24">
         <v>1</v>
       </c>
@@ -10241,7 +10252,7 @@
       <c r="B54" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="187"/>
+      <c r="C54" s="183"/>
       <c r="D54" s="24">
         <v>1</v>
       </c>
@@ -10253,7 +10264,7 @@
       <c r="B55" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="187"/>
+      <c r="C55" s="183"/>
       <c r="D55" s="24">
         <v>1</v>
       </c>
@@ -10265,7 +10276,7 @@
       <c r="B56" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="187"/>
+      <c r="C56" s="183"/>
       <c r="D56" s="24">
         <v>1</v>
       </c>
@@ -10277,7 +10288,7 @@
       <c r="B57" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="187"/>
+      <c r="C57" s="183"/>
       <c r="D57" s="24">
         <v>1</v>
       </c>
@@ -10289,7 +10300,7 @@
       <c r="B58" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="187"/>
+      <c r="C58" s="183"/>
       <c r="D58" s="24">
         <v>0</v>
       </c>
@@ -10301,7 +10312,7 @@
       <c r="B59" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C59" s="187"/>
+      <c r="C59" s="183"/>
       <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -10311,7 +10322,7 @@
       <c r="B60" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="187"/>
+      <c r="C60" s="183"/>
       <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -10321,8 +10332,8 @@
       <c r="B61" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="186"/>
-      <c r="D61" s="185"/>
+      <c r="C61" s="182"/>
+      <c r="D61" s="181"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
@@ -10331,27 +10342,27 @@
       <c r="B62" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C62" s="187"/>
+      <c r="C62" s="183"/>
       <c r="D62" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="B63" s="184"/>
-      <c r="C63" s="186"/>
-      <c r="D63" s="185"/>
+        <v>345</v>
+      </c>
+      <c r="B63" s="180"/>
+      <c r="C63" s="182"/>
+      <c r="D63" s="181"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="C64" s="187"/>
+        <v>347</v>
+      </c>
+      <c r="C64" s="183"/>
       <c r="D64" s="26">
         <v>0</v>
       </c>
@@ -10363,8 +10374,8 @@
       <c r="B65" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="186"/>
-      <c r="D65" s="185"/>
+      <c r="C65" s="182"/>
+      <c r="D65" s="181"/>
     </row>
     <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
@@ -10373,7 +10384,7 @@
       <c r="B66" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="188"/>
+      <c r="C66" s="184"/>
       <c r="D66" s="29">
         <v>0</v>
       </c>
@@ -10413,23 +10424,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="299" t="s">
+      <c r="A1" s="284" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
-      <c r="L1" s="300"/>
-      <c r="M1" s="300"/>
-      <c r="N1" s="300"/>
-      <c r="O1" s="300"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
+      <c r="N1" s="285"/>
+      <c r="O1" s="285"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -10447,17 +10458,17 @@
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="296" t="s">
+      <c r="B3" s="281" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
-      <c r="G3" s="297"/>
-      <c r="H3" s="297"/>
-      <c r="I3" s="297"/>
-      <c r="J3" s="298"/>
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
+      <c r="H3" s="282"/>
+      <c r="I3" s="282"/>
+      <c r="J3" s="283"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="37"/>
@@ -10648,21 +10659,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="296" t="s">
+      <c r="B19" s="281" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="297"/>
-      <c r="D19" s="297"/>
-      <c r="E19" s="297"/>
-      <c r="F19" s="297"/>
-      <c r="G19" s="297"/>
-      <c r="H19" s="297"/>
-      <c r="I19" s="297"/>
-      <c r="J19" s="297"/>
-      <c r="K19" s="297"/>
-      <c r="L19" s="297"/>
-      <c r="M19" s="297"/>
-      <c r="N19" s="298"/>
+      <c r="C19" s="282"/>
+      <c r="D19" s="282"/>
+      <c r="E19" s="282"/>
+      <c r="F19" s="282"/>
+      <c r="G19" s="282"/>
+      <c r="H19" s="282"/>
+      <c r="I19" s="282"/>
+      <c r="J19" s="282"/>
+      <c r="K19" s="282"/>
+      <c r="L19" s="282"/>
+      <c r="M19" s="282"/>
+      <c r="N19" s="283"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
@@ -10864,27 +10875,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="304" t="s">
+      <c r="A1" s="289" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="305"/>
-      <c r="G1" s="305"/>
-      <c r="H1" s="305"/>
-      <c r="I1" s="305"/>
-      <c r="J1" s="305"/>
-      <c r="K1" s="305"/>
-      <c r="L1" s="305"/>
-      <c r="M1" s="305"/>
-      <c r="N1" s="305"/>
-      <c r="O1" s="305"/>
-      <c r="P1" s="305"/>
-      <c r="Q1" s="305"/>
-      <c r="R1" s="305"/>
-      <c r="S1" s="305"/>
+      <c r="B1" s="290"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
+      <c r="H1" s="290"/>
+      <c r="I1" s="290"/>
+      <c r="J1" s="290"/>
+      <c r="K1" s="290"/>
+      <c r="L1" s="290"/>
+      <c r="M1" s="290"/>
+      <c r="N1" s="290"/>
+      <c r="O1" s="290"/>
+      <c r="P1" s="290"/>
+      <c r="Q1" s="290"/>
+      <c r="R1" s="290"/>
+      <c r="S1" s="290"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
@@ -10898,26 +10909,26 @@
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="296" t="s">
+      <c r="B3" s="281" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
-      <c r="G3" s="297"/>
-      <c r="H3" s="297"/>
-      <c r="I3" s="297"/>
-      <c r="J3" s="298"/>
-      <c r="L3" s="301" t="s">
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
+      <c r="H3" s="282"/>
+      <c r="I3" s="282"/>
+      <c r="J3" s="283"/>
+      <c r="L3" s="286" t="s">
         <v>219</v>
       </c>
-      <c r="M3" s="302"/>
-      <c r="N3" s="302"/>
-      <c r="O3" s="302"/>
-      <c r="P3" s="302"/>
-      <c r="Q3" s="302"/>
-      <c r="R3" s="303"/>
+      <c r="M3" s="287"/>
+      <c r="N3" s="287"/>
+      <c r="O3" s="287"/>
+      <c r="P3" s="287"/>
+      <c r="Q3" s="287"/>
+      <c r="R3" s="288"/>
       <c r="S3" s="36"/>
       <c r="T3" s="36"/>
     </row>
@@ -11148,23 +11159,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="291" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
-      <c r="J1" s="307"/>
-      <c r="K1" s="307"/>
-      <c r="L1" s="307"/>
-      <c r="M1" s="307"/>
-      <c r="N1" s="307"/>
-      <c r="O1" s="308"/>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="293"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11177,22 +11188,22 @@
       <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="296" t="s">
+      <c r="B3" s="281" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
-      <c r="G3" s="297"/>
-      <c r="H3" s="298"/>
-      <c r="J3" s="301" t="s">
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
+      <c r="H3" s="283"/>
+      <c r="J3" s="286" t="s">
         <v>219</v>
       </c>
-      <c r="K3" s="302"/>
-      <c r="L3" s="302"/>
-      <c r="M3" s="302"/>
-      <c r="N3" s="303"/>
+      <c r="K3" s="287"/>
+      <c r="L3" s="287"/>
+      <c r="M3" s="287"/>
+      <c r="N3" s="288"/>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
     </row>

--- a/test_templates/test_batch_template5.xlsx
+++ b/test_templates/test_batch_template5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="503">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2467,14 +2467,72 @@
   <si>
     <t>transfercurve2/plots</t>
   </si>
+  <si>
+    <t>Non-fluorescence Channels (unprocessed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel
+</t>
+  </si>
+  <si>
+    <t>Non-fluorescence Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excitation wavelength </t>
+  </si>
+  <si>
+    <t>Size Beads</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Options can be found in BeadCatalog</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Defaults to FSC</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3365,25 +3423,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="349">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -3399,7 +3457,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3410,28 +3468,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3452,62 +3510,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3518,20 +3576,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3540,32 +3598,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3583,19 +3641,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3604,46 +3662,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3661,83 +3716,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3752,37 +3807,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3791,41 +3846,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3840,20 +3895,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3876,47 +3931,47 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyProtection="1">
@@ -3926,10 +3981,102 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3950,145 +4097,67 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4109,22 +4178,38 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4136,140 +4221,224 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4462,13 +4631,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>31</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5107,12 +5276,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="155" customWidth="1"/>
+    <col min="1" max="1" width="20.875" style="154" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="85" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.125" style="85" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="85" customWidth="1"/>
     <col min="5" max="5" width="11.875" style="85" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="141" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="140" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="85" customWidth="1"/>
     <col min="8" max="8" width="12.125" style="85" customWidth="1"/>
     <col min="9" max="9" width="20" style="85" customWidth="1"/>
@@ -5123,178 +5292,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="220" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="230"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="222"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="236" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="208"/>
+      <c r="B3" s="237"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="221" t="s">
+      <c r="A4" s="234" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="222"/>
+      <c r="B4" s="235"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="223" t="s">
+      <c r="A5" s="250" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="224"/>
+      <c r="B5" s="251"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="207" t="s">
+      <c r="A7" s="236" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="209"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
-      <c r="H7" s="209"/>
-      <c r="I7" s="209"/>
-      <c r="J7" s="209"/>
-      <c r="K7" s="208"/>
+      <c r="B7" s="238"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="238"/>
+      <c r="F7" s="238"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="237"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="231" t="s">
+      <c r="A8" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="232"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="232"/>
-      <c r="G8" s="232"/>
-      <c r="H8" s="232"/>
-      <c r="I8" s="232"/>
-      <c r="J8" s="232"/>
-      <c r="K8" s="233"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="224"/>
+      <c r="J8" s="224"/>
+      <c r="K8" s="225"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="234"/>
-      <c r="B9" s="235"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="235"/>
-      <c r="F9" s="235"/>
-      <c r="G9" s="235"/>
-      <c r="H9" s="235"/>
-      <c r="I9" s="235"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="236"/>
+      <c r="A9" s="226"/>
+      <c r="B9" s="227"/>
+      <c r="C9" s="227"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="227"/>
+      <c r="F9" s="227"/>
+      <c r="G9" s="227"/>
+      <c r="H9" s="227"/>
+      <c r="I9" s="227"/>
+      <c r="J9" s="227"/>
+      <c r="K9" s="228"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="156"/>
+      <c r="A10" s="155"/>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
       <c r="D10" s="87"/>
       <c r="E10" s="87"/>
-      <c r="F10" s="142"/>
+      <c r="F10" s="141"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="210" t="s">
+      <c r="A11" s="239" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="211"/>
-      <c r="C11" s="211"/>
-      <c r="D11" s="212"/>
+      <c r="B11" s="240"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="241"/>
       <c r="E11" s="87"/>
-      <c r="F11" s="142"/>
+      <c r="F11" s="141"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="213" t="s">
+      <c r="A12" s="242" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="214"/>
-      <c r="C12" s="215" t="s">
+      <c r="B12" s="243"/>
+      <c r="C12" s="244" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="216"/>
+      <c r="D12" s="245"/>
       <c r="E12" s="87"/>
-      <c r="F12" s="142"/>
+      <c r="F12" s="141"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="217"/>
-      <c r="B13" s="218"/>
-      <c r="C13" s="219"/>
-      <c r="D13" s="220"/>
+      <c r="A13" s="246"/>
+      <c r="B13" s="247"/>
+      <c r="C13" s="248"/>
+      <c r="D13" s="249"/>
       <c r="E13" s="87"/>
-      <c r="F13" s="142"/>
+      <c r="F13" s="141"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="210" t="s">
+      <c r="A15" s="239" t="s">
         <v>271</v>
       </c>
-      <c r="B15" s="212"/>
-      <c r="E15" s="210" t="s">
+      <c r="B15" s="241"/>
+      <c r="E15" s="239" t="s">
         <v>310</v>
       </c>
-      <c r="F15" s="211"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="212"/>
+      <c r="F15" s="240"/>
+      <c r="G15" s="240"/>
+      <c r="H15" s="240"/>
+      <c r="I15" s="241"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="221" t="s">
+      <c r="A16" s="234" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="222"/>
+      <c r="B16" s="235"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="237" t="s">
+      <c r="E16" s="229" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="238"/>
-      <c r="G16" s="238"/>
-      <c r="H16" s="238"/>
-      <c r="I16" s="239"/>
+      <c r="F16" s="230"/>
+      <c r="G16" s="230"/>
+      <c r="H16" s="230"/>
+      <c r="I16" s="231"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="157" t="s">
+      <c r="A17" s="156" t="s">
         <v>233</v>
       </c>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="114" t="s">
         <v>274</v>
       </c>
       <c r="C17" s="89"/>
-      <c r="E17" s="240" t="s">
+      <c r="E17" s="232" t="s">
         <v>231</v>
       </c>
-      <c r="F17" s="241"/>
-      <c r="G17" s="202" t="s">
+      <c r="F17" s="233"/>
+      <c r="G17" s="201" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="202" t="s">
+      <c r="H17" s="201" t="s">
         <v>158</v>
       </c>
-      <c r="I17" s="190" t="s">
+      <c r="I17" s="189" t="s">
         <v>351</v>
       </c>
       <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="158" t="s">
+      <c r="A18" s="157" t="s">
         <v>265</v>
       </c>
       <c r="B18" s="90" t="s">
@@ -5311,16 +5480,16 @@
       <c r="H18" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="225" t="s">
+      <c r="I18" s="208" t="s">
         <v>480</v>
       </c>
       <c r="J18" s="81"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="159" t="s">
+      <c r="A19" s="158" t="s">
         <v>283</v>
       </c>
-      <c r="B19" s="116"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="89"/>
       <c r="E19" s="83">
         <v>2</v>
@@ -5334,78 +5503,78 @@
       <c r="H19" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="I19" s="225"/>
+      <c r="I19" s="208"/>
       <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="159" t="s">
+      <c r="A20" s="158" t="s">
         <v>284</v>
       </c>
-      <c r="B20" s="116"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="91"/>
       <c r="E20" s="84">
         <v>3</v>
       </c>
-      <c r="F20" s="140" t="s">
+      <c r="F20" s="139" t="s">
         <v>170</v>
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="226"/>
+      <c r="I20" s="209"/>
       <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="159" t="s">
+      <c r="A21" s="158" t="s">
         <v>288</v>
       </c>
-      <c r="B21" s="116"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="32"/>
       <c r="I21" s="81"/>
       <c r="J21" s="81"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="160"/>
-      <c r="B22" s="117"/>
+      <c r="A22" s="159"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="89"/>
       <c r="J22" s="81"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="161"/>
+      <c r="A23" s="160"/>
       <c r="B23" s="92"/>
       <c r="C23" s="91"/>
-      <c r="E23" s="205" t="s">
+      <c r="E23" s="210" t="s">
         <v>194</v>
       </c>
-      <c r="F23" s="227"/>
-      <c r="G23" s="227"/>
-      <c r="H23" s="227"/>
-      <c r="I23" s="206"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="211"/>
+      <c r="I23" s="212"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="205" t="s">
+      <c r="A24" s="210" t="s">
         <v>236</v>
       </c>
-      <c r="B24" s="206"/>
+      <c r="B24" s="212"/>
       <c r="C24" s="32"/>
-      <c r="E24" s="245" t="s">
+      <c r="E24" s="216" t="s">
         <v>231</v>
       </c>
-      <c r="F24" s="246"/>
-      <c r="G24" s="202" t="s">
+      <c r="F24" s="217"/>
+      <c r="G24" s="201" t="s">
         <v>157</v>
       </c>
-      <c r="H24" s="202" t="s">
+      <c r="H24" s="201" t="s">
         <v>158</v>
       </c>
-      <c r="I24" s="190" t="s">
+      <c r="I24" s="189" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="157" t="s">
+      <c r="A25" s="156" t="s">
         <v>233</v>
       </c>
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="114" t="s">
         <v>280</v>
       </c>
       <c r="C25" s="32"/>
@@ -5419,12 +5588,12 @@
       <c r="H25" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="242" t="s">
+      <c r="I25" s="213" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="158" t="s">
+      <c r="A26" s="157" t="s">
         <v>265</v>
       </c>
       <c r="B26" s="90" t="s">
@@ -5443,77 +5612,77 @@
       <c r="H26" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="I26" s="243"/>
+      <c r="I26" s="214"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="159" t="s">
+      <c r="A27" s="158" t="s">
         <v>281</v>
       </c>
-      <c r="B27" s="116"/>
+      <c r="B27" s="115"/>
       <c r="C27" s="91"/>
       <c r="E27" s="84">
         <v>3</v>
       </c>
-      <c r="F27" s="140" t="s">
+      <c r="F27" s="139" t="s">
         <v>170</v>
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
-      <c r="I27" s="244"/>
+      <c r="I27" s="215"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="159" t="s">
+      <c r="A28" s="158" t="s">
         <v>282</v>
       </c>
-      <c r="B28" s="116"/>
+      <c r="B28" s="115"/>
       <c r="C28" s="32"/>
       <c r="E28" s="94"/>
-      <c r="F28" s="143"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="94"/>
       <c r="H28" s="94"/>
       <c r="I28" s="81"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="159"/>
-      <c r="B29" s="116"/>
+      <c r="A29" s="158"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="32"/>
       <c r="I29" s="81"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="160"/>
-      <c r="B30" s="117"/>
+      <c r="A30" s="159"/>
+      <c r="B30" s="116"/>
       <c r="C30" s="89"/>
-      <c r="E30" s="205" t="s">
+      <c r="E30" s="210" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="227"/>
-      <c r="G30" s="227"/>
-      <c r="H30" s="227"/>
-      <c r="I30" s="206"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="212"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="161"/>
+      <c r="A31" s="160"/>
       <c r="B31" s="91"/>
       <c r="C31" s="91"/>
-      <c r="E31" s="247" t="s">
+      <c r="E31" s="218" t="s">
         <v>458</v>
       </c>
-      <c r="F31" s="248"/>
-      <c r="G31" s="200" t="s">
+      <c r="F31" s="219"/>
+      <c r="G31" s="199" t="s">
         <v>157</v>
       </c>
-      <c r="H31" s="200" t="s">
+      <c r="H31" s="199" t="s">
         <v>158</v>
       </c>
-      <c r="I31" s="190" t="s">
+      <c r="I31" s="189" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="205" t="s">
+      <c r="A32" s="210" t="s">
         <v>237</v>
       </c>
-      <c r="B32" s="206"/>
+      <c r="B32" s="212"/>
       <c r="C32" s="32"/>
       <c r="E32" s="83">
         <v>1</v>
@@ -5523,13 +5692,13 @@
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="225"/>
+      <c r="I32" s="208"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="157" t="s">
+      <c r="A33" s="156" t="s">
         <v>233</v>
       </c>
-      <c r="B33" s="115" t="s">
+      <c r="B33" s="114" t="s">
         <v>287</v>
       </c>
       <c r="C33" s="89"/>
@@ -5543,10 +5712,10 @@
         <v>5</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="225"/>
+      <c r="I33" s="208"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="158" t="s">
+      <c r="A34" s="157" t="s">
         <v>235</v>
       </c>
       <c r="B34" s="90" t="s">
@@ -5558,76 +5727,76 @@
       <c r="F34" s="93"/>
       <c r="G34" s="33"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="225"/>
+      <c r="I34" s="208"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="159" t="s">
+      <c r="A35" s="158" t="s">
         <v>220</v>
       </c>
-      <c r="B35" s="116"/>
+      <c r="B35" s="115"/>
       <c r="E35" s="83">
         <v>4</v>
       </c>
       <c r="F35" s="93"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="225"/>
+      <c r="I35" s="208"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="159" t="s">
+      <c r="A36" s="158" t="s">
         <v>221</v>
       </c>
-      <c r="B36" s="116"/>
+      <c r="B36" s="115"/>
       <c r="E36" s="83">
         <v>5</v>
       </c>
       <c r="F36" s="93"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="225"/>
+      <c r="I36" s="208"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="159" t="s">
+      <c r="A37" s="158" t="s">
         <v>222</v>
       </c>
-      <c r="B37" s="116"/>
+      <c r="B37" s="115"/>
       <c r="E37" s="84">
         <v>6</v>
       </c>
-      <c r="F37" s="140"/>
+      <c r="F37" s="139"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="226"/>
+      <c r="I37" s="209"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="160" t="s">
+      <c r="A38" s="159" t="s">
         <v>223</v>
       </c>
-      <c r="B38" s="117"/>
+      <c r="B38" s="116"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="162"/>
-      <c r="B39" s="121"/>
+      <c r="A39" s="161"/>
+      <c r="B39" s="120"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="205" t="s">
+      <c r="E40" s="210" t="s">
         <v>196</v>
       </c>
-      <c r="F40" s="227"/>
-      <c r="G40" s="227"/>
-      <c r="H40" s="227"/>
-      <c r="I40" s="206"/>
+      <c r="F40" s="211"/>
+      <c r="G40" s="211"/>
+      <c r="H40" s="211"/>
+      <c r="I40" s="212"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="245"/>
-      <c r="F41" s="246"/>
+      <c r="E41" s="216"/>
+      <c r="F41" s="217"/>
       <c r="G41" s="82" t="s">
         <v>157</v>
       </c>
       <c r="H41" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="I41" s="190" t="s">
+      <c r="I41" s="189" t="s">
         <v>354</v>
       </c>
     </row>
@@ -5638,7 +5807,7 @@
       <c r="F42" s="93"/>
       <c r="G42" s="33"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="225"/>
+      <c r="I42" s="208"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="83">
@@ -5647,7 +5816,7 @@
       <c r="F43" s="93"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="225"/>
+      <c r="I43" s="208"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="83">
@@ -5656,7 +5825,7 @@
       <c r="F44" s="93"/>
       <c r="G44" s="33"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="225"/>
+      <c r="I44" s="208"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="83">
@@ -5665,7 +5834,7 @@
       <c r="F45" s="93"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="225"/>
+      <c r="I45" s="208"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="83">
@@ -5674,34 +5843,20 @@
       <c r="F46" s="93"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="225"/>
+      <c r="I46" s="208"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="84">
         <v>6</v>
       </c>
-      <c r="F47" s="140"/>
+      <c r="F47" s="139"/>
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
-      <c r="I47" s="226"/>
+      <c r="I47" s="209"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5717,6 +5872,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5756,32 +5925,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="254" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="253"/>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="256"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="257" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="255"/>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="256"/>
+      <c r="B2" s="258"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="259"/>
       <c r="K2" s="79"/>
       <c r="L2" s="79"/>
       <c r="M2" s="75"/>
@@ -5789,26 +5958,26 @@
       <c r="O2" s="76"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="173" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="176" t="s">
         <v>312</v>
       </c>
-      <c r="C3" s="257" t="s">
+      <c r="C3" s="260" t="s">
         <v>285</v>
       </c>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="259"/>
-      <c r="H3" s="177" t="s">
+      <c r="D3" s="261"/>
+      <c r="E3" s="261"/>
+      <c r="F3" s="261"/>
+      <c r="G3" s="262"/>
+      <c r="H3" s="176" t="s">
         <v>313</v>
       </c>
-      <c r="I3" s="177" t="s">
+      <c r="I3" s="176" t="s">
         <v>314</v>
       </c>
-      <c r="J3" s="178" t="s">
+      <c r="J3" s="177" t="s">
         <v>315</v>
       </c>
       <c r="K3" s="79"/>
@@ -5818,488 +5987,488 @@
       <c r="O3" s="76"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="138" t="s">
         <v>274</v>
       </c>
-      <c r="E4" s="139" t="s">
+      <c r="E4" s="138" t="s">
         <v>287</v>
       </c>
-      <c r="F4" s="139" t="s">
+      <c r="F4" s="138" t="s">
         <v>280</v>
       </c>
-      <c r="G4" s="139" t="s">
+      <c r="G4" s="138" t="s">
         <v>295</v>
       </c>
-      <c r="H4" s="139" t="s">
+      <c r="H4" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="194" t="s">
+      <c r="J4" s="193" t="s">
         <v>401</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108">
+      <c r="A5" s="107">
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>400</v>
       </c>
-      <c r="C5" s="109">
+      <c r="C5" s="108">
         <v>0.1</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="G5" s="109">
+      <c r="G5" s="108">
         <v>0.1</v>
       </c>
-      <c r="H5" s="110">
+      <c r="H5" s="109">
         <v>1</v>
       </c>
-      <c r="I5" s="111" t="s">
+      <c r="I5" s="110" t="s">
         <v>199</v>
       </c>
-      <c r="J5" s="112"/>
-      <c r="K5" s="201" t="s">
+      <c r="J5" s="111"/>
+      <c r="K5" s="200" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108">
+      <c r="A6" s="107">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="109">
+      <c r="C6" s="108">
         <v>0.2</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="E6" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="G6" s="109">
+      <c r="G6" s="108">
         <v>0.2</v>
       </c>
-      <c r="H6" s="110">
+      <c r="H6" s="109">
         <v>1</v>
       </c>
-      <c r="I6" s="111" t="s">
+      <c r="I6" s="110" t="s">
         <v>200</v>
       </c>
-      <c r="J6" s="112"/>
-      <c r="K6" s="201" t="s">
+      <c r="J6" s="111"/>
+      <c r="K6" s="200" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="108">
+      <c r="A7" s="107">
         <f t="shared" ref="A7:A13" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="109">
+      <c r="C7" s="108">
         <v>0.5</v>
       </c>
-      <c r="D7" s="109" t="s">
+      <c r="D7" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="E7" s="109" t="s">
+      <c r="E7" s="108" t="s">
         <v>222</v>
       </c>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="110">
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="109">
         <v>1</v>
       </c>
-      <c r="I7" s="111" t="s">
+      <c r="I7" s="110" t="s">
         <v>201</v>
       </c>
-      <c r="J7" s="112"/>
-      <c r="K7" s="201" t="s">
+      <c r="J7" s="111"/>
+      <c r="K7" s="200" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108">
+      <c r="A8" s="107">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="109">
+      <c r="C8" s="108">
         <v>1</v>
       </c>
-      <c r="D8" s="109" t="s">
+      <c r="D8" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="109" t="s">
+      <c r="E8" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="109" t="s">
+      <c r="F8" s="108" t="s">
         <v>281</v>
       </c>
-      <c r="G8" s="109">
+      <c r="G8" s="108">
         <v>0.1</v>
       </c>
-      <c r="H8" s="110">
+      <c r="H8" s="109">
         <v>1</v>
       </c>
-      <c r="I8" s="111" t="s">
+      <c r="I8" s="110" t="s">
         <v>202</v>
       </c>
-      <c r="J8" s="112"/>
-      <c r="K8" s="201" t="s">
+      <c r="J8" s="111"/>
+      <c r="K8" s="200" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="108">
+      <c r="A9" s="107">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="109">
+      <c r="C9" s="108">
         <v>2</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109" t="s">
+      <c r="E9" s="108"/>
+      <c r="F9" s="108" t="s">
         <v>281</v>
       </c>
-      <c r="G9" s="109">
+      <c r="G9" s="108">
         <v>0.2</v>
       </c>
-      <c r="H9" s="110">
+      <c r="H9" s="109">
         <v>1</v>
       </c>
-      <c r="I9" s="111" t="s">
+      <c r="I9" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="J9" s="112"/>
-      <c r="K9" s="201" t="s">
+      <c r="J9" s="111"/>
+      <c r="K9" s="200" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="108">
+      <c r="A10" s="107">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="109">
+      <c r="C10" s="108">
         <v>5</v>
       </c>
-      <c r="D10" s="109" t="s">
+      <c r="D10" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="E10" s="109" t="s">
+      <c r="E10" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="110">
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="109">
         <v>1</v>
       </c>
-      <c r="I10" s="111" t="s">
+      <c r="I10" s="110" t="s">
         <v>204</v>
       </c>
-      <c r="J10" s="112"/>
-      <c r="K10" s="201" t="s">
+      <c r="J10" s="111"/>
+      <c r="K10" s="200" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="108">
+      <c r="A11" s="107">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="109">
+      <c r="C11" s="108">
         <v>10</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="E11" s="109" t="s">
+      <c r="E11" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="110">
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="109">
         <v>1</v>
       </c>
-      <c r="I11" s="111" t="s">
+      <c r="I11" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="J11" s="112"/>
-      <c r="K11" s="201" t="s">
+      <c r="J11" s="111"/>
+      <c r="K11" s="200" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="108">
+      <c r="A12" s="107">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="109">
+      <c r="C12" s="108">
         <v>20</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="E12" s="109" t="s">
+      <c r="E12" s="108" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="110">
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="109">
         <v>1</v>
       </c>
-      <c r="I12" s="111" t="s">
+      <c r="I12" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="J12" s="112"/>
-      <c r="K12" s="201" t="s">
+      <c r="J12" s="111"/>
+      <c r="K12" s="200" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="108">
+      <c r="A13" s="107">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="C13" s="109">
+      <c r="C13" s="108">
         <v>50</v>
       </c>
-      <c r="D13" s="109" t="s">
+      <c r="D13" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="E13" s="109" t="s">
+      <c r="E13" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="110">
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="109">
         <v>1</v>
       </c>
-      <c r="I13" s="111" t="s">
+      <c r="I13" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="J13" s="112"/>
-      <c r="K13" s="201" t="s">
+      <c r="J13" s="111"/>
+      <c r="K13" s="200" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="108">
+      <c r="A14" s="107">
         <f>A13+1</f>
         <v>10</v>
       </c>
       <c r="B14" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="109">
+      <c r="C14" s="108">
         <v>100</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="108" t="s">
         <v>284</v>
       </c>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109" t="s">
+      <c r="E14" s="108"/>
+      <c r="F14" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="G14" s="109">
+      <c r="G14" s="108">
         <v>100</v>
       </c>
-      <c r="H14" s="110">
+      <c r="H14" s="109">
         <v>1</v>
       </c>
-      <c r="I14" s="111" t="s">
+      <c r="I14" s="110" t="s">
         <v>208</v>
       </c>
-      <c r="J14" s="112"/>
-      <c r="K14" s="201" t="s">
+      <c r="J14" s="111"/>
+      <c r="K14" s="200" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="108">
+      <c r="A15" s="107">
         <f t="shared" ref="A15:A25" si="1">A14+1</f>
         <v>11</v>
       </c>
       <c r="B15" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="109">
+      <c r="C15" s="108">
         <v>200</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="108" t="s">
         <v>284</v>
       </c>
-      <c r="E15" s="109" t="s">
+      <c r="E15" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="F15" s="109" t="s">
+      <c r="F15" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="G15" s="109">
+      <c r="G15" s="108">
         <v>200</v>
       </c>
-      <c r="H15" s="110">
+      <c r="H15" s="109">
         <v>1</v>
       </c>
-      <c r="I15" s="111" t="s">
+      <c r="I15" s="110" t="s">
         <v>209</v>
       </c>
-      <c r="J15" s="112"/>
-      <c r="K15" s="201" t="s">
+      <c r="J15" s="111"/>
+      <c r="K15" s="200" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="108">
+      <c r="A16" s="107">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B16" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="109">
+      <c r="C16" s="108">
         <v>500</v>
       </c>
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="108" t="s">
         <v>284</v>
       </c>
-      <c r="E16" s="109" t="s">
+      <c r="E16" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="110">
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="109">
         <v>1</v>
       </c>
-      <c r="I16" s="111" t="s">
+      <c r="I16" s="110" t="s">
         <v>210</v>
       </c>
-      <c r="J16" s="112"/>
-      <c r="K16" s="201" t="s">
+      <c r="J16" s="111"/>
+      <c r="K16" s="200" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="108">
+      <c r="A17" s="107">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B17" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="109">
+      <c r="C17" s="108">
         <v>1000</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="108" t="s">
         <v>284</v>
       </c>
-      <c r="E17" s="109" t="s">
+      <c r="E17" s="108" t="s">
         <v>222</v>
       </c>
-      <c r="F17" s="109" t="s">
+      <c r="F17" s="108" t="s">
         <v>281</v>
       </c>
-      <c r="G17" s="109">
+      <c r="G17" s="108">
         <v>100</v>
       </c>
-      <c r="H17" s="110">
+      <c r="H17" s="109">
         <v>1</v>
       </c>
-      <c r="I17" s="111" t="s">
+      <c r="I17" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="J17" s="112"/>
-      <c r="K17" s="201" t="s">
+      <c r="J17" s="111"/>
+      <c r="K17" s="200" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108">
+      <c r="A18" s="107">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B18" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="109">
+      <c r="C18" s="108">
         <v>2000</v>
       </c>
-      <c r="D18" s="109" t="s">
+      <c r="D18" s="108" t="s">
         <v>284</v>
       </c>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="F18" s="109" t="s">
+      <c r="F18" s="108" t="s">
         <v>281</v>
       </c>
-      <c r="G18" s="109">
+      <c r="G18" s="108">
         <v>200</v>
       </c>
-      <c r="H18" s="110">
+      <c r="H18" s="109">
         <v>1</v>
       </c>
-      <c r="I18" s="111" t="s">
+      <c r="I18" s="110" t="s">
         <v>212</v>
       </c>
-      <c r="J18" s="112"/>
-      <c r="K18" s="201" t="s">
+      <c r="J18" s="111"/>
+      <c r="K18" s="200" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108">
+      <c r="A19" s="107">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -6307,23 +6476,23 @@
         <v>213</v>
       </c>
       <c r="C19" s="77"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="110">
+      <c r="D19" s="108"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="109">
         <v>2</v>
       </c>
-      <c r="I19" s="111"/>
-      <c r="J19" s="112" t="s">
+      <c r="I19" s="110"/>
+      <c r="J19" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="201" t="s">
+      <c r="K19" s="200" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="108">
+      <c r="A20" s="107">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -6331,23 +6500,23 @@
         <v>173</v>
       </c>
       <c r="C20" s="77"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="110">
+      <c r="D20" s="108"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="109">
         <v>2</v>
       </c>
-      <c r="I20" s="111"/>
-      <c r="J20" s="112" t="s">
+      <c r="I20" s="110"/>
+      <c r="J20" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="201" t="s">
+      <c r="K20" s="200" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="108">
+      <c r="A21" s="107">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -6355,23 +6524,23 @@
         <v>214</v>
       </c>
       <c r="C21" s="77"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="110">
+      <c r="D21" s="108"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="109">
         <v>2</v>
       </c>
-      <c r="I21" s="111"/>
-      <c r="J21" s="112" t="s">
+      <c r="I21" s="110"/>
+      <c r="J21" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="201" t="s">
+      <c r="K21" s="200" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="108">
+      <c r="A22" s="107">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -6379,170 +6548,170 @@
         <v>215</v>
       </c>
       <c r="C22" s="77"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="110">
+      <c r="D22" s="108"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="109">
         <v>2</v>
       </c>
-      <c r="I22" s="111"/>
-      <c r="J22" s="112" t="s">
+      <c r="I22" s="110"/>
+      <c r="J22" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="201" t="s">
+      <c r="K22" s="200" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="108">
+      <c r="A23" s="107">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B23" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="110">
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="109">
         <v>2</v>
       </c>
-      <c r="I23" s="111"/>
-      <c r="J23" s="112" t="s">
+      <c r="I23" s="110"/>
+      <c r="J23" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="201" t="s">
+      <c r="K23" s="200" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="108">
+      <c r="A24" s="107">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B24" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="163"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="110">
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="109">
         <v>2</v>
       </c>
-      <c r="I24" s="111"/>
-      <c r="J24" s="112" t="s">
+      <c r="I24" s="110"/>
+      <c r="J24" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="201" t="s">
+      <c r="K24" s="200" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="168">
+      <c r="A25" s="167">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="169" t="s">
+      <c r="B25" s="168" t="s">
         <v>301</v>
       </c>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="171">
+      <c r="C25" s="169"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="170">
         <v>2</v>
       </c>
-      <c r="I25" s="172"/>
-      <c r="J25" s="173" t="s">
+      <c r="I25" s="171"/>
+      <c r="J25" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="201" t="s">
+      <c r="K25" s="200" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="269" t="s">
+      <c r="A27" s="272" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="270"/>
-      <c r="C27" s="270"/>
-      <c r="D27" s="270"/>
-      <c r="E27" s="270"/>
-      <c r="F27" s="270"/>
-      <c r="G27" s="270"/>
-      <c r="H27" s="270"/>
-      <c r="I27" s="270"/>
-      <c r="J27" s="270"/>
-      <c r="K27" s="270"/>
-      <c r="L27" s="270"/>
-      <c r="M27" s="270"/>
-      <c r="N27" s="270"/>
-      <c r="O27" s="270"/>
-      <c r="P27" s="270"/>
-      <c r="Q27" s="271"/>
+      <c r="B27" s="273"/>
+      <c r="C27" s="273"/>
+      <c r="D27" s="273"/>
+      <c r="E27" s="273"/>
+      <c r="F27" s="273"/>
+      <c r="G27" s="273"/>
+      <c r="H27" s="273"/>
+      <c r="I27" s="273"/>
+      <c r="J27" s="273"/>
+      <c r="K27" s="273"/>
+      <c r="L27" s="273"/>
+      <c r="M27" s="273"/>
+      <c r="N27" s="273"/>
+      <c r="O27" s="273"/>
+      <c r="P27" s="273"/>
+      <c r="Q27" s="274"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="137" t="s">
+      <c r="A28" s="136" t="s">
         <v>277</v>
       </c>
-      <c r="B28" s="191" t="s">
+      <c r="B28" s="190" t="s">
         <v>359</v>
       </c>
-      <c r="C28" s="189" t="s">
+      <c r="C28" s="188" t="s">
         <v>327</v>
       </c>
-      <c r="D28" s="189" t="s">
+      <c r="D28" s="188" t="s">
         <v>361</v>
       </c>
-      <c r="E28" s="189" t="s">
+      <c r="E28" s="188" t="s">
         <v>264</v>
       </c>
-      <c r="F28" s="189" t="s">
+      <c r="F28" s="188" t="s">
         <v>376</v>
       </c>
-      <c r="G28" s="189" t="s">
+      <c r="G28" s="188" t="s">
         <v>428</v>
       </c>
-      <c r="H28" s="193" t="s">
+      <c r="H28" s="192" t="s">
         <v>264</v>
       </c>
-      <c r="I28" s="193" t="s">
+      <c r="I28" s="192" t="s">
         <v>428</v>
       </c>
-      <c r="J28" s="193" t="s">
+      <c r="J28" s="192" t="s">
         <v>440</v>
       </c>
-      <c r="K28" s="193" t="s">
+      <c r="K28" s="192" t="s">
         <v>428</v>
       </c>
-      <c r="L28" s="123" t="s">
+      <c r="L28" s="122" t="s">
         <v>266</v>
       </c>
-      <c r="M28" s="123" t="s">
+      <c r="M28" s="122" t="s">
         <v>266</v>
       </c>
-      <c r="N28" s="123" t="s">
+      <c r="N28" s="122" t="s">
         <v>266</v>
       </c>
-      <c r="O28" s="189" t="s">
+      <c r="O28" s="188" t="s">
         <v>272</v>
       </c>
-      <c r="P28" s="189" t="s">
+      <c r="P28" s="188" t="s">
         <v>272</v>
       </c>
-      <c r="Q28" s="192" t="s">
+      <c r="Q28" s="191" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="145"/>
+      <c r="A29" s="144"/>
       <c r="B29" s="96" t="s">
         <v>18</v>
       </c>
@@ -6588,115 +6757,115 @@
       <c r="P29" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="Q29" s="118" t="s">
+      <c r="Q29" s="117" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="146"/>
-      <c r="B30" s="197" t="s">
+      <c r="A30" s="145"/>
+      <c r="B30" s="196" t="s">
         <v>431</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="97"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153" t="s">
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152" t="s">
         <v>430</v>
       </c>
-      <c r="H30" s="153"/>
-      <c r="I30" s="153" t="s">
+      <c r="H30" s="152"/>
+      <c r="I30" s="152" t="s">
         <v>433</v>
       </c>
-      <c r="J30" s="153">
+      <c r="J30" s="152">
         <v>3</v>
       </c>
-      <c r="K30" s="153" t="s">
+      <c r="K30" s="152" t="s">
         <v>436</v>
       </c>
-      <c r="L30" s="153">
+      <c r="L30" s="152">
         <v>100</v>
       </c>
-      <c r="M30" s="153">
+      <c r="M30" s="152">
         <v>0</v>
       </c>
-      <c r="N30" s="153"/>
-      <c r="O30" s="153">
+      <c r="N30" s="152"/>
+      <c r="O30" s="152">
         <v>4</v>
       </c>
-      <c r="P30" s="153">
+      <c r="P30" s="152">
         <v>10</v>
       </c>
-      <c r="Q30" s="154">
+      <c r="Q30" s="153">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="266" t="s">
+      <c r="A32" s="269" t="s">
         <v>276</v>
       </c>
-      <c r="B32" s="267"/>
-      <c r="C32" s="267"/>
-      <c r="D32" s="267"/>
-      <c r="E32" s="267"/>
-      <c r="F32" s="267"/>
-      <c r="G32" s="267"/>
-      <c r="H32" s="268"/>
+      <c r="B32" s="270"/>
+      <c r="C32" s="270"/>
+      <c r="D32" s="270"/>
+      <c r="E32" s="270"/>
+      <c r="F32" s="270"/>
+      <c r="G32" s="270"/>
+      <c r="H32" s="271"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="260" t="s">
+      <c r="A33" s="263" t="s">
         <v>356</v>
       </c>
-      <c r="B33" s="261"/>
-      <c r="C33" s="261"/>
-      <c r="D33" s="261"/>
-      <c r="E33" s="261"/>
-      <c r="F33" s="261"/>
-      <c r="G33" s="261"/>
-      <c r="H33" s="262"/>
+      <c r="B33" s="264"/>
+      <c r="C33" s="264"/>
+      <c r="D33" s="264"/>
+      <c r="E33" s="264"/>
+      <c r="F33" s="264"/>
+      <c r="G33" s="264"/>
+      <c r="H33" s="265"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="260"/>
-      <c r="B34" s="261"/>
-      <c r="C34" s="261"/>
-      <c r="D34" s="261"/>
-      <c r="E34" s="261"/>
-      <c r="F34" s="261"/>
-      <c r="G34" s="261"/>
-      <c r="H34" s="262"/>
+      <c r="A34" s="263"/>
+      <c r="B34" s="264"/>
+      <c r="C34" s="264"/>
+      <c r="D34" s="264"/>
+      <c r="E34" s="264"/>
+      <c r="F34" s="264"/>
+      <c r="G34" s="264"/>
+      <c r="H34" s="265"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="260"/>
-      <c r="B35" s="261"/>
-      <c r="C35" s="261"/>
-      <c r="D35" s="261"/>
-      <c r="E35" s="261"/>
-      <c r="F35" s="261"/>
-      <c r="G35" s="261"/>
-      <c r="H35" s="262"/>
+      <c r="A35" s="263"/>
+      <c r="B35" s="264"/>
+      <c r="C35" s="264"/>
+      <c r="D35" s="264"/>
+      <c r="E35" s="264"/>
+      <c r="F35" s="264"/>
+      <c r="G35" s="264"/>
+      <c r="H35" s="265"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="263"/>
-      <c r="B36" s="264"/>
-      <c r="C36" s="264"/>
-      <c r="D36" s="264"/>
-      <c r="E36" s="264"/>
-      <c r="F36" s="264"/>
-      <c r="G36" s="264"/>
-      <c r="H36" s="265"/>
+      <c r="A36" s="266"/>
+      <c r="B36" s="267"/>
+      <c r="C36" s="267"/>
+      <c r="D36" s="267"/>
+      <c r="E36" s="267"/>
+      <c r="F36" s="267"/>
+      <c r="G36" s="267"/>
+      <c r="H36" s="268"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="250" t="s">
+      <c r="A38" s="253" t="s">
         <v>302</v>
       </c>
-      <c r="B38" s="250"/>
-      <c r="C38" s="250"/>
-      <c r="D38" s="250"/>
-      <c r="E38" s="250"/>
-      <c r="F38" s="250"/>
-      <c r="G38" s="250"/>
+      <c r="B38" s="253"/>
+      <c r="C38" s="253"/>
+      <c r="D38" s="253"/>
+      <c r="E38" s="253"/>
+      <c r="F38" s="253"/>
+      <c r="G38" s="253"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78" t="s">
@@ -6708,12 +6877,12 @@
       <c r="C39" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="D39" s="249" t="s">
+      <c r="D39" s="252" t="s">
         <v>305</v>
       </c>
-      <c r="E39" s="249"/>
-      <c r="F39" s="249"/>
-      <c r="G39" s="249"/>
+      <c r="E39" s="252"/>
+      <c r="F39" s="252"/>
+      <c r="G39" s="252"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6725,7 +6894,7 @@
       <c r="C40" t="s">
         <v>438</v>
       </c>
-      <c r="D40" s="176" t="s">
+      <c r="D40" s="175" t="s">
         <v>363</v>
       </c>
     </row>
@@ -6739,7 +6908,7 @@
       <c r="C41" t="s">
         <v>438</v>
       </c>
-      <c r="D41" s="188" t="s">
+      <c r="D41" s="187" t="s">
         <v>329</v>
       </c>
     </row>
@@ -6753,7 +6922,7 @@
       <c r="C42" t="s">
         <v>438</v>
       </c>
-      <c r="D42" s="176" t="s">
+      <c r="D42" s="175" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6767,7 +6936,7 @@
       <c r="C43" t="s">
         <v>438</v>
       </c>
-      <c r="D43" s="176" t="s">
+      <c r="D43" s="175" t="s">
         <v>350</v>
       </c>
     </row>
@@ -6781,7 +6950,7 @@
       <c r="C44" t="s">
         <v>438</v>
       </c>
-      <c r="D44" s="179" t="s">
+      <c r="D44" s="178" t="s">
         <v>331</v>
       </c>
     </row>
@@ -6795,7 +6964,7 @@
       <c r="C45" t="s">
         <v>438</v>
       </c>
-      <c r="D45" s="188" t="s">
+      <c r="D45" s="187" t="s">
         <v>403</v>
       </c>
     </row>
@@ -6809,7 +6978,7 @@
       <c r="C46" t="s">
         <v>438</v>
       </c>
-      <c r="D46" s="188" t="s">
+      <c r="D46" s="187" t="s">
         <v>383</v>
       </c>
     </row>
@@ -6823,7 +6992,7 @@
       <c r="C47" t="s">
         <v>438</v>
       </c>
-      <c r="D47" s="188" t="s">
+      <c r="D47" s="187" t="s">
         <v>404</v>
       </c>
     </row>
@@ -6837,7 +7006,7 @@
       <c r="C48" t="s">
         <v>438</v>
       </c>
-      <c r="D48" s="188" t="s">
+      <c r="D48" s="187" t="s">
         <v>406</v>
       </c>
     </row>
@@ -6851,7 +7020,7 @@
       <c r="C49" t="s">
         <v>438</v>
       </c>
-      <c r="D49" s="188" t="s">
+      <c r="D49" s="187" t="s">
         <v>405</v>
       </c>
     </row>
@@ -6865,7 +7034,7 @@
       <c r="C50" t="s">
         <v>438</v>
       </c>
-      <c r="D50" s="188" t="s">
+      <c r="D50" s="187" t="s">
         <v>407</v>
       </c>
     </row>
@@ -6879,7 +7048,7 @@
       <c r="C51" t="s">
         <v>438</v>
       </c>
-      <c r="D51" s="188" t="s">
+      <c r="D51" s="187" t="s">
         <v>410</v>
       </c>
     </row>
@@ -6893,7 +7062,7 @@
       <c r="C52" t="s">
         <v>438</v>
       </c>
-      <c r="D52" s="176" t="s">
+      <c r="D52" s="175" t="s">
         <v>439</v>
       </c>
     </row>
@@ -6907,7 +7076,7 @@
       <c r="C53" t="s">
         <v>438</v>
       </c>
-      <c r="D53" s="188" t="s">
+      <c r="D53" s="187" t="s">
         <v>413</v>
       </c>
     </row>
@@ -6921,7 +7090,7 @@
       <c r="C54" t="s">
         <v>438</v>
       </c>
-      <c r="D54" s="188" t="s">
+      <c r="D54" s="187" t="s">
         <v>413</v>
       </c>
     </row>
@@ -6935,7 +7104,7 @@
       <c r="C55" t="s">
         <v>438</v>
       </c>
-      <c r="D55" s="188" t="s">
+      <c r="D55" s="187" t="s">
         <v>413</v>
       </c>
     </row>
@@ -6949,7 +7118,7 @@
       <c r="C56" t="s">
         <v>438</v>
       </c>
-      <c r="D56" s="188" t="s">
+      <c r="D56" s="187" t="s">
         <v>413</v>
       </c>
     </row>
@@ -6963,7 +7132,7 @@
       <c r="C57" t="s">
         <v>438</v>
       </c>
-      <c r="D57" s="188" t="s">
+      <c r="D57" s="187" t="s">
         <v>413</v>
       </c>
     </row>
@@ -6977,7 +7146,7 @@
       <c r="C58" t="s">
         <v>438</v>
       </c>
-      <c r="D58" s="176" t="s">
+      <c r="D58" s="175" t="s">
         <v>414</v>
       </c>
     </row>
@@ -6991,7 +7160,7 @@
       <c r="C59" t="s">
         <v>438</v>
       </c>
-      <c r="D59" s="176" t="s">
+      <c r="D59" s="175" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7005,7 +7174,7 @@
       <c r="C60" t="s">
         <v>438</v>
       </c>
-      <c r="D60" s="176" t="s">
+      <c r="D60" s="175" t="s">
         <v>416</v>
       </c>
     </row>
@@ -7019,7 +7188,7 @@
       <c r="C61" t="s">
         <v>438</v>
       </c>
-      <c r="D61" s="176" t="s">
+      <c r="D61" s="175" t="s">
         <v>417</v>
       </c>
     </row>
@@ -7033,7 +7202,7 @@
       <c r="C62" t="s">
         <v>438</v>
       </c>
-      <c r="D62" s="176" t="s">
+      <c r="D62" s="175" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7047,7 +7216,7 @@
       <c r="C63" t="s">
         <v>438</v>
       </c>
-      <c r="D63" s="176" t="s">
+      <c r="D63" s="175" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7061,7 +7230,7 @@
       <c r="C64" t="s">
         <v>438</v>
       </c>
-      <c r="D64" s="176" t="s">
+      <c r="D64" s="175" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7075,7 +7244,7 @@
       <c r="C65" t="s">
         <v>438</v>
       </c>
-      <c r="D65" s="176" t="s">
+      <c r="D65" s="175" t="s">
         <v>421</v>
       </c>
     </row>
@@ -7089,7 +7258,7 @@
       <c r="C66" t="s">
         <v>438</v>
       </c>
-      <c r="D66" s="176" t="s">
+      <c r="D66" s="175" t="s">
         <v>422</v>
       </c>
     </row>
@@ -7103,7 +7272,7 @@
       <c r="C67" t="s">
         <v>438</v>
       </c>
-      <c r="D67" s="176" t="s">
+      <c r="D67" s="175" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7117,7 +7286,7 @@
       <c r="C68" t="s">
         <v>438</v>
       </c>
-      <c r="D68" s="176" t="s">
+      <c r="D68" s="175" t="s">
         <v>424</v>
       </c>
     </row>
@@ -7131,7 +7300,7 @@
       <c r="C69" t="s">
         <v>438</v>
       </c>
-      <c r="D69" s="176" t="s">
+      <c r="D69" s="175" t="s">
         <v>425</v>
       </c>
     </row>
@@ -7145,7 +7314,7 @@
       <c r="C70" t="s">
         <v>438</v>
       </c>
-      <c r="D70" s="176" t="s">
+      <c r="D70" s="175" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7159,7 +7328,7 @@
       <c r="C71" t="s">
         <v>438</v>
       </c>
-      <c r="D71" s="176" t="s">
+      <c r="D71" s="175" t="s">
         <v>427</v>
       </c>
     </row>
@@ -7236,10 +7405,10 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7257,63 +7426,63 @@
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="272" t="s">
+    <row r="1" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="275" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="273"/>
-      <c r="J1" s="274"/>
-    </row>
-    <row r="2" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="269" t="s">
+      <c r="B1" s="276"/>
+      <c r="C1" s="276"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="276"/>
+      <c r="G1" s="276"/>
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="277"/>
+    </row>
+    <row r="2" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="272" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270"/>
-      <c r="J2" s="271"/>
-    </row>
-    <row r="3" spans="1:10" s="113" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="s">
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="274"/>
+    </row>
+    <row r="3" spans="1:10" s="112" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="130" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="130" t="s">
         <v>316</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="127" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="127" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="124" t="s">
         <v>266</v>
       </c>
-      <c r="F3" s="126" t="s">
+      <c r="F3" s="125" t="s">
         <v>266</v>
       </c>
-      <c r="G3" s="132" t="s">
+      <c r="G3" s="131" t="s">
         <v>317</v>
       </c>
-      <c r="H3" s="166" t="s">
+      <c r="H3" s="165" t="s">
         <v>298</v>
       </c>
-      <c r="I3" s="128"/>
-      <c r="J3" s="130"/>
-    </row>
-    <row r="4" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I3" s="127"/>
+      <c r="J3" s="129"/>
+    </row>
+    <row r="4" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
         <v>96</v>
       </c>
@@ -7335,13 +7504,13 @@
       <c r="G4" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="167" t="s">
+      <c r="H4" s="166" t="s">
         <v>299</v>
       </c>
       <c r="I4" s="101"/>
       <c r="J4" s="102"/>
     </row>
-    <row r="5" spans="1:10" s="113" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="112" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="73" t="s">
         <v>171</v>
       </c>
@@ -7354,44 +7523,44 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="199" t="s">
+      <c r="G5" s="198" t="s">
         <v>300</v>
       </c>
-      <c r="H5" s="165"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165"/>
-    </row>
-    <row r="6" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="269" t="s">
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+    </row>
+    <row r="6" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="272" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="270"/>
-      <c r="C6" s="270"/>
-      <c r="D6" s="270"/>
-      <c r="E6" s="270"/>
-      <c r="F6" s="270"/>
-      <c r="G6" s="270"/>
-      <c r="H6" s="270"/>
-      <c r="I6" s="270"/>
-      <c r="J6" s="271"/>
-    </row>
-    <row r="7" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="124" t="s">
+      <c r="B6" s="273"/>
+      <c r="C6" s="273"/>
+      <c r="D6" s="273"/>
+      <c r="E6" s="273"/>
+      <c r="F6" s="273"/>
+      <c r="G6" s="273"/>
+      <c r="H6" s="273"/>
+      <c r="I6" s="273"/>
+      <c r="J6" s="274"/>
+    </row>
+    <row r="7" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="123" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="131" t="s">
         <v>318</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="130"/>
-    </row>
-    <row r="8" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="129"/>
+    </row>
+    <row r="8" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="95" t="s">
         <v>149</v>
       </c>
@@ -7407,7 +7576,7 @@
       <c r="I8" s="104"/>
       <c r="J8" s="105"/>
     </row>
-    <row r="9" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="68" t="s">
         <v>0</v>
       </c>
@@ -7423,47 +7592,47 @@
       <c r="I9" s="71"/>
       <c r="J9" s="72"/>
     </row>
-    <row r="10" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="269" t="s">
+    <row r="10" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="270"/>
-      <c r="C10" s="270"/>
-      <c r="D10" s="270"/>
-      <c r="E10" s="270"/>
-      <c r="F10" s="270"/>
-      <c r="G10" s="270"/>
-      <c r="H10" s="270"/>
-      <c r="I10" s="270"/>
-      <c r="J10" s="271"/>
-    </row>
-    <row r="11" spans="1:10" s="113" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="127"/>
-      <c r="B11" s="128" t="s">
+      <c r="B10" s="273"/>
+      <c r="C10" s="273"/>
+      <c r="D10" s="273"/>
+      <c r="E10" s="273"/>
+      <c r="F10" s="273"/>
+      <c r="G10" s="273"/>
+      <c r="H10" s="273"/>
+      <c r="I10" s="273"/>
+      <c r="J10" s="274"/>
+    </row>
+    <row r="11" spans="1:10" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="126"/>
+      <c r="B11" s="127" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="127" t="s">
         <v>254</v>
       </c>
-      <c r="D11" s="175" t="s">
+      <c r="D11" s="174" t="s">
         <v>326</v>
       </c>
-      <c r="E11" s="128" t="s">
+      <c r="E11" s="127" t="s">
         <v>256</v>
       </c>
-      <c r="F11" s="133" t="s">
+      <c r="F11" s="132" t="s">
         <v>320</v>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G11" s="131" t="s">
         <v>319</v>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="H11" s="131" t="s">
         <v>321</v>
       </c>
-      <c r="I11" s="128"/>
-      <c r="J11" s="130"/>
-    </row>
-    <row r="12" spans="1:10" s="113" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="127"/>
+      <c r="J11" s="129"/>
+    </row>
+    <row r="12" spans="1:10" s="112" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95" t="s">
         <v>1</v>
       </c>
@@ -7482,16 +7651,16 @@
       <c r="F12" s="96" t="s">
         <v>258</v>
       </c>
-      <c r="G12" s="134" t="s">
+      <c r="G12" s="133" t="s">
         <v>259</v>
       </c>
       <c r="H12" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
-    </row>
-    <row r="13" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="118"/>
+      <c r="J12" s="119"/>
+    </row>
+    <row r="13" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="106" t="s">
         <v>14</v>
       </c>
@@ -7519,7 +7688,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="106">
         <v>2</v>
       </c>
@@ -7547,7 +7716,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="106">
         <v>3</v>
       </c>
@@ -7561,7 +7730,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="106">
         <v>4</v>
       </c>
@@ -7575,458 +7744,585 @@
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="106">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="106">
-        <v>7</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" s="113" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="107">
-        <v>8</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" s="113" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="269" t="s">
+    <row r="17" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="316" t="s">
+        <v>496</v>
+      </c>
+      <c r="B17" s="317"/>
+      <c r="C17" s="317"/>
+      <c r="D17" s="317"/>
+      <c r="E17" s="317"/>
+      <c r="F17" s="317"/>
+      <c r="G17" s="317"/>
+      <c r="H17" s="317"/>
+      <c r="I17" s="317"/>
+      <c r="J17" s="318"/>
+    </row>
+    <row r="18" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="319"/>
+      <c r="B18" s="320" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" s="320" t="s">
+        <v>254</v>
+      </c>
+      <c r="D18" s="320" t="s">
+        <v>256</v>
+      </c>
+      <c r="E18" s="321" t="s">
+        <v>320</v>
+      </c>
+      <c r="F18" s="322" t="s">
+        <v>319</v>
+      </c>
+      <c r="G18" s="322"/>
+      <c r="H18" s="323"/>
+      <c r="I18" s="323"/>
+      <c r="J18" s="324"/>
+    </row>
+    <row r="19" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="325" t="s">
+        <v>497</v>
+      </c>
+      <c r="B19" s="326" t="s">
+        <v>498</v>
+      </c>
+      <c r="C19" s="327" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19" s="327" t="s">
+        <v>499</v>
+      </c>
+      <c r="E19" s="327" t="s">
+        <v>258</v>
+      </c>
+      <c r="F19" s="328" t="s">
+        <v>259</v>
+      </c>
+      <c r="G19" s="326"/>
+      <c r="H19" s="329"/>
+      <c r="I19" s="329"/>
+      <c r="J19" s="330"/>
+    </row>
+    <row r="20" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="331"/>
+      <c r="B20" s="332"/>
+      <c r="C20" s="332"/>
+      <c r="D20" s="332"/>
+      <c r="E20" s="332"/>
+      <c r="F20" s="332"/>
+      <c r="G20" s="332"/>
+      <c r="H20" s="332"/>
+      <c r="I20" s="332"/>
+      <c r="J20" s="333"/>
+    </row>
+    <row r="21" spans="1:10" s="112" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="331"/>
+      <c r="B21" s="332"/>
+      <c r="C21" s="332"/>
+      <c r="D21" s="332"/>
+      <c r="E21" s="332"/>
+      <c r="F21" s="332"/>
+      <c r="G21" s="332"/>
+      <c r="H21" s="332"/>
+      <c r="I21" s="332"/>
+      <c r="J21" s="333"/>
+    </row>
+    <row r="22" spans="1:10" s="112" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="272" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="270"/>
-      <c r="C21" s="270"/>
-      <c r="D21" s="270"/>
-      <c r="E21" s="270"/>
-      <c r="F21" s="270"/>
-      <c r="G21" s="270"/>
-      <c r="H21" s="270"/>
-      <c r="I21" s="270"/>
-      <c r="J21" s="271"/>
-    </row>
-    <row r="22" spans="1:10" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="131" t="s">
+      <c r="B22" s="273"/>
+      <c r="C22" s="273"/>
+      <c r="D22" s="273"/>
+      <c r="E22" s="273"/>
+      <c r="F22" s="273"/>
+      <c r="G22" s="273"/>
+      <c r="H22" s="273"/>
+      <c r="I22" s="273"/>
+      <c r="J22" s="274"/>
+    </row>
+    <row r="23" spans="1:10" s="112" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="130" t="s">
         <v>322</v>
       </c>
-      <c r="B22" s="132" t="s">
+      <c r="B23" s="131" t="s">
         <v>323</v>
       </c>
-      <c r="C22" s="132" t="s">
+      <c r="C23" s="131" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="132" t="s">
+      <c r="D23" s="131" t="s">
         <v>324</v>
       </c>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="130"/>
-    </row>
-    <row r="23" spans="1:10" s="113" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="95" t="s">
+      <c r="E23" s="127"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="129"/>
+    </row>
+    <row r="24" spans="1:10" s="112" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="96" t="s">
+      <c r="B24" s="96" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="96" t="s">
+      <c r="C24" s="96" t="s">
         <v>262</v>
       </c>
-      <c r="D23" s="99" t="s">
+      <c r="D24" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="E23" s="114"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="105"/>
-    </row>
-    <row r="24" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30">
+      <c r="E24" s="113"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="105"/>
+    </row>
+    <row r="25" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30">
         <v>3</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="153" t="s">
+      <c r="D25" s="152" t="s">
         <v>216</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="269" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="316" t="s">
+        <v>500</v>
+      </c>
+      <c r="B26" s="317"/>
+      <c r="C26" s="317"/>
+      <c r="D26" s="317"/>
+      <c r="E26" s="317"/>
+      <c r="F26" s="317"/>
+      <c r="G26" s="317"/>
+      <c r="H26" s="317"/>
+      <c r="I26" s="317"/>
+      <c r="J26" s="318"/>
+    </row>
+    <row r="27" spans="1:10" s="112" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="334" t="s">
+        <v>501</v>
+      </c>
+      <c r="B27" s="335" t="s">
+        <v>501</v>
+      </c>
+      <c r="C27" s="336" t="s">
+        <v>267</v>
+      </c>
+      <c r="D27" s="336" t="s">
+        <v>267</v>
+      </c>
+      <c r="E27" s="337" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27" s="338" t="s">
+        <v>502</v>
+      </c>
+      <c r="G27" s="337" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27" s="339"/>
+      <c r="I27" s="339"/>
+      <c r="J27" s="340"/>
+    </row>
+    <row r="28" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="341" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="326" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="342" t="s">
+        <v>252</v>
+      </c>
+      <c r="D28" s="342" t="s">
+        <v>253</v>
+      </c>
+      <c r="E28" s="342" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="342" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="326" t="s">
+        <v>230</v>
+      </c>
+      <c r="H28" s="343"/>
+      <c r="I28" s="343"/>
+      <c r="J28" s="344"/>
+    </row>
+    <row r="29" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="345"/>
+      <c r="B29" s="346"/>
+      <c r="C29" s="347"/>
+      <c r="D29" s="347"/>
+      <c r="E29" s="347"/>
+      <c r="F29" s="347"/>
+      <c r="G29" s="347"/>
+      <c r="H29" s="347"/>
+      <c r="I29" s="347"/>
+      <c r="J29" s="348"/>
+    </row>
+    <row r="30" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="272" t="s">
         <v>151</v>
       </c>
-      <c r="B25" s="270"/>
-      <c r="C25" s="270"/>
-      <c r="D25" s="270"/>
-      <c r="E25" s="270"/>
-      <c r="F25" s="270"/>
-      <c r="G25" s="270"/>
-      <c r="H25" s="270"/>
-      <c r="I25" s="270"/>
-      <c r="J25" s="271"/>
-    </row>
-    <row r="26" spans="1:10" s="113" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="131" t="s">
+      <c r="B30" s="273"/>
+      <c r="C30" s="273"/>
+      <c r="D30" s="273"/>
+      <c r="E30" s="273"/>
+      <c r="F30" s="273"/>
+      <c r="G30" s="273"/>
+      <c r="H30" s="273"/>
+      <c r="I30" s="273"/>
+      <c r="J30" s="274"/>
+    </row>
+    <row r="31" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="130" t="s">
         <v>277</v>
       </c>
-      <c r="B26" s="193" t="s">
+      <c r="B31" s="192" t="s">
         <v>361</v>
       </c>
-      <c r="C26" s="132" t="s">
+      <c r="C31" s="131" t="s">
         <v>325</v>
       </c>
-      <c r="D26" s="132" t="s">
+      <c r="D31" s="131" t="s">
         <v>263</v>
       </c>
-      <c r="E26" s="189" t="s">
+      <c r="E31" s="188" t="s">
         <v>361</v>
       </c>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="151"/>
-    </row>
-    <row r="27" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="148"/>
-      <c r="B27" s="147" t="s">
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="150"/>
+    </row>
+    <row r="32" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="147"/>
+      <c r="B32" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="147" t="s">
+      <c r="C32" s="146" t="s">
         <v>261</v>
       </c>
-      <c r="D27" s="96" t="s">
+      <c r="D32" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="E27" s="96" t="s">
+      <c r="E32" s="96" t="s">
         <v>362</v>
       </c>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="152"/>
-    </row>
-    <row r="28" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="146"/>
-      <c r="B28" s="198" t="s">
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="151"/>
+    </row>
+    <row r="33" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="145"/>
+      <c r="B33" s="197" t="s">
         <v>452</v>
       </c>
-      <c r="C28" s="186"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="153" t="s">
+      <c r="C33" s="185"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="152" t="s">
         <v>453</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:10" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="266" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:10" s="112" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="269" t="s">
         <v>276</v>
       </c>
-      <c r="B30" s="267"/>
-      <c r="C30" s="267"/>
-      <c r="D30" s="267"/>
-      <c r="E30" s="267"/>
-      <c r="F30" s="267"/>
-      <c r="G30" s="267"/>
-      <c r="H30" s="268"/>
-    </row>
-    <row r="31" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="260" t="s">
+      <c r="B35" s="270"/>
+      <c r="C35" s="270"/>
+      <c r="D35" s="270"/>
+      <c r="E35" s="270"/>
+      <c r="F35" s="270"/>
+      <c r="G35" s="270"/>
+      <c r="H35" s="271"/>
+    </row>
+    <row r="36" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="263" t="s">
         <v>355</v>
       </c>
-      <c r="B31" s="261"/>
-      <c r="C31" s="261"/>
-      <c r="D31" s="261"/>
-      <c r="E31" s="261"/>
-      <c r="F31" s="261"/>
-      <c r="G31" s="261"/>
-      <c r="H31" s="262"/>
-    </row>
-    <row r="32" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="260"/>
-      <c r="B32" s="261"/>
-      <c r="C32" s="261"/>
-      <c r="D32" s="261"/>
-      <c r="E32" s="261"/>
-      <c r="F32" s="261"/>
-      <c r="G32" s="261"/>
-      <c r="H32" s="262"/>
-    </row>
-    <row r="33" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="260"/>
-      <c r="B33" s="261"/>
-      <c r="C33" s="261"/>
-      <c r="D33" s="261"/>
-      <c r="E33" s="261"/>
-      <c r="F33" s="261"/>
-      <c r="G33" s="261"/>
-      <c r="H33" s="262"/>
-    </row>
-    <row r="34" spans="1:8" s="113" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="263"/>
-      <c r="B34" s="264"/>
-      <c r="C34" s="264"/>
-      <c r="D34" s="264"/>
-      <c r="E34" s="264"/>
-      <c r="F34" s="264"/>
-      <c r="G34" s="264"/>
-      <c r="H34" s="265"/>
-    </row>
-    <row r="35" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:8" s="113" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="250" t="s">
+      <c r="B36" s="264"/>
+      <c r="C36" s="264"/>
+      <c r="D36" s="264"/>
+      <c r="E36" s="264"/>
+      <c r="F36" s="264"/>
+      <c r="G36" s="264"/>
+      <c r="H36" s="265"/>
+    </row>
+    <row r="37" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="263"/>
+      <c r="B37" s="264"/>
+      <c r="C37" s="264"/>
+      <c r="D37" s="264"/>
+      <c r="E37" s="264"/>
+      <c r="F37" s="264"/>
+      <c r="G37" s="264"/>
+      <c r="H37" s="265"/>
+    </row>
+    <row r="38" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="263"/>
+      <c r="B38" s="264"/>
+      <c r="C38" s="264"/>
+      <c r="D38" s="264"/>
+      <c r="E38" s="264"/>
+      <c r="F38" s="264"/>
+      <c r="G38" s="264"/>
+      <c r="H38" s="265"/>
+    </row>
+    <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="266"/>
+      <c r="B39" s="267"/>
+      <c r="C39" s="267"/>
+      <c r="D39" s="267"/>
+      <c r="E39" s="267"/>
+      <c r="F39" s="267"/>
+      <c r="G39" s="267"/>
+      <c r="H39" s="268"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="112"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="112"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="112"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="112"/>
+    </row>
+    <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="253" t="s">
         <v>302</v>
       </c>
-      <c r="B36" s="250"/>
-      <c r="C36" s="250"/>
-      <c r="D36" s="250"/>
-      <c r="E36" s="250"/>
-      <c r="F36" s="250"/>
-      <c r="G36" s="250"/>
-    </row>
-    <row r="37" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="78" t="s">
+      <c r="B41" s="253"/>
+      <c r="C41" s="253"/>
+      <c r="D41" s="253"/>
+      <c r="E41" s="253"/>
+      <c r="F41" s="253"/>
+      <c r="G41" s="253"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="112"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B42" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C42" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="D37" s="249" t="s">
+      <c r="D42" s="252" t="s">
         <v>305</v>
       </c>
-      <c r="E37" s="249"/>
-      <c r="F37" s="249"/>
-      <c r="G37" s="249"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="E42" s="252"/>
+      <c r="F42" s="252"/>
+      <c r="G42" s="252"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="112"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>306</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B43" t="s">
         <v>307</v>
-      </c>
-      <c r="C38" t="s">
-        <v>455</v>
-      </c>
-      <c r="D38" s="176" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>328</v>
-      </c>
-      <c r="B39" t="s">
-        <v>332</v>
-      </c>
-      <c r="C39" t="s">
-        <v>455</v>
-      </c>
-      <c r="D39" s="188" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>328</v>
-      </c>
-      <c r="B40" t="s">
-        <v>333</v>
-      </c>
-      <c r="C40" t="s">
-        <v>455</v>
-      </c>
-      <c r="D40" s="176" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>328</v>
-      </c>
-      <c r="B41" t="s">
-        <v>334</v>
-      </c>
-      <c r="C41" t="s">
-        <v>455</v>
-      </c>
-      <c r="D41" s="176" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>328</v>
-      </c>
-      <c r="B42" t="s">
-        <v>335</v>
-      </c>
-      <c r="C42" t="s">
-        <v>455</v>
-      </c>
-      <c r="D42" s="179" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>364</v>
-      </c>
-      <c r="B43" t="s">
-        <v>308</v>
       </c>
       <c r="C43" t="s">
         <v>455</v>
       </c>
-      <c r="D43" s="188" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="175" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="B44" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="C44" t="s">
         <v>455</v>
       </c>
-      <c r="D44" s="188" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D44" s="187" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="B45" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="C45" t="s">
         <v>455</v>
       </c>
-      <c r="D45" s="188" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="175" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="B46" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="C46" t="s">
         <v>455</v>
       </c>
-      <c r="D46" s="188" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="175" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="C47" t="s">
         <v>455</v>
       </c>
-      <c r="D47" s="188" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="178" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="B48" t="s">
-        <v>456</v>
+        <v>308</v>
       </c>
       <c r="C48" t="s">
         <v>455</v>
       </c>
-      <c r="D48" s="179" t="s">
+      <c r="D48" s="187" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>366</v>
+      </c>
+      <c r="B49" t="s">
+        <v>367</v>
+      </c>
+      <c r="C49" t="s">
+        <v>455</v>
+      </c>
+      <c r="D49" s="187" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>366</v>
+      </c>
+      <c r="B50" t="s">
+        <v>367</v>
+      </c>
+      <c r="C50" t="s">
+        <v>455</v>
+      </c>
+      <c r="D50" s="187" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>366</v>
+      </c>
+      <c r="B51" t="s">
+        <v>367</v>
+      </c>
+      <c r="C51" t="s">
+        <v>455</v>
+      </c>
+      <c r="D51" s="187" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>366</v>
+      </c>
+      <c r="B52" t="s">
+        <v>367</v>
+      </c>
+      <c r="C52" t="s">
+        <v>455</v>
+      </c>
+      <c r="D52" s="187" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>328</v>
+      </c>
+      <c r="B53" t="s">
+        <v>456</v>
+      </c>
+      <c r="C53" t="s">
+        <v>455</v>
+      </c>
+      <c r="D53" s="178" t="s">
         <v>457</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:H34"/>
-    <mergeCell ref="A25:J25"/>
+  <mergeCells count="12">
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:H39"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8043,13 +8339,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8096,352 +8392,352 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="295" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="294"/>
-      <c r="K1" s="294"/>
-      <c r="L1" s="294"/>
-      <c r="M1" s="294"/>
-      <c r="N1" s="294"/>
-      <c r="O1" s="294"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
+      <c r="K1" s="295"/>
+      <c r="L1" s="295"/>
+      <c r="M1" s="295"/>
+      <c r="N1" s="295"/>
+      <c r="O1" s="295"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="295" t="s">
+      <c r="A2" s="283" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="296"/>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="297"/>
-      <c r="G2" s="298" t="s">
+      <c r="B2" s="284"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="296" t="s">
         <v>242</v>
       </c>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
-      <c r="J2" s="298"/>
-      <c r="K2" s="298"/>
-      <c r="L2" s="298"/>
-      <c r="M2" s="299" t="s">
+      <c r="H2" s="296"/>
+      <c r="I2" s="296"/>
+      <c r="J2" s="296"/>
+      <c r="K2" s="296"/>
+      <c r="L2" s="296"/>
+      <c r="M2" s="279" t="s">
         <v>290</v>
       </c>
-      <c r="N2" s="299"/>
-      <c r="O2" s="299"/>
+      <c r="N2" s="279"/>
+      <c r="O2" s="279"/>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="300" t="s">
+      <c r="A3" s="286" t="s">
         <v>486</v>
       </c>
-      <c r="B3" s="301"/>
-      <c r="C3" s="301"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="301"/>
-      <c r="F3" s="302"/>
-      <c r="G3" s="303" t="s">
+      <c r="B3" s="287"/>
+      <c r="C3" s="287"/>
+      <c r="D3" s="287"/>
+      <c r="E3" s="287"/>
+      <c r="F3" s="288"/>
+      <c r="G3" s="298" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="303"/>
-      <c r="I3" s="303"/>
-      <c r="J3" s="303"/>
-      <c r="K3" s="303"/>
-      <c r="L3" s="303"/>
-      <c r="M3" s="304" t="s">
+      <c r="H3" s="298"/>
+      <c r="I3" s="298"/>
+      <c r="J3" s="298"/>
+      <c r="K3" s="298"/>
+      <c r="L3" s="298"/>
+      <c r="M3" s="204" t="s">
         <v>294</v>
       </c>
-      <c r="N3" s="304" t="s">
+      <c r="N3" s="204" t="s">
         <v>361</v>
       </c>
-      <c r="O3" s="304" t="s">
+      <c r="O3" s="204" t="s">
         <v>361</v>
       </c>
-      <c r="P3" s="196"/>
+      <c r="P3" s="195"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="305" t="s">
+      <c r="A4" s="289" t="s">
         <v>487</v>
       </c>
-      <c r="B4" s="306"/>
-      <c r="C4" s="306"/>
-      <c r="D4" s="306"/>
-      <c r="E4" s="306"/>
-      <c r="F4" s="307"/>
-      <c r="G4" s="308" t="s">
+      <c r="B4" s="290"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="297" t="s">
         <v>243</v>
       </c>
-      <c r="H4" s="308"/>
-      <c r="I4" s="308"/>
-      <c r="J4" s="308" t="s">
+      <c r="H4" s="297"/>
+      <c r="I4" s="297"/>
+      <c r="J4" s="297" t="s">
         <v>297</v>
       </c>
-      <c r="K4" s="308"/>
-      <c r="L4" s="308"/>
-      <c r="M4" s="309" t="s">
+      <c r="K4" s="297"/>
+      <c r="L4" s="297"/>
+      <c r="M4" s="205" t="s">
         <v>152</v>
       </c>
-      <c r="N4" s="309" t="s">
+      <c r="N4" s="205" t="s">
         <v>362</v>
       </c>
-      <c r="O4" s="309" t="s">
+      <c r="O4" s="205" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="310"/>
-      <c r="B5" s="311"/>
-      <c r="C5" s="311"/>
-      <c r="D5" s="311"/>
-      <c r="E5" s="311"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="313" t="s">
+      <c r="A5" s="292"/>
+      <c r="B5" s="293"/>
+      <c r="C5" s="293"/>
+      <c r="D5" s="293"/>
+      <c r="E5" s="293"/>
+      <c r="F5" s="294"/>
+      <c r="G5" s="278" t="s">
         <v>274</v>
       </c>
-      <c r="H5" s="313"/>
-      <c r="I5" s="313"/>
-      <c r="J5" s="313" t="s">
+      <c r="H5" s="278"/>
+      <c r="I5" s="278"/>
+      <c r="J5" s="278" t="s">
         <v>287</v>
       </c>
-      <c r="K5" s="313"/>
-      <c r="L5" s="313"/>
-      <c r="M5" s="314"/>
-      <c r="N5" s="314" t="s">
+      <c r="K5" s="278"/>
+      <c r="L5" s="278"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206" t="s">
         <v>379</v>
       </c>
-      <c r="O5" s="315" t="s">
+      <c r="O5" s="207" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="310" t="s">
+      <c r="A6" s="292" t="s">
         <v>488</v>
       </c>
-      <c r="B6" s="311"/>
-      <c r="C6" s="311"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="311"/>
-      <c r="F6" s="312"/>
-      <c r="G6" s="313" t="s">
+      <c r="B6" s="293"/>
+      <c r="C6" s="293"/>
+      <c r="D6" s="293"/>
+      <c r="E6" s="293"/>
+      <c r="F6" s="294"/>
+      <c r="G6" s="278" t="s">
         <v>280</v>
       </c>
-      <c r="H6" s="313"/>
-      <c r="I6" s="313"/>
-      <c r="J6" s="313"/>
-      <c r="K6" s="313"/>
-      <c r="L6" s="313"/>
-      <c r="M6" s="314"/>
-      <c r="N6" s="314" t="s">
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="278"/>
+      <c r="K6" s="278"/>
+      <c r="L6" s="278"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="206" t="s">
         <v>380</v>
       </c>
-      <c r="O6" s="315" t="s">
+      <c r="O6" s="207" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="310" t="s">
+      <c r="A7" s="292" t="s">
         <v>489</v>
       </c>
-      <c r="B7" s="311"/>
-      <c r="C7" s="311"/>
-      <c r="D7" s="311"/>
-      <c r="E7" s="311"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="313"/>
-      <c r="H7" s="313"/>
-      <c r="I7" s="313"/>
-      <c r="J7" s="313"/>
-      <c r="K7" s="313"/>
-      <c r="L7" s="313"/>
-      <c r="M7" s="314"/>
-      <c r="N7" s="314"/>
-      <c r="O7" s="315"/>
+      <c r="B7" s="293"/>
+      <c r="C7" s="293"/>
+      <c r="D7" s="293"/>
+      <c r="E7" s="293"/>
+      <c r="F7" s="294"/>
+      <c r="G7" s="278"/>
+      <c r="H7" s="278"/>
+      <c r="I7" s="278"/>
+      <c r="J7" s="278"/>
+      <c r="K7" s="278"/>
+      <c r="L7" s="278"/>
+      <c r="M7" s="206"/>
+      <c r="N7" s="206"/>
+      <c r="O7" s="207"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="310"/>
-      <c r="B8" s="311"/>
-      <c r="C8" s="311"/>
-      <c r="D8" s="311"/>
-      <c r="E8" s="311"/>
-      <c r="F8" s="312"/>
-      <c r="G8" s="313"/>
-      <c r="H8" s="313"/>
-      <c r="I8" s="313"/>
-      <c r="J8" s="313"/>
-      <c r="K8" s="313"/>
-      <c r="L8" s="313"/>
-      <c r="M8" s="314"/>
-      <c r="N8" s="314"/>
-      <c r="O8" s="315"/>
+      <c r="A8" s="292"/>
+      <c r="B8" s="293"/>
+      <c r="C8" s="293"/>
+      <c r="D8" s="293"/>
+      <c r="E8" s="293"/>
+      <c r="F8" s="294"/>
+      <c r="G8" s="278"/>
+      <c r="H8" s="278"/>
+      <c r="I8" s="278"/>
+      <c r="J8" s="278"/>
+      <c r="K8" s="278"/>
+      <c r="L8" s="278"/>
+      <c r="M8" s="206"/>
+      <c r="N8" s="206"/>
+      <c r="O8" s="207"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="275" t="s">
+      <c r="A10" s="280" t="s">
         <v>349</v>
       </c>
-      <c r="B10" s="276"/>
-      <c r="C10" s="276"/>
-      <c r="D10" s="276"/>
-      <c r="E10" s="276"/>
-      <c r="F10" s="276"/>
-      <c r="G10" s="276"/>
-      <c r="H10" s="276"/>
-      <c r="I10" s="277"/>
+      <c r="B10" s="281"/>
+      <c r="C10" s="281"/>
+      <c r="D10" s="281"/>
+      <c r="E10" s="281"/>
+      <c r="F10" s="281"/>
+      <c r="G10" s="281"/>
+      <c r="H10" s="281"/>
+      <c r="I10" s="282"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="130" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="131" t="s">
         <v>327</v>
       </c>
-      <c r="C11" s="189" t="s">
+      <c r="C11" s="188" t="s">
         <v>361</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="124" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="125" t="s">
+      <c r="E11" s="124" t="s">
         <v>266</v>
       </c>
-      <c r="F11" s="125" t="s">
+      <c r="F11" s="124" t="s">
         <v>266</v>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G11" s="131" t="s">
         <v>272</v>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="H11" s="131" t="s">
         <v>272</v>
       </c>
-      <c r="I11" s="144" t="s">
+      <c r="I11" s="143" t="s">
         <v>272</v>
       </c>
-      <c r="K11" s="187"/>
-      <c r="L11" s="187"/>
+      <c r="K11" s="186"/>
+      <c r="L11" s="186"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
-      <c r="B12" s="147" t="s">
+      <c r="A12" s="147"/>
+      <c r="B12" s="146" t="s">
         <v>247</v>
       </c>
       <c r="C12" s="96" t="s">
         <v>360</v>
       </c>
-      <c r="D12" s="147" t="s">
+      <c r="D12" s="146" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="147" t="s">
+      <c r="E12" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="147" t="s">
+      <c r="F12" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="147" t="s">
+      <c r="G12" s="146" t="s">
         <v>249</v>
       </c>
-      <c r="H12" s="147" t="s">
+      <c r="H12" s="146" t="s">
         <v>250</v>
       </c>
-      <c r="I12" s="149" t="s">
+      <c r="I12" s="148" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="146"/>
+      <c r="A13" s="145"/>
       <c r="B13" s="97"/>
       <c r="C13" s="97"/>
-      <c r="D13" s="153">
+      <c r="D13" s="152">
         <v>100</v>
       </c>
-      <c r="E13" s="153">
+      <c r="E13" s="152">
         <v>0</v>
       </c>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153">
+      <c r="F13" s="152"/>
+      <c r="G13" s="152">
         <v>4</v>
       </c>
-      <c r="H13" s="153">
+      <c r="H13" s="152">
         <v>10</v>
       </c>
-      <c r="I13" s="154">
+      <c r="I13" s="153">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="266" t="s">
+      <c r="A15" s="269" t="s">
         <v>276</v>
       </c>
-      <c r="B15" s="267"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="267"/>
-      <c r="F15" s="267"/>
-      <c r="G15" s="267"/>
-      <c r="H15" s="268"/>
+      <c r="B15" s="270"/>
+      <c r="C15" s="270"/>
+      <c r="D15" s="270"/>
+      <c r="E15" s="270"/>
+      <c r="F15" s="270"/>
+      <c r="G15" s="270"/>
+      <c r="H15" s="271"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="260" t="s">
+      <c r="A16" s="263" t="s">
         <v>357</v>
       </c>
-      <c r="B16" s="261"/>
-      <c r="C16" s="261"/>
-      <c r="D16" s="261"/>
-      <c r="E16" s="261"/>
-      <c r="F16" s="261"/>
-      <c r="G16" s="261"/>
-      <c r="H16" s="262"/>
+      <c r="B16" s="264"/>
+      <c r="C16" s="264"/>
+      <c r="D16" s="264"/>
+      <c r="E16" s="264"/>
+      <c r="F16" s="264"/>
+      <c r="G16" s="264"/>
+      <c r="H16" s="265"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="260"/>
-      <c r="B17" s="261"/>
-      <c r="C17" s="261"/>
-      <c r="D17" s="261"/>
-      <c r="E17" s="261"/>
-      <c r="F17" s="261"/>
-      <c r="G17" s="261"/>
-      <c r="H17" s="262"/>
+      <c r="A17" s="263"/>
+      <c r="B17" s="264"/>
+      <c r="C17" s="264"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="264"/>
+      <c r="F17" s="264"/>
+      <c r="G17" s="264"/>
+      <c r="H17" s="265"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="260"/>
-      <c r="B18" s="261"/>
-      <c r="C18" s="261"/>
-      <c r="D18" s="261"/>
-      <c r="E18" s="261"/>
-      <c r="F18" s="261"/>
-      <c r="G18" s="261"/>
-      <c r="H18" s="262"/>
+      <c r="A18" s="263"/>
+      <c r="B18" s="264"/>
+      <c r="C18" s="264"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="264"/>
+      <c r="F18" s="264"/>
+      <c r="G18" s="264"/>
+      <c r="H18" s="265"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="263"/>
-      <c r="B19" s="264"/>
-      <c r="C19" s="264"/>
-      <c r="D19" s="264"/>
-      <c r="E19" s="264"/>
-      <c r="F19" s="264"/>
-      <c r="G19" s="264"/>
-      <c r="H19" s="265"/>
+      <c r="A19" s="266"/>
+      <c r="B19" s="267"/>
+      <c r="C19" s="267"/>
+      <c r="D19" s="267"/>
+      <c r="E19" s="267"/>
+      <c r="F19" s="267"/>
+      <c r="G19" s="267"/>
+      <c r="H19" s="268"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="250" t="s">
+      <c r="A21" s="253" t="s">
         <v>302</v>
       </c>
-      <c r="B21" s="250"/>
-      <c r="C21" s="250"/>
-      <c r="D21" s="250"/>
-      <c r="E21" s="250"/>
-      <c r="F21" s="250"/>
-      <c r="G21" s="250"/>
+      <c r="B21" s="253"/>
+      <c r="C21" s="253"/>
+      <c r="D21" s="253"/>
+      <c r="E21" s="253"/>
+      <c r="F21" s="253"/>
+      <c r="G21" s="253"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
@@ -8453,12 +8749,12 @@
       <c r="C22" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="249" t="s">
+      <c r="D22" s="252" t="s">
         <v>305</v>
       </c>
-      <c r="E22" s="249"/>
-      <c r="F22" s="249"/>
-      <c r="G22" s="249"/>
+      <c r="E22" s="252"/>
+      <c r="F22" s="252"/>
+      <c r="G22" s="252"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8470,7 +8766,7 @@
       <c r="C23" t="s">
         <v>441</v>
       </c>
-      <c r="D23" s="176" t="s">
+      <c r="D23" s="175" t="s">
         <v>363</v>
       </c>
     </row>
@@ -8484,7 +8780,7 @@
       <c r="C24" t="s">
         <v>441</v>
       </c>
-      <c r="D24" s="188" t="s">
+      <c r="D24" s="187" t="s">
         <v>329</v>
       </c>
     </row>
@@ -8498,7 +8794,7 @@
       <c r="C25" t="s">
         <v>441</v>
       </c>
-      <c r="D25" s="176" t="s">
+      <c r="D25" s="175" t="s">
         <v>330</v>
       </c>
     </row>
@@ -8512,7 +8808,7 @@
       <c r="C26" t="s">
         <v>441</v>
       </c>
-      <c r="D26" s="176" t="s">
+      <c r="D26" s="175" t="s">
         <v>350</v>
       </c>
     </row>
@@ -8526,7 +8822,7 @@
       <c r="C27" t="s">
         <v>441</v>
       </c>
-      <c r="D27" s="179" t="s">
+      <c r="D27" s="178" t="s">
         <v>331</v>
       </c>
     </row>
@@ -8540,7 +8836,7 @@
       <c r="C28" t="s">
         <v>441</v>
       </c>
-      <c r="D28" s="188" t="s">
+      <c r="D28" s="187" t="s">
         <v>384</v>
       </c>
     </row>
@@ -8554,7 +8850,7 @@
       <c r="C29" t="s">
         <v>441</v>
       </c>
-      <c r="D29" s="188" t="s">
+      <c r="D29" s="187" t="s">
         <v>383</v>
       </c>
     </row>
@@ -8568,7 +8864,7 @@
       <c r="C30" t="s">
         <v>441</v>
       </c>
-      <c r="D30" s="188" t="s">
+      <c r="D30" s="187" t="s">
         <v>385</v>
       </c>
     </row>
@@ -8582,7 +8878,7 @@
       <c r="C31" t="s">
         <v>441</v>
       </c>
-      <c r="D31" s="188" t="s">
+      <c r="D31" s="187" t="s">
         <v>338</v>
       </c>
     </row>
@@ -8596,7 +8892,7 @@
       <c r="C32" t="s">
         <v>441</v>
       </c>
-      <c r="D32" s="188" t="s">
+      <c r="D32" s="187" t="s">
         <v>386</v>
       </c>
     </row>
@@ -8610,7 +8906,7 @@
       <c r="C33" t="s">
         <v>441</v>
       </c>
-      <c r="D33" s="188" t="s">
+      <c r="D33" s="187" t="s">
         <v>387</v>
       </c>
     </row>
@@ -8624,7 +8920,7 @@
       <c r="C34" t="s">
         <v>441</v>
       </c>
-      <c r="D34" s="176" t="s">
+      <c r="D34" s="175" t="s">
         <v>388</v>
       </c>
     </row>
@@ -8638,7 +8934,7 @@
       <c r="C35" t="s">
         <v>441</v>
       </c>
-      <c r="D35" s="176" t="s">
+      <c r="D35" s="175" t="s">
         <v>389</v>
       </c>
     </row>
@@ -8652,7 +8948,7 @@
       <c r="C36" t="s">
         <v>441</v>
       </c>
-      <c r="D36" s="176" t="s">
+      <c r="D36" s="175" t="s">
         <v>390</v>
       </c>
     </row>
@@ -8666,7 +8962,7 @@
       <c r="C37" t="s">
         <v>441</v>
       </c>
-      <c r="D37" s="176" t="s">
+      <c r="D37" s="175" t="s">
         <v>391</v>
       </c>
     </row>
@@ -8680,7 +8976,7 @@
       <c r="C38" t="s">
         <v>441</v>
       </c>
-      <c r="D38" s="176" t="s">
+      <c r="D38" s="175" t="s">
         <v>392</v>
       </c>
     </row>
@@ -8694,7 +8990,7 @@
       <c r="C39" t="s">
         <v>441</v>
       </c>
-      <c r="D39" s="176" t="s">
+      <c r="D39" s="175" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8708,7 +9004,7 @@
       <c r="C40" t="s">
         <v>441</v>
       </c>
-      <c r="D40" s="176" t="s">
+      <c r="D40" s="175" t="s">
         <v>394</v>
       </c>
     </row>
@@ -8722,7 +9018,7 @@
       <c r="C41" t="s">
         <v>441</v>
       </c>
-      <c r="D41" s="176" t="s">
+      <c r="D41" s="175" t="s">
         <v>442</v>
       </c>
     </row>
@@ -8736,7 +9032,7 @@
       <c r="C42" t="s">
         <v>441</v>
       </c>
-      <c r="D42" s="176" t="s">
+      <c r="D42" s="175" t="s">
         <v>395</v>
       </c>
     </row>
@@ -8750,7 +9046,7 @@
       <c r="C43" t="s">
         <v>441</v>
       </c>
-      <c r="D43" s="176" t="s">
+      <c r="D43" s="175" t="s">
         <v>443</v>
       </c>
     </row>
@@ -8764,7 +9060,7 @@
       <c r="C44" t="s">
         <v>441</v>
       </c>
-      <c r="D44" s="176" t="s">
+      <c r="D44" s="175" t="s">
         <v>395</v>
       </c>
     </row>
@@ -8778,7 +9074,7 @@
       <c r="C45" t="s">
         <v>441</v>
       </c>
-      <c r="D45" s="176" t="s">
+      <c r="D45" s="175" t="s">
         <v>444</v>
       </c>
     </row>
@@ -8792,7 +9088,7 @@
       <c r="C46" t="s">
         <v>441</v>
       </c>
-      <c r="D46" s="176" t="s">
+      <c r="D46" s="175" t="s">
         <v>445</v>
       </c>
     </row>
@@ -8806,7 +9102,7 @@
       <c r="C47" t="s">
         <v>441</v>
       </c>
-      <c r="D47" s="176" t="s">
+      <c r="D47" s="175" t="s">
         <v>446</v>
       </c>
     </row>
@@ -8820,7 +9116,7 @@
       <c r="C48" t="s">
         <v>441</v>
       </c>
-      <c r="D48" s="176" t="s">
+      <c r="D48" s="175" t="s">
         <v>447</v>
       </c>
     </row>
@@ -8834,7 +9130,7 @@
       <c r="C49" t="s">
         <v>441</v>
       </c>
-      <c r="D49" s="176" t="s">
+      <c r="D49" s="175" t="s">
         <v>448</v>
       </c>
     </row>
@@ -8848,7 +9144,7 @@
       <c r="C50" t="s">
         <v>441</v>
       </c>
-      <c r="D50" s="176" t="s">
+      <c r="D50" s="175" t="s">
         <v>449</v>
       </c>
     </row>
@@ -8862,7 +9158,7 @@
       <c r="C51" t="s">
         <v>441</v>
       </c>
-      <c r="D51" s="176" t="s">
+      <c r="D51" s="175" t="s">
         <v>450</v>
       </c>
     </row>
@@ -8876,7 +9172,7 @@
       <c r="C52" t="s">
         <v>441</v>
       </c>
-      <c r="D52" s="188" t="s">
+      <c r="D52" s="187" t="s">
         <v>387</v>
       </c>
     </row>
@@ -8890,12 +9186,26 @@
       <c r="C53" t="s">
         <v>441</v>
       </c>
-      <c r="D53" s="176" t="s">
+      <c r="D53" s="175" t="s">
         <v>396</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="M2:O2"/>
@@ -8908,20 +9218,6 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8987,7 +9283,7 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -9013,357 +9309,357 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="295" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="294"/>
-      <c r="K1" s="294"/>
-      <c r="L1" s="294"/>
-      <c r="M1" s="294"/>
-      <c r="N1" s="294"/>
-      <c r="O1" s="294"/>
-      <c r="P1" s="294"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
+      <c r="K1" s="295"/>
+      <c r="L1" s="295"/>
+      <c r="M1" s="295"/>
+      <c r="N1" s="295"/>
+      <c r="O1" s="295"/>
+      <c r="P1" s="295"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="298" t="s">
+      <c r="A2" s="296" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="298"/>
-      <c r="C2" s="298"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="298" t="s">
+      <c r="B2" s="296"/>
+      <c r="C2" s="296"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="296"/>
+      <c r="G2" s="296" t="s">
         <v>242</v>
       </c>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
-      <c r="J2" s="298"/>
-      <c r="K2" s="298"/>
-      <c r="L2" s="298"/>
-      <c r="M2" s="299" t="s">
+      <c r="H2" s="296"/>
+      <c r="I2" s="296"/>
+      <c r="J2" s="296"/>
+      <c r="K2" s="296"/>
+      <c r="L2" s="296"/>
+      <c r="M2" s="279" t="s">
         <v>289</v>
       </c>
-      <c r="N2" s="299"/>
-      <c r="O2" s="299"/>
-      <c r="P2" s="299"/>
+      <c r="N2" s="279"/>
+      <c r="O2" s="279"/>
+      <c r="P2" s="279"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="298" t="s">
         <v>490</v>
       </c>
-      <c r="B3" s="303"/>
-      <c r="C3" s="303"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="303"/>
-      <c r="F3" s="303"/>
-      <c r="G3" s="303" t="s">
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="298"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="298"/>
+      <c r="G3" s="298" t="s">
         <v>291</v>
       </c>
-      <c r="H3" s="303"/>
-      <c r="I3" s="303"/>
-      <c r="J3" s="303"/>
-      <c r="K3" s="303"/>
-      <c r="L3" s="303"/>
-      <c r="M3" s="304" t="s">
+      <c r="H3" s="298"/>
+      <c r="I3" s="298"/>
+      <c r="J3" s="298"/>
+      <c r="K3" s="298"/>
+      <c r="L3" s="298"/>
+      <c r="M3" s="204" t="s">
         <v>293</v>
       </c>
-      <c r="N3" s="304" t="s">
+      <c r="N3" s="204" t="s">
         <v>292</v>
       </c>
-      <c r="O3" s="304" t="s">
+      <c r="O3" s="204" t="s">
         <v>361</v>
       </c>
-      <c r="P3" s="304" t="s">
+      <c r="P3" s="204" t="s">
         <v>361</v>
       </c>
-      <c r="Q3" s="195"/>
+      <c r="Q3" s="194"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="305" t="s">
+      <c r="A4" s="289" t="s">
         <v>487</v>
       </c>
-      <c r="B4" s="306"/>
-      <c r="C4" s="306"/>
-      <c r="D4" s="306"/>
-      <c r="E4" s="306"/>
-      <c r="F4" s="307"/>
-      <c r="G4" s="308" t="s">
+      <c r="B4" s="290"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="297" t="s">
         <v>244</v>
       </c>
-      <c r="H4" s="308"/>
-      <c r="I4" s="308"/>
-      <c r="J4" s="308"/>
-      <c r="K4" s="308"/>
-      <c r="L4" s="308"/>
-      <c r="M4" s="309" t="s">
+      <c r="H4" s="297"/>
+      <c r="I4" s="297"/>
+      <c r="J4" s="297"/>
+      <c r="K4" s="297"/>
+      <c r="L4" s="297"/>
+      <c r="M4" s="205" t="s">
         <v>248</v>
       </c>
-      <c r="N4" s="309" t="s">
+      <c r="N4" s="205" t="s">
         <v>152</v>
       </c>
-      <c r="O4" s="309" t="s">
+      <c r="O4" s="205" t="s">
         <v>362</v>
       </c>
-      <c r="P4" s="309" t="s">
+      <c r="P4" s="205" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="310"/>
-      <c r="B5" s="311"/>
-      <c r="C5" s="311"/>
-      <c r="D5" s="311"/>
-      <c r="E5" s="311"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="316" t="s">
+      <c r="A5" s="292"/>
+      <c r="B5" s="293"/>
+      <c r="C5" s="293"/>
+      <c r="D5" s="293"/>
+      <c r="E5" s="293"/>
+      <c r="F5" s="294"/>
+      <c r="G5" s="299" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="316"/>
-      <c r="I5" s="316"/>
-      <c r="J5" s="316"/>
-      <c r="K5" s="316"/>
-      <c r="L5" s="316"/>
-      <c r="M5" s="314" t="s">
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="299"/>
+      <c r="K5" s="299"/>
+      <c r="L5" s="299"/>
+      <c r="M5" s="206" t="s">
         <v>286</v>
       </c>
-      <c r="N5" s="314"/>
-      <c r="O5" s="314" t="s">
+      <c r="N5" s="206"/>
+      <c r="O5" s="206" t="s">
         <v>491</v>
       </c>
-      <c r="P5" s="314" t="s">
+      <c r="P5" s="206" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="310" t="s">
+      <c r="A6" s="292" t="s">
         <v>493</v>
       </c>
-      <c r="B6" s="311"/>
-      <c r="C6" s="311"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="311"/>
-      <c r="F6" s="312"/>
-      <c r="G6" s="316" t="s">
+      <c r="B6" s="293"/>
+      <c r="C6" s="293"/>
+      <c r="D6" s="293"/>
+      <c r="E6" s="293"/>
+      <c r="F6" s="294"/>
+      <c r="G6" s="299" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="316"/>
-      <c r="I6" s="316"/>
-      <c r="J6" s="316"/>
-      <c r="K6" s="316"/>
-      <c r="L6" s="316"/>
-      <c r="M6" s="314"/>
-      <c r="N6" s="314"/>
-      <c r="O6" s="314" t="s">
+      <c r="H6" s="299"/>
+      <c r="I6" s="299"/>
+      <c r="J6" s="299"/>
+      <c r="K6" s="299"/>
+      <c r="L6" s="299"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="206"/>
+      <c r="O6" s="206" t="s">
         <v>494</v>
       </c>
-      <c r="P6" s="314" t="s">
+      <c r="P6" s="206" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="310"/>
-      <c r="B7" s="311"/>
-      <c r="C7" s="311"/>
-      <c r="D7" s="311"/>
-      <c r="E7" s="311"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="316"/>
-      <c r="H7" s="316"/>
-      <c r="I7" s="316"/>
-      <c r="J7" s="316"/>
-      <c r="K7" s="316"/>
-      <c r="L7" s="316"/>
-      <c r="M7" s="314"/>
-      <c r="N7" s="314"/>
-      <c r="O7" s="314"/>
-      <c r="P7" s="315"/>
+      <c r="A7" s="292"/>
+      <c r="B7" s="293"/>
+      <c r="C7" s="293"/>
+      <c r="D7" s="293"/>
+      <c r="E7" s="293"/>
+      <c r="F7" s="294"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="299"/>
+      <c r="J7" s="299"/>
+      <c r="K7" s="299"/>
+      <c r="L7" s="299"/>
+      <c r="M7" s="206"/>
+      <c r="N7" s="206"/>
+      <c r="O7" s="206"/>
+      <c r="P7" s="207"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="310"/>
-      <c r="B8" s="311"/>
-      <c r="C8" s="311"/>
-      <c r="D8" s="311"/>
-      <c r="E8" s="311"/>
-      <c r="F8" s="312"/>
-      <c r="G8" s="316"/>
-      <c r="H8" s="316"/>
-      <c r="I8" s="316"/>
-      <c r="J8" s="316"/>
-      <c r="K8" s="316"/>
-      <c r="L8" s="316"/>
-      <c r="M8" s="314"/>
-      <c r="N8" s="314"/>
-      <c r="O8" s="314"/>
-      <c r="P8" s="315"/>
+      <c r="A8" s="292"/>
+      <c r="B8" s="293"/>
+      <c r="C8" s="293"/>
+      <c r="D8" s="293"/>
+      <c r="E8" s="293"/>
+      <c r="F8" s="294"/>
+      <c r="G8" s="299"/>
+      <c r="H8" s="299"/>
+      <c r="I8" s="299"/>
+      <c r="J8" s="299"/>
+      <c r="K8" s="299"/>
+      <c r="L8" s="299"/>
+      <c r="M8" s="206"/>
+      <c r="N8" s="206"/>
+      <c r="O8" s="206"/>
+      <c r="P8" s="207"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="275" t="s">
+      <c r="A10" s="280" t="s">
         <v>348</v>
       </c>
-      <c r="B10" s="276"/>
-      <c r="C10" s="276"/>
-      <c r="D10" s="276"/>
-      <c r="E10" s="276"/>
-      <c r="F10" s="276"/>
-      <c r="G10" s="276"/>
-      <c r="H10" s="276"/>
-      <c r="I10" s="277"/>
+      <c r="B10" s="281"/>
+      <c r="C10" s="281"/>
+      <c r="D10" s="281"/>
+      <c r="E10" s="281"/>
+      <c r="F10" s="281"/>
+      <c r="G10" s="281"/>
+      <c r="H10" s="281"/>
+      <c r="I10" s="282"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="130" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="131" t="s">
         <v>327</v>
       </c>
-      <c r="C11" s="189" t="s">
+      <c r="C11" s="188" t="s">
         <v>361</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="124" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="125" t="s">
+      <c r="E11" s="124" t="s">
         <v>266</v>
       </c>
-      <c r="F11" s="125" t="s">
+      <c r="F11" s="124" t="s">
         <v>266</v>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G11" s="131" t="s">
         <v>272</v>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="H11" s="131" t="s">
         <v>272</v>
       </c>
-      <c r="I11" s="144" t="s">
+      <c r="I11" s="143" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
-      <c r="B12" s="147" t="s">
+      <c r="A12" s="147"/>
+      <c r="B12" s="146" t="s">
         <v>247</v>
       </c>
       <c r="C12" s="96" t="s">
         <v>360</v>
       </c>
-      <c r="D12" s="147" t="s">
+      <c r="D12" s="146" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="147" t="s">
+      <c r="E12" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="147" t="s">
+      <c r="F12" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="147" t="s">
+      <c r="G12" s="146" t="s">
         <v>249</v>
       </c>
-      <c r="H12" s="147" t="s">
+      <c r="H12" s="146" t="s">
         <v>250</v>
       </c>
-      <c r="I12" s="149" t="s">
+      <c r="I12" s="148" t="s">
         <v>251</v>
       </c>
-      <c r="K12" s="164"/>
+      <c r="K12" s="163"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="146"/>
+      <c r="A13" s="145"/>
       <c r="B13" s="97"/>
       <c r="C13" s="97"/>
-      <c r="D13" s="153">
+      <c r="D13" s="152">
         <v>100</v>
       </c>
-      <c r="E13" s="153">
+      <c r="E13" s="152">
         <v>0</v>
       </c>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153">
+      <c r="F13" s="152"/>
+      <c r="G13" s="152">
         <v>4</v>
       </c>
-      <c r="H13" s="153">
+      <c r="H13" s="152">
         <v>10</v>
       </c>
-      <c r="I13" s="154">
+      <c r="I13" s="153">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="266" t="s">
+      <c r="A15" s="269" t="s">
         <v>276</v>
       </c>
-      <c r="B15" s="267"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="267"/>
-      <c r="F15" s="267"/>
-      <c r="G15" s="267"/>
-      <c r="H15" s="268"/>
+      <c r="B15" s="270"/>
+      <c r="C15" s="270"/>
+      <c r="D15" s="270"/>
+      <c r="E15" s="270"/>
+      <c r="F15" s="270"/>
+      <c r="G15" s="270"/>
+      <c r="H15" s="271"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="260" t="s">
+      <c r="A16" s="263" t="s">
         <v>358</v>
       </c>
-      <c r="B16" s="261"/>
-      <c r="C16" s="261"/>
-      <c r="D16" s="261"/>
-      <c r="E16" s="261"/>
-      <c r="F16" s="261"/>
-      <c r="G16" s="261"/>
-      <c r="H16" s="262"/>
+      <c r="B16" s="264"/>
+      <c r="C16" s="264"/>
+      <c r="D16" s="264"/>
+      <c r="E16" s="264"/>
+      <c r="F16" s="264"/>
+      <c r="G16" s="264"/>
+      <c r="H16" s="265"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="260"/>
-      <c r="B17" s="261"/>
-      <c r="C17" s="261"/>
-      <c r="D17" s="261"/>
-      <c r="E17" s="261"/>
-      <c r="F17" s="261"/>
-      <c r="G17" s="261"/>
-      <c r="H17" s="262"/>
+      <c r="A17" s="263"/>
+      <c r="B17" s="264"/>
+      <c r="C17" s="264"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="264"/>
+      <c r="F17" s="264"/>
+      <c r="G17" s="264"/>
+      <c r="H17" s="265"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="260"/>
-      <c r="B18" s="261"/>
-      <c r="C18" s="261"/>
-      <c r="D18" s="261"/>
-      <c r="E18" s="261"/>
-      <c r="F18" s="261"/>
-      <c r="G18" s="261"/>
-      <c r="H18" s="262"/>
+      <c r="A18" s="263"/>
+      <c r="B18" s="264"/>
+      <c r="C18" s="264"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="264"/>
+      <c r="F18" s="264"/>
+      <c r="G18" s="264"/>
+      <c r="H18" s="265"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="263"/>
-      <c r="B19" s="264"/>
-      <c r="C19" s="264"/>
-      <c r="D19" s="264"/>
-      <c r="E19" s="264"/>
-      <c r="F19" s="264"/>
-      <c r="G19" s="264"/>
-      <c r="H19" s="265"/>
+      <c r="A19" s="266"/>
+      <c r="B19" s="267"/>
+      <c r="C19" s="267"/>
+      <c r="D19" s="267"/>
+      <c r="E19" s="267"/>
+      <c r="F19" s="267"/>
+      <c r="G19" s="267"/>
+      <c r="H19" s="268"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="250" t="s">
+      <c r="A21" s="253" t="s">
         <v>302</v>
       </c>
-      <c r="B21" s="250"/>
-      <c r="C21" s="250"/>
-      <c r="D21" s="250"/>
-      <c r="E21" s="250"/>
-      <c r="F21" s="250"/>
-      <c r="G21" s="250"/>
+      <c r="B21" s="253"/>
+      <c r="C21" s="253"/>
+      <c r="D21" s="253"/>
+      <c r="E21" s="253"/>
+      <c r="F21" s="253"/>
+      <c r="G21" s="253"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
@@ -9375,12 +9671,12 @@
       <c r="C22" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="249" t="s">
+      <c r="D22" s="252" t="s">
         <v>305</v>
       </c>
-      <c r="E22" s="249"/>
-      <c r="F22" s="249"/>
-      <c r="G22" s="249"/>
+      <c r="E22" s="252"/>
+      <c r="F22" s="252"/>
+      <c r="G22" s="252"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9392,7 +9688,7 @@
       <c r="C23" t="s">
         <v>451</v>
       </c>
-      <c r="D23" s="176" t="s">
+      <c r="D23" s="175" t="s">
         <v>363</v>
       </c>
     </row>
@@ -9406,7 +9702,7 @@
       <c r="C24" t="s">
         <v>451</v>
       </c>
-      <c r="D24" s="188" t="s">
+      <c r="D24" s="187" t="s">
         <v>329</v>
       </c>
     </row>
@@ -9420,7 +9716,7 @@
       <c r="C25" t="s">
         <v>451</v>
       </c>
-      <c r="D25" s="176" t="s">
+      <c r="D25" s="175" t="s">
         <v>330</v>
       </c>
     </row>
@@ -9434,7 +9730,7 @@
       <c r="C26" t="s">
         <v>451</v>
       </c>
-      <c r="D26" s="176" t="s">
+      <c r="D26" s="175" t="s">
         <v>350</v>
       </c>
     </row>
@@ -9448,7 +9744,7 @@
       <c r="C27" t="s">
         <v>451</v>
       </c>
-      <c r="D27" s="179" t="s">
+      <c r="D27" s="178" t="s">
         <v>331</v>
       </c>
     </row>
@@ -9462,7 +9758,7 @@
       <c r="C28" t="s">
         <v>451</v>
       </c>
-      <c r="D28" s="188" t="s">
+      <c r="D28" s="187" t="s">
         <v>397</v>
       </c>
     </row>
@@ -9476,7 +9772,7 @@
       <c r="C29" t="s">
         <v>451</v>
       </c>
-      <c r="D29" s="188" t="s">
+      <c r="D29" s="187" t="s">
         <v>383</v>
       </c>
     </row>
@@ -9490,7 +9786,7 @@
       <c r="C30" t="s">
         <v>451</v>
       </c>
-      <c r="D30" s="188" t="s">
+      <c r="D30" s="187" t="s">
         <v>398</v>
       </c>
     </row>
@@ -9504,7 +9800,7 @@
       <c r="C31" t="s">
         <v>451</v>
       </c>
-      <c r="D31" s="188" t="s">
+      <c r="D31" s="187" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9518,7 +9814,7 @@
       <c r="C32" t="s">
         <v>451</v>
       </c>
-      <c r="D32" s="188" t="s">
+      <c r="D32" s="187" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9532,7 +9828,7 @@
       <c r="C33" t="s">
         <v>451</v>
       </c>
-      <c r="D33" s="176" t="s">
+      <c r="D33" s="175" t="s">
         <v>399</v>
       </c>
     </row>
@@ -9546,12 +9842,21 @@
       <c r="C34" t="s">
         <v>451</v>
       </c>
-      <c r="D34" s="188" t="s">
+      <c r="D34" s="187" t="s">
         <v>344</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="G8:L8"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
@@ -9564,15 +9869,6 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="G8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9646,7 +9942,7 @@
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
     <col min="2" max="2" width="68.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="185" customWidth="1"/>
+    <col min="3" max="3" width="16" style="184" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="67" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
@@ -9654,12 +9950,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="278" t="s">
+      <c r="A1" s="300" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="279"/>
-      <c r="C1" s="279"/>
-      <c r="D1" s="280"/>
+      <c r="B1" s="301"/>
+      <c r="C1" s="301"/>
+      <c r="D1" s="302"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
@@ -9683,7 +9979,7 @@
       <c r="D2" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="135" t="s">
+      <c r="F2" s="134" t="s">
         <v>76</v>
       </c>
     </row>
@@ -9694,9 +9990,9 @@
       <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="182"/>
+      <c r="C3" s="181"/>
       <c r="D3" s="23"/>
-      <c r="F3" s="136" t="s">
+      <c r="F3" s="135" t="s">
         <v>77</v>
       </c>
     </row>
@@ -9707,7 +10003,7 @@
       <c r="B4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="183"/>
+      <c r="C4" s="182"/>
       <c r="D4" s="24">
         <v>0</v>
       </c>
@@ -9722,7 +10018,7 @@
       <c r="B5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="183"/>
+      <c r="C5" s="182"/>
       <c r="D5" s="24">
         <v>7</v>
       </c>
@@ -9734,7 +10030,7 @@
       <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="183">
+      <c r="C6" s="182">
         <v>1</v>
       </c>
       <c r="D6" s="24">
@@ -9742,13 +10038,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="203" t="s">
+      <c r="A7" s="202" t="s">
         <v>482</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="C7" s="204">
+      <c r="C7" s="203">
         <v>0</v>
       </c>
       <c r="D7" s="24">
@@ -9756,13 +10052,13 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="203" t="s">
+      <c r="A8" s="202" t="s">
         <v>484</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="C8" s="204">
+      <c r="C8" s="203">
         <v>0</v>
       </c>
       <c r="D8" s="24">
@@ -9776,7 +10072,7 @@
       <c r="B9" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="183"/>
+      <c r="C9" s="182"/>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -9786,7 +10082,7 @@
       <c r="B10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="182"/>
+      <c r="C10" s="181"/>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -9796,7 +10092,7 @@
       <c r="B11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="183"/>
+      <c r="C11" s="182"/>
       <c r="D11" s="24">
         <v>0</v>
       </c>
@@ -9808,7 +10104,7 @@
       <c r="B12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="183"/>
+      <c r="C12" s="182"/>
       <c r="D12" s="25" t="s">
         <v>66</v>
       </c>
@@ -9820,7 +10116,7 @@
       <c r="B13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="183"/>
+      <c r="C13" s="182"/>
       <c r="D13" s="25" t="s">
         <v>67</v>
       </c>
@@ -9832,7 +10128,7 @@
       <c r="B14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="183"/>
+      <c r="C14" s="182"/>
       <c r="D14" s="24">
         <v>0</v>
       </c>
@@ -9844,7 +10140,7 @@
       <c r="B15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="183"/>
+      <c r="C15" s="182"/>
       <c r="D15" s="24" t="s">
         <v>29</v>
       </c>
@@ -9856,7 +10152,7 @@
       <c r="B16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="182"/>
+      <c r="C16" s="181"/>
       <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9866,7 +10162,7 @@
       <c r="B17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="183"/>
+      <c r="C17" s="182"/>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -9876,7 +10172,7 @@
       <c r="B18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="183"/>
+      <c r="C18" s="182"/>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -9886,7 +10182,7 @@
       <c r="B19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="183"/>
+      <c r="C19" s="182"/>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9896,7 +10192,7 @@
       <c r="B20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="183"/>
+      <c r="C20" s="182"/>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -9906,7 +10202,7 @@
       <c r="B21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="183"/>
+      <c r="C21" s="182"/>
       <c r="D21" s="24">
         <v>1</v>
       </c>
@@ -9918,7 +10214,7 @@
       <c r="B22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="183"/>
+      <c r="C22" s="182"/>
       <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -9928,7 +10224,7 @@
       <c r="B23" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="183"/>
+      <c r="C23" s="182"/>
       <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -9938,7 +10234,7 @@
       <c r="B24" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="183"/>
+      <c r="C24" s="182"/>
       <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -9948,7 +10244,7 @@
       <c r="B25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="182"/>
+      <c r="C25" s="181"/>
       <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -9958,7 +10254,7 @@
       <c r="B26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="183"/>
+      <c r="C26" s="182"/>
       <c r="D26" s="24">
         <v>100</v>
       </c>
@@ -9970,7 +10266,7 @@
       <c r="B27" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="183"/>
+      <c r="C27" s="182"/>
       <c r="D27" s="24">
         <v>65535</v>
       </c>
@@ -9982,7 +10278,7 @@
       <c r="B28" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="183"/>
+      <c r="C28" s="182"/>
       <c r="D28" s="24">
         <v>10</v>
       </c>
@@ -9994,7 +10290,7 @@
       <c r="B29" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="183"/>
+      <c r="C29" s="182"/>
       <c r="D29" s="24">
         <v>0.1</v>
       </c>
@@ -10006,7 +10302,7 @@
       <c r="B30" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="183"/>
+      <c r="C30" s="182"/>
       <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -10016,7 +10312,7 @@
       <c r="B31" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="183"/>
+      <c r="C31" s="182"/>
       <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -10026,7 +10322,7 @@
       <c r="B32" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="183"/>
+      <c r="C32" s="182"/>
       <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -10036,7 +10332,7 @@
       <c r="B33" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="182"/>
+      <c r="C33" s="181"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -10046,7 +10342,7 @@
       <c r="B34" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="183"/>
+      <c r="C34" s="182"/>
       <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -10056,7 +10352,7 @@
       <c r="B35" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="183"/>
+      <c r="C35" s="182"/>
       <c r="D35" s="24">
         <v>0.02</v>
       </c>
@@ -10068,7 +10364,7 @@
       <c r="B36" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="183"/>
+      <c r="C36" s="182"/>
       <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -10078,7 +10374,7 @@
       <c r="B37" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="183"/>
+      <c r="C37" s="182"/>
       <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -10088,7 +10384,7 @@
       <c r="B38" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="183"/>
+      <c r="C38" s="182"/>
       <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -10098,7 +10394,7 @@
       <c r="B39" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="183"/>
+      <c r="C39" s="182"/>
       <c r="D39" s="25" t="s">
         <v>70</v>
       </c>
@@ -10110,7 +10406,7 @@
       <c r="B40" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="183"/>
+      <c r="C40" s="182"/>
       <c r="D40" s="25">
         <v>0</v>
       </c>
@@ -10122,7 +10418,7 @@
       <c r="B41" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="182"/>
+      <c r="C41" s="181"/>
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -10130,7 +10426,7 @@
         <v>127</v>
       </c>
       <c r="B42" s="15"/>
-      <c r="C42" s="183"/>
+      <c r="C42" s="182"/>
       <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -10140,7 +10436,7 @@
       <c r="B43" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="183"/>
+      <c r="C43" s="182"/>
       <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -10150,7 +10446,7 @@
       <c r="B44" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="183"/>
+      <c r="C44" s="182"/>
       <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -10160,7 +10456,7 @@
       <c r="B45" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="183"/>
+      <c r="C45" s="182"/>
       <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -10170,7 +10466,7 @@
       <c r="B46" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C46" s="183"/>
+      <c r="C46" s="182"/>
       <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -10180,7 +10476,7 @@
       <c r="B47" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="183"/>
+      <c r="C47" s="182"/>
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -10190,7 +10486,7 @@
       <c r="B48" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="183"/>
+      <c r="C48" s="182"/>
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -10200,7 +10496,7 @@
       <c r="B49" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="183"/>
+      <c r="C49" s="182"/>
       <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -10210,7 +10506,7 @@
       <c r="B50" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="183"/>
+      <c r="C50" s="182"/>
       <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -10220,7 +10516,7 @@
       <c r="B51" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="183"/>
+      <c r="C51" s="182"/>
       <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -10230,7 +10526,7 @@
       <c r="B52" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="183"/>
+      <c r="C52" s="182"/>
       <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -10240,7 +10536,7 @@
       <c r="B53" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="183"/>
+      <c r="C53" s="182"/>
       <c r="D53" s="24">
         <v>1</v>
       </c>
@@ -10252,7 +10548,7 @@
       <c r="B54" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="183"/>
+      <c r="C54" s="182"/>
       <c r="D54" s="24">
         <v>1</v>
       </c>
@@ -10264,7 +10560,7 @@
       <c r="B55" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="183"/>
+      <c r="C55" s="182"/>
       <c r="D55" s="24">
         <v>1</v>
       </c>
@@ -10276,7 +10572,7 @@
       <c r="B56" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="183"/>
+      <c r="C56" s="182"/>
       <c r="D56" s="24">
         <v>1</v>
       </c>
@@ -10288,7 +10584,7 @@
       <c r="B57" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="183"/>
+      <c r="C57" s="182"/>
       <c r="D57" s="24">
         <v>1</v>
       </c>
@@ -10300,7 +10596,7 @@
       <c r="B58" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="183"/>
+      <c r="C58" s="182"/>
       <c r="D58" s="24">
         <v>0</v>
       </c>
@@ -10312,7 +10608,7 @@
       <c r="B59" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C59" s="183"/>
+      <c r="C59" s="182"/>
       <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -10322,7 +10618,7 @@
       <c r="B60" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="183"/>
+      <c r="C60" s="182"/>
       <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -10332,8 +10628,8 @@
       <c r="B61" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="182"/>
-      <c r="D61" s="181"/>
+      <c r="C61" s="181"/>
+      <c r="D61" s="180"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
@@ -10342,7 +10638,7 @@
       <c r="B62" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C62" s="183"/>
+      <c r="C62" s="182"/>
       <c r="D62" s="26">
         <v>0</v>
       </c>
@@ -10351,9 +10647,9 @@
       <c r="A63" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="B63" s="180"/>
-      <c r="C63" s="182"/>
-      <c r="D63" s="181"/>
+      <c r="B63" s="179"/>
+      <c r="C63" s="181"/>
+      <c r="D63" s="180"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -10362,7 +10658,7 @@
       <c r="B64" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="C64" s="183"/>
+      <c r="C64" s="182"/>
       <c r="D64" s="26">
         <v>0</v>
       </c>
@@ -10374,8 +10670,8 @@
       <c r="B65" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="182"/>
-      <c r="D65" s="181"/>
+      <c r="C65" s="181"/>
+      <c r="D65" s="180"/>
     </row>
     <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
@@ -10384,7 +10680,7 @@
       <c r="B66" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="184"/>
+      <c r="C66" s="183"/>
       <c r="D66" s="29">
         <v>0</v>
       </c>
@@ -10424,23 +10720,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="284" t="s">
+      <c r="A1" s="306" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="285"/>
-      <c r="M1" s="285"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="285"/>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="307"/>
+      <c r="M1" s="307"/>
+      <c r="N1" s="307"/>
+      <c r="O1" s="307"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -10458,17 +10754,17 @@
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="281" t="s">
+      <c r="B3" s="303" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="282"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="283"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="304"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="304"/>
+      <c r="I3" s="304"/>
+      <c r="J3" s="305"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="37"/>
@@ -10659,21 +10955,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="281" t="s">
+      <c r="B19" s="303" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="282"/>
-      <c r="D19" s="282"/>
-      <c r="E19" s="282"/>
-      <c r="F19" s="282"/>
-      <c r="G19" s="282"/>
-      <c r="H19" s="282"/>
-      <c r="I19" s="282"/>
-      <c r="J19" s="282"/>
-      <c r="K19" s="282"/>
-      <c r="L19" s="282"/>
-      <c r="M19" s="282"/>
-      <c r="N19" s="283"/>
+      <c r="C19" s="304"/>
+      <c r="D19" s="304"/>
+      <c r="E19" s="304"/>
+      <c r="F19" s="304"/>
+      <c r="G19" s="304"/>
+      <c r="H19" s="304"/>
+      <c r="I19" s="304"/>
+      <c r="J19" s="304"/>
+      <c r="K19" s="304"/>
+      <c r="L19" s="304"/>
+      <c r="M19" s="304"/>
+      <c r="N19" s="305"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
@@ -10875,27 +11171,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="311" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="290"/>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
-      <c r="H1" s="290"/>
-      <c r="I1" s="290"/>
-      <c r="J1" s="290"/>
-      <c r="K1" s="290"/>
-      <c r="L1" s="290"/>
-      <c r="M1" s="290"/>
-      <c r="N1" s="290"/>
-      <c r="O1" s="290"/>
-      <c r="P1" s="290"/>
-      <c r="Q1" s="290"/>
-      <c r="R1" s="290"/>
-      <c r="S1" s="290"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="312"/>
+      <c r="O1" s="312"/>
+      <c r="P1" s="312"/>
+      <c r="Q1" s="312"/>
+      <c r="R1" s="312"/>
+      <c r="S1" s="312"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
@@ -10909,26 +11205,26 @@
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="281" t="s">
+      <c r="B3" s="303" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="282"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="283"/>
-      <c r="L3" s="286" t="s">
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="304"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="304"/>
+      <c r="I3" s="304"/>
+      <c r="J3" s="305"/>
+      <c r="L3" s="308" t="s">
         <v>219</v>
       </c>
-      <c r="M3" s="287"/>
-      <c r="N3" s="287"/>
-      <c r="O3" s="287"/>
-      <c r="P3" s="287"/>
-      <c r="Q3" s="287"/>
-      <c r="R3" s="288"/>
+      <c r="M3" s="309"/>
+      <c r="N3" s="309"/>
+      <c r="O3" s="309"/>
+      <c r="P3" s="309"/>
+      <c r="Q3" s="309"/>
+      <c r="R3" s="310"/>
       <c r="S3" s="36"/>
       <c r="T3" s="36"/>
     </row>
@@ -11159,23 +11455,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="313" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
-      <c r="G1" s="292"/>
-      <c r="H1" s="292"/>
-      <c r="I1" s="292"/>
-      <c r="J1" s="292"/>
-      <c r="K1" s="292"/>
-      <c r="L1" s="292"/>
-      <c r="M1" s="292"/>
-      <c r="N1" s="292"/>
-      <c r="O1" s="293"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
+      <c r="G1" s="314"/>
+      <c r="H1" s="314"/>
+      <c r="I1" s="314"/>
+      <c r="J1" s="314"/>
+      <c r="K1" s="314"/>
+      <c r="L1" s="314"/>
+      <c r="M1" s="314"/>
+      <c r="N1" s="314"/>
+      <c r="O1" s="315"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11188,22 +11484,22 @@
       <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="281" t="s">
+      <c r="B3" s="303" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="282"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
-      <c r="H3" s="283"/>
-      <c r="J3" s="286" t="s">
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="304"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="305"/>
+      <c r="J3" s="308" t="s">
         <v>219</v>
       </c>
-      <c r="K3" s="287"/>
-      <c r="L3" s="287"/>
-      <c r="M3" s="287"/>
-      <c r="N3" s="288"/>
+      <c r="K3" s="309"/>
+      <c r="L3" s="309"/>
+      <c r="M3" s="309"/>
+      <c r="N3" s="310"/>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
     </row>

--- a/test_templates/test_batch_template5.xlsx
+++ b/test_templates/test_batch_template5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -17,11 +17,21 @@
     <sheet name="Calibration" sheetId="1" r:id="rId3"/>
     <sheet name="Comparative Analysis" sheetId="12" r:id="rId4"/>
     <sheet name="Transfer Curve Analysis" sheetId="13" r:id="rId5"/>
-    <sheet name="Optional Settings" sheetId="14" r:id="rId6"/>
+    <sheet name="Optional Settings" sheetId="15" r:id="rId6"/>
     <sheet name="96w" sheetId="9" r:id="rId7"/>
     <sheet name="48w" sheetId="11" r:id="rId8"/>
     <sheet name="24w" sheetId="10" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="I3010I">0</definedName>
+    <definedName name="I3535I">1</definedName>
+    <definedName name="I3903I">0</definedName>
+    <definedName name="I4018I">0</definedName>
+    <definedName name="I4619I">0</definedName>
+    <definedName name="I4922I">0</definedName>
+    <definedName name="I7577I">1</definedName>
+    <definedName name="I896I">0</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="543">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2518,14 +2528,141 @@
       <t>: Defaults to FSC</t>
     </r>
   </si>
+  <si>
+    <t>flow.maxEvents</t>
+  </si>
+  <si>
+    <t>Drop events above this count to avoid memory issues</t>
+  </si>
+  <si>
+    <t>flow.onThreshold</t>
+  </si>
+  <si>
+    <t>Threshold to differentiate between on and off events. Points with values equal to threshold are placed in the on group.</t>
+  </si>
+  <si>
+    <t>flow.pointCloudFileType</t>
+  </si>
+  <si>
+    <t>what type of pathname to write to point-cloud JSON header file. 0 stands for absolute, 1 stands for relative.</t>
+  </si>
+  <si>
+    <t>flow.defaultCSVReadHeader</t>
+  </si>
+  <si>
+    <t>what is absolute filename for the JSON header file needed to read in CSV files</t>
+  </si>
+  <si>
+    <t>flow.smallFileWarning</t>
+  </si>
+  <si>
+    <t>Threshold for warning that event count is unusually low</t>
+  </si>
+  <si>
+    <t>flow.gateDiscardsWarning</t>
+  </si>
+  <si>
+    <t>Threshold for warning gates are discarding too high a fraction of events</t>
+  </si>
+  <si>
+    <t>flow.preGateDiscardsWarning</t>
+  </si>
+  <si>
+    <t>Threshold for warning pre-gates are discarding too high a fraction of events</t>
+  </si>
+  <si>
+    <t>flow.postGateDiscardsWarning</t>
+  </si>
+  <si>
+    <t>Threshold for warning post-gates are discarding too high a fraction of events</t>
+  </si>
+  <si>
+    <t>flow.eventRatioWarning</t>
+  </si>
+  <si>
+    <t>Generic threshold for warning about different event counts.</t>
+  </si>
+  <si>
+    <t>flow.replicateEventRatioWarning</t>
+  </si>
+  <si>
+    <t>Threshold to warn on variation in replicate event counts.</t>
+  </si>
+  <si>
+    <t>flow.conditionEventRatioWarning</t>
+  </si>
+  <si>
+    <t>Threshold to warn on variation in condition event counts.</t>
+  </si>
+  <si>
+    <t>sizebeads</t>
+  </si>
+  <si>
+    <t>Settings controlling the interpretation of size calibration beads</t>
+  </si>
+  <si>
+    <t>sizebeads.binIncrement</t>
+  </si>
+  <si>
+    <t>Resolution of histogram bins used for finding size bead peaks</t>
+  </si>
+  <si>
+    <t>sizebeads.forceFirstPeak</t>
+  </si>
+  <si>
+    <t>If set to N, lowest observed size bead peak is forced to be interpreted as Nth peak</t>
+  </si>
+  <si>
+    <t>sizebeads.plot</t>
+  </si>
+  <si>
+    <t>When true, make diagnostic plots while computing size bead unit calibration</t>
+  </si>
+  <si>
+    <t>sizebeads.visiblePlots</t>
+  </si>
+  <si>
+    <t>If true, size bead unit calibration plots are visible; otherwise, they are hidden for later saving</t>
+  </si>
+  <si>
+    <t>sizebeads.plotSize</t>
+  </si>
+  <si>
+    <t>Size (in inches) [X Y] for size bead unit calibration figures</t>
+  </si>
+  <si>
+    <t>Settings controlling excel wrapper preferences</t>
+  </si>
+  <si>
+    <t>gating</t>
+  </si>
+  <si>
+    <t>General settings for GMM Gating</t>
+  </si>
+  <si>
+    <t>gating.fixedSeed</t>
+  </si>
+  <si>
+    <t>When true, controls the random seed for GMM Gating</t>
+  </si>
+  <si>
+    <t>Min Valid a.u.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2823,7 +2960,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -3419,29 +3556,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="359">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -3457,7 +3612,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3468,28 +3623,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3510,62 +3662,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3576,20 +3728,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3598,32 +3750,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3641,19 +3793,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3662,43 +3814,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3716,83 +3868,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3807,37 +3959,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3846,41 +3998,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3895,23 +4047,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3931,47 +4080,47 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyProtection="1">
@@ -3981,34 +4130,235 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4019,145 +4369,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4178,22 +4432,71 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4205,241 +4508,128 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4530,7 +4720,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4596,7 +4786,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4667,7 +4857,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4738,7 +4928,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4804,7 +4994,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4875,7 +5065,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4941,7 +5131,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5276,587 +5466,601 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="154" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="85" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="85" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="85" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="140" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="85" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="85" customWidth="1"/>
-    <col min="9" max="9" width="20" style="85" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="85" customWidth="1"/>
-    <col min="11" max="11" width="6" style="85" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="85" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="85"/>
+    <col min="1" max="1" width="20.875" style="153" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="84" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="84" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="84" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="84" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="139" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="84" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="84" customWidth="1"/>
+    <col min="9" max="9" width="20" style="84" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="84" customWidth="1"/>
+    <col min="11" max="11" width="6" style="84" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="84" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="84"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="259" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="222"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="261"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="86"/>
+      <c r="B2" s="85"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="238" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="237"/>
+      <c r="B3" s="239"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="252" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="235"/>
+      <c r="B4" s="253"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="250" t="s">
+      <c r="A5" s="254" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="251"/>
+      <c r="B5" s="255"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="86"/>
+      <c r="B6" s="85"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="236" t="s">
+      <c r="A7" s="238" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="238"/>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
-      <c r="E7" s="238"/>
-      <c r="F7" s="238"/>
-      <c r="G7" s="238"/>
-      <c r="H7" s="238"/>
-      <c r="I7" s="238"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="237"/>
+      <c r="B7" s="240"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="240"/>
+      <c r="F7" s="240"/>
+      <c r="G7" s="240"/>
+      <c r="H7" s="240"/>
+      <c r="I7" s="240"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="239"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="223" t="s">
+      <c r="A8" s="262" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="224"/>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="224"/>
-      <c r="K8" s="225"/>
+      <c r="B8" s="263"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="263"/>
+      <c r="H8" s="263"/>
+      <c r="I8" s="263"/>
+      <c r="J8" s="263"/>
+      <c r="K8" s="264"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="226"/>
-      <c r="B9" s="227"/>
-      <c r="C9" s="227"/>
-      <c r="D9" s="227"/>
-      <c r="E9" s="227"/>
-      <c r="F9" s="227"/>
-      <c r="G9" s="227"/>
-      <c r="H9" s="227"/>
-      <c r="I9" s="227"/>
-      <c r="J9" s="227"/>
-      <c r="K9" s="228"/>
+      <c r="A9" s="265"/>
+      <c r="B9" s="266"/>
+      <c r="C9" s="266"/>
+      <c r="D9" s="266"/>
+      <c r="E9" s="266"/>
+      <c r="F9" s="266"/>
+      <c r="G9" s="266"/>
+      <c r="H9" s="266"/>
+      <c r="I9" s="266"/>
+      <c r="J9" s="266"/>
+      <c r="K9" s="267"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="155"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="141"/>
+      <c r="A10" s="154"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="140"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="239" t="s">
+      <c r="A11" s="241" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="240"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="241"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="141"/>
+      <c r="B11" s="242"/>
+      <c r="C11" s="242"/>
+      <c r="D11" s="243"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="140"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="242" t="s">
+      <c r="A12" s="244" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="243"/>
-      <c r="C12" s="244" t="s">
+      <c r="B12" s="245"/>
+      <c r="C12" s="246" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="245"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="141"/>
+      <c r="D12" s="247"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="140"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="246"/>
-      <c r="B13" s="247"/>
-      <c r="C13" s="248"/>
-      <c r="D13" s="249"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="141"/>
+      <c r="A13" s="248"/>
+      <c r="B13" s="249"/>
+      <c r="C13" s="250"/>
+      <c r="D13" s="251"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="140"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="239" t="s">
+      <c r="A15" s="241" t="s">
         <v>271</v>
       </c>
-      <c r="B15" s="241"/>
-      <c r="E15" s="239" t="s">
+      <c r="B15" s="243"/>
+      <c r="E15" s="241" t="s">
         <v>310</v>
       </c>
-      <c r="F15" s="240"/>
-      <c r="G15" s="240"/>
-      <c r="H15" s="240"/>
-      <c r="I15" s="241"/>
+      <c r="F15" s="242"/>
+      <c r="G15" s="242"/>
+      <c r="H15" s="242"/>
+      <c r="I15" s="243"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="234" t="s">
+      <c r="A16" s="252" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="235"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="229" t="s">
+      <c r="B16" s="253"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="268" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="230"/>
-      <c r="G16" s="230"/>
-      <c r="H16" s="230"/>
-      <c r="I16" s="231"/>
+      <c r="F16" s="269"/>
+      <c r="G16" s="269"/>
+      <c r="H16" s="269"/>
+      <c r="I16" s="270"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="155" t="s">
         <v>233</v>
       </c>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="113" t="s">
         <v>274</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="E17" s="232" t="s">
+      <c r="C17" s="88"/>
+      <c r="E17" s="271" t="s">
         <v>231</v>
       </c>
-      <c r="F17" s="233"/>
-      <c r="G17" s="201" t="s">
+      <c r="F17" s="272"/>
+      <c r="G17" s="199" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="201" t="s">
+      <c r="H17" s="199" t="s">
         <v>158</v>
       </c>
-      <c r="I17" s="189" t="s">
+      <c r="I17" s="187" t="s">
         <v>351</v>
       </c>
-      <c r="J17" s="81"/>
+      <c r="J17" s="80"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="157" t="s">
+      <c r="A18" s="156" t="s">
         <v>265</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="89" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="E18" s="83">
+      <c r="C18" s="88"/>
+      <c r="E18" s="82">
         <v>1</v>
       </c>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33" t="s">
+      <c r="G18" s="32"/>
+      <c r="H18" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="208" t="s">
+      <c r="I18" s="256" t="s">
         <v>480</v>
       </c>
-      <c r="J18" s="81"/>
+      <c r="J18" s="80"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="158" t="s">
+      <c r="A19" s="157" t="s">
         <v>283</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="89"/>
-      <c r="E19" s="83">
+      <c r="B19" s="114"/>
+      <c r="C19" s="88"/>
+      <c r="E19" s="82">
         <v>2</v>
       </c>
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="74" t="s">
+      <c r="H19" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="I19" s="208"/>
-      <c r="J19" s="81"/>
+      <c r="I19" s="256"/>
+      <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="158" t="s">
+      <c r="A20" s="157" t="s">
         <v>284</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="91"/>
-      <c r="E20" s="84">
+      <c r="B20" s="114"/>
+      <c r="C20" s="90"/>
+      <c r="E20" s="83">
         <v>3</v>
       </c>
-      <c r="F20" s="139" t="s">
+      <c r="F20" s="138" t="s">
         <v>170</v>
       </c>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="209"/>
-      <c r="J20" s="81"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="257"/>
+      <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="158" t="s">
+      <c r="A21" s="157" t="s">
         <v>288</v>
       </c>
-      <c r="B21" s="115"/>
-      <c r="C21" s="32"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="31"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="159"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="89"/>
-      <c r="J22" s="81"/>
+      <c r="A22" s="158"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="88"/>
+      <c r="J22" s="80"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="160"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="91"/>
-      <c r="E23" s="210" t="s">
+      <c r="A23" s="159"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="90"/>
+      <c r="E23" s="236" t="s">
         <v>194</v>
       </c>
-      <c r="F23" s="211"/>
-      <c r="G23" s="211"/>
-      <c r="H23" s="211"/>
-      <c r="I23" s="212"/>
+      <c r="F23" s="258"/>
+      <c r="G23" s="258"/>
+      <c r="H23" s="258"/>
+      <c r="I23" s="237"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="210" t="s">
+      <c r="A24" s="236" t="s">
         <v>236</v>
       </c>
-      <c r="B24" s="212"/>
-      <c r="C24" s="32"/>
-      <c r="E24" s="216" t="s">
+      <c r="B24" s="237"/>
+      <c r="C24" s="31"/>
+      <c r="E24" s="276" t="s">
         <v>231</v>
       </c>
-      <c r="F24" s="217"/>
-      <c r="G24" s="201" t="s">
+      <c r="F24" s="277"/>
+      <c r="G24" s="199" t="s">
         <v>157</v>
       </c>
-      <c r="H24" s="201" t="s">
+      <c r="H24" s="199" t="s">
         <v>158</v>
       </c>
-      <c r="I24" s="189" t="s">
+      <c r="I24" s="187" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="156" t="s">
+      <c r="A25" s="155" t="s">
         <v>233</v>
       </c>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="E25" s="83">
+      <c r="C25" s="31"/>
+      <c r="E25" s="82">
         <v>1</v>
       </c>
-      <c r="F25" s="93" t="s">
+      <c r="F25" s="92" t="s">
         <v>217</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33" t="s">
+      <c r="G25" s="32"/>
+      <c r="H25" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="213" t="s">
+      <c r="I25" s="273" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="157" t="s">
+      <c r="A26" s="156" t="s">
         <v>265</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="89" t="s">
         <v>234</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="E26" s="83">
+      <c r="C26" s="88"/>
+      <c r="E26" s="82">
         <v>2</v>
       </c>
-      <c r="F26" s="93" t="s">
+      <c r="F26" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="74" t="s">
+      <c r="H26" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="I26" s="214"/>
+      <c r="I26" s="274"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="158" t="s">
+      <c r="A27" s="157" t="s">
         <v>281</v>
       </c>
-      <c r="B27" s="115"/>
-      <c r="C27" s="91"/>
-      <c r="E27" s="84">
+      <c r="B27" s="114"/>
+      <c r="C27" s="90"/>
+      <c r="E27" s="83">
         <v>3</v>
       </c>
-      <c r="F27" s="139" t="s">
+      <c r="F27" s="138" t="s">
         <v>170</v>
       </c>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="215"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="275"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="158" t="s">
+      <c r="A28" s="157" t="s">
         <v>282</v>
       </c>
-      <c r="B28" s="115"/>
-      <c r="C28" s="32"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="81"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="31"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="80"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="158"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="32"/>
-      <c r="I29" s="81"/>
+      <c r="A29" s="157"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="31"/>
+      <c r="I29" s="80"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="159"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="89"/>
-      <c r="E30" s="210" t="s">
+      <c r="A30" s="158"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="88"/>
+      <c r="E30" s="236" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="211"/>
-      <c r="G30" s="211"/>
-      <c r="H30" s="211"/>
-      <c r="I30" s="212"/>
+      <c r="F30" s="258"/>
+      <c r="G30" s="258"/>
+      <c r="H30" s="258"/>
+      <c r="I30" s="237"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="160"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="E31" s="218" t="s">
+      <c r="A31" s="159"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="E31" s="278" t="s">
         <v>458</v>
       </c>
-      <c r="F31" s="219"/>
-      <c r="G31" s="199" t="s">
+      <c r="F31" s="279"/>
+      <c r="G31" s="197" t="s">
         <v>157</v>
       </c>
-      <c r="H31" s="199" t="s">
+      <c r="H31" s="197" t="s">
         <v>158</v>
       </c>
-      <c r="I31" s="189" t="s">
+      <c r="I31" s="187" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="210" t="s">
+      <c r="A32" s="236" t="s">
         <v>237</v>
       </c>
-      <c r="B32" s="212"/>
-      <c r="C32" s="32"/>
-      <c r="E32" s="83">
+      <c r="B32" s="237"/>
+      <c r="C32" s="31"/>
+      <c r="E32" s="82">
         <v>1</v>
       </c>
-      <c r="F32" s="93" t="s">
+      <c r="F32" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="208"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="256"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="155" t="s">
         <v>233</v>
       </c>
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="113" t="s">
         <v>287</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="E33" s="83">
+      <c r="C33" s="88"/>
+      <c r="E33" s="82">
         <v>2</v>
       </c>
-      <c r="F33" s="93" t="s">
+      <c r="F33" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="33"/>
-      <c r="I33" s="208"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="256"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="157" t="s">
+      <c r="A34" s="156" t="s">
         <v>235</v>
       </c>
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="89" t="s">
         <v>234</v>
       </c>
-      <c r="E34" s="83">
+      <c r="E34" s="82">
         <v>3</v>
       </c>
-      <c r="F34" s="93"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="208"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="256"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="158" t="s">
+      <c r="A35" s="157" t="s">
         <v>220</v>
       </c>
-      <c r="B35" s="115"/>
-      <c r="E35" s="83">
+      <c r="B35" s="114"/>
+      <c r="E35" s="82">
         <v>4</v>
       </c>
-      <c r="F35" s="93"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="208"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="256"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="158" t="s">
+      <c r="A36" s="157" t="s">
         <v>221</v>
       </c>
-      <c r="B36" s="115"/>
-      <c r="E36" s="83">
+      <c r="B36" s="114"/>
+      <c r="E36" s="82">
         <v>5</v>
       </c>
-      <c r="F36" s="93"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="208"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="256"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="158" t="s">
+      <c r="A37" s="157" t="s">
         <v>222</v>
       </c>
-      <c r="B37" s="115"/>
-      <c r="E37" s="84">
+      <c r="B37" s="114"/>
+      <c r="E37" s="83">
         <v>6</v>
       </c>
-      <c r="F37" s="139"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="209"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="257"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="159" t="s">
+      <c r="A38" s="158" t="s">
         <v>223</v>
       </c>
-      <c r="B38" s="116"/>
+      <c r="B38" s="115"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="161"/>
-      <c r="B39" s="120"/>
+      <c r="A39" s="160"/>
+      <c r="B39" s="119"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="210" t="s">
+      <c r="E40" s="236" t="s">
         <v>196</v>
       </c>
-      <c r="F40" s="211"/>
-      <c r="G40" s="211"/>
-      <c r="H40" s="211"/>
-      <c r="I40" s="212"/>
+      <c r="F40" s="258"/>
+      <c r="G40" s="258"/>
+      <c r="H40" s="258"/>
+      <c r="I40" s="237"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="216"/>
-      <c r="F41" s="217"/>
-      <c r="G41" s="82" t="s">
+      <c r="E41" s="276"/>
+      <c r="F41" s="277"/>
+      <c r="G41" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="H41" s="82" t="s">
+      <c r="H41" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="I41" s="189" t="s">
+      <c r="I41" s="187" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="83">
+      <c r="E42" s="82">
         <v>1</v>
       </c>
-      <c r="F42" s="93"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="208"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="256"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="83">
+      <c r="E43" s="82">
         <v>2</v>
       </c>
-      <c r="F43" s="93"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="208"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="256"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="83">
+      <c r="E44" s="82">
         <v>3</v>
       </c>
-      <c r="F44" s="93"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="208"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="256"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="83">
+      <c r="E45" s="82">
         <v>4</v>
       </c>
-      <c r="F45" s="93"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="208"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="256"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="83">
+      <c r="E46" s="82">
         <v>5</v>
       </c>
-      <c r="F46" s="93"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="208"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="256"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="84">
+      <c r="E47" s="83">
         <v>6</v>
       </c>
-      <c r="F47" s="139"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="209"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="257"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5872,20 +6076,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5897,10 +6087,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5925,964 +6115,972 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="254" t="s">
+      <c r="A1" s="282" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="255"/>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="256"/>
+      <c r="B1" s="283"/>
+      <c r="C1" s="283"/>
+      <c r="D1" s="283"/>
+      <c r="E1" s="283"/>
+      <c r="F1" s="283"/>
+      <c r="G1" s="283"/>
+      <c r="H1" s="283"/>
+      <c r="I1" s="283"/>
+      <c r="J1" s="284"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="257" t="s">
+      <c r="A2" s="285" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="259"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="286"/>
+      <c r="G2" s="286"/>
+      <c r="H2" s="286"/>
+      <c r="I2" s="286"/>
+      <c r="J2" s="287"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="172" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="175" t="s">
         <v>312</v>
       </c>
-      <c r="C3" s="260" t="s">
+      <c r="C3" s="288" t="s">
         <v>285</v>
       </c>
-      <c r="D3" s="261"/>
-      <c r="E3" s="261"/>
-      <c r="F3" s="261"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="176" t="s">
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="175" t="s">
         <v>313</v>
       </c>
-      <c r="I3" s="176" t="s">
+      <c r="I3" s="175" t="s">
         <v>314</v>
       </c>
-      <c r="J3" s="177" t="s">
+      <c r="J3" s="176" t="s">
         <v>315</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="137" t="s">
         <v>274</v>
       </c>
-      <c r="E4" s="138" t="s">
+      <c r="E4" s="137" t="s">
         <v>287</v>
       </c>
-      <c r="F4" s="138" t="s">
+      <c r="F4" s="137" t="s">
         <v>280</v>
       </c>
-      <c r="G4" s="138" t="s">
+      <c r="G4" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="H4" s="138" t="s">
+      <c r="H4" s="137" t="s">
         <v>198</v>
       </c>
-      <c r="I4" s="138" t="s">
+      <c r="I4" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="193" t="s">
+      <c r="J4" s="191" t="s">
         <v>401</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107">
+      <c r="A5" s="106">
         <v>1</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="77" t="s">
         <v>400</v>
       </c>
-      <c r="C5" s="108">
+      <c r="C5" s="107">
         <v>0.1</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="107" t="s">
         <v>283</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="107" t="s">
         <v>282</v>
       </c>
-      <c r="G5" s="108">
+      <c r="G5" s="107">
         <v>0.1</v>
       </c>
-      <c r="H5" s="109">
+      <c r="H5" s="108">
         <v>1</v>
       </c>
-      <c r="I5" s="110" t="s">
+      <c r="I5" s="109" t="s">
         <v>199</v>
       </c>
-      <c r="J5" s="111"/>
-      <c r="K5" s="200" t="s">
+      <c r="J5" s="110"/>
+      <c r="K5" s="198" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107">
+      <c r="A6" s="106">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="108">
+      <c r="C6" s="107">
         <v>0.2</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="107" t="s">
         <v>283</v>
       </c>
-      <c r="E6" s="108" t="s">
+      <c r="E6" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="F6" s="108" t="s">
+      <c r="F6" s="107" t="s">
         <v>282</v>
       </c>
-      <c r="G6" s="108">
+      <c r="G6" s="107">
         <v>0.2</v>
       </c>
-      <c r="H6" s="109">
+      <c r="H6" s="108">
         <v>1</v>
       </c>
-      <c r="I6" s="110" t="s">
+      <c r="I6" s="109" t="s">
         <v>200</v>
       </c>
-      <c r="J6" s="111"/>
-      <c r="K6" s="200" t="s">
+      <c r="J6" s="110"/>
+      <c r="K6" s="198" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107">
+      <c r="A7" s="106">
         <f t="shared" ref="A7:A13" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="108">
+      <c r="C7" s="107">
         <v>0.5</v>
       </c>
-      <c r="D7" s="108" t="s">
+      <c r="D7" s="107" t="s">
         <v>283</v>
       </c>
-      <c r="E7" s="108" t="s">
+      <c r="E7" s="107" t="s">
         <v>222</v>
       </c>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="109">
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="108">
         <v>1</v>
       </c>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="109" t="s">
         <v>201</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="200" t="s">
+      <c r="J7" s="110"/>
+      <c r="K7" s="198" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107">
+      <c r="A8" s="106">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="108">
+      <c r="C8" s="107">
         <v>1</v>
       </c>
-      <c r="D8" s="108" t="s">
+      <c r="D8" s="107" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="108" t="s">
+      <c r="E8" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="108" t="s">
+      <c r="F8" s="107" t="s">
         <v>281</v>
       </c>
-      <c r="G8" s="108">
+      <c r="G8" s="107">
         <v>0.1</v>
       </c>
-      <c r="H8" s="109">
+      <c r="H8" s="108">
         <v>1</v>
       </c>
-      <c r="I8" s="110" t="s">
+      <c r="I8" s="109" t="s">
         <v>202</v>
       </c>
-      <c r="J8" s="111"/>
-      <c r="K8" s="200" t="s">
+      <c r="J8" s="110"/>
+      <c r="K8" s="198" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="107">
+      <c r="A9" s="106">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="108">
+      <c r="C9" s="107">
         <v>2</v>
       </c>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="107" t="s">
         <v>283</v>
       </c>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108" t="s">
+      <c r="E9" s="107"/>
+      <c r="F9" s="107" t="s">
         <v>281</v>
       </c>
-      <c r="G9" s="108">
+      <c r="G9" s="107">
         <v>0.2</v>
       </c>
-      <c r="H9" s="109">
+      <c r="H9" s="108">
         <v>1</v>
       </c>
-      <c r="I9" s="110" t="s">
+      <c r="I9" s="109" t="s">
         <v>203</v>
       </c>
-      <c r="J9" s="111"/>
-      <c r="K9" s="200" t="s">
+      <c r="J9" s="110"/>
+      <c r="K9" s="198" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="107">
+      <c r="A10" s="106">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="108">
+      <c r="C10" s="107">
         <v>5</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="D10" s="107" t="s">
         <v>288</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="109">
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="108">
         <v>1</v>
       </c>
-      <c r="I10" s="110" t="s">
+      <c r="I10" s="109" t="s">
         <v>204</v>
       </c>
-      <c r="J10" s="111"/>
-      <c r="K10" s="200" t="s">
+      <c r="J10" s="110"/>
+      <c r="K10" s="198" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107">
+      <c r="A11" s="106">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="108">
+      <c r="C11" s="107">
         <v>10</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="107" t="s">
         <v>288</v>
       </c>
-      <c r="E11" s="108" t="s">
+      <c r="E11" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="109">
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="108">
         <v>1</v>
       </c>
-      <c r="I11" s="110" t="s">
+      <c r="I11" s="109" t="s">
         <v>205</v>
       </c>
-      <c r="J11" s="111"/>
-      <c r="K11" s="200" t="s">
+      <c r="J11" s="110"/>
+      <c r="K11" s="198" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107">
+      <c r="A12" s="106">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="108">
+      <c r="C12" s="107">
         <v>20</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="107" t="s">
         <v>288</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="107" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="109">
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="108">
         <v>1</v>
       </c>
-      <c r="I12" s="110" t="s">
+      <c r="I12" s="109" t="s">
         <v>206</v>
       </c>
-      <c r="J12" s="111"/>
-      <c r="K12" s="200" t="s">
+      <c r="J12" s="110"/>
+      <c r="K12" s="198" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="107">
+      <c r="A13" s="106">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="C13" s="108">
+      <c r="C13" s="107">
         <v>50</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="107" t="s">
         <v>288</v>
       </c>
-      <c r="E13" s="108" t="s">
+      <c r="E13" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="109">
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="108">
         <v>1</v>
       </c>
-      <c r="I13" s="110" t="s">
+      <c r="I13" s="109" t="s">
         <v>207</v>
       </c>
-      <c r="J13" s="111"/>
-      <c r="K13" s="200" t="s">
+      <c r="J13" s="110"/>
+      <c r="K13" s="198" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107">
+      <c r="A14" s="106">
         <f>A13+1</f>
         <v>10</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="108">
+      <c r="C14" s="107">
         <v>100</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="107" t="s">
         <v>284</v>
       </c>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108" t="s">
+      <c r="E14" s="107"/>
+      <c r="F14" s="107" t="s">
         <v>282</v>
       </c>
-      <c r="G14" s="108">
+      <c r="G14" s="107">
         <v>100</v>
       </c>
-      <c r="H14" s="109">
+      <c r="H14" s="108">
         <v>1</v>
       </c>
-      <c r="I14" s="110" t="s">
+      <c r="I14" s="109" t="s">
         <v>208</v>
       </c>
-      <c r="J14" s="111"/>
-      <c r="K14" s="200" t="s">
+      <c r="J14" s="110"/>
+      <c r="K14" s="198" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="107">
+      <c r="A15" s="106">
         <f t="shared" ref="A15:A25" si="1">A14+1</f>
         <v>11</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="108">
+      <c r="C15" s="107">
         <v>200</v>
       </c>
-      <c r="D15" s="108" t="s">
+      <c r="D15" s="107" t="s">
         <v>284</v>
       </c>
-      <c r="E15" s="108" t="s">
+      <c r="E15" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="F15" s="108" t="s">
+      <c r="F15" s="107" t="s">
         <v>282</v>
       </c>
-      <c r="G15" s="108">
+      <c r="G15" s="107">
         <v>200</v>
       </c>
-      <c r="H15" s="109">
+      <c r="H15" s="108">
         <v>1</v>
       </c>
-      <c r="I15" s="110" t="s">
+      <c r="I15" s="109" t="s">
         <v>209</v>
       </c>
-      <c r="J15" s="111"/>
-      <c r="K15" s="200" t="s">
+      <c r="J15" s="110"/>
+      <c r="K15" s="198" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="107">
+      <c r="A16" s="106">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="108">
+      <c r="C16" s="107">
         <v>500</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="107" t="s">
         <v>284</v>
       </c>
-      <c r="E16" s="108" t="s">
+      <c r="E16" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="109">
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="108">
         <v>1</v>
       </c>
-      <c r="I16" s="110" t="s">
+      <c r="I16" s="109" t="s">
         <v>210</v>
       </c>
-      <c r="J16" s="111"/>
-      <c r="K16" s="200" t="s">
+      <c r="J16" s="110"/>
+      <c r="K16" s="198" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="107">
+    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="106">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="108">
+      <c r="C17" s="107">
         <v>1000</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="107" t="s">
         <v>284</v>
       </c>
-      <c r="E17" s="108" t="s">
+      <c r="E17" s="107" t="s">
         <v>222</v>
       </c>
-      <c r="F17" s="108" t="s">
+      <c r="F17" s="107" t="s">
         <v>281</v>
       </c>
-      <c r="G17" s="108">
+      <c r="G17" s="107">
         <v>100</v>
       </c>
-      <c r="H17" s="109">
+      <c r="H17" s="108">
         <v>1</v>
       </c>
-      <c r="I17" s="110" t="s">
+      <c r="I17" s="109" t="s">
         <v>211</v>
       </c>
-      <c r="J17" s="111"/>
-      <c r="K17" s="200" t="s">
+      <c r="J17" s="110"/>
+      <c r="K17" s="198" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107">
+    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="106">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="108">
+      <c r="C18" s="107">
         <v>2000</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D18" s="107" t="s">
         <v>284</v>
       </c>
-      <c r="E18" s="108" t="s">
+      <c r="E18" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="F18" s="108" t="s">
+      <c r="F18" s="107" t="s">
         <v>281</v>
       </c>
-      <c r="G18" s="108">
+      <c r="G18" s="107">
         <v>200</v>
       </c>
-      <c r="H18" s="109">
+      <c r="H18" s="108">
         <v>1</v>
       </c>
-      <c r="I18" s="110" t="s">
+      <c r="I18" s="109" t="s">
         <v>212</v>
       </c>
-      <c r="J18" s="111"/>
-      <c r="K18" s="200" t="s">
+      <c r="J18" s="110"/>
+      <c r="K18" s="198" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107">
+    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="106">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="109">
+      <c r="C19" s="76"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="108">
         <v>2</v>
       </c>
-      <c r="I19" s="110"/>
-      <c r="J19" s="111" t="s">
+      <c r="I19" s="109"/>
+      <c r="J19" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="200" t="s">
+      <c r="K19" s="198" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="107">
+    <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="106">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="109">
+      <c r="C20" s="76"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="108">
         <v>2</v>
       </c>
-      <c r="I20" s="110"/>
-      <c r="J20" s="111" t="s">
+      <c r="I20" s="109"/>
+      <c r="J20" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="200" t="s">
+      <c r="K20" s="198" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="107">
+    <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="106">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="109">
+      <c r="C21" s="76"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="108">
         <v>2</v>
       </c>
-      <c r="I21" s="110"/>
-      <c r="J21" s="111" t="s">
+      <c r="I21" s="109"/>
+      <c r="J21" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="200" t="s">
+      <c r="K21" s="198" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="107">
+    <row r="22" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="106">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="109">
+      <c r="C22" s="76"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="108">
         <v>2</v>
       </c>
-      <c r="I22" s="110"/>
-      <c r="J22" s="111" t="s">
+      <c r="I22" s="109"/>
+      <c r="J22" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="200" t="s">
+      <c r="K22" s="198" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="107">
+    <row r="23" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="106">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109">
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="108">
         <v>2</v>
       </c>
-      <c r="I23" s="110"/>
-      <c r="J23" s="111" t="s">
+      <c r="I23" s="109"/>
+      <c r="J23" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="200" t="s">
+      <c r="K23" s="198" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="107">
+    <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="106">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="109">
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="108">
         <v>2</v>
       </c>
-      <c r="I24" s="110"/>
-      <c r="J24" s="111" t="s">
+      <c r="I24" s="109"/>
+      <c r="J24" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="200" t="s">
+      <c r="K24" s="198" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="167">
+    <row r="25" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="166">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="168" t="s">
+      <c r="B25" s="167" t="s">
         <v>301</v>
       </c>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="170">
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="169">
         <v>2</v>
       </c>
-      <c r="I25" s="171"/>
-      <c r="J25" s="172" t="s">
+      <c r="I25" s="170"/>
+      <c r="J25" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="200" t="s">
+      <c r="K25" s="198" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="272" t="s">
+    <row r="26" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:18" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="357" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="273"/>
-      <c r="C27" s="273"/>
-      <c r="D27" s="273"/>
-      <c r="E27" s="273"/>
-      <c r="F27" s="273"/>
-      <c r="G27" s="273"/>
-      <c r="H27" s="273"/>
-      <c r="I27" s="273"/>
-      <c r="J27" s="273"/>
-      <c r="K27" s="273"/>
-      <c r="L27" s="273"/>
-      <c r="M27" s="273"/>
-      <c r="N27" s="273"/>
-      <c r="O27" s="273"/>
-      <c r="P27" s="273"/>
-      <c r="Q27" s="274"/>
-    </row>
-    <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="136" t="s">
+      <c r="B27" s="358"/>
+      <c r="C27" s="358"/>
+      <c r="D27" s="358"/>
+      <c r="E27" s="358"/>
+      <c r="F27" s="358"/>
+      <c r="G27" s="358"/>
+      <c r="H27" s="358"/>
+      <c r="I27" s="358"/>
+      <c r="J27" s="358"/>
+      <c r="K27" s="358"/>
+      <c r="L27" s="358"/>
+      <c r="M27" s="358"/>
+      <c r="N27" s="358"/>
+      <c r="O27" s="358"/>
+      <c r="P27" s="358"/>
+      <c r="Q27" s="358"/>
+      <c r="R27" s="358"/>
+    </row>
+    <row r="28" spans="1:18" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="135" t="s">
         <v>277</v>
       </c>
-      <c r="B28" s="190" t="s">
+      <c r="B28" s="188" t="s">
         <v>359</v>
       </c>
-      <c r="C28" s="188" t="s">
+      <c r="C28" s="186" t="s">
         <v>327</v>
       </c>
-      <c r="D28" s="188" t="s">
+      <c r="D28" s="186" t="s">
         <v>361</v>
       </c>
-      <c r="E28" s="188" t="s">
+      <c r="E28" s="186" t="s">
         <v>264</v>
       </c>
-      <c r="F28" s="188" t="s">
+      <c r="F28" s="186" t="s">
         <v>376</v>
       </c>
-      <c r="G28" s="188" t="s">
+      <c r="G28" s="186" t="s">
         <v>428</v>
       </c>
-      <c r="H28" s="192" t="s">
+      <c r="H28" s="190" t="s">
         <v>264</v>
       </c>
-      <c r="I28" s="192" t="s">
+      <c r="I28" s="190" t="s">
         <v>428</v>
       </c>
-      <c r="J28" s="192" t="s">
+      <c r="J28" s="190" t="s">
         <v>440</v>
       </c>
-      <c r="K28" s="192" t="s">
+      <c r="K28" s="190" t="s">
         <v>428</v>
       </c>
-      <c r="L28" s="122" t="s">
+      <c r="L28" s="121" t="s">
         <v>266</v>
       </c>
-      <c r="M28" s="122" t="s">
+      <c r="M28" s="355" t="s">
         <v>266</v>
       </c>
-      <c r="N28" s="122" t="s">
+      <c r="N28" s="121" t="s">
         <v>266</v>
       </c>
-      <c r="O28" s="188" t="s">
+      <c r="O28" s="121" t="s">
+        <v>266</v>
+      </c>
+      <c r="P28" s="186" t="s">
         <v>272</v>
       </c>
-      <c r="P28" s="188" t="s">
+      <c r="Q28" s="186" t="s">
         <v>272</v>
       </c>
-      <c r="Q28" s="191" t="s">
+      <c r="R28" s="189" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="144"/>
-      <c r="B29" s="96" t="s">
+    <row r="29" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="143"/>
+      <c r="B29" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="95" t="s">
         <v>247</v>
       </c>
-      <c r="D29" s="96" t="s">
+      <c r="D29" s="95" t="s">
         <v>360</v>
       </c>
-      <c r="E29" s="96" t="s">
+      <c r="E29" s="95" t="s">
         <v>248</v>
       </c>
-      <c r="F29" s="96" t="s">
+      <c r="F29" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="G29" s="96" t="s">
+      <c r="G29" s="95" t="s">
         <v>362</v>
       </c>
-      <c r="H29" s="96" t="s">
+      <c r="H29" s="95" t="s">
         <v>429</v>
       </c>
-      <c r="I29" s="96" t="s">
+      <c r="I29" s="95" t="s">
         <v>432</v>
       </c>
-      <c r="J29" s="96" t="s">
+      <c r="J29" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="K29" s="96" t="s">
+      <c r="K29" s="95" t="s">
         <v>435</v>
       </c>
-      <c r="L29" s="96" t="s">
+      <c r="L29" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="96" t="s">
+      <c r="M29" s="356" t="s">
+        <v>542</v>
+      </c>
+      <c r="N29" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="N29" s="96" t="s">
+      <c r="O29" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="O29" s="96" t="s">
+      <c r="P29" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="P29" s="96" t="s">
+      <c r="Q29" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="Q29" s="117" t="s">
+      <c r="R29" s="116" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="145"/>
-      <c r="B30" s="196" t="s">
+    <row r="30" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="144"/>
+      <c r="B30" s="194" t="s">
         <v>431</v>
       </c>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="152" t="s">
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151" t="s">
         <v>430</v>
       </c>
-      <c r="H30" s="152"/>
-      <c r="I30" s="152" t="s">
+      <c r="H30" s="151"/>
+      <c r="I30" s="151" t="s">
         <v>433</v>
       </c>
-      <c r="J30" s="152">
+      <c r="J30" s="151">
         <v>3</v>
       </c>
-      <c r="K30" s="152" t="s">
+      <c r="K30" s="151" t="s">
         <v>436</v>
       </c>
-      <c r="L30" s="152">
+      <c r="L30" s="151">
         <v>100</v>
       </c>
-      <c r="M30" s="152">
+      <c r="M30" s="233"/>
+      <c r="N30" s="151">
         <v>0</v>
       </c>
-      <c r="N30" s="152"/>
-      <c r="O30" s="152">
+      <c r="O30" s="151"/>
+      <c r="P30" s="151">
         <v>4</v>
       </c>
-      <c r="P30" s="152">
+      <c r="Q30" s="151">
         <v>10</v>
       </c>
-      <c r="Q30" s="153">
+      <c r="R30" s="152">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="269" t="s">
+    <row r="31" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:18" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="297" t="s">
         <v>276</v>
       </c>
-      <c r="B32" s="270"/>
-      <c r="C32" s="270"/>
-      <c r="D32" s="270"/>
-      <c r="E32" s="270"/>
-      <c r="F32" s="270"/>
-      <c r="G32" s="270"/>
-      <c r="H32" s="271"/>
+      <c r="B32" s="298"/>
+      <c r="C32" s="298"/>
+      <c r="D32" s="298"/>
+      <c r="E32" s="298"/>
+      <c r="F32" s="298"/>
+      <c r="G32" s="298"/>
+      <c r="H32" s="299"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="263" t="s">
+      <c r="A33" s="291" t="s">
         <v>356</v>
       </c>
-      <c r="B33" s="264"/>
-      <c r="C33" s="264"/>
-      <c r="D33" s="264"/>
-      <c r="E33" s="264"/>
-      <c r="F33" s="264"/>
-      <c r="G33" s="264"/>
-      <c r="H33" s="265"/>
+      <c r="B33" s="292"/>
+      <c r="C33" s="292"/>
+      <c r="D33" s="292"/>
+      <c r="E33" s="292"/>
+      <c r="F33" s="292"/>
+      <c r="G33" s="292"/>
+      <c r="H33" s="293"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="263"/>
-      <c r="B34" s="264"/>
-      <c r="C34" s="264"/>
-      <c r="D34" s="264"/>
-      <c r="E34" s="264"/>
-      <c r="F34" s="264"/>
-      <c r="G34" s="264"/>
-      <c r="H34" s="265"/>
+      <c r="A34" s="291"/>
+      <c r="B34" s="292"/>
+      <c r="C34" s="292"/>
+      <c r="D34" s="292"/>
+      <c r="E34" s="292"/>
+      <c r="F34" s="292"/>
+      <c r="G34" s="292"/>
+      <c r="H34" s="293"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="263"/>
-      <c r="B35" s="264"/>
-      <c r="C35" s="264"/>
-      <c r="D35" s="264"/>
-      <c r="E35" s="264"/>
-      <c r="F35" s="264"/>
-      <c r="G35" s="264"/>
-      <c r="H35" s="265"/>
+      <c r="A35" s="291"/>
+      <c r="B35" s="292"/>
+      <c r="C35" s="292"/>
+      <c r="D35" s="292"/>
+      <c r="E35" s="292"/>
+      <c r="F35" s="292"/>
+      <c r="G35" s="292"/>
+      <c r="H35" s="293"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="266"/>
-      <c r="B36" s="267"/>
-      <c r="C36" s="267"/>
-      <c r="D36" s="267"/>
-      <c r="E36" s="267"/>
-      <c r="F36" s="267"/>
-      <c r="G36" s="267"/>
-      <c r="H36" s="268"/>
+      <c r="A36" s="294"/>
+      <c r="B36" s="295"/>
+      <c r="C36" s="295"/>
+      <c r="D36" s="295"/>
+      <c r="E36" s="295"/>
+      <c r="F36" s="295"/>
+      <c r="G36" s="295"/>
+      <c r="H36" s="296"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="253" t="s">
+      <c r="A38" s="281" t="s">
         <v>302</v>
       </c>
-      <c r="B38" s="253"/>
-      <c r="C38" s="253"/>
-      <c r="D38" s="253"/>
-      <c r="E38" s="253"/>
-      <c r="F38" s="253"/>
-      <c r="G38" s="253"/>
+      <c r="B38" s="281"/>
+      <c r="C38" s="281"/>
+      <c r="D38" s="281"/>
+      <c r="E38" s="281"/>
+      <c r="F38" s="281"/>
+      <c r="G38" s="281"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="78" t="s">
+      <c r="A39" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="77" t="s">
         <v>303</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="77" t="s">
         <v>304</v>
       </c>
-      <c r="D39" s="252" t="s">
+      <c r="D39" s="280" t="s">
         <v>305</v>
       </c>
-      <c r="E39" s="252"/>
-      <c r="F39" s="252"/>
-      <c r="G39" s="252"/>
+      <c r="E39" s="280"/>
+      <c r="F39" s="280"/>
+      <c r="G39" s="280"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6894,7 +7092,7 @@
       <c r="C40" t="s">
         <v>438</v>
       </c>
-      <c r="D40" s="175" t="s">
+      <c r="D40" s="174" t="s">
         <v>363</v>
       </c>
     </row>
@@ -6908,7 +7106,7 @@
       <c r="C41" t="s">
         <v>438</v>
       </c>
-      <c r="D41" s="187" t="s">
+      <c r="D41" s="185" t="s">
         <v>329</v>
       </c>
     </row>
@@ -6922,7 +7120,7 @@
       <c r="C42" t="s">
         <v>438</v>
       </c>
-      <c r="D42" s="175" t="s">
+      <c r="D42" s="174" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6936,7 +7134,7 @@
       <c r="C43" t="s">
         <v>438</v>
       </c>
-      <c r="D43" s="175" t="s">
+      <c r="D43" s="174" t="s">
         <v>350</v>
       </c>
     </row>
@@ -6950,7 +7148,7 @@
       <c r="C44" t="s">
         <v>438</v>
       </c>
-      <c r="D44" s="178" t="s">
+      <c r="D44" s="177" t="s">
         <v>331</v>
       </c>
     </row>
@@ -6964,7 +7162,7 @@
       <c r="C45" t="s">
         <v>438</v>
       </c>
-      <c r="D45" s="187" t="s">
+      <c r="D45" s="185" t="s">
         <v>403</v>
       </c>
     </row>
@@ -6978,7 +7176,7 @@
       <c r="C46" t="s">
         <v>438</v>
       </c>
-      <c r="D46" s="187" t="s">
+      <c r="D46" s="185" t="s">
         <v>383</v>
       </c>
     </row>
@@ -6992,7 +7190,7 @@
       <c r="C47" t="s">
         <v>438</v>
       </c>
-      <c r="D47" s="187" t="s">
+      <c r="D47" s="185" t="s">
         <v>404</v>
       </c>
     </row>
@@ -7006,7 +7204,7 @@
       <c r="C48" t="s">
         <v>438</v>
       </c>
-      <c r="D48" s="187" t="s">
+      <c r="D48" s="185" t="s">
         <v>406</v>
       </c>
     </row>
@@ -7020,7 +7218,7 @@
       <c r="C49" t="s">
         <v>438</v>
       </c>
-      <c r="D49" s="187" t="s">
+      <c r="D49" s="185" t="s">
         <v>405</v>
       </c>
     </row>
@@ -7034,7 +7232,7 @@
       <c r="C50" t="s">
         <v>438</v>
       </c>
-      <c r="D50" s="187" t="s">
+      <c r="D50" s="185" t="s">
         <v>407</v>
       </c>
     </row>
@@ -7048,7 +7246,7 @@
       <c r="C51" t="s">
         <v>438</v>
       </c>
-      <c r="D51" s="187" t="s">
+      <c r="D51" s="185" t="s">
         <v>410</v>
       </c>
     </row>
@@ -7062,7 +7260,7 @@
       <c r="C52" t="s">
         <v>438</v>
       </c>
-      <c r="D52" s="175" t="s">
+      <c r="D52" s="174" t="s">
         <v>439</v>
       </c>
     </row>
@@ -7076,7 +7274,7 @@
       <c r="C53" t="s">
         <v>438</v>
       </c>
-      <c r="D53" s="187" t="s">
+      <c r="D53" s="185" t="s">
         <v>413</v>
       </c>
     </row>
@@ -7090,7 +7288,7 @@
       <c r="C54" t="s">
         <v>438</v>
       </c>
-      <c r="D54" s="187" t="s">
+      <c r="D54" s="185" t="s">
         <v>413</v>
       </c>
     </row>
@@ -7104,7 +7302,7 @@
       <c r="C55" t="s">
         <v>438</v>
       </c>
-      <c r="D55" s="187" t="s">
+      <c r="D55" s="185" t="s">
         <v>413</v>
       </c>
     </row>
@@ -7118,7 +7316,7 @@
       <c r="C56" t="s">
         <v>438</v>
       </c>
-      <c r="D56" s="187" t="s">
+      <c r="D56" s="185" t="s">
         <v>413</v>
       </c>
     </row>
@@ -7132,7 +7330,7 @@
       <c r="C57" t="s">
         <v>438</v>
       </c>
-      <c r="D57" s="187" t="s">
+      <c r="D57" s="185" t="s">
         <v>413</v>
       </c>
     </row>
@@ -7146,7 +7344,7 @@
       <c r="C58" t="s">
         <v>438</v>
       </c>
-      <c r="D58" s="175" t="s">
+      <c r="D58" s="174" t="s">
         <v>414</v>
       </c>
     </row>
@@ -7160,7 +7358,7 @@
       <c r="C59" t="s">
         <v>438</v>
       </c>
-      <c r="D59" s="175" t="s">
+      <c r="D59" s="174" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7174,7 +7372,7 @@
       <c r="C60" t="s">
         <v>438</v>
       </c>
-      <c r="D60" s="175" t="s">
+      <c r="D60" s="174" t="s">
         <v>416</v>
       </c>
     </row>
@@ -7188,7 +7386,7 @@
       <c r="C61" t="s">
         <v>438</v>
       </c>
-      <c r="D61" s="175" t="s">
+      <c r="D61" s="174" t="s">
         <v>417</v>
       </c>
     </row>
@@ -7202,7 +7400,7 @@
       <c r="C62" t="s">
         <v>438</v>
       </c>
-      <c r="D62" s="175" t="s">
+      <c r="D62" s="174" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7216,7 +7414,7 @@
       <c r="C63" t="s">
         <v>438</v>
       </c>
-      <c r="D63" s="175" t="s">
+      <c r="D63" s="174" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7230,7 +7428,7 @@
       <c r="C64" t="s">
         <v>438</v>
       </c>
-      <c r="D64" s="175" t="s">
+      <c r="D64" s="174" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7244,7 +7442,7 @@
       <c r="C65" t="s">
         <v>438</v>
       </c>
-      <c r="D65" s="175" t="s">
+      <c r="D65" s="174" t="s">
         <v>421</v>
       </c>
     </row>
@@ -7258,7 +7456,7 @@
       <c r="C66" t="s">
         <v>438</v>
       </c>
-      <c r="D66" s="175" t="s">
+      <c r="D66" s="174" t="s">
         <v>422</v>
       </c>
     </row>
@@ -7272,7 +7470,7 @@
       <c r="C67" t="s">
         <v>438</v>
       </c>
-      <c r="D67" s="175" t="s">
+      <c r="D67" s="174" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7286,7 +7484,7 @@
       <c r="C68" t="s">
         <v>438</v>
       </c>
-      <c r="D68" s="175" t="s">
+      <c r="D68" s="174" t="s">
         <v>424</v>
       </c>
     </row>
@@ -7300,7 +7498,7 @@
       <c r="C69" t="s">
         <v>438</v>
       </c>
-      <c r="D69" s="175" t="s">
+      <c r="D69" s="174" t="s">
         <v>425</v>
       </c>
     </row>
@@ -7314,7 +7512,7 @@
       <c r="C70" t="s">
         <v>438</v>
       </c>
-      <c r="D70" s="175" t="s">
+      <c r="D70" s="174" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7328,7 +7526,7 @@
       <c r="C71" t="s">
         <v>438</v>
       </c>
-      <c r="D71" s="175" t="s">
+      <c r="D71" s="174" t="s">
         <v>427</v>
       </c>
     </row>
@@ -7341,7 +7539,7 @@
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="A33:H36"/>
     <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A27:Q27"/>
+    <mergeCell ref="A27:R27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7407,7 +7605,7 @@
   </sheetPr>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -7426,92 +7624,92 @@
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="275" t="s">
+    <row r="1" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="303" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="277"/>
-    </row>
-    <row r="2" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="272" t="s">
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="305"/>
+    </row>
+    <row r="2" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="300" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="273"/>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="273"/>
-      <c r="J2" s="274"/>
-    </row>
-    <row r="3" spans="1:10" s="112" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="B2" s="301"/>
+      <c r="C2" s="301"/>
+      <c r="D2" s="301"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="301"/>
+      <c r="G2" s="301"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="302"/>
+    </row>
+    <row r="3" spans="1:10" s="111" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="129" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="129" t="s">
         <v>316</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="126" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="126" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="123" t="s">
         <v>266</v>
       </c>
-      <c r="F3" s="125" t="s">
+      <c r="F3" s="124" t="s">
         <v>266</v>
       </c>
-      <c r="G3" s="131" t="s">
+      <c r="G3" s="130" t="s">
         <v>317</v>
       </c>
-      <c r="H3" s="165" t="s">
+      <c r="H3" s="164" t="s">
         <v>298</v>
       </c>
-      <c r="I3" s="127"/>
-      <c r="J3" s="129"/>
-    </row>
-    <row r="4" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="I3" s="126"/>
+      <c r="J3" s="128"/>
+    </row>
+    <row r="4" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="99" t="s">
         <v>252</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="99" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="99" t="s">
+      <c r="G4" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="166" t="s">
+      <c r="H4" s="165" t="s">
         <v>299</v>
       </c>
-      <c r="I4" s="101"/>
-      <c r="J4" s="102"/>
-    </row>
-    <row r="5" spans="1:10" s="112" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="I4" s="100"/>
+      <c r="J4" s="101"/>
+    </row>
+    <row r="5" spans="1:10" s="111" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="72" t="s">
         <v>171</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7523,145 +7721,145 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="198" t="s">
+      <c r="G5" s="196" t="s">
         <v>300</v>
       </c>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
-    </row>
-    <row r="6" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="272" t="s">
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+    </row>
+    <row r="6" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="300" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="273"/>
-      <c r="C6" s="273"/>
-      <c r="D6" s="273"/>
-      <c r="E6" s="273"/>
-      <c r="F6" s="273"/>
-      <c r="G6" s="273"/>
-      <c r="H6" s="273"/>
-      <c r="I6" s="273"/>
-      <c r="J6" s="274"/>
-    </row>
-    <row r="7" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="123" t="s">
+      <c r="B6" s="301"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="301"/>
+      <c r="E6" s="301"/>
+      <c r="F6" s="301"/>
+      <c r="G6" s="301"/>
+      <c r="H6" s="301"/>
+      <c r="I6" s="301"/>
+      <c r="J6" s="302"/>
+    </row>
+    <row r="7" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="122" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="130" t="s">
         <v>318</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="129"/>
-    </row>
-    <row r="8" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="128"/>
+    </row>
+    <row r="8" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105"/>
-    </row>
-    <row r="9" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68" t="s">
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="104"/>
+    </row>
+    <row r="9" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>213</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="72"/>
-    </row>
-    <row r="10" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="272" t="s">
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+    </row>
+    <row r="10" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="300" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="273"/>
-      <c r="C10" s="273"/>
-      <c r="D10" s="273"/>
-      <c r="E10" s="273"/>
-      <c r="F10" s="273"/>
-      <c r="G10" s="273"/>
-      <c r="H10" s="273"/>
-      <c r="I10" s="273"/>
-      <c r="J10" s="274"/>
-    </row>
-    <row r="11" spans="1:10" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="126"/>
-      <c r="B11" s="127" t="s">
+      <c r="B10" s="301"/>
+      <c r="C10" s="301"/>
+      <c r="D10" s="301"/>
+      <c r="E10" s="301"/>
+      <c r="F10" s="301"/>
+      <c r="G10" s="301"/>
+      <c r="H10" s="301"/>
+      <c r="I10" s="301"/>
+      <c r="J10" s="302"/>
+    </row>
+    <row r="11" spans="1:10" s="111" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="125"/>
+      <c r="B11" s="126" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="126" t="s">
         <v>254</v>
       </c>
-      <c r="D11" s="174" t="s">
+      <c r="D11" s="173" t="s">
         <v>326</v>
       </c>
-      <c r="E11" s="127" t="s">
+      <c r="E11" s="126" t="s">
         <v>256</v>
       </c>
-      <c r="F11" s="132" t="s">
+      <c r="F11" s="131" t="s">
         <v>320</v>
       </c>
-      <c r="G11" s="131" t="s">
+      <c r="G11" s="130" t="s">
         <v>319</v>
       </c>
-      <c r="H11" s="131" t="s">
+      <c r="H11" s="130" t="s">
         <v>321</v>
       </c>
-      <c r="I11" s="127"/>
-      <c r="J11" s="129"/>
-    </row>
-    <row r="12" spans="1:10" s="112" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
+      <c r="I11" s="126"/>
+      <c r="J11" s="128"/>
+    </row>
+    <row r="12" spans="1:10" s="111" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="95" t="s">
         <v>255</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="F12" s="96" t="s">
+      <c r="F12" s="95" t="s">
         <v>258</v>
       </c>
-      <c r="G12" s="133" t="s">
+      <c r="G12" s="132" t="s">
         <v>259</v>
       </c>
-      <c r="H12" s="99" t="s">
+      <c r="H12" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="I12" s="118"/>
-      <c r="J12" s="119"/>
-    </row>
-    <row r="13" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+    </row>
+    <row r="13" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="105" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -7688,8 +7886,8 @@
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="106">
+    <row r="14" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="105">
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -7716,8 +7914,8 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="106">
+    <row r="15" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="105">
         <v>3</v>
       </c>
       <c r="B15" s="4"/>
@@ -7730,8 +7928,8 @@
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="106">
+    <row r="16" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="105">
         <v>4</v>
       </c>
       <c r="B16" s="4"/>
@@ -7744,146 +7942,146 @@
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="316" t="s">
+    <row r="17" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="306" t="s">
         <v>496</v>
       </c>
-      <c r="B17" s="317"/>
-      <c r="C17" s="317"/>
-      <c r="D17" s="317"/>
-      <c r="E17" s="317"/>
-      <c r="F17" s="317"/>
-      <c r="G17" s="317"/>
-      <c r="H17" s="317"/>
-      <c r="I17" s="317"/>
-      <c r="J17" s="318"/>
-    </row>
-    <row r="18" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="319"/>
-      <c r="B18" s="320" t="s">
+      <c r="B17" s="307"/>
+      <c r="C17" s="307"/>
+      <c r="D17" s="307"/>
+      <c r="E17" s="307"/>
+      <c r="F17" s="307"/>
+      <c r="G17" s="307"/>
+      <c r="H17" s="307"/>
+      <c r="I17" s="307"/>
+      <c r="J17" s="308"/>
+    </row>
+    <row r="18" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="206"/>
+      <c r="B18" s="207" t="s">
         <v>273</v>
       </c>
-      <c r="C18" s="320" t="s">
+      <c r="C18" s="207" t="s">
         <v>254</v>
       </c>
-      <c r="D18" s="320" t="s">
+      <c r="D18" s="207" t="s">
         <v>256</v>
       </c>
-      <c r="E18" s="321" t="s">
+      <c r="E18" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="F18" s="322" t="s">
+      <c r="F18" s="209" t="s">
         <v>319</v>
       </c>
-      <c r="G18" s="322"/>
-      <c r="H18" s="323"/>
-      <c r="I18" s="323"/>
-      <c r="J18" s="324"/>
-    </row>
-    <row r="19" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="325" t="s">
+      <c r="G18" s="209"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="210"/>
+      <c r="J18" s="211"/>
+    </row>
+    <row r="19" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="212" t="s">
         <v>497</v>
       </c>
-      <c r="B19" s="326" t="s">
+      <c r="B19" s="213" t="s">
         <v>498</v>
       </c>
-      <c r="C19" s="327" t="s">
+      <c r="C19" s="214" t="s">
         <v>255</v>
       </c>
-      <c r="D19" s="327" t="s">
+      <c r="D19" s="214" t="s">
         <v>499</v>
       </c>
-      <c r="E19" s="327" t="s">
+      <c r="E19" s="214" t="s">
         <v>258</v>
       </c>
-      <c r="F19" s="328" t="s">
+      <c r="F19" s="215" t="s">
         <v>259</v>
       </c>
-      <c r="G19" s="326"/>
-      <c r="H19" s="329"/>
-      <c r="I19" s="329"/>
-      <c r="J19" s="330"/>
-    </row>
-    <row r="20" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="331"/>
-      <c r="B20" s="332"/>
-      <c r="C20" s="332"/>
-      <c r="D20" s="332"/>
-      <c r="E20" s="332"/>
-      <c r="F20" s="332"/>
-      <c r="G20" s="332"/>
-      <c r="H20" s="332"/>
-      <c r="I20" s="332"/>
-      <c r="J20" s="333"/>
-    </row>
-    <row r="21" spans="1:10" s="112" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="331"/>
-      <c r="B21" s="332"/>
-      <c r="C21" s="332"/>
-      <c r="D21" s="332"/>
-      <c r="E21" s="332"/>
-      <c r="F21" s="332"/>
-      <c r="G21" s="332"/>
-      <c r="H21" s="332"/>
-      <c r="I21" s="332"/>
-      <c r="J21" s="333"/>
-    </row>
-    <row r="22" spans="1:10" s="112" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="272" t="s">
+      <c r="G19" s="213"/>
+      <c r="H19" s="216"/>
+      <c r="I19" s="216"/>
+      <c r="J19" s="217"/>
+    </row>
+    <row r="20" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="218"/>
+      <c r="B20" s="219"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="219"/>
+      <c r="G20" s="219"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="220"/>
+    </row>
+    <row r="21" spans="1:10" s="111" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="218"/>
+      <c r="B21" s="219"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="219"/>
+      <c r="E21" s="219"/>
+      <c r="F21" s="219"/>
+      <c r="G21" s="219"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="220"/>
+    </row>
+    <row r="22" spans="1:10" s="111" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="300" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="273"/>
-      <c r="C22" s="273"/>
-      <c r="D22" s="273"/>
-      <c r="E22" s="273"/>
-      <c r="F22" s="273"/>
-      <c r="G22" s="273"/>
-      <c r="H22" s="273"/>
-      <c r="I22" s="273"/>
-      <c r="J22" s="274"/>
-    </row>
-    <row r="23" spans="1:10" s="112" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="130" t="s">
+      <c r="B22" s="301"/>
+      <c r="C22" s="301"/>
+      <c r="D22" s="301"/>
+      <c r="E22" s="301"/>
+      <c r="F22" s="301"/>
+      <c r="G22" s="301"/>
+      <c r="H22" s="301"/>
+      <c r="I22" s="301"/>
+      <c r="J22" s="302"/>
+    </row>
+    <row r="23" spans="1:10" s="111" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="129" t="s">
         <v>322</v>
       </c>
-      <c r="B23" s="131" t="s">
+      <c r="B23" s="130" t="s">
         <v>323</v>
       </c>
-      <c r="C23" s="131" t="s">
+      <c r="C23" s="130" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="131" t="s">
+      <c r="D23" s="130" t="s">
         <v>324</v>
       </c>
-      <c r="E23" s="127"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="129"/>
-    </row>
-    <row r="24" spans="1:10" s="112" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="95" t="s">
+      <c r="E23" s="126"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="128"/>
+    </row>
+    <row r="24" spans="1:10" s="111" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="95" t="s">
         <v>260</v>
       </c>
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="95" t="s">
         <v>262</v>
       </c>
-      <c r="D24" s="99" t="s">
+      <c r="D24" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="E24" s="113"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="105"/>
-    </row>
-    <row r="25" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30">
+      <c r="E24" s="112"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="104"/>
+    </row>
+    <row r="25" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29">
         <v>3</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -7892,7 +8090,7 @@
       <c r="C25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="152" t="s">
+      <c r="D25" s="151" t="s">
         <v>216</v>
       </c>
       <c r="E25" s="8"/>
@@ -7902,148 +8100,148 @@
       <c r="I25" s="8"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="316" t="s">
+    <row r="26" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="306" t="s">
         <v>500</v>
       </c>
-      <c r="B26" s="317"/>
-      <c r="C26" s="317"/>
-      <c r="D26" s="317"/>
-      <c r="E26" s="317"/>
-      <c r="F26" s="317"/>
-      <c r="G26" s="317"/>
-      <c r="H26" s="317"/>
-      <c r="I26" s="317"/>
-      <c r="J26" s="318"/>
-    </row>
-    <row r="27" spans="1:10" s="112" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="334" t="s">
+      <c r="B26" s="307"/>
+      <c r="C26" s="307"/>
+      <c r="D26" s="307"/>
+      <c r="E26" s="307"/>
+      <c r="F26" s="307"/>
+      <c r="G26" s="307"/>
+      <c r="H26" s="307"/>
+      <c r="I26" s="307"/>
+      <c r="J26" s="308"/>
+    </row>
+    <row r="27" spans="1:10" s="111" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="221" t="s">
         <v>501</v>
       </c>
-      <c r="B27" s="335" t="s">
+      <c r="B27" s="222" t="s">
         <v>501</v>
       </c>
-      <c r="C27" s="336" t="s">
+      <c r="C27" s="223" t="s">
         <v>267</v>
       </c>
-      <c r="D27" s="336" t="s">
+      <c r="D27" s="223" t="s">
         <v>267</v>
       </c>
-      <c r="E27" s="337" t="s">
+      <c r="E27" s="224" t="s">
         <v>266</v>
       </c>
-      <c r="F27" s="338" t="s">
+      <c r="F27" s="225" t="s">
         <v>502</v>
       </c>
-      <c r="G27" s="337" t="s">
+      <c r="G27" s="224" t="s">
         <v>266</v>
       </c>
-      <c r="H27" s="339"/>
-      <c r="I27" s="339"/>
-      <c r="J27" s="340"/>
-    </row>
-    <row r="28" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="341" t="s">
+      <c r="H27" s="226"/>
+      <c r="I27" s="226"/>
+      <c r="J27" s="227"/>
+    </row>
+    <row r="28" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="326" t="s">
+      <c r="B28" s="213" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="342" t="s">
+      <c r="C28" s="229" t="s">
         <v>252</v>
       </c>
-      <c r="D28" s="342" t="s">
+      <c r="D28" s="229" t="s">
         <v>253</v>
       </c>
-      <c r="E28" s="342" t="s">
+      <c r="E28" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="342" t="s">
+      <c r="F28" s="229" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="326" t="s">
+      <c r="G28" s="213" t="s">
         <v>230</v>
       </c>
-      <c r="H28" s="343"/>
-      <c r="I28" s="343"/>
-      <c r="J28" s="344"/>
-    </row>
-    <row r="29" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="345"/>
-      <c r="B29" s="346"/>
-      <c r="C29" s="347"/>
-      <c r="D29" s="347"/>
-      <c r="E29" s="347"/>
-      <c r="F29" s="347"/>
-      <c r="G29" s="347"/>
-      <c r="H29" s="347"/>
-      <c r="I29" s="347"/>
-      <c r="J29" s="348"/>
-    </row>
-    <row r="30" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="272" t="s">
+      <c r="H28" s="230"/>
+      <c r="I28" s="230"/>
+      <c r="J28" s="231"/>
+    </row>
+    <row r="29" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="232"/>
+      <c r="B29" s="233"/>
+      <c r="C29" s="234"/>
+      <c r="D29" s="234"/>
+      <c r="E29" s="234"/>
+      <c r="F29" s="234"/>
+      <c r="G29" s="234"/>
+      <c r="H29" s="234"/>
+      <c r="I29" s="234"/>
+      <c r="J29" s="235"/>
+    </row>
+    <row r="30" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="300" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="273"/>
-      <c r="C30" s="273"/>
-      <c r="D30" s="273"/>
-      <c r="E30" s="273"/>
-      <c r="F30" s="273"/>
-      <c r="G30" s="273"/>
-      <c r="H30" s="273"/>
-      <c r="I30" s="273"/>
-      <c r="J30" s="274"/>
-    </row>
-    <row r="31" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="130" t="s">
+      <c r="B30" s="301"/>
+      <c r="C30" s="301"/>
+      <c r="D30" s="301"/>
+      <c r="E30" s="301"/>
+      <c r="F30" s="301"/>
+      <c r="G30" s="301"/>
+      <c r="H30" s="301"/>
+      <c r="I30" s="301"/>
+      <c r="J30" s="302"/>
+    </row>
+    <row r="31" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="129" t="s">
         <v>277</v>
       </c>
-      <c r="B31" s="192" t="s">
+      <c r="B31" s="190" t="s">
         <v>361</v>
       </c>
-      <c r="C31" s="131" t="s">
+      <c r="C31" s="130" t="s">
         <v>325</v>
       </c>
-      <c r="D31" s="131" t="s">
+      <c r="D31" s="130" t="s">
         <v>263</v>
       </c>
-      <c r="E31" s="188" t="s">
+      <c r="E31" s="186" t="s">
         <v>361</v>
       </c>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="150"/>
-    </row>
-    <row r="32" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="147"/>
-      <c r="B32" s="146" t="s">
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="149"/>
+    </row>
+    <row r="32" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="146"/>
+      <c r="B32" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="146" t="s">
+      <c r="C32" s="145" t="s">
         <v>261</v>
       </c>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="E32" s="96" t="s">
+      <c r="E32" s="95" t="s">
         <v>362</v>
       </c>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="151"/>
-    </row>
-    <row r="33" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="145"/>
-      <c r="B33" s="197" t="s">
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="150"/>
+    </row>
+    <row r="33" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="144"/>
+      <c r="B33" s="195" t="s">
         <v>452</v>
       </c>
-      <c r="C33" s="185"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="152" t="s">
+      <c r="C33" s="183"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="151" t="s">
         <v>453</v>
       </c>
       <c r="F33" s="8"/>
@@ -8052,108 +8250,108 @@
       <c r="I33" s="8"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:10" s="112" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="269" t="s">
+    <row r="34" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:10" s="111" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="297" t="s">
         <v>276</v>
       </c>
-      <c r="B35" s="270"/>
-      <c r="C35" s="270"/>
-      <c r="D35" s="270"/>
-      <c r="E35" s="270"/>
-      <c r="F35" s="270"/>
-      <c r="G35" s="270"/>
-      <c r="H35" s="271"/>
-    </row>
-    <row r="36" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="263" t="s">
+      <c r="B35" s="298"/>
+      <c r="C35" s="298"/>
+      <c r="D35" s="298"/>
+      <c r="E35" s="298"/>
+      <c r="F35" s="298"/>
+      <c r="G35" s="298"/>
+      <c r="H35" s="299"/>
+    </row>
+    <row r="36" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="291" t="s">
         <v>355</v>
       </c>
-      <c r="B36" s="264"/>
-      <c r="C36" s="264"/>
-      <c r="D36" s="264"/>
-      <c r="E36" s="264"/>
-      <c r="F36" s="264"/>
-      <c r="G36" s="264"/>
-      <c r="H36" s="265"/>
-    </row>
-    <row r="37" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="263"/>
-      <c r="B37" s="264"/>
-      <c r="C37" s="264"/>
-      <c r="D37" s="264"/>
-      <c r="E37" s="264"/>
-      <c r="F37" s="264"/>
-      <c r="G37" s="264"/>
-      <c r="H37" s="265"/>
-    </row>
-    <row r="38" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="263"/>
-      <c r="B38" s="264"/>
-      <c r="C38" s="264"/>
-      <c r="D38" s="264"/>
-      <c r="E38" s="264"/>
-      <c r="F38" s="264"/>
-      <c r="G38" s="264"/>
-      <c r="H38" s="265"/>
+      <c r="B36" s="292"/>
+      <c r="C36" s="292"/>
+      <c r="D36" s="292"/>
+      <c r="E36" s="292"/>
+      <c r="F36" s="292"/>
+      <c r="G36" s="292"/>
+      <c r="H36" s="293"/>
+    </row>
+    <row r="37" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="291"/>
+      <c r="B37" s="292"/>
+      <c r="C37" s="292"/>
+      <c r="D37" s="292"/>
+      <c r="E37" s="292"/>
+      <c r="F37" s="292"/>
+      <c r="G37" s="292"/>
+      <c r="H37" s="293"/>
+    </row>
+    <row r="38" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="291"/>
+      <c r="B38" s="292"/>
+      <c r="C38" s="292"/>
+      <c r="D38" s="292"/>
+      <c r="E38" s="292"/>
+      <c r="F38" s="292"/>
+      <c r="G38" s="292"/>
+      <c r="H38" s="293"/>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="266"/>
-      <c r="B39" s="267"/>
-      <c r="C39" s="267"/>
-      <c r="D39" s="267"/>
-      <c r="E39" s="267"/>
-      <c r="F39" s="267"/>
-      <c r="G39" s="267"/>
-      <c r="H39" s="268"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="112"/>
+      <c r="A39" s="294"/>
+      <c r="B39" s="295"/>
+      <c r="C39" s="295"/>
+      <c r="D39" s="295"/>
+      <c r="E39" s="295"/>
+      <c r="F39" s="295"/>
+      <c r="G39" s="295"/>
+      <c r="H39" s="296"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="112"/>
-      <c r="B40" s="112"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
     </row>
     <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="253" t="s">
+      <c r="A41" s="281" t="s">
         <v>302</v>
       </c>
-      <c r="B41" s="253"/>
-      <c r="C41" s="253"/>
-      <c r="D41" s="253"/>
-      <c r="E41" s="253"/>
-      <c r="F41" s="253"/>
-      <c r="G41" s="253"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="112"/>
+      <c r="B41" s="281"/>
+      <c r="C41" s="281"/>
+      <c r="D41" s="281"/>
+      <c r="E41" s="281"/>
+      <c r="F41" s="281"/>
+      <c r="G41" s="281"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="111"/>
+      <c r="J41" s="111"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="78" t="s">
+      <c r="A42" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="77" t="s">
         <v>303</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C42" s="77" t="s">
         <v>304</v>
       </c>
-      <c r="D42" s="252" t="s">
+      <c r="D42" s="280" t="s">
         <v>305</v>
       </c>
-      <c r="E42" s="252"/>
-      <c r="F42" s="252"/>
-      <c r="G42" s="252"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="112"/>
+      <c r="E42" s="280"/>
+      <c r="F42" s="280"/>
+      <c r="G42" s="280"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -8165,7 +8363,7 @@
       <c r="C43" t="s">
         <v>455</v>
       </c>
-      <c r="D43" s="175" t="s">
+      <c r="D43" s="174" t="s">
         <v>363</v>
       </c>
     </row>
@@ -8179,7 +8377,7 @@
       <c r="C44" t="s">
         <v>455</v>
       </c>
-      <c r="D44" s="187" t="s">
+      <c r="D44" s="185" t="s">
         <v>329</v>
       </c>
     </row>
@@ -8193,7 +8391,7 @@
       <c r="C45" t="s">
         <v>455</v>
       </c>
-      <c r="D45" s="175" t="s">
+      <c r="D45" s="174" t="s">
         <v>330</v>
       </c>
     </row>
@@ -8207,7 +8405,7 @@
       <c r="C46" t="s">
         <v>455</v>
       </c>
-      <c r="D46" s="175" t="s">
+      <c r="D46" s="174" t="s">
         <v>350</v>
       </c>
     </row>
@@ -8221,7 +8419,7 @@
       <c r="C47" t="s">
         <v>455</v>
       </c>
-      <c r="D47" s="178" t="s">
+      <c r="D47" s="177" t="s">
         <v>331</v>
       </c>
     </row>
@@ -8235,7 +8433,7 @@
       <c r="C48" t="s">
         <v>455</v>
       </c>
-      <c r="D48" s="187" t="s">
+      <c r="D48" s="185" t="s">
         <v>365</v>
       </c>
     </row>
@@ -8249,7 +8447,7 @@
       <c r="C49" t="s">
         <v>455</v>
       </c>
-      <c r="D49" s="187" t="s">
+      <c r="D49" s="185" t="s">
         <v>368</v>
       </c>
     </row>
@@ -8263,7 +8461,7 @@
       <c r="C50" t="s">
         <v>455</v>
       </c>
-      <c r="D50" s="187" t="s">
+      <c r="D50" s="185" t="s">
         <v>454</v>
       </c>
     </row>
@@ -8277,7 +8475,7 @@
       <c r="C51" t="s">
         <v>455</v>
       </c>
-      <c r="D51" s="187" t="s">
+      <c r="D51" s="185" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8291,7 +8489,7 @@
       <c r="C52" t="s">
         <v>455</v>
       </c>
-      <c r="D52" s="187" t="s">
+      <c r="D52" s="185" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8305,7 +8503,7 @@
       <c r="C53" t="s">
         <v>455</v>
       </c>
-      <c r="D53" s="178" t="s">
+      <c r="D53" s="177" t="s">
         <v>457</v>
       </c>
     </row>
@@ -8367,7 +8565,7 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8392,369 +8590,376 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="313" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
-      <c r="N1" s="295"/>
-      <c r="O1" s="295"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
+      <c r="G1" s="313"/>
+      <c r="H1" s="313"/>
+      <c r="I1" s="313"/>
+      <c r="J1" s="313"/>
+      <c r="K1" s="313"/>
+      <c r="L1" s="313"/>
+      <c r="M1" s="313"/>
+      <c r="N1" s="313"/>
+      <c r="O1" s="313"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="283" t="s">
+      <c r="A2" s="321" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="284"/>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="296" t="s">
+      <c r="B2" s="322"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="322"/>
+      <c r="F2" s="323"/>
+      <c r="G2" s="314" t="s">
         <v>242</v>
       </c>
-      <c r="H2" s="296"/>
-      <c r="I2" s="296"/>
-      <c r="J2" s="296"/>
-      <c r="K2" s="296"/>
-      <c r="L2" s="296"/>
-      <c r="M2" s="279" t="s">
+      <c r="H2" s="314"/>
+      <c r="I2" s="314"/>
+      <c r="J2" s="314"/>
+      <c r="K2" s="314"/>
+      <c r="L2" s="314"/>
+      <c r="M2" s="317" t="s">
         <v>290</v>
       </c>
-      <c r="N2" s="279"/>
-      <c r="O2" s="279"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
+      <c r="N2" s="317"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="286" t="s">
+      <c r="A3" s="324" t="s">
         <v>486</v>
       </c>
-      <c r="B3" s="287"/>
-      <c r="C3" s="287"/>
-      <c r="D3" s="287"/>
-      <c r="E3" s="287"/>
-      <c r="F3" s="288"/>
-      <c r="G3" s="298" t="s">
+      <c r="B3" s="325"/>
+      <c r="C3" s="325"/>
+      <c r="D3" s="325"/>
+      <c r="E3" s="325"/>
+      <c r="F3" s="326"/>
+      <c r="G3" s="316" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="298"/>
-      <c r="K3" s="298"/>
-      <c r="L3" s="298"/>
-      <c r="M3" s="204" t="s">
+      <c r="H3" s="316"/>
+      <c r="I3" s="316"/>
+      <c r="J3" s="316"/>
+      <c r="K3" s="316"/>
+      <c r="L3" s="316"/>
+      <c r="M3" s="202" t="s">
         <v>294</v>
       </c>
-      <c r="N3" s="204" t="s">
+      <c r="N3" s="202" t="s">
         <v>361</v>
       </c>
-      <c r="O3" s="204" t="s">
+      <c r="O3" s="202" t="s">
         <v>361</v>
       </c>
-      <c r="P3" s="195"/>
+      <c r="P3" s="193"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="289" t="s">
+      <c r="A4" s="327" t="s">
         <v>487</v>
       </c>
-      <c r="B4" s="290"/>
-      <c r="C4" s="290"/>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="297" t="s">
+      <c r="B4" s="328"/>
+      <c r="C4" s="328"/>
+      <c r="D4" s="328"/>
+      <c r="E4" s="328"/>
+      <c r="F4" s="329"/>
+      <c r="G4" s="315" t="s">
         <v>243</v>
       </c>
-      <c r="H4" s="297"/>
-      <c r="I4" s="297"/>
-      <c r="J4" s="297" t="s">
+      <c r="H4" s="315"/>
+      <c r="I4" s="315"/>
+      <c r="J4" s="315" t="s">
         <v>297</v>
       </c>
-      <c r="K4" s="297"/>
-      <c r="L4" s="297"/>
-      <c r="M4" s="205" t="s">
+      <c r="K4" s="315"/>
+      <c r="L4" s="315"/>
+      <c r="M4" s="203" t="s">
         <v>152</v>
       </c>
-      <c r="N4" s="205" t="s">
+      <c r="N4" s="203" t="s">
         <v>362</v>
       </c>
-      <c r="O4" s="205" t="s">
+      <c r="O4" s="203" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="292"/>
-      <c r="B5" s="293"/>
-      <c r="C5" s="293"/>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="278" t="s">
+      <c r="A5" s="310"/>
+      <c r="B5" s="311"/>
+      <c r="C5" s="311"/>
+      <c r="D5" s="311"/>
+      <c r="E5" s="311"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="309" t="s">
         <v>274</v>
       </c>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278" t="s">
+      <c r="H5" s="309"/>
+      <c r="I5" s="309"/>
+      <c r="J5" s="309" t="s">
         <v>287</v>
       </c>
-      <c r="K5" s="278"/>
-      <c r="L5" s="278"/>
-      <c r="M5" s="206"/>
-      <c r="N5" s="206" t="s">
+      <c r="K5" s="309"/>
+      <c r="L5" s="309"/>
+      <c r="M5" s="204"/>
+      <c r="N5" s="204" t="s">
         <v>379</v>
       </c>
-      <c r="O5" s="207" t="s">
+      <c r="O5" s="205" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="292" t="s">
+      <c r="A6" s="310" t="s">
         <v>488</v>
       </c>
-      <c r="B6" s="293"/>
-      <c r="C6" s="293"/>
-      <c r="D6" s="293"/>
-      <c r="E6" s="293"/>
-      <c r="F6" s="294"/>
-      <c r="G6" s="278" t="s">
+      <c r="B6" s="311"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="311"/>
+      <c r="F6" s="312"/>
+      <c r="G6" s="309" t="s">
         <v>280</v>
       </c>
-      <c r="H6" s="278"/>
-      <c r="I6" s="278"/>
-      <c r="J6" s="278"/>
-      <c r="K6" s="278"/>
-      <c r="L6" s="278"/>
-      <c r="M6" s="206"/>
-      <c r="N6" s="206" t="s">
+      <c r="H6" s="309"/>
+      <c r="I6" s="309"/>
+      <c r="J6" s="309"/>
+      <c r="K6" s="309"/>
+      <c r="L6" s="309"/>
+      <c r="M6" s="204"/>
+      <c r="N6" s="204" t="s">
         <v>380</v>
       </c>
-      <c r="O6" s="207" t="s">
+      <c r="O6" s="205" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="292" t="s">
+      <c r="A7" s="310" t="s">
         <v>489</v>
       </c>
-      <c r="B7" s="293"/>
-      <c r="C7" s="293"/>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="294"/>
-      <c r="G7" s="278"/>
-      <c r="H7" s="278"/>
-      <c r="I7" s="278"/>
-      <c r="J7" s="278"/>
-      <c r="K7" s="278"/>
-      <c r="L7" s="278"/>
-      <c r="M7" s="206"/>
-      <c r="N7" s="206"/>
-      <c r="O7" s="207"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="311"/>
+      <c r="E7" s="311"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="309"/>
+      <c r="H7" s="309"/>
+      <c r="I7" s="309"/>
+      <c r="J7" s="309"/>
+      <c r="K7" s="309"/>
+      <c r="L7" s="309"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="205"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="292"/>
-      <c r="B8" s="293"/>
-      <c r="C8" s="293"/>
-      <c r="D8" s="293"/>
-      <c r="E8" s="293"/>
-      <c r="F8" s="294"/>
-      <c r="G8" s="278"/>
-      <c r="H8" s="278"/>
-      <c r="I8" s="278"/>
-      <c r="J8" s="278"/>
-      <c r="K8" s="278"/>
-      <c r="L8" s="278"/>
-      <c r="M8" s="206"/>
-      <c r="N8" s="206"/>
-      <c r="O8" s="207"/>
+      <c r="A8" s="310"/>
+      <c r="B8" s="311"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="311"/>
+      <c r="E8" s="311"/>
+      <c r="F8" s="312"/>
+      <c r="G8" s="309"/>
+      <c r="H8" s="309"/>
+      <c r="I8" s="309"/>
+      <c r="J8" s="309"/>
+      <c r="K8" s="309"/>
+      <c r="L8" s="309"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="205"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="280" t="s">
+      <c r="A10" s="318" t="s">
         <v>349</v>
       </c>
-      <c r="B10" s="281"/>
-      <c r="C10" s="281"/>
-      <c r="D10" s="281"/>
-      <c r="E10" s="281"/>
-      <c r="F10" s="281"/>
-      <c r="G10" s="281"/>
-      <c r="H10" s="281"/>
-      <c r="I10" s="282"/>
+      <c r="B10" s="319"/>
+      <c r="C10" s="319"/>
+      <c r="D10" s="319"/>
+      <c r="E10" s="319"/>
+      <c r="F10" s="319"/>
+      <c r="G10" s="319"/>
+      <c r="H10" s="319"/>
+      <c r="I10" s="320"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="129" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="130" t="s">
         <v>327</v>
       </c>
-      <c r="C11" s="188" t="s">
+      <c r="C11" s="186" t="s">
         <v>361</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="123" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="E11" s="355" t="s">
         <v>266</v>
       </c>
-      <c r="F11" s="124" t="s">
+      <c r="F11" s="123" t="s">
         <v>266</v>
       </c>
-      <c r="G11" s="131" t="s">
+      <c r="G11" s="123" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="130" t="s">
         <v>272</v>
       </c>
-      <c r="H11" s="131" t="s">
+      <c r="I11" s="130" t="s">
         <v>272</v>
       </c>
-      <c r="I11" s="143" t="s">
+      <c r="J11" s="142" t="s">
         <v>272</v>
       </c>
-      <c r="K11" s="186"/>
-      <c r="L11" s="186"/>
+      <c r="L11" s="184"/>
+      <c r="M11" s="184"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="147"/>
-      <c r="B12" s="146" t="s">
+      <c r="A12" s="146"/>
+      <c r="B12" s="145" t="s">
         <v>247</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="95" t="s">
         <v>360</v>
       </c>
-      <c r="D12" s="146" t="s">
+      <c r="D12" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="146" t="s">
+      <c r="E12" s="356" t="s">
+        <v>542</v>
+      </c>
+      <c r="F12" s="145" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="146" t="s">
+      <c r="G12" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="146" t="s">
+      <c r="H12" s="145" t="s">
         <v>249</v>
       </c>
-      <c r="H12" s="146" t="s">
+      <c r="I12" s="145" t="s">
         <v>250</v>
       </c>
-      <c r="I12" s="148" t="s">
+      <c r="J12" s="147" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="145"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="152">
+      <c r="A13" s="144"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="151">
         <v>100</v>
       </c>
-      <c r="E13" s="152">
+      <c r="E13" s="233"/>
+      <c r="F13" s="151">
         <v>0</v>
       </c>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152">
+      <c r="G13" s="151"/>
+      <c r="H13" s="151">
         <v>4</v>
       </c>
-      <c r="H13" s="152">
+      <c r="I13" s="151">
         <v>10</v>
       </c>
-      <c r="I13" s="153">
+      <c r="J13" s="152">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="269" t="s">
+      <c r="A15" s="297" t="s">
         <v>276</v>
       </c>
-      <c r="B15" s="270"/>
-      <c r="C15" s="270"/>
-      <c r="D15" s="270"/>
-      <c r="E15" s="270"/>
-      <c r="F15" s="270"/>
-      <c r="G15" s="270"/>
-      <c r="H15" s="271"/>
+      <c r="B15" s="298"/>
+      <c r="C15" s="298"/>
+      <c r="D15" s="298"/>
+      <c r="E15" s="298"/>
+      <c r="F15" s="298"/>
+      <c r="G15" s="298"/>
+      <c r="H15" s="299"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="263" t="s">
+      <c r="A16" s="291" t="s">
         <v>357</v>
       </c>
-      <c r="B16" s="264"/>
-      <c r="C16" s="264"/>
-      <c r="D16" s="264"/>
-      <c r="E16" s="264"/>
-      <c r="F16" s="264"/>
-      <c r="G16" s="264"/>
-      <c r="H16" s="265"/>
+      <c r="B16" s="292"/>
+      <c r="C16" s="292"/>
+      <c r="D16" s="292"/>
+      <c r="E16" s="292"/>
+      <c r="F16" s="292"/>
+      <c r="G16" s="292"/>
+      <c r="H16" s="293"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="263"/>
-      <c r="B17" s="264"/>
-      <c r="C17" s="264"/>
-      <c r="D17" s="264"/>
-      <c r="E17" s="264"/>
-      <c r="F17" s="264"/>
-      <c r="G17" s="264"/>
-      <c r="H17" s="265"/>
+      <c r="A17" s="291"/>
+      <c r="B17" s="292"/>
+      <c r="C17" s="292"/>
+      <c r="D17" s="292"/>
+      <c r="E17" s="292"/>
+      <c r="F17" s="292"/>
+      <c r="G17" s="292"/>
+      <c r="H17" s="293"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="263"/>
-      <c r="B18" s="264"/>
-      <c r="C18" s="264"/>
-      <c r="D18" s="264"/>
-      <c r="E18" s="264"/>
-      <c r="F18" s="264"/>
-      <c r="G18" s="264"/>
-      <c r="H18" s="265"/>
+      <c r="A18" s="291"/>
+      <c r="B18" s="292"/>
+      <c r="C18" s="292"/>
+      <c r="D18" s="292"/>
+      <c r="E18" s="292"/>
+      <c r="F18" s="292"/>
+      <c r="G18" s="292"/>
+      <c r="H18" s="293"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="266"/>
-      <c r="B19" s="267"/>
-      <c r="C19" s="267"/>
-      <c r="D19" s="267"/>
-      <c r="E19" s="267"/>
-      <c r="F19" s="267"/>
-      <c r="G19" s="267"/>
-      <c r="H19" s="268"/>
+      <c r="A19" s="294"/>
+      <c r="B19" s="295"/>
+      <c r="C19" s="295"/>
+      <c r="D19" s="295"/>
+      <c r="E19" s="295"/>
+      <c r="F19" s="295"/>
+      <c r="G19" s="295"/>
+      <c r="H19" s="296"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="253" t="s">
+      <c r="A21" s="281" t="s">
         <v>302</v>
       </c>
-      <c r="B21" s="253"/>
-      <c r="C21" s="253"/>
-      <c r="D21" s="253"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="253"/>
-      <c r="G21" s="253"/>
+      <c r="B21" s="281"/>
+      <c r="C21" s="281"/>
+      <c r="D21" s="281"/>
+      <c r="E21" s="281"/>
+      <c r="F21" s="281"/>
+      <c r="G21" s="281"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>303</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="77" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="252" t="s">
+      <c r="D22" s="280" t="s">
         <v>305</v>
       </c>
-      <c r="E22" s="252"/>
-      <c r="F22" s="252"/>
-      <c r="G22" s="252"/>
+      <c r="E22" s="280"/>
+      <c r="F22" s="280"/>
+      <c r="G22" s="280"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8766,7 +8971,7 @@
       <c r="C23" t="s">
         <v>441</v>
       </c>
-      <c r="D23" s="175" t="s">
+      <c r="D23" s="174" t="s">
         <v>363</v>
       </c>
     </row>
@@ -8780,7 +8985,7 @@
       <c r="C24" t="s">
         <v>441</v>
       </c>
-      <c r="D24" s="187" t="s">
+      <c r="D24" s="185" t="s">
         <v>329</v>
       </c>
     </row>
@@ -8794,7 +8999,7 @@
       <c r="C25" t="s">
         <v>441</v>
       </c>
-      <c r="D25" s="175" t="s">
+      <c r="D25" s="174" t="s">
         <v>330</v>
       </c>
     </row>
@@ -8808,7 +9013,7 @@
       <c r="C26" t="s">
         <v>441</v>
       </c>
-      <c r="D26" s="175" t="s">
+      <c r="D26" s="174" t="s">
         <v>350</v>
       </c>
     </row>
@@ -8822,7 +9027,7 @@
       <c r="C27" t="s">
         <v>441</v>
       </c>
-      <c r="D27" s="178" t="s">
+      <c r="D27" s="177" t="s">
         <v>331</v>
       </c>
     </row>
@@ -8836,7 +9041,7 @@
       <c r="C28" t="s">
         <v>441</v>
       </c>
-      <c r="D28" s="187" t="s">
+      <c r="D28" s="185" t="s">
         <v>384</v>
       </c>
     </row>
@@ -8850,7 +9055,7 @@
       <c r="C29" t="s">
         <v>441</v>
       </c>
-      <c r="D29" s="187" t="s">
+      <c r="D29" s="185" t="s">
         <v>383</v>
       </c>
     </row>
@@ -8864,7 +9069,7 @@
       <c r="C30" t="s">
         <v>441</v>
       </c>
-      <c r="D30" s="187" t="s">
+      <c r="D30" s="185" t="s">
         <v>385</v>
       </c>
     </row>
@@ -8878,7 +9083,7 @@
       <c r="C31" t="s">
         <v>441</v>
       </c>
-      <c r="D31" s="187" t="s">
+      <c r="D31" s="185" t="s">
         <v>338</v>
       </c>
     </row>
@@ -8892,7 +9097,7 @@
       <c r="C32" t="s">
         <v>441</v>
       </c>
-      <c r="D32" s="187" t="s">
+      <c r="D32" s="185" t="s">
         <v>386</v>
       </c>
     </row>
@@ -8906,7 +9111,7 @@
       <c r="C33" t="s">
         <v>441</v>
       </c>
-      <c r="D33" s="187" t="s">
+      <c r="D33" s="185" t="s">
         <v>387</v>
       </c>
     </row>
@@ -8920,7 +9125,7 @@
       <c r="C34" t="s">
         <v>441</v>
       </c>
-      <c r="D34" s="175" t="s">
+      <c r="D34" s="174" t="s">
         <v>388</v>
       </c>
     </row>
@@ -8934,7 +9139,7 @@
       <c r="C35" t="s">
         <v>441</v>
       </c>
-      <c r="D35" s="175" t="s">
+      <c r="D35" s="174" t="s">
         <v>389</v>
       </c>
     </row>
@@ -8948,7 +9153,7 @@
       <c r="C36" t="s">
         <v>441</v>
       </c>
-      <c r="D36" s="175" t="s">
+      <c r="D36" s="174" t="s">
         <v>390</v>
       </c>
     </row>
@@ -8962,7 +9167,7 @@
       <c r="C37" t="s">
         <v>441</v>
       </c>
-      <c r="D37" s="175" t="s">
+      <c r="D37" s="174" t="s">
         <v>391</v>
       </c>
     </row>
@@ -8976,7 +9181,7 @@
       <c r="C38" t="s">
         <v>441</v>
       </c>
-      <c r="D38" s="175" t="s">
+      <c r="D38" s="174" t="s">
         <v>392</v>
       </c>
     </row>
@@ -8990,7 +9195,7 @@
       <c r="C39" t="s">
         <v>441</v>
       </c>
-      <c r="D39" s="175" t="s">
+      <c r="D39" s="174" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9004,7 +9209,7 @@
       <c r="C40" t="s">
         <v>441</v>
       </c>
-      <c r="D40" s="175" t="s">
+      <c r="D40" s="174" t="s">
         <v>394</v>
       </c>
     </row>
@@ -9018,7 +9223,7 @@
       <c r="C41" t="s">
         <v>441</v>
       </c>
-      <c r="D41" s="175" t="s">
+      <c r="D41" s="174" t="s">
         <v>442</v>
       </c>
     </row>
@@ -9032,7 +9237,7 @@
       <c r="C42" t="s">
         <v>441</v>
       </c>
-      <c r="D42" s="175" t="s">
+      <c r="D42" s="174" t="s">
         <v>395</v>
       </c>
     </row>
@@ -9046,7 +9251,7 @@
       <c r="C43" t="s">
         <v>441</v>
       </c>
-      <c r="D43" s="175" t="s">
+      <c r="D43" s="174" t="s">
         <v>443</v>
       </c>
     </row>
@@ -9060,7 +9265,7 @@
       <c r="C44" t="s">
         <v>441</v>
       </c>
-      <c r="D44" s="175" t="s">
+      <c r="D44" s="174" t="s">
         <v>395</v>
       </c>
     </row>
@@ -9074,7 +9279,7 @@
       <c r="C45" t="s">
         <v>441</v>
       </c>
-      <c r="D45" s="175" t="s">
+      <c r="D45" s="174" t="s">
         <v>444</v>
       </c>
     </row>
@@ -9088,7 +9293,7 @@
       <c r="C46" t="s">
         <v>441</v>
       </c>
-      <c r="D46" s="175" t="s">
+      <c r="D46" s="174" t="s">
         <v>445</v>
       </c>
     </row>
@@ -9102,7 +9307,7 @@
       <c r="C47" t="s">
         <v>441</v>
       </c>
-      <c r="D47" s="175" t="s">
+      <c r="D47" s="174" t="s">
         <v>446</v>
       </c>
     </row>
@@ -9116,7 +9321,7 @@
       <c r="C48" t="s">
         <v>441</v>
       </c>
-      <c r="D48" s="175" t="s">
+      <c r="D48" s="174" t="s">
         <v>447</v>
       </c>
     </row>
@@ -9130,7 +9335,7 @@
       <c r="C49" t="s">
         <v>441</v>
       </c>
-      <c r="D49" s="175" t="s">
+      <c r="D49" s="174" t="s">
         <v>448</v>
       </c>
     </row>
@@ -9144,7 +9349,7 @@
       <c r="C50" t="s">
         <v>441</v>
       </c>
-      <c r="D50" s="175" t="s">
+      <c r="D50" s="174" t="s">
         <v>449</v>
       </c>
     </row>
@@ -9158,7 +9363,7 @@
       <c r="C51" t="s">
         <v>441</v>
       </c>
-      <c r="D51" s="175" t="s">
+      <c r="D51" s="174" t="s">
         <v>450</v>
       </c>
     </row>
@@ -9172,7 +9377,7 @@
       <c r="C52" t="s">
         <v>441</v>
       </c>
-      <c r="D52" s="187" t="s">
+      <c r="D52" s="185" t="s">
         <v>387</v>
       </c>
     </row>
@@ -9186,26 +9391,12 @@
       <c r="C53" t="s">
         <v>441</v>
       </c>
-      <c r="D53" s="175" t="s">
+      <c r="D53" s="174" t="s">
         <v>396</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="G4:I4"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="M2:O2"/>
@@ -9218,6 +9409,20 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9284,7 +9489,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9309,374 +9514,381 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="313" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
-      <c r="N1" s="295"/>
-      <c r="O1" s="295"/>
-      <c r="P1" s="295"/>
-      <c r="Q1" s="31"/>
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
+      <c r="G1" s="313"/>
+      <c r="H1" s="313"/>
+      <c r="I1" s="313"/>
+      <c r="J1" s="313"/>
+      <c r="K1" s="313"/>
+      <c r="L1" s="313"/>
+      <c r="M1" s="313"/>
+      <c r="N1" s="313"/>
+      <c r="O1" s="313"/>
+      <c r="P1" s="313"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="296" t="s">
+      <c r="A2" s="314" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="296"/>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="296"/>
-      <c r="G2" s="296" t="s">
+      <c r="B2" s="314"/>
+      <c r="C2" s="314"/>
+      <c r="D2" s="314"/>
+      <c r="E2" s="314"/>
+      <c r="F2" s="314"/>
+      <c r="G2" s="314" t="s">
         <v>242</v>
       </c>
-      <c r="H2" s="296"/>
-      <c r="I2" s="296"/>
-      <c r="J2" s="296"/>
-      <c r="K2" s="296"/>
-      <c r="L2" s="296"/>
-      <c r="M2" s="279" t="s">
+      <c r="H2" s="314"/>
+      <c r="I2" s="314"/>
+      <c r="J2" s="314"/>
+      <c r="K2" s="314"/>
+      <c r="L2" s="314"/>
+      <c r="M2" s="317" t="s">
         <v>289</v>
       </c>
-      <c r="N2" s="279"/>
-      <c r="O2" s="279"/>
-      <c r="P2" s="279"/>
-      <c r="Q2" s="88"/>
+      <c r="N2" s="317"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="317"/>
+      <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="298" t="s">
+      <c r="A3" s="316" t="s">
         <v>490</v>
       </c>
-      <c r="B3" s="298"/>
-      <c r="C3" s="298"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="298" t="s">
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="316"/>
+      <c r="F3" s="316"/>
+      <c r="G3" s="316" t="s">
         <v>291</v>
       </c>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="298"/>
-      <c r="K3" s="298"/>
-      <c r="L3" s="298"/>
-      <c r="M3" s="204" t="s">
+      <c r="H3" s="316"/>
+      <c r="I3" s="316"/>
+      <c r="J3" s="316"/>
+      <c r="K3" s="316"/>
+      <c r="L3" s="316"/>
+      <c r="M3" s="202" t="s">
         <v>293</v>
       </c>
-      <c r="N3" s="204" t="s">
+      <c r="N3" s="202" t="s">
         <v>292</v>
       </c>
-      <c r="O3" s="204" t="s">
+      <c r="O3" s="202" t="s">
         <v>361</v>
       </c>
-      <c r="P3" s="204" t="s">
+      <c r="P3" s="202" t="s">
         <v>361</v>
       </c>
-      <c r="Q3" s="194"/>
+      <c r="Q3" s="192"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="289" t="s">
+      <c r="A4" s="327" t="s">
         <v>487</v>
       </c>
-      <c r="B4" s="290"/>
-      <c r="C4" s="290"/>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="297" t="s">
+      <c r="B4" s="328"/>
+      <c r="C4" s="328"/>
+      <c r="D4" s="328"/>
+      <c r="E4" s="328"/>
+      <c r="F4" s="329"/>
+      <c r="G4" s="315" t="s">
         <v>244</v>
       </c>
-      <c r="H4" s="297"/>
-      <c r="I4" s="297"/>
-      <c r="J4" s="297"/>
-      <c r="K4" s="297"/>
-      <c r="L4" s="297"/>
-      <c r="M4" s="205" t="s">
+      <c r="H4" s="315"/>
+      <c r="I4" s="315"/>
+      <c r="J4" s="315"/>
+      <c r="K4" s="315"/>
+      <c r="L4" s="315"/>
+      <c r="M4" s="203" t="s">
         <v>248</v>
       </c>
-      <c r="N4" s="205" t="s">
+      <c r="N4" s="203" t="s">
         <v>152</v>
       </c>
-      <c r="O4" s="205" t="s">
+      <c r="O4" s="203" t="s">
         <v>362</v>
       </c>
-      <c r="P4" s="205" t="s">
+      <c r="P4" s="203" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="292"/>
-      <c r="B5" s="293"/>
-      <c r="C5" s="293"/>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="299" t="s">
+      <c r="A5" s="310"/>
+      <c r="B5" s="311"/>
+      <c r="C5" s="311"/>
+      <c r="D5" s="311"/>
+      <c r="E5" s="311"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="330" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="299"/>
-      <c r="I5" s="299"/>
-      <c r="J5" s="299"/>
-      <c r="K5" s="299"/>
-      <c r="L5" s="299"/>
-      <c r="M5" s="206" t="s">
+      <c r="H5" s="330"/>
+      <c r="I5" s="330"/>
+      <c r="J5" s="330"/>
+      <c r="K5" s="330"/>
+      <c r="L5" s="330"/>
+      <c r="M5" s="204" t="s">
         <v>286</v>
       </c>
-      <c r="N5" s="206"/>
-      <c r="O5" s="206" t="s">
+      <c r="N5" s="204"/>
+      <c r="O5" s="204" t="s">
         <v>491</v>
       </c>
-      <c r="P5" s="206" t="s">
+      <c r="P5" s="204" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="292" t="s">
+      <c r="A6" s="310" t="s">
         <v>493</v>
       </c>
-      <c r="B6" s="293"/>
-      <c r="C6" s="293"/>
-      <c r="D6" s="293"/>
-      <c r="E6" s="293"/>
-      <c r="F6" s="294"/>
-      <c r="G6" s="299" t="s">
+      <c r="B6" s="311"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="311"/>
+      <c r="F6" s="312"/>
+      <c r="G6" s="330" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="299"/>
-      <c r="I6" s="299"/>
-      <c r="J6" s="299"/>
-      <c r="K6" s="299"/>
-      <c r="L6" s="299"/>
-      <c r="M6" s="206"/>
-      <c r="N6" s="206"/>
-      <c r="O6" s="206" t="s">
+      <c r="H6" s="330"/>
+      <c r="I6" s="330"/>
+      <c r="J6" s="330"/>
+      <c r="K6" s="330"/>
+      <c r="L6" s="330"/>
+      <c r="M6" s="204"/>
+      <c r="N6" s="204"/>
+      <c r="O6" s="204" t="s">
         <v>494</v>
       </c>
-      <c r="P6" s="206" t="s">
+      <c r="P6" s="204" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="292"/>
-      <c r="B7" s="293"/>
-      <c r="C7" s="293"/>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="294"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="299"/>
-      <c r="J7" s="299"/>
-      <c r="K7" s="299"/>
-      <c r="L7" s="299"/>
-      <c r="M7" s="206"/>
-      <c r="N7" s="206"/>
-      <c r="O7" s="206"/>
-      <c r="P7" s="207"/>
+      <c r="A7" s="310"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="311"/>
+      <c r="E7" s="311"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="330"/>
+      <c r="H7" s="330"/>
+      <c r="I7" s="330"/>
+      <c r="J7" s="330"/>
+      <c r="K7" s="330"/>
+      <c r="L7" s="330"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="205"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="292"/>
-      <c r="B8" s="293"/>
-      <c r="C8" s="293"/>
-      <c r="D8" s="293"/>
-      <c r="E8" s="293"/>
-      <c r="F8" s="294"/>
-      <c r="G8" s="299"/>
-      <c r="H8" s="299"/>
-      <c r="I8" s="299"/>
-      <c r="J8" s="299"/>
-      <c r="K8" s="299"/>
-      <c r="L8" s="299"/>
-      <c r="M8" s="206"/>
-      <c r="N8" s="206"/>
-      <c r="O8" s="206"/>
-      <c r="P8" s="207"/>
+      <c r="A8" s="310"/>
+      <c r="B8" s="311"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="311"/>
+      <c r="E8" s="311"/>
+      <c r="F8" s="312"/>
+      <c r="G8" s="330"/>
+      <c r="H8" s="330"/>
+      <c r="I8" s="330"/>
+      <c r="J8" s="330"/>
+      <c r="K8" s="330"/>
+      <c r="L8" s="330"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="204"/>
+      <c r="P8" s="205"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="280" t="s">
+      <c r="A10" s="318" t="s">
         <v>348</v>
       </c>
-      <c r="B10" s="281"/>
-      <c r="C10" s="281"/>
-      <c r="D10" s="281"/>
-      <c r="E10" s="281"/>
-      <c r="F10" s="281"/>
-      <c r="G10" s="281"/>
-      <c r="H10" s="281"/>
-      <c r="I10" s="282"/>
-    </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="130" t="s">
+      <c r="B10" s="319"/>
+      <c r="C10" s="319"/>
+      <c r="D10" s="319"/>
+      <c r="E10" s="319"/>
+      <c r="F10" s="319"/>
+      <c r="G10" s="319"/>
+      <c r="H10" s="319"/>
+      <c r="I10" s="320"/>
+    </row>
+    <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="129" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="130" t="s">
         <v>327</v>
       </c>
-      <c r="C11" s="188" t="s">
+      <c r="C11" s="186" t="s">
         <v>361</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="123" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="E11" s="355" t="s">
         <v>266</v>
       </c>
-      <c r="F11" s="124" t="s">
+      <c r="F11" s="123" t="s">
         <v>266</v>
       </c>
-      <c r="G11" s="131" t="s">
+      <c r="G11" s="123" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="130" t="s">
         <v>272</v>
       </c>
-      <c r="H11" s="131" t="s">
+      <c r="I11" s="130" t="s">
         <v>272</v>
       </c>
-      <c r="I11" s="143" t="s">
+      <c r="J11" s="142" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="147"/>
-      <c r="B12" s="146" t="s">
+      <c r="A12" s="146"/>
+      <c r="B12" s="145" t="s">
         <v>247</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="95" t="s">
         <v>360</v>
       </c>
-      <c r="D12" s="146" t="s">
+      <c r="D12" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="146" t="s">
+      <c r="E12" s="356" t="s">
+        <v>542</v>
+      </c>
+      <c r="F12" s="145" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="146" t="s">
+      <c r="G12" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="146" t="s">
+      <c r="H12" s="145" t="s">
         <v>249</v>
       </c>
-      <c r="H12" s="146" t="s">
+      <c r="I12" s="145" t="s">
         <v>250</v>
       </c>
-      <c r="I12" s="148" t="s">
+      <c r="J12" s="147" t="s">
         <v>251</v>
       </c>
-      <c r="K12" s="163"/>
+      <c r="L12" s="162"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="145"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="152">
+      <c r="A13" s="144"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="151">
         <v>100</v>
       </c>
-      <c r="E13" s="152">
+      <c r="E13" s="233"/>
+      <c r="F13" s="151">
         <v>0</v>
       </c>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152">
+      <c r="G13" s="151"/>
+      <c r="H13" s="151">
         <v>4</v>
       </c>
-      <c r="H13" s="152">
+      <c r="I13" s="151">
         <v>10</v>
       </c>
-      <c r="I13" s="153">
+      <c r="J13" s="152">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="269" t="s">
+      <c r="A15" s="297" t="s">
         <v>276</v>
       </c>
-      <c r="B15" s="270"/>
-      <c r="C15" s="270"/>
-      <c r="D15" s="270"/>
-      <c r="E15" s="270"/>
-      <c r="F15" s="270"/>
-      <c r="G15" s="270"/>
-      <c r="H15" s="271"/>
+      <c r="B15" s="298"/>
+      <c r="C15" s="298"/>
+      <c r="D15" s="298"/>
+      <c r="E15" s="298"/>
+      <c r="F15" s="298"/>
+      <c r="G15" s="298"/>
+      <c r="H15" s="299"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="263" t="s">
+      <c r="A16" s="291" t="s">
         <v>358</v>
       </c>
-      <c r="B16" s="264"/>
-      <c r="C16" s="264"/>
-      <c r="D16" s="264"/>
-      <c r="E16" s="264"/>
-      <c r="F16" s="264"/>
-      <c r="G16" s="264"/>
-      <c r="H16" s="265"/>
+      <c r="B16" s="292"/>
+      <c r="C16" s="292"/>
+      <c r="D16" s="292"/>
+      <c r="E16" s="292"/>
+      <c r="F16" s="292"/>
+      <c r="G16" s="292"/>
+      <c r="H16" s="293"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="263"/>
-      <c r="B17" s="264"/>
-      <c r="C17" s="264"/>
-      <c r="D17" s="264"/>
-      <c r="E17" s="264"/>
-      <c r="F17" s="264"/>
-      <c r="G17" s="264"/>
-      <c r="H17" s="265"/>
+      <c r="A17" s="291"/>
+      <c r="B17" s="292"/>
+      <c r="C17" s="292"/>
+      <c r="D17" s="292"/>
+      <c r="E17" s="292"/>
+      <c r="F17" s="292"/>
+      <c r="G17" s="292"/>
+      <c r="H17" s="293"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="263"/>
-      <c r="B18" s="264"/>
-      <c r="C18" s="264"/>
-      <c r="D18" s="264"/>
-      <c r="E18" s="264"/>
-      <c r="F18" s="264"/>
-      <c r="G18" s="264"/>
-      <c r="H18" s="265"/>
+      <c r="A18" s="291"/>
+      <c r="B18" s="292"/>
+      <c r="C18" s="292"/>
+      <c r="D18" s="292"/>
+      <c r="E18" s="292"/>
+      <c r="F18" s="292"/>
+      <c r="G18" s="292"/>
+      <c r="H18" s="293"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="266"/>
-      <c r="B19" s="267"/>
-      <c r="C19" s="267"/>
-      <c r="D19" s="267"/>
-      <c r="E19" s="267"/>
-      <c r="F19" s="267"/>
-      <c r="G19" s="267"/>
-      <c r="H19" s="268"/>
+      <c r="A19" s="294"/>
+      <c r="B19" s="295"/>
+      <c r="C19" s="295"/>
+      <c r="D19" s="295"/>
+      <c r="E19" s="295"/>
+      <c r="F19" s="295"/>
+      <c r="G19" s="295"/>
+      <c r="H19" s="296"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="253" t="s">
+      <c r="A21" s="281" t="s">
         <v>302</v>
       </c>
-      <c r="B21" s="253"/>
-      <c r="C21" s="253"/>
-      <c r="D21" s="253"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="253"/>
-      <c r="G21" s="253"/>
+      <c r="B21" s="281"/>
+      <c r="C21" s="281"/>
+      <c r="D21" s="281"/>
+      <c r="E21" s="281"/>
+      <c r="F21" s="281"/>
+      <c r="G21" s="281"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>303</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="77" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="252" t="s">
+      <c r="D22" s="280" t="s">
         <v>305</v>
       </c>
-      <c r="E22" s="252"/>
-      <c r="F22" s="252"/>
-      <c r="G22" s="252"/>
+      <c r="E22" s="280"/>
+      <c r="F22" s="280"/>
+      <c r="G22" s="280"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9688,7 +9900,7 @@
       <c r="C23" t="s">
         <v>451</v>
       </c>
-      <c r="D23" s="175" t="s">
+      <c r="D23" s="174" t="s">
         <v>363</v>
       </c>
     </row>
@@ -9702,7 +9914,7 @@
       <c r="C24" t="s">
         <v>451</v>
       </c>
-      <c r="D24" s="187" t="s">
+      <c r="D24" s="185" t="s">
         <v>329</v>
       </c>
     </row>
@@ -9716,7 +9928,7 @@
       <c r="C25" t="s">
         <v>451</v>
       </c>
-      <c r="D25" s="175" t="s">
+      <c r="D25" s="174" t="s">
         <v>330</v>
       </c>
     </row>
@@ -9730,7 +9942,7 @@
       <c r="C26" t="s">
         <v>451</v>
       </c>
-      <c r="D26" s="175" t="s">
+      <c r="D26" s="174" t="s">
         <v>350</v>
       </c>
     </row>
@@ -9744,7 +9956,7 @@
       <c r="C27" t="s">
         <v>451</v>
       </c>
-      <c r="D27" s="178" t="s">
+      <c r="D27" s="177" t="s">
         <v>331</v>
       </c>
     </row>
@@ -9758,7 +9970,7 @@
       <c r="C28" t="s">
         <v>451</v>
       </c>
-      <c r="D28" s="187" t="s">
+      <c r="D28" s="185" t="s">
         <v>397</v>
       </c>
     </row>
@@ -9772,7 +9984,7 @@
       <c r="C29" t="s">
         <v>451</v>
       </c>
-      <c r="D29" s="187" t="s">
+      <c r="D29" s="185" t="s">
         <v>383</v>
       </c>
     </row>
@@ -9786,7 +9998,7 @@
       <c r="C30" t="s">
         <v>451</v>
       </c>
-      <c r="D30" s="187" t="s">
+      <c r="D30" s="185" t="s">
         <v>398</v>
       </c>
     </row>
@@ -9800,7 +10012,7 @@
       <c r="C31" t="s">
         <v>451</v>
       </c>
-      <c r="D31" s="187" t="s">
+      <c r="D31" s="185" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9814,7 +10026,7 @@
       <c r="C32" t="s">
         <v>451</v>
       </c>
-      <c r="D32" s="187" t="s">
+      <c r="D32" s="185" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9828,7 +10040,7 @@
       <c r="C33" t="s">
         <v>451</v>
       </c>
-      <c r="D33" s="175" t="s">
+      <c r="D33" s="174" t="s">
         <v>399</v>
       </c>
     </row>
@@ -9842,12 +10054,19 @@
       <c r="C34" t="s">
         <v>451</v>
       </c>
-      <c r="D34" s="187" t="s">
+      <c r="D34" s="185" t="s">
         <v>344</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9858,16 +10077,9 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9932,39 +10144,39 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
-    <col min="2" max="2" width="68.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="184" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="94.25" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16" style="182" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="66" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
     <col min="7" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="331" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="301"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65"/>
+      <c r="B1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -9976,23 +10188,23 @@
       <c r="C2" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="347" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="133" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="23"/>
-      <c r="F3" s="135" t="s">
+      <c r="C3" s="179"/>
+      <c r="D3" s="22"/>
+      <c r="F3" s="134" t="s">
         <v>77</v>
       </c>
     </row>
@@ -10003,8 +10215,8 @@
       <c r="B4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="182"/>
-      <c r="D4" s="24">
+      <c r="C4" s="180"/>
+      <c r="D4" s="23">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -10018,675 +10230,879 @@
       <c r="B5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="182"/>
-      <c r="D5" s="24">
+      <c r="C5" s="180"/>
+      <c r="D5" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="200" t="s">
+        <v>503</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="C6" s="348"/>
+      <c r="D6" s="23">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="C7" s="349"/>
+      <c r="D7" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="182">
-        <v>1</v>
-      </c>
-      <c r="D6" s="24">
+      <c r="C8" s="350"/>
+      <c r="D8" s="23">
         <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="202" t="s">
-        <v>482</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="C7" s="203">
-        <v>0</v>
-      </c>
-      <c r="D7" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="202" t="s">
-        <v>484</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="C8" s="203">
-        <v>0</v>
-      </c>
-      <c r="D8" s="24">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="24"/>
+        <v>507</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="C9" s="350"/>
+      <c r="D9" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="181"/>
+      <c r="A10" s="200" t="s">
+        <v>509</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="C10" s="348"/>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="182"/>
-      <c r="D11" s="24">
-        <v>0</v>
+        <v>482</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="C11" s="201"/>
+      <c r="D11" s="23">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="182"/>
-      <c r="D12" s="25" t="s">
-        <v>66</v>
+      <c r="A12" s="200" t="s">
+        <v>511</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C12" s="348"/>
+      <c r="D12" s="23">
+        <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="182"/>
-      <c r="D13" s="25" t="s">
-        <v>67</v>
+      <c r="A13" s="200" t="s">
+        <v>513</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="C13" s="348"/>
+      <c r="D13" s="23">
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="24">
-        <v>0</v>
-      </c>
+      <c r="A14" s="200" t="s">
+        <v>515</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="C14" s="348"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="182"/>
-      <c r="D15" s="24" t="s">
-        <v>29</v>
-      </c>
+      <c r="A15" s="200" t="s">
+        <v>517</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="C15" s="348"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="181"/>
-      <c r="D16" s="23"/>
+      <c r="A16" s="200" t="s">
+        <v>519</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="C16" s="348"/>
+      <c r="D16" s="23">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="182"/>
-      <c r="D17" s="24"/>
+      <c r="A17" s="200" t="s">
+        <v>521</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="C17" s="348"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="182"/>
-      <c r="D18" s="24"/>
+      <c r="A18" s="200" t="s">
+        <v>523</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="C18" s="348"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="182"/>
-      <c r="D19" s="24"/>
+        <v>484</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="C19" s="201"/>
+      <c r="D19" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="182"/>
-      <c r="D20" s="24"/>
+        <v>100</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="180"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="182"/>
-      <c r="D21" s="24">
-        <v>1</v>
-      </c>
+      <c r="A21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="179"/>
+      <c r="D21" s="22"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="182"/>
-      <c r="D22" s="24"/>
+        <v>27</v>
+      </c>
+      <c r="C22" s="180"/>
+      <c r="D22" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="182"/>
-      <c r="D23" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="C23" s="180"/>
+      <c r="D23" s="24" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="182"/>
-      <c r="D24" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="C24" s="180"/>
+      <c r="D24" s="24" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="181"/>
-      <c r="D25" s="23"/>
+      <c r="A25" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="180"/>
+      <c r="D25" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="182"/>
-      <c r="D26" s="24">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="C26" s="180"/>
+      <c r="D26" s="23" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="182"/>
-      <c r="D27" s="24">
-        <v>65535</v>
-      </c>
+      <c r="A27" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="179"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="182"/>
-      <c r="D28" s="24">
-        <v>10</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C28" s="180"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="182"/>
-      <c r="D29" s="24">
-        <v>0.1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C29" s="180"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="182"/>
-      <c r="D30" s="24"/>
+        <v>35</v>
+      </c>
+      <c r="C30" s="180"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="182"/>
-      <c r="D31" s="24"/>
+        <v>36</v>
+      </c>
+      <c r="C31" s="180"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="182"/>
-      <c r="D32" s="24"/>
+        <v>37</v>
+      </c>
+      <c r="C32" s="180"/>
+      <c r="D32" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="181"/>
+      <c r="A33" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="180"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="182"/>
-      <c r="D34" s="24"/>
+        <v>79</v>
+      </c>
+      <c r="C34" s="180"/>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="182"/>
-      <c r="D35" s="24">
-        <v>0.02</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C35" s="180"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="182"/>
-      <c r="D36" s="24"/>
+      <c r="A36" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="179"/>
+      <c r="D36" s="22"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="182"/>
-      <c r="D37" s="24"/>
-    </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C37" s="180"/>
+      <c r="D37" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="182"/>
-      <c r="D38" s="24"/>
+        <v>42</v>
+      </c>
+      <c r="C38" s="180"/>
+      <c r="D38" s="23">
+        <v>65535</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="182"/>
-      <c r="D39" s="25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C39" s="180"/>
+      <c r="D39" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C40" s="182"/>
-      <c r="D40" s="25">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="C40" s="180"/>
+      <c r="D40" s="23">
+        <v>0.1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="181"/>
+      <c r="A41" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="180"/>
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="182"/>
-      <c r="D42" s="24"/>
+        <v>119</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="180"/>
+      <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="182"/>
-      <c r="D43" s="24"/>
+        <v>81</v>
+      </c>
+      <c r="C43" s="180"/>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="182"/>
-      <c r="D44" s="24"/>
+      <c r="A44" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="179"/>
+      <c r="D44" s="22"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="182"/>
-      <c r="D45" s="24"/>
+        <v>49</v>
+      </c>
+      <c r="C45" s="180"/>
+      <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" s="182"/>
-      <c r="D46" s="24"/>
+        <v>50</v>
+      </c>
+      <c r="C46" s="180"/>
+      <c r="D46" s="23">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="182"/>
-      <c r="D47" s="24"/>
+        <v>51</v>
+      </c>
+      <c r="C47" s="180"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="182"/>
-      <c r="D48" s="24"/>
+        <v>52</v>
+      </c>
+      <c r="C48" s="180"/>
+      <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="182"/>
-      <c r="D49" s="24"/>
+        <v>53</v>
+      </c>
+      <c r="C49" s="180"/>
+      <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="182"/>
-      <c r="D50" s="24"/>
+        <v>71</v>
+      </c>
+      <c r="C50" s="180"/>
+      <c r="D50" s="24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="182"/>
-      <c r="D51" s="24"/>
+        <v>165</v>
+      </c>
+      <c r="C51" s="180"/>
+      <c r="D51" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="182"/>
-      <c r="D52" s="24"/>
+      <c r="A52" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="C52" s="351"/>
+      <c r="D52" s="352"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="182"/>
-      <c r="D53" s="24">
-        <v>1</v>
+        <v>527</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="C53" s="349"/>
+      <c r="D53" s="353">
+        <v>0.02</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="182"/>
-      <c r="D54" s="24">
-        <v>1</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="C54" s="349"/>
+      <c r="D54" s="353"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="182"/>
-      <c r="D55" s="24">
-        <v>1</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="C55" s="349"/>
+      <c r="D55" s="353"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="182"/>
-      <c r="D56" s="24">
-        <v>1</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="C56" s="349"/>
+      <c r="D56" s="353"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="182"/>
-      <c r="D57" s="24">
-        <v>1</v>
+        <v>535</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="C57" s="349"/>
+      <c r="D57" s="24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="182"/>
-      <c r="D58" s="24">
-        <v>0</v>
-      </c>
+      <c r="A58" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="179"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="182"/>
-      <c r="D59" s="24"/>
+        <v>127</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="180"/>
+      <c r="D59" s="23"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="182"/>
-      <c r="D60" s="24"/>
+        <v>83</v>
+      </c>
+      <c r="C60" s="180"/>
+      <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" s="181"/>
-      <c r="D61" s="180"/>
+      <c r="A61" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="180"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C62" s="182"/>
-      <c r="D62" s="26">
-        <v>0</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="180"/>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="B63" s="179"/>
-      <c r="C63" s="181"/>
-      <c r="D63" s="180"/>
+      <c r="A63" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="180"/>
+      <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="180"/>
+      <c r="D64" s="23"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="180"/>
+      <c r="D65" s="23"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="180"/>
+      <c r="D66" s="23"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="180"/>
+      <c r="D67" s="23"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="180"/>
+      <c r="D68" s="23"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="180"/>
+      <c r="D69" s="23"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="180"/>
+      <c r="D70" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="180"/>
+      <c r="D71" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="180"/>
+      <c r="D72" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="180"/>
+      <c r="D73" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="180"/>
+      <c r="D74" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="180"/>
+      <c r="D75" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="180"/>
+      <c r="D76" s="23"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="180"/>
+      <c r="D77" s="23"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" s="179"/>
+      <c r="D78" s="178"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" s="180"/>
+      <c r="D79" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="C80" s="179"/>
+      <c r="D80" s="178"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B81" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="C64" s="182"/>
-      <c r="D64" s="26">
+      <c r="C81" s="180"/>
+      <c r="D81" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="B82" s="354" t="s">
+        <v>539</v>
+      </c>
+      <c r="C82" s="179"/>
+      <c r="D82" s="178"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="C83" s="180"/>
+      <c r="D83" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B84" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="181"/>
-      <c r="D65" s="180"/>
-    </row>
-    <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="27" t="s">
+      <c r="C84" s="179"/>
+      <c r="D84" s="178"/>
+    </row>
+    <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B85" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="183"/>
-      <c r="D66" s="29">
+      <c r="C85" s="181"/>
+      <c r="D85" s="28">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="e8kOAtFlpesjtn2br0yWcMpJ0DR209aE1yKF50VLzsPmXh5YkSkNGPUjF34NepgBd0tNNjIcbP5PGt3vMdgCiw==" saltValue="lwyCEHXZ04Z8PX//kotMKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nz+s2XO+ftXiPvDFdCb363Kdxpm8/rTzkaQvNt3hixFy/XzDLwk3vacxi/mnwp2lCzlwAgpdDUMXZxUkXUE4MA==" saltValue="5VzOwROovNDqiQdmD//x7A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -10720,163 +11136,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="337" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
-      <c r="J1" s="307"/>
-      <c r="K1" s="307"/>
-      <c r="L1" s="307"/>
-      <c r="M1" s="307"/>
-      <c r="N1" s="307"/>
-      <c r="O1" s="307"/>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
+      <c r="K1" s="338"/>
+      <c r="L1" s="338"/>
+      <c r="M1" s="338"/>
+      <c r="N1" s="338"/>
+      <c r="O1" s="338"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="303" t="s">
+      <c r="B3" s="334" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
-      <c r="F3" s="304"/>
-      <c r="G3" s="304"/>
-      <c r="H3" s="304"/>
-      <c r="I3" s="304"/>
-      <c r="J3" s="305"/>
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="336"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="40">
+      <c r="B5" s="39">
         <v>1</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
     </row>
     <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="40">
+      <c r="B6" s="39">
         <v>2</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="40">
+      <c r="B7" s="39">
         <v>3</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="40">
+      <c r="B8" s="39">
         <v>4</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
-      <c r="N8" s="36"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41"/>
+      <c r="N8" s="35"/>
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="40">
+      <c r="B9" s="39">
         <v>5</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="40">
+      <c r="B10" s="39">
         <v>6</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="43">
+      <c r="B11" s="42">
         <v>7</v>
       </c>
       <c r="C11" s="3"/>
@@ -10886,10 +11302,10 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="44"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="43">
+      <c r="B12" s="42">
         <v>8</v>
       </c>
       <c r="C12" s="3"/>
@@ -10899,10 +11315,10 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="44"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="43">
+      <c r="B13" s="42">
         <v>9</v>
       </c>
       <c r="C13" s="3"/>
@@ -10912,10 +11328,10 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="44"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="43">
+      <c r="B14" s="42">
         <v>10</v>
       </c>
       <c r="C14" s="3"/>
@@ -10925,10 +11341,10 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="44"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="43">
+      <c r="B15" s="42">
         <v>11</v>
       </c>
       <c r="C15" s="3"/>
@@ -10938,10 +11354,10 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="44"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="45">
+      <c r="B16" s="44">
         <v>12</v>
       </c>
       <c r="C16" s="6"/>
@@ -10955,190 +11371,190 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="303" t="s">
+      <c r="B19" s="334" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="304"/>
-      <c r="D19" s="304"/>
-      <c r="E19" s="304"/>
-      <c r="F19" s="304"/>
-      <c r="G19" s="304"/>
-      <c r="H19" s="304"/>
-      <c r="I19" s="304"/>
-      <c r="J19" s="304"/>
-      <c r="K19" s="304"/>
-      <c r="L19" s="304"/>
-      <c r="M19" s="304"/>
-      <c r="N19" s="305"/>
+      <c r="C19" s="335"/>
+      <c r="D19" s="335"/>
+      <c r="E19" s="335"/>
+      <c r="F19" s="335"/>
+      <c r="G19" s="335"/>
+      <c r="H19" s="335"/>
+      <c r="I19" s="335"/>
+      <c r="J19" s="335"/>
+      <c r="K19" s="335"/>
+      <c r="L19" s="335"/>
+      <c r="M19" s="335"/>
+      <c r="N19" s="336"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B20" s="37"/>
-      <c r="C20" s="46">
+      <c r="B20" s="36"/>
+      <c r="C20" s="45">
         <v>1</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="45">
         <v>2</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="45">
         <v>3</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="45">
         <v>4</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="45">
         <v>5</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="45">
         <v>6</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="46">
         <v>7</v>
       </c>
-      <c r="J20" s="47">
+      <c r="J20" s="46">
         <v>8</v>
       </c>
-      <c r="K20" s="47">
+      <c r="K20" s="46">
         <v>9</v>
       </c>
-      <c r="L20" s="47">
+      <c r="L20" s="46">
         <v>10</v>
       </c>
-      <c r="M20" s="47">
+      <c r="M20" s="46">
         <v>11</v>
       </c>
-      <c r="N20" s="48">
+      <c r="N20" s="47">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="44"/>
+      <c r="N21" s="43"/>
     </row>
     <row r="22" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="44"/>
+      <c r="N22" s="43"/>
     </row>
     <row r="23" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="44"/>
+      <c r="N23" s="43"/>
     </row>
     <row r="24" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="44"/>
+      <c r="N24" s="43"/>
     </row>
     <row r="25" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="44"/>
+      <c r="N25" s="43"/>
     </row>
     <row r="26" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="44"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="44"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -11171,122 +11587,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="311" t="s">
+      <c r="A1" s="342" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
-      <c r="K1" s="312"/>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="312"/>
-      <c r="O1" s="312"/>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="312"/>
-      <c r="S1" s="312"/>
+      <c r="B1" s="343"/>
+      <c r="C1" s="343"/>
+      <c r="D1" s="343"/>
+      <c r="E1" s="343"/>
+      <c r="F1" s="343"/>
+      <c r="G1" s="343"/>
+      <c r="H1" s="343"/>
+      <c r="I1" s="343"/>
+      <c r="J1" s="343"/>
+      <c r="K1" s="343"/>
+      <c r="L1" s="343"/>
+      <c r="M1" s="343"/>
+      <c r="N1" s="343"/>
+      <c r="O1" s="343"/>
+      <c r="P1" s="343"/>
+      <c r="Q1" s="343"/>
+      <c r="R1" s="343"/>
+      <c r="S1" s="343"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="303" t="s">
+      <c r="B3" s="334" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
-      <c r="F3" s="304"/>
-      <c r="G3" s="304"/>
-      <c r="H3" s="304"/>
-      <c r="I3" s="304"/>
-      <c r="J3" s="305"/>
-      <c r="L3" s="308" t="s">
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="336"/>
+      <c r="L3" s="339" t="s">
         <v>219</v>
       </c>
-      <c r="M3" s="309"/>
-      <c r="N3" s="309"/>
-      <c r="O3" s="309"/>
-      <c r="P3" s="309"/>
-      <c r="Q3" s="309"/>
-      <c r="R3" s="310"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
+      <c r="M3" s="340"/>
+      <c r="N3" s="340"/>
+      <c r="O3" s="340"/>
+      <c r="P3" s="340"/>
+      <c r="Q3" s="340"/>
+      <c r="R3" s="341"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
     </row>
     <row r="4" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="37"/>
-      <c r="C4" s="58">
+      <c r="B4" s="36"/>
+      <c r="C4" s="57">
         <v>1</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>2</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>3</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <v>4</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <v>5</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="45">
         <v>6</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="58">
         <v>7</v>
       </c>
-      <c r="J4" s="48">
+      <c r="J4" s="47">
         <v>8</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="38" t="s">
+      <c r="L4" s="36"/>
+      <c r="M4" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="Q4" s="38" t="s">
+      <c r="Q4" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="38" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="44"/>
-      <c r="L5" s="40">
+      <c r="I5" s="60"/>
+      <c r="J5" s="43"/>
+      <c r="L5" s="39">
         <v>1</v>
       </c>
       <c r="M5" s="3"/>
@@ -11294,21 +11710,21 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="44"/>
+      <c r="R5" s="43"/>
     </row>
     <row r="6" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="44"/>
-      <c r="L6" s="40">
+      <c r="I6" s="60"/>
+      <c r="J6" s="43"/>
+      <c r="L6" s="39">
         <v>2</v>
       </c>
       <c r="M6" s="3"/>
@@ -11316,21 +11732,21 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="44"/>
+      <c r="R6" s="43"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="44"/>
-      <c r="L7" s="40">
+      <c r="I7" s="60"/>
+      <c r="J7" s="43"/>
+      <c r="L7" s="39">
         <v>3</v>
       </c>
       <c r="M7" s="3"/>
@@ -11338,21 +11754,21 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="44"/>
+      <c r="R7" s="43"/>
     </row>
     <row r="8" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="44"/>
-      <c r="L8" s="40">
+      <c r="I8" s="60"/>
+      <c r="J8" s="43"/>
+      <c r="L8" s="39">
         <v>4</v>
       </c>
       <c r="M8" s="3"/>
@@ -11360,21 +11776,21 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="44"/>
+      <c r="R8" s="43"/>
     </row>
     <row r="9" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="60"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="44"/>
-      <c r="L9" s="40">
+      <c r="I9" s="60"/>
+      <c r="J9" s="43"/>
+      <c r="L9" s="39">
         <v>5</v>
       </c>
       <c r="M9" s="3"/>
@@ -11382,21 +11798,21 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="44"/>
+      <c r="R9" s="43"/>
     </row>
     <row r="10" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="63"/>
+      <c r="I10" s="62"/>
       <c r="J10" s="7"/>
-      <c r="L10" s="40">
+      <c r="L10" s="39">
         <v>6</v>
       </c>
       <c r="M10" s="3"/>
@@ -11404,10 +11820,10 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="44"/>
+      <c r="R10" s="43"/>
     </row>
     <row r="11" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="L11" s="43">
+      <c r="L11" s="42">
         <v>7</v>
       </c>
       <c r="M11" s="3"/>
@@ -11415,10 +11831,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="44"/>
+      <c r="R11" s="43"/>
     </row>
     <row r="12" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L12" s="45">
+      <c r="L12" s="44">
         <v>8</v>
       </c>
       <c r="M12" s="6"/>
@@ -11455,90 +11871,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="313" t="s">
+      <c r="A1" s="344" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="314"/>
-      <c r="C1" s="314"/>
-      <c r="D1" s="314"/>
-      <c r="E1" s="314"/>
-      <c r="F1" s="314"/>
-      <c r="G1" s="314"/>
-      <c r="H1" s="314"/>
-      <c r="I1" s="314"/>
-      <c r="J1" s="314"/>
-      <c r="K1" s="314"/>
-      <c r="L1" s="314"/>
-      <c r="M1" s="314"/>
-      <c r="N1" s="314"/>
-      <c r="O1" s="315"/>
+      <c r="B1" s="345"/>
+      <c r="C1" s="345"/>
+      <c r="D1" s="345"/>
+      <c r="E1" s="345"/>
+      <c r="F1" s="345"/>
+      <c r="G1" s="345"/>
+      <c r="H1" s="345"/>
+      <c r="I1" s="345"/>
+      <c r="J1" s="345"/>
+      <c r="K1" s="345"/>
+      <c r="L1" s="345"/>
+      <c r="M1" s="345"/>
+      <c r="N1" s="345"/>
+      <c r="O1" s="346"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="52"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="303" t="s">
+      <c r="B3" s="334" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
-      <c r="F3" s="304"/>
-      <c r="G3" s="304"/>
-      <c r="H3" s="305"/>
-      <c r="J3" s="308" t="s">
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="336"/>
+      <c r="J3" s="339" t="s">
         <v>219</v>
       </c>
-      <c r="K3" s="309"/>
-      <c r="L3" s="309"/>
-      <c r="M3" s="309"/>
-      <c r="N3" s="310"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
+      <c r="K3" s="340"/>
+      <c r="L3" s="340"/>
+      <c r="M3" s="340"/>
+      <c r="N3" s="341"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="37"/>
-      <c r="C4" s="46">
+      <c r="B4" s="36"/>
+      <c r="C4" s="45">
         <v>1</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>2</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>3</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <v>4</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <v>5</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="52">
         <v>6</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38" t="s">
+      <c r="J4" s="36"/>
+      <c r="K4" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="38" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>220</v>
       </c>
       <c r="C5" s="3"/>
@@ -11546,17 +11962,17 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="44"/>
-      <c r="J5" s="40">
+      <c r="H5" s="43"/>
+      <c r="J5" s="39">
         <v>1</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="44"/>
+      <c r="N5" s="43"/>
     </row>
     <row r="6" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>221</v>
       </c>
       <c r="C6" s="3"/>
@@ -11564,17 +11980,17 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="44"/>
-      <c r="J6" s="40">
+      <c r="H6" s="43"/>
+      <c r="J6" s="39">
         <v>2</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="44"/>
+      <c r="N6" s="43"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>222</v>
       </c>
       <c r="C7" s="3"/>
@@ -11582,17 +11998,17 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="44"/>
-      <c r="J7" s="40">
+      <c r="H7" s="43"/>
+      <c r="J7" s="39">
         <v>3</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="44"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>223</v>
       </c>
       <c r="C8" s="6"/>
@@ -11601,27 +12017,27 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-      <c r="J8" s="40">
+      <c r="J8" s="39">
         <v>4</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="44"/>
+      <c r="N8" s="43"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H9" s="54"/>
-      <c r="J9" s="40">
+      <c r="H9" s="53"/>
+      <c r="J9" s="39">
         <v>5</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="44"/>
+      <c r="N9" s="43"/>
     </row>
     <row r="10" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H10" s="55"/>
-      <c r="J10" s="56">
+      <c r="H10" s="54"/>
+      <c r="J10" s="55">
         <v>6</v>
       </c>
       <c r="K10" s="6"/>
@@ -11630,19 +12046,19 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="H11" s="57"/>
+      <c r="H11" s="56"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H12" s="54"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H13" s="54"/>
+      <c r="H13" s="53"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="54"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H15" s="54"/>
+      <c r="H15" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/test_templates/test_batch_template5.xlsx
+++ b/test_templates/test_batch_template5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="541">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2545,12 +2545,6 @@
   </si>
   <si>
     <t>what type of pathname to write to point-cloud JSON header file. 0 stands for absolute, 1 stands for relative.</t>
-  </si>
-  <si>
-    <t>flow.defaultCSVReadHeader</t>
-  </si>
-  <si>
-    <t>what is absolute filename for the JSON header file needed to read in CSV files</t>
   </si>
   <si>
     <t>flow.smallFileWarning</t>
@@ -4249,10 +4243,123 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4297,89 +4404,11 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4440,6 +4469,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4472,6 +4507,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4496,45 +4570,6 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4588,47 +4623,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4720,7 +4714,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4786,7 +4780,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4857,7 +4851,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4928,7 +4922,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4994,7 +4988,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5065,7 +5059,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5131,7 +5125,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5482,86 +5476,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="258" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="260"/>
-      <c r="K1" s="261"/>
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="260"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="85"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="238" t="s">
+      <c r="A3" s="274" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="239"/>
+      <c r="B3" s="275"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="252" t="s">
+      <c r="A4" s="272" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="253"/>
+      <c r="B4" s="273"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="254" t="s">
+      <c r="A5" s="288" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="255"/>
+      <c r="B5" s="289"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="85"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="238" t="s">
+      <c r="A7" s="274" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="240"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="240"/>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
-      <c r="H7" s="240"/>
-      <c r="I7" s="240"/>
-      <c r="J7" s="240"/>
-      <c r="K7" s="239"/>
+      <c r="B7" s="276"/>
+      <c r="C7" s="276"/>
+      <c r="D7" s="276"/>
+      <c r="E7" s="276"/>
+      <c r="F7" s="276"/>
+      <c r="G7" s="276"/>
+      <c r="H7" s="276"/>
+      <c r="I7" s="276"/>
+      <c r="J7" s="276"/>
+      <c r="K7" s="275"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="262" t="s">
+      <c r="A8" s="261" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="263"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="263"/>
-      <c r="H8" s="263"/>
-      <c r="I8" s="263"/>
-      <c r="J8" s="263"/>
-      <c r="K8" s="264"/>
+      <c r="B8" s="262"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="262"/>
+      <c r="G8" s="262"/>
+      <c r="H8" s="262"/>
+      <c r="I8" s="262"/>
+      <c r="J8" s="262"/>
+      <c r="K8" s="263"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="265"/>
-      <c r="B9" s="266"/>
-      <c r="C9" s="266"/>
-      <c r="D9" s="266"/>
-      <c r="E9" s="266"/>
-      <c r="F9" s="266"/>
-      <c r="G9" s="266"/>
-      <c r="H9" s="266"/>
-      <c r="I9" s="266"/>
-      <c r="J9" s="266"/>
-      <c r="K9" s="267"/>
+      <c r="A9" s="264"/>
+      <c r="B9" s="265"/>
+      <c r="C9" s="265"/>
+      <c r="D9" s="265"/>
+      <c r="E9" s="265"/>
+      <c r="F9" s="265"/>
+      <c r="G9" s="265"/>
+      <c r="H9" s="265"/>
+      <c r="I9" s="265"/>
+      <c r="J9" s="265"/>
+      <c r="K9" s="266"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="154"/>
@@ -5572,62 +5566,62 @@
       <c r="F10" s="140"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="241" t="s">
+      <c r="A11" s="277" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="242"/>
-      <c r="C11" s="242"/>
-      <c r="D11" s="243"/>
+      <c r="B11" s="278"/>
+      <c r="C11" s="278"/>
+      <c r="D11" s="279"/>
       <c r="E11" s="86"/>
       <c r="F11" s="140"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="244" t="s">
+      <c r="A12" s="280" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="245"/>
-      <c r="C12" s="246" t="s">
+      <c r="B12" s="281"/>
+      <c r="C12" s="282" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="247"/>
+      <c r="D12" s="283"/>
       <c r="E12" s="86"/>
       <c r="F12" s="140"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="248"/>
-      <c r="B13" s="249"/>
-      <c r="C13" s="250"/>
-      <c r="D13" s="251"/>
+      <c r="A13" s="284"/>
+      <c r="B13" s="285"/>
+      <c r="C13" s="286"/>
+      <c r="D13" s="287"/>
       <c r="E13" s="86"/>
       <c r="F13" s="140"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="241" t="s">
+      <c r="A15" s="277" t="s">
         <v>271</v>
       </c>
-      <c r="B15" s="243"/>
-      <c r="E15" s="241" t="s">
+      <c r="B15" s="279"/>
+      <c r="E15" s="277" t="s">
         <v>310</v>
       </c>
-      <c r="F15" s="242"/>
-      <c r="G15" s="242"/>
-      <c r="H15" s="242"/>
-      <c r="I15" s="243"/>
+      <c r="F15" s="278"/>
+      <c r="G15" s="278"/>
+      <c r="H15" s="278"/>
+      <c r="I15" s="279"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="252" t="s">
+      <c r="A16" s="272" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="253"/>
+      <c r="B16" s="273"/>
       <c r="D16" s="87"/>
-      <c r="E16" s="268" t="s">
+      <c r="E16" s="267" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="269"/>
-      <c r="G16" s="269"/>
-      <c r="H16" s="269"/>
-      <c r="I16" s="270"/>
+      <c r="F16" s="268"/>
+      <c r="G16" s="268"/>
+      <c r="H16" s="268"/>
+      <c r="I16" s="269"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="155" t="s">
@@ -5637,10 +5631,10 @@
         <v>274</v>
       </c>
       <c r="C17" s="88"/>
-      <c r="E17" s="271" t="s">
+      <c r="E17" s="270" t="s">
         <v>231</v>
       </c>
-      <c r="F17" s="272"/>
+      <c r="F17" s="271"/>
       <c r="G17" s="199" t="s">
         <v>157</v>
       </c>
@@ -5670,7 +5664,7 @@
       <c r="H18" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="256" t="s">
+      <c r="I18" s="246" t="s">
         <v>480</v>
       </c>
       <c r="J18" s="80"/>
@@ -5693,7 +5687,7 @@
       <c r="H19" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="I19" s="256"/>
+      <c r="I19" s="246"/>
       <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5710,7 +5704,7 @@
       </c>
       <c r="G20" s="70"/>
       <c r="H20" s="70"/>
-      <c r="I20" s="257"/>
+      <c r="I20" s="247"/>
       <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5732,24 +5726,24 @@
       <c r="A23" s="159"/>
       <c r="B23" s="91"/>
       <c r="C23" s="90"/>
-      <c r="E23" s="236" t="s">
+      <c r="E23" s="248" t="s">
         <v>194</v>
       </c>
-      <c r="F23" s="258"/>
-      <c r="G23" s="258"/>
-      <c r="H23" s="258"/>
-      <c r="I23" s="237"/>
+      <c r="F23" s="249"/>
+      <c r="G23" s="249"/>
+      <c r="H23" s="249"/>
+      <c r="I23" s="250"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="236" t="s">
+      <c r="A24" s="248" t="s">
         <v>236</v>
       </c>
-      <c r="B24" s="237"/>
+      <c r="B24" s="250"/>
       <c r="C24" s="31"/>
-      <c r="E24" s="276" t="s">
+      <c r="E24" s="254" t="s">
         <v>231</v>
       </c>
-      <c r="F24" s="277"/>
+      <c r="F24" s="255"/>
       <c r="G24" s="199" t="s">
         <v>157</v>
       </c>
@@ -5778,7 +5772,7 @@
       <c r="H25" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="273" t="s">
+      <c r="I25" s="251" t="s">
         <v>481</v>
       </c>
     </row>
@@ -5802,7 +5796,7 @@
       <c r="H26" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="I26" s="274"/>
+      <c r="I26" s="252"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="157" t="s">
@@ -5818,7 +5812,7 @@
       </c>
       <c r="G27" s="70"/>
       <c r="H27" s="70"/>
-      <c r="I27" s="275"/>
+      <c r="I27" s="253"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="157" t="s">
@@ -5842,22 +5836,22 @@
       <c r="A30" s="158"/>
       <c r="B30" s="115"/>
       <c r="C30" s="88"/>
-      <c r="E30" s="236" t="s">
+      <c r="E30" s="248" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="258"/>
-      <c r="G30" s="258"/>
-      <c r="H30" s="258"/>
-      <c r="I30" s="237"/>
+      <c r="F30" s="249"/>
+      <c r="G30" s="249"/>
+      <c r="H30" s="249"/>
+      <c r="I30" s="250"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="159"/>
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
-      <c r="E31" s="278" t="s">
+      <c r="E31" s="256" t="s">
         <v>458</v>
       </c>
-      <c r="F31" s="279"/>
+      <c r="F31" s="257"/>
       <c r="G31" s="197" t="s">
         <v>157</v>
       </c>
@@ -5869,10 +5863,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="236" t="s">
+      <c r="A32" s="248" t="s">
         <v>237</v>
       </c>
-      <c r="B32" s="237"/>
+      <c r="B32" s="250"/>
       <c r="C32" s="31"/>
       <c r="E32" s="82">
         <v>1</v>
@@ -5882,7 +5876,7 @@
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="73"/>
-      <c r="I32" s="256"/>
+      <c r="I32" s="246"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="155" t="s">
@@ -5902,7 +5896,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="32"/>
-      <c r="I33" s="256"/>
+      <c r="I33" s="246"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="156" t="s">
@@ -5917,7 +5911,7 @@
       <c r="F34" s="92"/>
       <c r="G34" s="32"/>
       <c r="H34" s="73"/>
-      <c r="I34" s="256"/>
+      <c r="I34" s="246"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="157" t="s">
@@ -5930,7 +5924,7 @@
       <c r="F35" s="92"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
-      <c r="I35" s="256"/>
+      <c r="I35" s="246"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="157" t="s">
@@ -5943,7 +5937,7 @@
       <c r="F36" s="92"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
-      <c r="I36" s="256"/>
+      <c r="I36" s="246"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="157" t="s">
@@ -5956,7 +5950,7 @@
       <c r="F37" s="138"/>
       <c r="G37" s="70"/>
       <c r="H37" s="70"/>
-      <c r="I37" s="257"/>
+      <c r="I37" s="247"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="158" t="s">
@@ -5969,17 +5963,17 @@
       <c r="B39" s="119"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="236" t="s">
+      <c r="E40" s="248" t="s">
         <v>196</v>
       </c>
-      <c r="F40" s="258"/>
-      <c r="G40" s="258"/>
-      <c r="H40" s="258"/>
-      <c r="I40" s="237"/>
+      <c r="F40" s="249"/>
+      <c r="G40" s="249"/>
+      <c r="H40" s="249"/>
+      <c r="I40" s="250"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="276"/>
-      <c r="F41" s="277"/>
+      <c r="E41" s="254"/>
+      <c r="F41" s="255"/>
       <c r="G41" s="81" t="s">
         <v>157</v>
       </c>
@@ -5997,7 +5991,7 @@
       <c r="F42" s="92"/>
       <c r="G42" s="32"/>
       <c r="H42" s="73"/>
-      <c r="I42" s="256"/>
+      <c r="I42" s="246"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="82">
@@ -6006,7 +6000,7 @@
       <c r="F43" s="92"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
-      <c r="I43" s="256"/>
+      <c r="I43" s="246"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="82">
@@ -6015,7 +6009,7 @@
       <c r="F44" s="92"/>
       <c r="G44" s="32"/>
       <c r="H44" s="73"/>
-      <c r="I44" s="256"/>
+      <c r="I44" s="246"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="82">
@@ -6024,7 +6018,7 @@
       <c r="F45" s="92"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
-      <c r="I45" s="256"/>
+      <c r="I45" s="246"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="82">
@@ -6033,7 +6027,7 @@
       <c r="F46" s="92"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
-      <c r="I46" s="256"/>
+      <c r="I46" s="246"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="83">
@@ -6042,25 +6036,11 @@
       <c r="F47" s="138"/>
       <c r="G47" s="70"/>
       <c r="H47" s="70"/>
-      <c r="I47" s="257"/>
+      <c r="I47" s="247"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -6076,6 +6056,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6089,7 +6083,7 @@
   </sheetPr>
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -6115,32 +6109,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="292" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="283"/>
-      <c r="F1" s="283"/>
-      <c r="G1" s="283"/>
-      <c r="H1" s="283"/>
-      <c r="I1" s="283"/>
-      <c r="J1" s="284"/>
+      <c r="B1" s="293"/>
+      <c r="C1" s="293"/>
+      <c r="D1" s="293"/>
+      <c r="E1" s="293"/>
+      <c r="F1" s="293"/>
+      <c r="G1" s="293"/>
+      <c r="H1" s="293"/>
+      <c r="I1" s="293"/>
+      <c r="J1" s="294"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="285" t="s">
+      <c r="A2" s="295" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="286"/>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286"/>
-      <c r="H2" s="286"/>
-      <c r="I2" s="286"/>
-      <c r="J2" s="287"/>
+      <c r="B2" s="296"/>
+      <c r="C2" s="296"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="296"/>
+      <c r="G2" s="296"/>
+      <c r="H2" s="296"/>
+      <c r="I2" s="296"/>
+      <c r="J2" s="297"/>
       <c r="K2" s="78"/>
       <c r="L2" s="78"/>
       <c r="M2" s="74"/>
@@ -6154,13 +6148,13 @@
       <c r="B3" s="175" t="s">
         <v>312</v>
       </c>
-      <c r="C3" s="288" t="s">
+      <c r="C3" s="298" t="s">
         <v>285</v>
       </c>
-      <c r="D3" s="289"/>
-      <c r="E3" s="289"/>
-      <c r="F3" s="289"/>
-      <c r="G3" s="290"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="300"/>
       <c r="H3" s="175" t="s">
         <v>313</v>
       </c>
@@ -6827,26 +6821,26 @@
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:18" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="357" t="s">
+      <c r="A27" s="310" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="358"/>
-      <c r="C27" s="358"/>
-      <c r="D27" s="358"/>
-      <c r="E27" s="358"/>
-      <c r="F27" s="358"/>
-      <c r="G27" s="358"/>
-      <c r="H27" s="358"/>
-      <c r="I27" s="358"/>
-      <c r="J27" s="358"/>
-      <c r="K27" s="358"/>
-      <c r="L27" s="358"/>
-      <c r="M27" s="358"/>
-      <c r="N27" s="358"/>
-      <c r="O27" s="358"/>
-      <c r="P27" s="358"/>
-      <c r="Q27" s="358"/>
-      <c r="R27" s="358"/>
+      <c r="B27" s="311"/>
+      <c r="C27" s="311"/>
+      <c r="D27" s="311"/>
+      <c r="E27" s="311"/>
+      <c r="F27" s="311"/>
+      <c r="G27" s="311"/>
+      <c r="H27" s="311"/>
+      <c r="I27" s="311"/>
+      <c r="J27" s="311"/>
+      <c r="K27" s="311"/>
+      <c r="L27" s="311"/>
+      <c r="M27" s="311"/>
+      <c r="N27" s="311"/>
+      <c r="O27" s="311"/>
+      <c r="P27" s="311"/>
+      <c r="Q27" s="311"/>
+      <c r="R27" s="311"/>
     </row>
     <row r="28" spans="1:18" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="135" t="s">
@@ -6885,7 +6879,7 @@
       <c r="L28" s="121" t="s">
         <v>266</v>
       </c>
-      <c r="M28" s="355" t="s">
+      <c r="M28" s="244" t="s">
         <v>266</v>
       </c>
       <c r="N28" s="121" t="s">
@@ -6939,8 +6933,8 @@
       <c r="L29" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="356" t="s">
-        <v>542</v>
+      <c r="M29" s="245" t="s">
+        <v>540</v>
       </c>
       <c r="N29" s="95" t="s">
         <v>93</v>
@@ -7000,70 +6994,70 @@
     </row>
     <row r="31" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:18" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="297" t="s">
+      <c r="A32" s="307" t="s">
         <v>276</v>
       </c>
-      <c r="B32" s="298"/>
-      <c r="C32" s="298"/>
-      <c r="D32" s="298"/>
-      <c r="E32" s="298"/>
-      <c r="F32" s="298"/>
-      <c r="G32" s="298"/>
-      <c r="H32" s="299"/>
+      <c r="B32" s="308"/>
+      <c r="C32" s="308"/>
+      <c r="D32" s="308"/>
+      <c r="E32" s="308"/>
+      <c r="F32" s="308"/>
+      <c r="G32" s="308"/>
+      <c r="H32" s="309"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="291" t="s">
+      <c r="A33" s="301" t="s">
         <v>356</v>
       </c>
-      <c r="B33" s="292"/>
-      <c r="C33" s="292"/>
-      <c r="D33" s="292"/>
-      <c r="E33" s="292"/>
-      <c r="F33" s="292"/>
-      <c r="G33" s="292"/>
-      <c r="H33" s="293"/>
+      <c r="B33" s="302"/>
+      <c r="C33" s="302"/>
+      <c r="D33" s="302"/>
+      <c r="E33" s="302"/>
+      <c r="F33" s="302"/>
+      <c r="G33" s="302"/>
+      <c r="H33" s="303"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="291"/>
-      <c r="B34" s="292"/>
-      <c r="C34" s="292"/>
-      <c r="D34" s="292"/>
-      <c r="E34" s="292"/>
-      <c r="F34" s="292"/>
-      <c r="G34" s="292"/>
-      <c r="H34" s="293"/>
+      <c r="A34" s="301"/>
+      <c r="B34" s="302"/>
+      <c r="C34" s="302"/>
+      <c r="D34" s="302"/>
+      <c r="E34" s="302"/>
+      <c r="F34" s="302"/>
+      <c r="G34" s="302"/>
+      <c r="H34" s="303"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="291"/>
-      <c r="B35" s="292"/>
-      <c r="C35" s="292"/>
-      <c r="D35" s="292"/>
-      <c r="E35" s="292"/>
-      <c r="F35" s="292"/>
-      <c r="G35" s="292"/>
-      <c r="H35" s="293"/>
+      <c r="A35" s="301"/>
+      <c r="B35" s="302"/>
+      <c r="C35" s="302"/>
+      <c r="D35" s="302"/>
+      <c r="E35" s="302"/>
+      <c r="F35" s="302"/>
+      <c r="G35" s="302"/>
+      <c r="H35" s="303"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="294"/>
-      <c r="B36" s="295"/>
-      <c r="C36" s="295"/>
-      <c r="D36" s="295"/>
-      <c r="E36" s="295"/>
-      <c r="F36" s="295"/>
-      <c r="G36" s="295"/>
-      <c r="H36" s="296"/>
+      <c r="A36" s="304"/>
+      <c r="B36" s="305"/>
+      <c r="C36" s="305"/>
+      <c r="D36" s="305"/>
+      <c r="E36" s="305"/>
+      <c r="F36" s="305"/>
+      <c r="G36" s="305"/>
+      <c r="H36" s="306"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="281" t="s">
+      <c r="A38" s="291" t="s">
         <v>302</v>
       </c>
-      <c r="B38" s="281"/>
-      <c r="C38" s="281"/>
-      <c r="D38" s="281"/>
-      <c r="E38" s="281"/>
-      <c r="F38" s="281"/>
-      <c r="G38" s="281"/>
+      <c r="B38" s="291"/>
+      <c r="C38" s="291"/>
+      <c r="D38" s="291"/>
+      <c r="E38" s="291"/>
+      <c r="F38" s="291"/>
+      <c r="G38" s="291"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="77" t="s">
@@ -7075,12 +7069,12 @@
       <c r="C39" s="77" t="s">
         <v>304</v>
       </c>
-      <c r="D39" s="280" t="s">
+      <c r="D39" s="290" t="s">
         <v>305</v>
       </c>
-      <c r="E39" s="280"/>
-      <c r="F39" s="280"/>
-      <c r="G39" s="280"/>
+      <c r="E39" s="290"/>
+      <c r="F39" s="290"/>
+      <c r="G39" s="290"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -7625,32 +7619,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="315" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="304"/>
-      <c r="C1" s="304"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="305"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
+      <c r="J1" s="317"/>
     </row>
     <row r="2" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="300" t="s">
+      <c r="A2" s="312" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="301"/>
-      <c r="C2" s="301"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="301"/>
-      <c r="F2" s="301"/>
-      <c r="G2" s="301"/>
-      <c r="H2" s="301"/>
-      <c r="I2" s="301"/>
-      <c r="J2" s="302"/>
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="314"/>
     </row>
     <row r="3" spans="1:10" s="111" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="129" t="s">
@@ -7729,18 +7723,18 @@
       <c r="J5" s="163"/>
     </row>
     <row r="6" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="300" t="s">
+      <c r="A6" s="312" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="301"/>
-      <c r="C6" s="301"/>
-      <c r="D6" s="301"/>
-      <c r="E6" s="301"/>
-      <c r="F6" s="301"/>
-      <c r="G6" s="301"/>
-      <c r="H6" s="301"/>
-      <c r="I6" s="301"/>
-      <c r="J6" s="302"/>
+      <c r="B6" s="313"/>
+      <c r="C6" s="313"/>
+      <c r="D6" s="313"/>
+      <c r="E6" s="313"/>
+      <c r="F6" s="313"/>
+      <c r="G6" s="313"/>
+      <c r="H6" s="313"/>
+      <c r="I6" s="313"/>
+      <c r="J6" s="314"/>
     </row>
     <row r="7" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="122" t="s">
@@ -7791,18 +7785,18 @@
       <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="300" t="s">
+      <c r="A10" s="312" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="301"/>
-      <c r="C10" s="301"/>
-      <c r="D10" s="301"/>
-      <c r="E10" s="301"/>
-      <c r="F10" s="301"/>
-      <c r="G10" s="301"/>
-      <c r="H10" s="301"/>
-      <c r="I10" s="301"/>
-      <c r="J10" s="302"/>
+      <c r="B10" s="313"/>
+      <c r="C10" s="313"/>
+      <c r="D10" s="313"/>
+      <c r="E10" s="313"/>
+      <c r="F10" s="313"/>
+      <c r="G10" s="313"/>
+      <c r="H10" s="313"/>
+      <c r="I10" s="313"/>
+      <c r="J10" s="314"/>
     </row>
     <row r="11" spans="1:10" s="111" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="125"/>
@@ -7943,18 +7937,18 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="306" t="s">
+      <c r="A17" s="318" t="s">
         <v>496</v>
       </c>
-      <c r="B17" s="307"/>
-      <c r="C17" s="307"/>
-      <c r="D17" s="307"/>
-      <c r="E17" s="307"/>
-      <c r="F17" s="307"/>
-      <c r="G17" s="307"/>
-      <c r="H17" s="307"/>
-      <c r="I17" s="307"/>
-      <c r="J17" s="308"/>
+      <c r="B17" s="319"/>
+      <c r="C17" s="319"/>
+      <c r="D17" s="319"/>
+      <c r="E17" s="319"/>
+      <c r="F17" s="319"/>
+      <c r="G17" s="319"/>
+      <c r="H17" s="319"/>
+      <c r="I17" s="319"/>
+      <c r="J17" s="320"/>
     </row>
     <row r="18" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="206"/>
@@ -8027,18 +8021,18 @@
       <c r="J21" s="220"/>
     </row>
     <row r="22" spans="1:10" s="111" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="300" t="s">
+      <c r="A22" s="312" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="301"/>
-      <c r="C22" s="301"/>
-      <c r="D22" s="301"/>
-      <c r="E22" s="301"/>
-      <c r="F22" s="301"/>
-      <c r="G22" s="301"/>
-      <c r="H22" s="301"/>
-      <c r="I22" s="301"/>
-      <c r="J22" s="302"/>
+      <c r="B22" s="313"/>
+      <c r="C22" s="313"/>
+      <c r="D22" s="313"/>
+      <c r="E22" s="313"/>
+      <c r="F22" s="313"/>
+      <c r="G22" s="313"/>
+      <c r="H22" s="313"/>
+      <c r="I22" s="313"/>
+      <c r="J22" s="314"/>
     </row>
     <row r="23" spans="1:10" s="111" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="129" t="s">
@@ -8101,18 +8095,18 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="306" t="s">
+      <c r="A26" s="318" t="s">
         <v>500</v>
       </c>
-      <c r="B26" s="307"/>
-      <c r="C26" s="307"/>
-      <c r="D26" s="307"/>
-      <c r="E26" s="307"/>
-      <c r="F26" s="307"/>
-      <c r="G26" s="307"/>
-      <c r="H26" s="307"/>
-      <c r="I26" s="307"/>
-      <c r="J26" s="308"/>
+      <c r="B26" s="319"/>
+      <c r="C26" s="319"/>
+      <c r="D26" s="319"/>
+      <c r="E26" s="319"/>
+      <c r="F26" s="319"/>
+      <c r="G26" s="319"/>
+      <c r="H26" s="319"/>
+      <c r="I26" s="319"/>
+      <c r="J26" s="320"/>
     </row>
     <row r="27" spans="1:10" s="111" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="221" t="s">
@@ -8179,18 +8173,18 @@
       <c r="J29" s="235"/>
     </row>
     <row r="30" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="300" t="s">
+      <c r="A30" s="312" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="301"/>
-      <c r="C30" s="301"/>
-      <c r="D30" s="301"/>
-      <c r="E30" s="301"/>
-      <c r="F30" s="301"/>
-      <c r="G30" s="301"/>
-      <c r="H30" s="301"/>
-      <c r="I30" s="301"/>
-      <c r="J30" s="302"/>
+      <c r="B30" s="313"/>
+      <c r="C30" s="313"/>
+      <c r="D30" s="313"/>
+      <c r="E30" s="313"/>
+      <c r="F30" s="313"/>
+      <c r="G30" s="313"/>
+      <c r="H30" s="313"/>
+      <c r="I30" s="313"/>
+      <c r="J30" s="314"/>
     </row>
     <row r="31" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="129" t="s">
@@ -8252,58 +8246,58 @@
     </row>
     <row r="34" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:10" s="111" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="297" t="s">
+      <c r="A35" s="307" t="s">
         <v>276</v>
       </c>
-      <c r="B35" s="298"/>
-      <c r="C35" s="298"/>
-      <c r="D35" s="298"/>
-      <c r="E35" s="298"/>
-      <c r="F35" s="298"/>
-      <c r="G35" s="298"/>
-      <c r="H35" s="299"/>
+      <c r="B35" s="308"/>
+      <c r="C35" s="308"/>
+      <c r="D35" s="308"/>
+      <c r="E35" s="308"/>
+      <c r="F35" s="308"/>
+      <c r="G35" s="308"/>
+      <c r="H35" s="309"/>
     </row>
     <row r="36" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="291" t="s">
+      <c r="A36" s="301" t="s">
         <v>355</v>
       </c>
-      <c r="B36" s="292"/>
-      <c r="C36" s="292"/>
-      <c r="D36" s="292"/>
-      <c r="E36" s="292"/>
-      <c r="F36" s="292"/>
-      <c r="G36" s="292"/>
-      <c r="H36" s="293"/>
+      <c r="B36" s="302"/>
+      <c r="C36" s="302"/>
+      <c r="D36" s="302"/>
+      <c r="E36" s="302"/>
+      <c r="F36" s="302"/>
+      <c r="G36" s="302"/>
+      <c r="H36" s="303"/>
     </row>
     <row r="37" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="291"/>
-      <c r="B37" s="292"/>
-      <c r="C37" s="292"/>
-      <c r="D37" s="292"/>
-      <c r="E37" s="292"/>
-      <c r="F37" s="292"/>
-      <c r="G37" s="292"/>
-      <c r="H37" s="293"/>
+      <c r="A37" s="301"/>
+      <c r="B37" s="302"/>
+      <c r="C37" s="302"/>
+      <c r="D37" s="302"/>
+      <c r="E37" s="302"/>
+      <c r="F37" s="302"/>
+      <c r="G37" s="302"/>
+      <c r="H37" s="303"/>
     </row>
     <row r="38" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="291"/>
-      <c r="B38" s="292"/>
-      <c r="C38" s="292"/>
-      <c r="D38" s="292"/>
-      <c r="E38" s="292"/>
-      <c r="F38" s="292"/>
-      <c r="G38" s="292"/>
-      <c r="H38" s="293"/>
+      <c r="A38" s="301"/>
+      <c r="B38" s="302"/>
+      <c r="C38" s="302"/>
+      <c r="D38" s="302"/>
+      <c r="E38" s="302"/>
+      <c r="F38" s="302"/>
+      <c r="G38" s="302"/>
+      <c r="H38" s="303"/>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="294"/>
-      <c r="B39" s="295"/>
-      <c r="C39" s="295"/>
-      <c r="D39" s="295"/>
-      <c r="E39" s="295"/>
-      <c r="F39" s="295"/>
-      <c r="G39" s="295"/>
-      <c r="H39" s="296"/>
+      <c r="A39" s="304"/>
+      <c r="B39" s="305"/>
+      <c r="C39" s="305"/>
+      <c r="D39" s="305"/>
+      <c r="E39" s="305"/>
+      <c r="F39" s="305"/>
+      <c r="G39" s="305"/>
+      <c r="H39" s="306"/>
       <c r="I39" s="111"/>
       <c r="J39" s="111"/>
     </row>
@@ -8320,15 +8314,15 @@
       <c r="J40" s="111"/>
     </row>
     <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="281" t="s">
+      <c r="A41" s="291" t="s">
         <v>302</v>
       </c>
-      <c r="B41" s="281"/>
-      <c r="C41" s="281"/>
-      <c r="D41" s="281"/>
-      <c r="E41" s="281"/>
-      <c r="F41" s="281"/>
-      <c r="G41" s="281"/>
+      <c r="B41" s="291"/>
+      <c r="C41" s="291"/>
+      <c r="D41" s="291"/>
+      <c r="E41" s="291"/>
+      <c r="F41" s="291"/>
+      <c r="G41" s="291"/>
       <c r="H41" s="111"/>
       <c r="I41" s="111"/>
       <c r="J41" s="111"/>
@@ -8343,12 +8337,12 @@
       <c r="C42" s="77" t="s">
         <v>304</v>
       </c>
-      <c r="D42" s="280" t="s">
+      <c r="D42" s="290" t="s">
         <v>305</v>
       </c>
-      <c r="E42" s="280"/>
-      <c r="F42" s="280"/>
-      <c r="G42" s="280"/>
+      <c r="E42" s="290"/>
+      <c r="F42" s="290"/>
+      <c r="G42" s="290"/>
       <c r="H42" s="111"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
@@ -8590,68 +8584,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="313" t="s">
+      <c r="A1" s="338" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="313"/>
-      <c r="L1" s="313"/>
-      <c r="M1" s="313"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="313"/>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
+      <c r="K1" s="338"/>
+      <c r="L1" s="338"/>
+      <c r="M1" s="338"/>
+      <c r="N1" s="338"/>
+      <c r="O1" s="338"/>
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="321" t="s">
+      <c r="A2" s="326" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="322"/>
-      <c r="C2" s="322"/>
-      <c r="D2" s="322"/>
-      <c r="E2" s="322"/>
-      <c r="F2" s="323"/>
-      <c r="G2" s="314" t="s">
+      <c r="B2" s="327"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="328"/>
+      <c r="G2" s="339" t="s">
         <v>242</v>
       </c>
-      <c r="H2" s="314"/>
-      <c r="I2" s="314"/>
-      <c r="J2" s="314"/>
-      <c r="K2" s="314"/>
-      <c r="L2" s="314"/>
-      <c r="M2" s="317" t="s">
+      <c r="H2" s="339"/>
+      <c r="I2" s="339"/>
+      <c r="J2" s="339"/>
+      <c r="K2" s="339"/>
+      <c r="L2" s="339"/>
+      <c r="M2" s="322" t="s">
         <v>290</v>
       </c>
-      <c r="N2" s="317"/>
-      <c r="O2" s="317"/>
+      <c r="N2" s="322"/>
+      <c r="O2" s="322"/>
       <c r="P2" s="87"/>
       <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="324" t="s">
+      <c r="A3" s="329" t="s">
         <v>486</v>
       </c>
-      <c r="B3" s="325"/>
-      <c r="C3" s="325"/>
-      <c r="D3" s="325"/>
-      <c r="E3" s="325"/>
-      <c r="F3" s="326"/>
-      <c r="G3" s="316" t="s">
+      <c r="B3" s="330"/>
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="331"/>
+      <c r="G3" s="341" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="316"/>
-      <c r="I3" s="316"/>
-      <c r="J3" s="316"/>
-      <c r="K3" s="316"/>
-      <c r="L3" s="316"/>
+      <c r="H3" s="341"/>
+      <c r="I3" s="341"/>
+      <c r="J3" s="341"/>
+      <c r="K3" s="341"/>
+      <c r="L3" s="341"/>
       <c r="M3" s="202" t="s">
         <v>294</v>
       </c>
@@ -8664,24 +8658,24 @@
       <c r="P3" s="193"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="327" t="s">
+      <c r="A4" s="332" t="s">
         <v>487</v>
       </c>
-      <c r="B4" s="328"/>
-      <c r="C4" s="328"/>
-      <c r="D4" s="328"/>
-      <c r="E4" s="328"/>
-      <c r="F4" s="329"/>
-      <c r="G4" s="315" t="s">
+      <c r="B4" s="333"/>
+      <c r="C4" s="333"/>
+      <c r="D4" s="333"/>
+      <c r="E4" s="333"/>
+      <c r="F4" s="334"/>
+      <c r="G4" s="340" t="s">
         <v>243</v>
       </c>
-      <c r="H4" s="315"/>
-      <c r="I4" s="315"/>
-      <c r="J4" s="315" t="s">
+      <c r="H4" s="340"/>
+      <c r="I4" s="340"/>
+      <c r="J4" s="340" t="s">
         <v>297</v>
       </c>
-      <c r="K4" s="315"/>
-      <c r="L4" s="315"/>
+      <c r="K4" s="340"/>
+      <c r="L4" s="340"/>
       <c r="M4" s="203" t="s">
         <v>152</v>
       </c>
@@ -8693,22 +8687,22 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="310"/>
-      <c r="B5" s="311"/>
-      <c r="C5" s="311"/>
-      <c r="D5" s="311"/>
-      <c r="E5" s="311"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="309" t="s">
+      <c r="A5" s="335"/>
+      <c r="B5" s="336"/>
+      <c r="C5" s="336"/>
+      <c r="D5" s="336"/>
+      <c r="E5" s="336"/>
+      <c r="F5" s="337"/>
+      <c r="G5" s="321" t="s">
         <v>274</v>
       </c>
-      <c r="H5" s="309"/>
-      <c r="I5" s="309"/>
-      <c r="J5" s="309" t="s">
+      <c r="H5" s="321"/>
+      <c r="I5" s="321"/>
+      <c r="J5" s="321" t="s">
         <v>287</v>
       </c>
-      <c r="K5" s="309"/>
-      <c r="L5" s="309"/>
+      <c r="K5" s="321"/>
+      <c r="L5" s="321"/>
       <c r="M5" s="204"/>
       <c r="N5" s="204" t="s">
         <v>379</v>
@@ -8718,22 +8712,22 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="310" t="s">
+      <c r="A6" s="335" t="s">
         <v>488</v>
       </c>
-      <c r="B6" s="311"/>
-      <c r="C6" s="311"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="311"/>
-      <c r="F6" s="312"/>
-      <c r="G6" s="309" t="s">
+      <c r="B6" s="336"/>
+      <c r="C6" s="336"/>
+      <c r="D6" s="336"/>
+      <c r="E6" s="336"/>
+      <c r="F6" s="337"/>
+      <c r="G6" s="321" t="s">
         <v>280</v>
       </c>
-      <c r="H6" s="309"/>
-      <c r="I6" s="309"/>
-      <c r="J6" s="309"/>
-      <c r="K6" s="309"/>
-      <c r="L6" s="309"/>
+      <c r="H6" s="321"/>
+      <c r="I6" s="321"/>
+      <c r="J6" s="321"/>
+      <c r="K6" s="321"/>
+      <c r="L6" s="321"/>
       <c r="M6" s="204"/>
       <c r="N6" s="204" t="s">
         <v>380</v>
@@ -8743,54 +8737,54 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="310" t="s">
+      <c r="A7" s="335" t="s">
         <v>489</v>
       </c>
-      <c r="B7" s="311"/>
-      <c r="C7" s="311"/>
-      <c r="D7" s="311"/>
-      <c r="E7" s="311"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="309"/>
-      <c r="H7" s="309"/>
-      <c r="I7" s="309"/>
-      <c r="J7" s="309"/>
-      <c r="K7" s="309"/>
-      <c r="L7" s="309"/>
+      <c r="B7" s="336"/>
+      <c r="C7" s="336"/>
+      <c r="D7" s="336"/>
+      <c r="E7" s="336"/>
+      <c r="F7" s="337"/>
+      <c r="G7" s="321"/>
+      <c r="H7" s="321"/>
+      <c r="I7" s="321"/>
+      <c r="J7" s="321"/>
+      <c r="K7" s="321"/>
+      <c r="L7" s="321"/>
       <c r="M7" s="204"/>
       <c r="N7" s="204"/>
       <c r="O7" s="205"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="310"/>
-      <c r="B8" s="311"/>
-      <c r="C8" s="311"/>
-      <c r="D8" s="311"/>
-      <c r="E8" s="311"/>
-      <c r="F8" s="312"/>
-      <c r="G8" s="309"/>
-      <c r="H8" s="309"/>
-      <c r="I8" s="309"/>
-      <c r="J8" s="309"/>
-      <c r="K8" s="309"/>
-      <c r="L8" s="309"/>
+      <c r="A8" s="335"/>
+      <c r="B8" s="336"/>
+      <c r="C8" s="336"/>
+      <c r="D8" s="336"/>
+      <c r="E8" s="336"/>
+      <c r="F8" s="337"/>
+      <c r="G8" s="321"/>
+      <c r="H8" s="321"/>
+      <c r="I8" s="321"/>
+      <c r="J8" s="321"/>
+      <c r="K8" s="321"/>
+      <c r="L8" s="321"/>
       <c r="M8" s="204"/>
       <c r="N8" s="204"/>
       <c r="O8" s="205"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="318" t="s">
+      <c r="A10" s="323" t="s">
         <v>349</v>
       </c>
-      <c r="B10" s="319"/>
-      <c r="C10" s="319"/>
-      <c r="D10" s="319"/>
-      <c r="E10" s="319"/>
-      <c r="F10" s="319"/>
-      <c r="G10" s="319"/>
-      <c r="H10" s="319"/>
-      <c r="I10" s="320"/>
+      <c r="B10" s="324"/>
+      <c r="C10" s="324"/>
+      <c r="D10" s="324"/>
+      <c r="E10" s="324"/>
+      <c r="F10" s="324"/>
+      <c r="G10" s="324"/>
+      <c r="H10" s="324"/>
+      <c r="I10" s="325"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="129" t="s">
@@ -8805,7 +8799,7 @@
       <c r="D11" s="123" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="355" t="s">
+      <c r="E11" s="244" t="s">
         <v>266</v>
       </c>
       <c r="F11" s="123" t="s">
@@ -8837,8 +8831,8 @@
       <c r="D12" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="356" t="s">
-        <v>542</v>
+      <c r="E12" s="245" t="s">
+        <v>540</v>
       </c>
       <c r="F12" s="145" t="s">
         <v>93</v>
@@ -8880,69 +8874,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="297" t="s">
+      <c r="A15" s="307" t="s">
         <v>276</v>
       </c>
-      <c r="B15" s="298"/>
-      <c r="C15" s="298"/>
-      <c r="D15" s="298"/>
-      <c r="E15" s="298"/>
-      <c r="F15" s="298"/>
-      <c r="G15" s="298"/>
-      <c r="H15" s="299"/>
+      <c r="B15" s="308"/>
+      <c r="C15" s="308"/>
+      <c r="D15" s="308"/>
+      <c r="E15" s="308"/>
+      <c r="F15" s="308"/>
+      <c r="G15" s="308"/>
+      <c r="H15" s="309"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="291" t="s">
+      <c r="A16" s="301" t="s">
         <v>357</v>
       </c>
-      <c r="B16" s="292"/>
-      <c r="C16" s="292"/>
-      <c r="D16" s="292"/>
-      <c r="E16" s="292"/>
-      <c r="F16" s="292"/>
-      <c r="G16" s="292"/>
-      <c r="H16" s="293"/>
+      <c r="B16" s="302"/>
+      <c r="C16" s="302"/>
+      <c r="D16" s="302"/>
+      <c r="E16" s="302"/>
+      <c r="F16" s="302"/>
+      <c r="G16" s="302"/>
+      <c r="H16" s="303"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="291"/>
-      <c r="B17" s="292"/>
-      <c r="C17" s="292"/>
-      <c r="D17" s="292"/>
-      <c r="E17" s="292"/>
-      <c r="F17" s="292"/>
-      <c r="G17" s="292"/>
-      <c r="H17" s="293"/>
+      <c r="A17" s="301"/>
+      <c r="B17" s="302"/>
+      <c r="C17" s="302"/>
+      <c r="D17" s="302"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="302"/>
+      <c r="G17" s="302"/>
+      <c r="H17" s="303"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="291"/>
-      <c r="B18" s="292"/>
-      <c r="C18" s="292"/>
-      <c r="D18" s="292"/>
-      <c r="E18" s="292"/>
-      <c r="F18" s="292"/>
-      <c r="G18" s="292"/>
-      <c r="H18" s="293"/>
+      <c r="A18" s="301"/>
+      <c r="B18" s="302"/>
+      <c r="C18" s="302"/>
+      <c r="D18" s="302"/>
+      <c r="E18" s="302"/>
+      <c r="F18" s="302"/>
+      <c r="G18" s="302"/>
+      <c r="H18" s="303"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="294"/>
-      <c r="B19" s="295"/>
-      <c r="C19" s="295"/>
-      <c r="D19" s="295"/>
-      <c r="E19" s="295"/>
-      <c r="F19" s="295"/>
-      <c r="G19" s="295"/>
-      <c r="H19" s="296"/>
+      <c r="A19" s="304"/>
+      <c r="B19" s="305"/>
+      <c r="C19" s="305"/>
+      <c r="D19" s="305"/>
+      <c r="E19" s="305"/>
+      <c r="F19" s="305"/>
+      <c r="G19" s="305"/>
+      <c r="H19" s="306"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="281" t="s">
+      <c r="A21" s="291" t="s">
         <v>302</v>
       </c>
-      <c r="B21" s="281"/>
-      <c r="C21" s="281"/>
-      <c r="D21" s="281"/>
-      <c r="E21" s="281"/>
-      <c r="F21" s="281"/>
-      <c r="G21" s="281"/>
+      <c r="B21" s="291"/>
+      <c r="C21" s="291"/>
+      <c r="D21" s="291"/>
+      <c r="E21" s="291"/>
+      <c r="F21" s="291"/>
+      <c r="G21" s="291"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
@@ -8954,12 +8948,12 @@
       <c r="C22" s="77" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="280" t="s">
+      <c r="D22" s="290" t="s">
         <v>305</v>
       </c>
-      <c r="E22" s="280"/>
-      <c r="F22" s="280"/>
-      <c r="G22" s="280"/>
+      <c r="E22" s="290"/>
+      <c r="F22" s="290"/>
+      <c r="G22" s="290"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9397,6 +9391,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="M2:O2"/>
@@ -9409,20 +9417,6 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9514,68 +9508,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="313" t="s">
+      <c r="A1" s="338" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="313"/>
-      <c r="L1" s="313"/>
-      <c r="M1" s="313"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="313"/>
-      <c r="P1" s="313"/>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
+      <c r="K1" s="338"/>
+      <c r="L1" s="338"/>
+      <c r="M1" s="338"/>
+      <c r="N1" s="338"/>
+      <c r="O1" s="338"/>
+      <c r="P1" s="338"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="314" t="s">
+      <c r="A2" s="339" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="314"/>
-      <c r="C2" s="314"/>
-      <c r="D2" s="314"/>
-      <c r="E2" s="314"/>
-      <c r="F2" s="314"/>
-      <c r="G2" s="314" t="s">
+      <c r="B2" s="339"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="339"/>
+      <c r="G2" s="339" t="s">
         <v>242</v>
       </c>
-      <c r="H2" s="314"/>
-      <c r="I2" s="314"/>
-      <c r="J2" s="314"/>
-      <c r="K2" s="314"/>
-      <c r="L2" s="314"/>
-      <c r="M2" s="317" t="s">
+      <c r="H2" s="339"/>
+      <c r="I2" s="339"/>
+      <c r="J2" s="339"/>
+      <c r="K2" s="339"/>
+      <c r="L2" s="339"/>
+      <c r="M2" s="322" t="s">
         <v>289</v>
       </c>
-      <c r="N2" s="317"/>
-      <c r="O2" s="317"/>
-      <c r="P2" s="317"/>
+      <c r="N2" s="322"/>
+      <c r="O2" s="322"/>
+      <c r="P2" s="322"/>
       <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="316" t="s">
+      <c r="A3" s="341" t="s">
         <v>490</v>
       </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316"/>
-      <c r="F3" s="316"/>
-      <c r="G3" s="316" t="s">
+      <c r="B3" s="341"/>
+      <c r="C3" s="341"/>
+      <c r="D3" s="341"/>
+      <c r="E3" s="341"/>
+      <c r="F3" s="341"/>
+      <c r="G3" s="341" t="s">
         <v>291</v>
       </c>
-      <c r="H3" s="316"/>
-      <c r="I3" s="316"/>
-      <c r="J3" s="316"/>
-      <c r="K3" s="316"/>
-      <c r="L3" s="316"/>
+      <c r="H3" s="341"/>
+      <c r="I3" s="341"/>
+      <c r="J3" s="341"/>
+      <c r="K3" s="341"/>
+      <c r="L3" s="341"/>
       <c r="M3" s="202" t="s">
         <v>293</v>
       </c>
@@ -9591,22 +9585,22 @@
       <c r="Q3" s="192"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="327" t="s">
+      <c r="A4" s="332" t="s">
         <v>487</v>
       </c>
-      <c r="B4" s="328"/>
-      <c r="C4" s="328"/>
-      <c r="D4" s="328"/>
-      <c r="E4" s="328"/>
-      <c r="F4" s="329"/>
-      <c r="G4" s="315" t="s">
+      <c r="B4" s="333"/>
+      <c r="C4" s="333"/>
+      <c r="D4" s="333"/>
+      <c r="E4" s="333"/>
+      <c r="F4" s="334"/>
+      <c r="G4" s="340" t="s">
         <v>244</v>
       </c>
-      <c r="H4" s="315"/>
-      <c r="I4" s="315"/>
-      <c r="J4" s="315"/>
-      <c r="K4" s="315"/>
-      <c r="L4" s="315"/>
+      <c r="H4" s="340"/>
+      <c r="I4" s="340"/>
+      <c r="J4" s="340"/>
+      <c r="K4" s="340"/>
+      <c r="L4" s="340"/>
       <c r="M4" s="203" t="s">
         <v>248</v>
       </c>
@@ -9621,20 +9615,20 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="310"/>
-      <c r="B5" s="311"/>
-      <c r="C5" s="311"/>
-      <c r="D5" s="311"/>
-      <c r="E5" s="311"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="330" t="s">
+      <c r="A5" s="335"/>
+      <c r="B5" s="336"/>
+      <c r="C5" s="336"/>
+      <c r="D5" s="336"/>
+      <c r="E5" s="336"/>
+      <c r="F5" s="337"/>
+      <c r="G5" s="342" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="330"/>
-      <c r="I5" s="330"/>
-      <c r="J5" s="330"/>
-      <c r="K5" s="330"/>
-      <c r="L5" s="330"/>
+      <c r="H5" s="342"/>
+      <c r="I5" s="342"/>
+      <c r="J5" s="342"/>
+      <c r="K5" s="342"/>
+      <c r="L5" s="342"/>
       <c r="M5" s="204" t="s">
         <v>286</v>
       </c>
@@ -9647,22 +9641,22 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="310" t="s">
+      <c r="A6" s="335" t="s">
         <v>493</v>
       </c>
-      <c r="B6" s="311"/>
-      <c r="C6" s="311"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="311"/>
-      <c r="F6" s="312"/>
-      <c r="G6" s="330" t="s">
+      <c r="B6" s="336"/>
+      <c r="C6" s="336"/>
+      <c r="D6" s="336"/>
+      <c r="E6" s="336"/>
+      <c r="F6" s="337"/>
+      <c r="G6" s="342" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="330"/>
-      <c r="I6" s="330"/>
-      <c r="J6" s="330"/>
-      <c r="K6" s="330"/>
-      <c r="L6" s="330"/>
+      <c r="H6" s="342"/>
+      <c r="I6" s="342"/>
+      <c r="J6" s="342"/>
+      <c r="K6" s="342"/>
+      <c r="L6" s="342"/>
       <c r="M6" s="204"/>
       <c r="N6" s="204"/>
       <c r="O6" s="204" t="s">
@@ -9673,36 +9667,36 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="310"/>
-      <c r="B7" s="311"/>
-      <c r="C7" s="311"/>
-      <c r="D7" s="311"/>
-      <c r="E7" s="311"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="330"/>
-      <c r="H7" s="330"/>
-      <c r="I7" s="330"/>
-      <c r="J7" s="330"/>
-      <c r="K7" s="330"/>
-      <c r="L7" s="330"/>
+      <c r="A7" s="335"/>
+      <c r="B7" s="336"/>
+      <c r="C7" s="336"/>
+      <c r="D7" s="336"/>
+      <c r="E7" s="336"/>
+      <c r="F7" s="337"/>
+      <c r="G7" s="342"/>
+      <c r="H7" s="342"/>
+      <c r="I7" s="342"/>
+      <c r="J7" s="342"/>
+      <c r="K7" s="342"/>
+      <c r="L7" s="342"/>
       <c r="M7" s="204"/>
       <c r="N7" s="204"/>
       <c r="O7" s="204"/>
       <c r="P7" s="205"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="310"/>
-      <c r="B8" s="311"/>
-      <c r="C8" s="311"/>
-      <c r="D8" s="311"/>
-      <c r="E8" s="311"/>
-      <c r="F8" s="312"/>
-      <c r="G8" s="330"/>
-      <c r="H8" s="330"/>
-      <c r="I8" s="330"/>
-      <c r="J8" s="330"/>
-      <c r="K8" s="330"/>
-      <c r="L8" s="330"/>
+      <c r="A8" s="335"/>
+      <c r="B8" s="336"/>
+      <c r="C8" s="336"/>
+      <c r="D8" s="336"/>
+      <c r="E8" s="336"/>
+      <c r="F8" s="337"/>
+      <c r="G8" s="342"/>
+      <c r="H8" s="342"/>
+      <c r="I8" s="342"/>
+      <c r="J8" s="342"/>
+      <c r="K8" s="342"/>
+      <c r="L8" s="342"/>
       <c r="M8" s="204"/>
       <c r="N8" s="204"/>
       <c r="O8" s="204"/>
@@ -9710,17 +9704,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="318" t="s">
+      <c r="A10" s="323" t="s">
         <v>348</v>
       </c>
-      <c r="B10" s="319"/>
-      <c r="C10" s="319"/>
-      <c r="D10" s="319"/>
-      <c r="E10" s="319"/>
-      <c r="F10" s="319"/>
-      <c r="G10" s="319"/>
-      <c r="H10" s="319"/>
-      <c r="I10" s="320"/>
+      <c r="B10" s="324"/>
+      <c r="C10" s="324"/>
+      <c r="D10" s="324"/>
+      <c r="E10" s="324"/>
+      <c r="F10" s="324"/>
+      <c r="G10" s="324"/>
+      <c r="H10" s="324"/>
+      <c r="I10" s="325"/>
     </row>
     <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="129" t="s">
@@ -9735,7 +9729,7 @@
       <c r="D11" s="123" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="355" t="s">
+      <c r="E11" s="244" t="s">
         <v>266</v>
       </c>
       <c r="F11" s="123" t="s">
@@ -9765,8 +9759,8 @@
       <c r="D12" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="356" t="s">
-        <v>542</v>
+      <c r="E12" s="245" t="s">
+        <v>540</v>
       </c>
       <c r="F12" s="145" t="s">
         <v>93</v>
@@ -9809,69 +9803,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="297" t="s">
+      <c r="A15" s="307" t="s">
         <v>276</v>
       </c>
-      <c r="B15" s="298"/>
-      <c r="C15" s="298"/>
-      <c r="D15" s="298"/>
-      <c r="E15" s="298"/>
-      <c r="F15" s="298"/>
-      <c r="G15" s="298"/>
-      <c r="H15" s="299"/>
+      <c r="B15" s="308"/>
+      <c r="C15" s="308"/>
+      <c r="D15" s="308"/>
+      <c r="E15" s="308"/>
+      <c r="F15" s="308"/>
+      <c r="G15" s="308"/>
+      <c r="H15" s="309"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="291" t="s">
+      <c r="A16" s="301" t="s">
         <v>358</v>
       </c>
-      <c r="B16" s="292"/>
-      <c r="C16" s="292"/>
-      <c r="D16" s="292"/>
-      <c r="E16" s="292"/>
-      <c r="F16" s="292"/>
-      <c r="G16" s="292"/>
-      <c r="H16" s="293"/>
+      <c r="B16" s="302"/>
+      <c r="C16" s="302"/>
+      <c r="D16" s="302"/>
+      <c r="E16" s="302"/>
+      <c r="F16" s="302"/>
+      <c r="G16" s="302"/>
+      <c r="H16" s="303"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="291"/>
-      <c r="B17" s="292"/>
-      <c r="C17" s="292"/>
-      <c r="D17" s="292"/>
-      <c r="E17" s="292"/>
-      <c r="F17" s="292"/>
-      <c r="G17" s="292"/>
-      <c r="H17" s="293"/>
+      <c r="A17" s="301"/>
+      <c r="B17" s="302"/>
+      <c r="C17" s="302"/>
+      <c r="D17" s="302"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="302"/>
+      <c r="G17" s="302"/>
+      <c r="H17" s="303"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="291"/>
-      <c r="B18" s="292"/>
-      <c r="C18" s="292"/>
-      <c r="D18" s="292"/>
-      <c r="E18" s="292"/>
-      <c r="F18" s="292"/>
-      <c r="G18" s="292"/>
-      <c r="H18" s="293"/>
+      <c r="A18" s="301"/>
+      <c r="B18" s="302"/>
+      <c r="C18" s="302"/>
+      <c r="D18" s="302"/>
+      <c r="E18" s="302"/>
+      <c r="F18" s="302"/>
+      <c r="G18" s="302"/>
+      <c r="H18" s="303"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="294"/>
-      <c r="B19" s="295"/>
-      <c r="C19" s="295"/>
-      <c r="D19" s="295"/>
-      <c r="E19" s="295"/>
-      <c r="F19" s="295"/>
-      <c r="G19" s="295"/>
-      <c r="H19" s="296"/>
+      <c r="A19" s="304"/>
+      <c r="B19" s="305"/>
+      <c r="C19" s="305"/>
+      <c r="D19" s="305"/>
+      <c r="E19" s="305"/>
+      <c r="F19" s="305"/>
+      <c r="G19" s="305"/>
+      <c r="H19" s="306"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="281" t="s">
+      <c r="A21" s="291" t="s">
         <v>302</v>
       </c>
-      <c r="B21" s="281"/>
-      <c r="C21" s="281"/>
-      <c r="D21" s="281"/>
-      <c r="E21" s="281"/>
-      <c r="F21" s="281"/>
-      <c r="G21" s="281"/>
+      <c r="B21" s="291"/>
+      <c r="C21" s="291"/>
+      <c r="D21" s="291"/>
+      <c r="E21" s="291"/>
+      <c r="F21" s="291"/>
+      <c r="G21" s="291"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
@@ -9883,12 +9877,12 @@
       <c r="C22" s="77" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="280" t="s">
+      <c r="D22" s="290" t="s">
         <v>305</v>
       </c>
-      <c r="E22" s="280"/>
-      <c r="F22" s="280"/>
-      <c r="G22" s="280"/>
+      <c r="E22" s="290"/>
+      <c r="F22" s="290"/>
+      <c r="G22" s="290"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -10060,13 +10054,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -10081,6 +10068,13 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10144,10 +10138,10 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10162,12 +10156,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="331" t="s">
+      <c r="A1" s="343" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="332"/>
-      <c r="C1" s="332"/>
-      <c r="D1" s="333"/>
+      <c r="B1" s="344"/>
+      <c r="C1" s="344"/>
+      <c r="D1" s="345"/>
       <c r="E1" s="65"/>
       <c r="F1" s="65"/>
       <c r="G1" s="65"/>
@@ -10188,7 +10182,7 @@
       <c r="C2" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="347" t="s">
+      <c r="D2" s="236" t="s">
         <v>73</v>
       </c>
       <c r="F2" s="133" t="s">
@@ -10242,7 +10236,7 @@
       <c r="B6" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="C6" s="348"/>
+      <c r="C6" s="237"/>
       <c r="D6" s="23">
         <v>1000000</v>
       </c>
@@ -10254,7 +10248,7 @@
       <c r="B7" s="16" t="s">
         <v>506</v>
       </c>
-      <c r="C7" s="349"/>
+      <c r="C7" s="238"/>
       <c r="D7" s="23">
         <v>0</v>
       </c>
@@ -10266,7 +10260,7 @@
       <c r="B8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="350"/>
+      <c r="C8" s="239"/>
       <c r="D8" s="23">
         <v>0</v>
       </c>
@@ -10278,31 +10272,33 @@
       <c r="B9" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="C9" s="350"/>
+      <c r="C9" s="239"/>
       <c r="D9" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="200" t="s">
+      <c r="A10" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="C10" s="201"/>
+      <c r="D10" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="200" t="s">
         <v>509</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="C10" s="348"/>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="C11" s="201"/>
+      <c r="C11" s="237"/>
       <c r="D11" s="23">
-        <v>1</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -10312,9 +10308,9 @@
       <c r="B12" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="C12" s="348"/>
+      <c r="C12" s="237"/>
       <c r="D12" s="23">
-        <v>10000</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -10324,10 +10320,8 @@
       <c r="B13" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="C13" s="348"/>
-      <c r="D13" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="C13" s="237"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="200" t="s">
@@ -10336,7 +10330,7 @@
       <c r="B14" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="C14" s="348"/>
+      <c r="C14" s="237"/>
       <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -10346,8 +10340,10 @@
       <c r="B15" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="C15" s="348"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="23">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="200" t="s">
@@ -10356,10 +10352,8 @@
       <c r="B16" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="C16" s="348"/>
-      <c r="D16" s="23">
-        <v>10</v>
-      </c>
+      <c r="C16" s="237"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="200" t="s">
@@ -10368,386 +10362,388 @@
       <c r="B17" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="C17" s="348"/>
+      <c r="C17" s="237"/>
       <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="200" t="s">
-        <v>523</v>
+      <c r="A18" s="12" t="s">
+        <v>484</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="C18" s="348"/>
-      <c r="D18" s="23"/>
+        <v>485</v>
+      </c>
+      <c r="C18" s="201"/>
+      <c r="D18" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>484</v>
+        <v>100</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="C19" s="201"/>
-      <c r="D19" s="23">
-        <v>1</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C19" s="180"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="180"/>
-      <c r="D20" s="23"/>
+      <c r="A20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="179"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="179"/>
-      <c r="D21" s="22"/>
+      <c r="A21" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="180"/>
+      <c r="D21" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C22" s="180"/>
-      <c r="D22" s="23">
-        <v>0</v>
+      <c r="D22" s="24" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="180"/>
       <c r="D23" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C24" s="180"/>
-      <c r="D24" s="24" t="s">
-        <v>67</v>
+      <c r="D24" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" s="180"/>
-      <c r="D25" s="23">
-        <v>0</v>
+      <c r="D25" s="23" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="180"/>
-      <c r="D26" s="23" t="s">
-        <v>29</v>
-      </c>
+      <c r="A26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="179"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="179"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="180"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" s="180"/>
       <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="180"/>
       <c r="D29" s="23"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="180"/>
       <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" s="180"/>
-      <c r="D31" s="23"/>
+      <c r="D31" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" s="180"/>
-      <c r="D32" s="23">
-        <v>1</v>
-      </c>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="C33" s="180"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="180"/>
       <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="180"/>
-      <c r="D35" s="23"/>
+      <c r="A35" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="179"/>
+      <c r="D35" s="22"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="179"/>
-      <c r="D36" s="22"/>
+      <c r="A36" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="180"/>
+      <c r="D36" s="23">
+        <v>100</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" s="180"/>
       <c r="D37" s="23">
-        <v>100</v>
+        <v>65535</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" s="180"/>
       <c r="D38" s="23">
-        <v>65535</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="180"/>
       <c r="D39" s="23">
-        <v>10</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" s="180"/>
-      <c r="D40" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" s="180"/>
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C42" s="180"/>
       <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="180"/>
-      <c r="D43" s="23"/>
+      <c r="A43" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="179"/>
+      <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="179"/>
-      <c r="D44" s="22"/>
+      <c r="A44" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="180"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" s="180"/>
-      <c r="D45" s="23"/>
+      <c r="D45" s="23">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" s="180"/>
-      <c r="D46" s="23">
-        <v>0.02</v>
-      </c>
+      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="180"/>
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="180"/>
       <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C49" s="180"/>
-      <c r="D49" s="23"/>
+      <c r="D49" s="24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="C50" s="180"/>
-      <c r="D50" s="24" t="s">
-        <v>70</v>
+      <c r="D50" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C51" s="180"/>
-      <c r="D51" s="24">
-        <v>0</v>
-      </c>
+      <c r="A51" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="C51" s="240"/>
+      <c r="D51" s="241"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="C52" s="351"/>
-      <c r="D52" s="352"/>
+      <c r="C52" s="238"/>
+      <c r="D52" s="242">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
@@ -10756,10 +10752,8 @@
       <c r="B53" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="C53" s="349"/>
-      <c r="D53" s="353">
-        <v>0.02</v>
-      </c>
+      <c r="C53" s="238"/>
+      <c r="D53" s="242"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
@@ -10768,8 +10762,8 @@
       <c r="B54" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="C54" s="349"/>
-      <c r="D54" s="353"/>
+      <c r="C54" s="238"/>
+      <c r="D54" s="242"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
@@ -10778,8 +10772,8 @@
       <c r="B55" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="C55" s="349"/>
-      <c r="D55" s="353"/>
+      <c r="C55" s="238"/>
+      <c r="D55" s="242"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
@@ -10788,145 +10782,147 @@
       <c r="B56" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="C56" s="349"/>
-      <c r="D56" s="353"/>
+      <c r="C56" s="238"/>
+      <c r="D56" s="24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="C57" s="349"/>
-      <c r="D57" s="24" t="s">
-        <v>70</v>
-      </c>
+      <c r="A57" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="179"/>
+      <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="179"/>
-      <c r="D58" s="22"/>
+      <c r="A58" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="180"/>
+      <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B59" s="15"/>
+        <v>128</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="C59" s="180"/>
       <c r="D59" s="23"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C60" s="180"/>
       <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61" s="180"/>
       <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="C62" s="180"/>
       <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="C63" s="180"/>
       <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C64" s="180"/>
       <c r="D64" s="23"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C65" s="180"/>
       <c r="D65" s="23"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C66" s="180"/>
       <c r="D66" s="23"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C67" s="180"/>
       <c r="D67" s="23"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C68" s="180"/>
       <c r="D68" s="23"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C69" s="180"/>
-      <c r="D69" s="23"/>
+      <c r="D69" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C70" s="180"/>
       <c r="D70" s="23">
@@ -10935,10 +10931,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C71" s="180"/>
       <c r="D71" s="23">
@@ -10947,10 +10943,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C72" s="180"/>
       <c r="D72" s="23">
@@ -10959,10 +10955,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C73" s="180"/>
       <c r="D73" s="23">
@@ -10971,138 +10967,126 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74" s="180"/>
       <c r="D74" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C75" s="180"/>
-      <c r="D75" s="23">
-        <v>0</v>
-      </c>
+      <c r="D75" s="23"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C76" s="180"/>
       <c r="D76" s="23"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C77" s="180"/>
-      <c r="D77" s="23"/>
+      <c r="A77" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" s="179"/>
+      <c r="D77" s="178"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C78" s="179"/>
-      <c r="D78" s="178"/>
+      <c r="A78" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" s="180"/>
+      <c r="D78" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C79" s="180"/>
-      <c r="D79" s="25">
+      <c r="A79" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="C79" s="179"/>
+      <c r="D79" s="178"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C80" s="180"/>
+      <c r="D80" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="B80" s="17" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="B81" s="243" t="s">
         <v>537</v>
       </c>
-      <c r="C80" s="179"/>
-      <c r="D80" s="178"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="C81" s="180"/>
-      <c r="D81" s="25">
+      <c r="C81" s="179"/>
+      <c r="D81" s="178"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="C82" s="180"/>
+      <c r="D82" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" s="179"/>
+      <c r="D83" s="178"/>
+    </row>
+    <row r="84" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="181"/>
+      <c r="D84" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="21" t="s">
-        <v>538</v>
-      </c>
-      <c r="B82" s="354" t="s">
-        <v>539</v>
-      </c>
-      <c r="C82" s="179"/>
-      <c r="D82" s="178"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>541</v>
-      </c>
-      <c r="C83" s="180"/>
-      <c r="D83" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C84" s="179"/>
-      <c r="D84" s="178"/>
-    </row>
-    <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="181"/>
-      <c r="D85" s="28">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nz+s2XO+ftXiPvDFdCb363Kdxpm8/rTzkaQvNt3hixFy/XzDLwk3vacxi/mnwp2lCzlwAgpdDUMXZxUkXUE4MA==" saltValue="5VzOwROovNDqiQdmD//x7A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -11136,23 +11120,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="337" t="s">
+      <c r="A1" s="349" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="338"/>
-      <c r="H1" s="338"/>
-      <c r="I1" s="338"/>
-      <c r="J1" s="338"/>
-      <c r="K1" s="338"/>
-      <c r="L1" s="338"/>
-      <c r="M1" s="338"/>
-      <c r="N1" s="338"/>
-      <c r="O1" s="338"/>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
+      <c r="G1" s="350"/>
+      <c r="H1" s="350"/>
+      <c r="I1" s="350"/>
+      <c r="J1" s="350"/>
+      <c r="K1" s="350"/>
+      <c r="L1" s="350"/>
+      <c r="M1" s="350"/>
+      <c r="N1" s="350"/>
+      <c r="O1" s="350"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
@@ -11170,17 +11154,17 @@
       <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="334" t="s">
+      <c r="B3" s="346" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="335"/>
-      <c r="D3" s="335"/>
-      <c r="E3" s="335"/>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335"/>
-      <c r="H3" s="335"/>
-      <c r="I3" s="335"/>
-      <c r="J3" s="336"/>
+      <c r="C3" s="347"/>
+      <c r="D3" s="347"/>
+      <c r="E3" s="347"/>
+      <c r="F3" s="347"/>
+      <c r="G3" s="347"/>
+      <c r="H3" s="347"/>
+      <c r="I3" s="347"/>
+      <c r="J3" s="348"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="36"/>
@@ -11371,21 +11355,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="334" t="s">
+      <c r="B19" s="346" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="335"/>
-      <c r="D19" s="335"/>
-      <c r="E19" s="335"/>
-      <c r="F19" s="335"/>
-      <c r="G19" s="335"/>
-      <c r="H19" s="335"/>
-      <c r="I19" s="335"/>
-      <c r="J19" s="335"/>
-      <c r="K19" s="335"/>
-      <c r="L19" s="335"/>
-      <c r="M19" s="335"/>
-      <c r="N19" s="336"/>
+      <c r="C19" s="347"/>
+      <c r="D19" s="347"/>
+      <c r="E19" s="347"/>
+      <c r="F19" s="347"/>
+      <c r="G19" s="347"/>
+      <c r="H19" s="347"/>
+      <c r="I19" s="347"/>
+      <c r="J19" s="347"/>
+      <c r="K19" s="347"/>
+      <c r="L19" s="347"/>
+      <c r="M19" s="347"/>
+      <c r="N19" s="348"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="36"/>
@@ -11587,27 +11571,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="354" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="343"/>
-      <c r="G1" s="343"/>
-      <c r="H1" s="343"/>
-      <c r="I1" s="343"/>
-      <c r="J1" s="343"/>
-      <c r="K1" s="343"/>
-      <c r="L1" s="343"/>
-      <c r="M1" s="343"/>
-      <c r="N1" s="343"/>
-      <c r="O1" s="343"/>
-      <c r="P1" s="343"/>
-      <c r="Q1" s="343"/>
-      <c r="R1" s="343"/>
-      <c r="S1" s="343"/>
+      <c r="B1" s="355"/>
+      <c r="C1" s="355"/>
+      <c r="D1" s="355"/>
+      <c r="E1" s="355"/>
+      <c r="F1" s="355"/>
+      <c r="G1" s="355"/>
+      <c r="H1" s="355"/>
+      <c r="I1" s="355"/>
+      <c r="J1" s="355"/>
+      <c r="K1" s="355"/>
+      <c r="L1" s="355"/>
+      <c r="M1" s="355"/>
+      <c r="N1" s="355"/>
+      <c r="O1" s="355"/>
+      <c r="P1" s="355"/>
+      <c r="Q1" s="355"/>
+      <c r="R1" s="355"/>
+      <c r="S1" s="355"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11621,26 +11605,26 @@
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="334" t="s">
+      <c r="B3" s="346" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="335"/>
-      <c r="D3" s="335"/>
-      <c r="E3" s="335"/>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335"/>
-      <c r="H3" s="335"/>
-      <c r="I3" s="335"/>
-      <c r="J3" s="336"/>
-      <c r="L3" s="339" t="s">
+      <c r="C3" s="347"/>
+      <c r="D3" s="347"/>
+      <c r="E3" s="347"/>
+      <c r="F3" s="347"/>
+      <c r="G3" s="347"/>
+      <c r="H3" s="347"/>
+      <c r="I3" s="347"/>
+      <c r="J3" s="348"/>
+      <c r="L3" s="351" t="s">
         <v>219</v>
       </c>
-      <c r="M3" s="340"/>
-      <c r="N3" s="340"/>
-      <c r="O3" s="340"/>
-      <c r="P3" s="340"/>
-      <c r="Q3" s="340"/>
-      <c r="R3" s="341"/>
+      <c r="M3" s="352"/>
+      <c r="N3" s="352"/>
+      <c r="O3" s="352"/>
+      <c r="P3" s="352"/>
+      <c r="Q3" s="352"/>
+      <c r="R3" s="353"/>
       <c r="S3" s="35"/>
       <c r="T3" s="35"/>
     </row>
@@ -11871,23 +11855,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="344" t="s">
+      <c r="A1" s="356" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="345"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="345"/>
-      <c r="K1" s="345"/>
-      <c r="L1" s="345"/>
-      <c r="M1" s="345"/>
-      <c r="N1" s="345"/>
-      <c r="O1" s="346"/>
+      <c r="B1" s="357"/>
+      <c r="C1" s="357"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="357"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
+      <c r="N1" s="357"/>
+      <c r="O1" s="358"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
@@ -11900,22 +11884,22 @@
       <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="334" t="s">
+      <c r="B3" s="346" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="335"/>
-      <c r="D3" s="335"/>
-      <c r="E3" s="335"/>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335"/>
-      <c r="H3" s="336"/>
-      <c r="J3" s="339" t="s">
+      <c r="C3" s="347"/>
+      <c r="D3" s="347"/>
+      <c r="E3" s="347"/>
+      <c r="F3" s="347"/>
+      <c r="G3" s="347"/>
+      <c r="H3" s="348"/>
+      <c r="J3" s="351" t="s">
         <v>219</v>
       </c>
-      <c r="K3" s="340"/>
-      <c r="L3" s="340"/>
-      <c r="M3" s="340"/>
-      <c r="N3" s="341"/>
+      <c r="K3" s="352"/>
+      <c r="L3" s="352"/>
+      <c r="M3" s="352"/>
+      <c r="N3" s="353"/>
       <c r="O3" s="35"/>
       <c r="P3" s="35"/>
     </row>

--- a/test_templates/test_batch_template5.xlsx
+++ b/test_templates/test_batch_template5.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coverney\Documents\GitHub\TASBEFlowAnalytics\test_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FA2C84-9BA7-42E1-A1E3-98247CF8E199}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -32,17 +33,22 @@
     <definedName name="I7577I">1</definedName>
     <definedName name="I896I">0</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="545">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2642,11 +2648,23 @@
   <si>
     <t>Min Valid a.u.</t>
   </si>
+  <si>
+    <t>CSV Header 1</t>
+  </si>
+  <si>
+    <t>CSV Header 2</t>
+  </si>
+  <si>
+    <t>CSV Header 3</t>
+  </si>
+  <si>
+    <t>CSV Header 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2954,7 +2972,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -3568,11 +3586,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="359">
+  <cellXfs count="373">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4278,41 +4353,74 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4356,59 +4464,26 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4507,45 +4582,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4569,6 +4605,45 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4624,6 +4699,62 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4694,6 +4825,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4759,6 +4893,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3075"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000030C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4831,6 +4968,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4902,6 +5042,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4967,6 +5110,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5039,6 +5185,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s7169"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000011C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5104,6 +5253,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s7170"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000021C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5448,14 +5600,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5476,86 +5628,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="269" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="259"/>
-      <c r="K1" s="260"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="271"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="85"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="274" t="s">
+      <c r="A3" s="248" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="275"/>
+      <c r="B3" s="249"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="272" t="s">
+      <c r="A4" s="262" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="273"/>
+      <c r="B4" s="263"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="288" t="s">
+      <c r="A5" s="264" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="289"/>
+      <c r="B5" s="265"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="85"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="274" t="s">
+      <c r="A7" s="248" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="276"/>
-      <c r="C7" s="276"/>
-      <c r="D7" s="276"/>
-      <c r="E7" s="276"/>
-      <c r="F7" s="276"/>
-      <c r="G7" s="276"/>
-      <c r="H7" s="276"/>
-      <c r="I7" s="276"/>
-      <c r="J7" s="276"/>
-      <c r="K7" s="275"/>
+      <c r="B7" s="250"/>
+      <c r="C7" s="250"/>
+      <c r="D7" s="250"/>
+      <c r="E7" s="250"/>
+      <c r="F7" s="250"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="249"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="261" t="s">
+      <c r="A8" s="272" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="262"/>
-      <c r="C8" s="262"/>
-      <c r="D8" s="262"/>
-      <c r="E8" s="262"/>
-      <c r="F8" s="262"/>
-      <c r="G8" s="262"/>
-      <c r="H8" s="262"/>
-      <c r="I8" s="262"/>
-      <c r="J8" s="262"/>
-      <c r="K8" s="263"/>
+      <c r="B8" s="273"/>
+      <c r="C8" s="273"/>
+      <c r="D8" s="273"/>
+      <c r="E8" s="273"/>
+      <c r="F8" s="273"/>
+      <c r="G8" s="273"/>
+      <c r="H8" s="273"/>
+      <c r="I8" s="273"/>
+      <c r="J8" s="273"/>
+      <c r="K8" s="274"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="264"/>
-      <c r="B9" s="265"/>
-      <c r="C9" s="265"/>
-      <c r="D9" s="265"/>
-      <c r="E9" s="265"/>
-      <c r="F9" s="265"/>
-      <c r="G9" s="265"/>
-      <c r="H9" s="265"/>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
-      <c r="K9" s="266"/>
+      <c r="A9" s="275"/>
+      <c r="B9" s="276"/>
+      <c r="C9" s="276"/>
+      <c r="D9" s="276"/>
+      <c r="E9" s="276"/>
+      <c r="F9" s="276"/>
+      <c r="G9" s="276"/>
+      <c r="H9" s="276"/>
+      <c r="I9" s="276"/>
+      <c r="J9" s="276"/>
+      <c r="K9" s="277"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="154"/>
@@ -5566,64 +5718,64 @@
       <c r="F10" s="140"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="277" t="s">
+      <c r="A11" s="251" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="278"/>
-      <c r="C11" s="278"/>
-      <c r="D11" s="279"/>
+      <c r="B11" s="252"/>
+      <c r="C11" s="252"/>
+      <c r="D11" s="253"/>
       <c r="E11" s="86"/>
       <c r="F11" s="140"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="280" t="s">
+      <c r="A12" s="254" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="281"/>
-      <c r="C12" s="282" t="s">
+      <c r="B12" s="255"/>
+      <c r="C12" s="256" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="283"/>
+      <c r="D12" s="257"/>
       <c r="E12" s="86"/>
       <c r="F12" s="140"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="284"/>
-      <c r="B13" s="285"/>
-      <c r="C13" s="286"/>
-      <c r="D13" s="287"/>
+      <c r="A13" s="258"/>
+      <c r="B13" s="259"/>
+      <c r="C13" s="260"/>
+      <c r="D13" s="261"/>
       <c r="E13" s="86"/>
       <c r="F13" s="140"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="277" t="s">
+      <c r="A15" s="251" t="s">
         <v>271</v>
       </c>
-      <c r="B15" s="279"/>
-      <c r="E15" s="277" t="s">
+      <c r="B15" s="253"/>
+      <c r="E15" s="251" t="s">
         <v>310</v>
       </c>
-      <c r="F15" s="278"/>
-      <c r="G15" s="278"/>
-      <c r="H15" s="278"/>
-      <c r="I15" s="279"/>
+      <c r="F15" s="252"/>
+      <c r="G15" s="252"/>
+      <c r="H15" s="252"/>
+      <c r="I15" s="253"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="272" t="s">
+      <c r="A16" s="262" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="273"/>
+      <c r="B16" s="263"/>
       <c r="D16" s="87"/>
-      <c r="E16" s="267" t="s">
+      <c r="E16" s="278" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="268"/>
-      <c r="G16" s="268"/>
-      <c r="H16" s="268"/>
-      <c r="I16" s="269"/>
-    </row>
-    <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="279"/>
+      <c r="G16" s="279"/>
+      <c r="H16" s="279"/>
+      <c r="I16" s="280"/>
+    </row>
+    <row r="17" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="155" t="s">
         <v>233</v>
       </c>
@@ -5631,10 +5783,10 @@
         <v>274</v>
       </c>
       <c r="C17" s="88"/>
-      <c r="E17" s="270" t="s">
+      <c r="E17" s="281" t="s">
         <v>231</v>
       </c>
-      <c r="F17" s="271"/>
+      <c r="F17" s="282"/>
       <c r="G17" s="199" t="s">
         <v>157</v>
       </c>
@@ -5644,9 +5796,12 @@
       <c r="I17" s="187" t="s">
         <v>351</v>
       </c>
-      <c r="J17" s="80"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="359" t="s">
+        <v>541</v>
+      </c>
+      <c r="K17" s="360"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="156" t="s">
         <v>265</v>
       </c>
@@ -5664,12 +5819,13 @@
       <c r="H18" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="246" t="s">
+      <c r="I18" s="266" t="s">
         <v>480</v>
       </c>
-      <c r="J18" s="80"/>
-    </row>
-    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J18" s="361"/>
+      <c r="K18" s="362"/>
+    </row>
+    <row r="19" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="157" t="s">
         <v>283</v>
       </c>
@@ -5687,10 +5843,11 @@
       <c r="H19" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="I19" s="246"/>
-      <c r="J19" s="80"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="266"/>
+      <c r="J19" s="361"/>
+      <c r="K19" s="362"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="157" t="s">
         <v>284</v>
       </c>
@@ -5704,10 +5861,11 @@
       </c>
       <c r="G20" s="70"/>
       <c r="H20" s="70"/>
-      <c r="I20" s="247"/>
-      <c r="J20" s="80"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="267"/>
+      <c r="J20" s="363"/>
+      <c r="K20" s="364"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="157" t="s">
         <v>288</v>
       </c>
@@ -5716,34 +5874,34 @@
       <c r="I21" s="80"/>
       <c r="J21" s="80"/>
     </row>
-    <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="158"/>
       <c r="B22" s="115"/>
       <c r="C22" s="88"/>
       <c r="J22" s="80"/>
     </row>
-    <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="159"/>
       <c r="B23" s="91"/>
       <c r="C23" s="90"/>
-      <c r="E23" s="248" t="s">
+      <c r="E23" s="246" t="s">
         <v>194</v>
       </c>
-      <c r="F23" s="249"/>
-      <c r="G23" s="249"/>
-      <c r="H23" s="249"/>
-      <c r="I23" s="250"/>
-    </row>
-    <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="248" t="s">
+      <c r="F23" s="268"/>
+      <c r="G23" s="268"/>
+      <c r="H23" s="268"/>
+      <c r="I23" s="247"/>
+    </row>
+    <row r="24" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="246" t="s">
         <v>236</v>
       </c>
-      <c r="B24" s="250"/>
+      <c r="B24" s="247"/>
       <c r="C24" s="31"/>
-      <c r="E24" s="254" t="s">
+      <c r="E24" s="286" t="s">
         <v>231</v>
       </c>
-      <c r="F24" s="255"/>
+      <c r="F24" s="287"/>
       <c r="G24" s="199" t="s">
         <v>157</v>
       </c>
@@ -5753,8 +5911,12 @@
       <c r="I24" s="187" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="359" t="s">
+        <v>542</v>
+      </c>
+      <c r="K24" s="360"/>
+    </row>
+    <row r="25" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="155" t="s">
         <v>233</v>
       </c>
@@ -5772,11 +5934,13 @@
       <c r="H25" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="251" t="s">
+      <c r="I25" s="283" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J25" s="361"/>
+      <c r="K25" s="362"/>
+    </row>
+    <row r="26" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="156" t="s">
         <v>265</v>
       </c>
@@ -5796,9 +5960,11 @@
       <c r="H26" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="I26" s="252"/>
-    </row>
-    <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="284"/>
+      <c r="J26" s="361"/>
+      <c r="K26" s="362"/>
+    </row>
+    <row r="27" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="157" t="s">
         <v>281</v>
       </c>
@@ -5812,9 +5978,11 @@
       </c>
       <c r="G27" s="70"/>
       <c r="H27" s="70"/>
-      <c r="I27" s="253"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I27" s="285"/>
+      <c r="J27" s="363"/>
+      <c r="K27" s="364"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="157" t="s">
         <v>282</v>
       </c>
@@ -5826,32 +5994,32 @@
       <c r="H28" s="93"/>
       <c r="I28" s="80"/>
     </row>
-    <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="157"/>
       <c r="B29" s="114"/>
       <c r="C29" s="31"/>
       <c r="I29" s="80"/>
     </row>
-    <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="158"/>
       <c r="B30" s="115"/>
       <c r="C30" s="88"/>
-      <c r="E30" s="248" t="s">
+      <c r="E30" s="246" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="249"/>
-      <c r="G30" s="249"/>
-      <c r="H30" s="249"/>
-      <c r="I30" s="250"/>
-    </row>
-    <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="268"/>
+      <c r="G30" s="268"/>
+      <c r="H30" s="268"/>
+      <c r="I30" s="247"/>
+    </row>
+    <row r="31" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="159"/>
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
-      <c r="E31" s="256" t="s">
+      <c r="E31" s="288" t="s">
         <v>458</v>
       </c>
-      <c r="F31" s="257"/>
+      <c r="F31" s="289"/>
       <c r="G31" s="197" t="s">
         <v>157</v>
       </c>
@@ -5861,12 +6029,16 @@
       <c r="I31" s="187" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="248" t="s">
+      <c r="J31" s="365" t="s">
+        <v>543</v>
+      </c>
+      <c r="K31" s="366"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="246" t="s">
         <v>237</v>
       </c>
-      <c r="B32" s="250"/>
+      <c r="B32" s="247"/>
       <c r="C32" s="31"/>
       <c r="E32" s="82">
         <v>1</v>
@@ -5876,9 +6048,11 @@
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="73"/>
-      <c r="I32" s="246"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="266"/>
+      <c r="J32" s="367"/>
+      <c r="K32" s="368"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="155" t="s">
         <v>233</v>
       </c>
@@ -5896,9 +6070,11 @@
         <v>5</v>
       </c>
       <c r="H33" s="32"/>
-      <c r="I33" s="246"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="266"/>
+      <c r="J33" s="369"/>
+      <c r="K33" s="370"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="156" t="s">
         <v>235</v>
       </c>
@@ -5911,9 +6087,11 @@
       <c r="F34" s="92"/>
       <c r="G34" s="32"/>
       <c r="H34" s="73"/>
-      <c r="I34" s="246"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="266"/>
+      <c r="J34" s="369"/>
+      <c r="K34" s="370"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="157" t="s">
         <v>220</v>
       </c>
@@ -5924,9 +6102,11 @@
       <c r="F35" s="92"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
-      <c r="I35" s="246"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="266"/>
+      <c r="J35" s="369"/>
+      <c r="K35" s="370"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="157" t="s">
         <v>221</v>
       </c>
@@ -5937,9 +6117,11 @@
       <c r="F36" s="92"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
-      <c r="I36" s="246"/>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="266"/>
+      <c r="J36" s="369"/>
+      <c r="K36" s="370"/>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="157" t="s">
         <v>222</v>
       </c>
@@ -5950,30 +6132,32 @@
       <c r="F37" s="138"/>
       <c r="G37" s="70"/>
       <c r="H37" s="70"/>
-      <c r="I37" s="247"/>
-    </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I37" s="267"/>
+      <c r="J37" s="371"/>
+      <c r="K37" s="372"/>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="158" t="s">
         <v>223</v>
       </c>
       <c r="B38" s="115"/>
     </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="160"/>
       <c r="B39" s="119"/>
     </row>
-    <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="248" t="s">
+    <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E40" s="246" t="s">
         <v>196</v>
       </c>
-      <c r="F40" s="249"/>
-      <c r="G40" s="249"/>
-      <c r="H40" s="249"/>
-      <c r="I40" s="250"/>
-    </row>
-    <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="254"/>
-      <c r="F41" s="255"/>
+      <c r="F40" s="268"/>
+      <c r="G40" s="268"/>
+      <c r="H40" s="268"/>
+      <c r="I40" s="247"/>
+    </row>
+    <row r="41" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="286"/>
+      <c r="F41" s="287"/>
       <c r="G41" s="81" t="s">
         <v>157</v>
       </c>
@@ -5983,64 +6167,101 @@
       <c r="I41" s="187" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="365" t="s">
+        <v>544</v>
+      </c>
+      <c r="K41" s="366"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E42" s="82">
         <v>1</v>
       </c>
       <c r="F42" s="92"/>
       <c r="G42" s="32"/>
       <c r="H42" s="73"/>
-      <c r="I42" s="246"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="266"/>
+      <c r="J42" s="367"/>
+      <c r="K42" s="368"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E43" s="82">
         <v>2</v>
       </c>
       <c r="F43" s="92"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
-      <c r="I43" s="246"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="266"/>
+      <c r="J43" s="369"/>
+      <c r="K43" s="370"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E44" s="82">
         <v>3</v>
       </c>
       <c r="F44" s="92"/>
       <c r="G44" s="32"/>
       <c r="H44" s="73"/>
-      <c r="I44" s="246"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="266"/>
+      <c r="J44" s="369"/>
+      <c r="K44" s="370"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E45" s="82">
         <v>4</v>
       </c>
       <c r="F45" s="92"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
-      <c r="I45" s="246"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I45" s="266"/>
+      <c r="J45" s="369"/>
+      <c r="K45" s="370"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E46" s="82">
         <v>5</v>
       </c>
       <c r="F46" s="92"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
-      <c r="I46" s="246"/>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I46" s="266"/>
+      <c r="J46" s="369"/>
+      <c r="K46" s="370"/>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="83">
         <v>6</v>
       </c>
       <c r="F47" s="138"/>
       <c r="G47" s="70"/>
       <c r="H47" s="70"/>
-      <c r="I47" s="247"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="I47" s="267"/>
+      <c r="J47" s="371"/>
+      <c r="K47" s="372"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="37">
+    <mergeCell ref="J25:K27"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K37"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K47"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -6056,20 +6277,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="J24:K24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6077,7 +6285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -7593,7 +7801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -8552,7 +8760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -8584,68 +8792,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="338" t="s">
+      <c r="A1" s="325" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="338"/>
-      <c r="H1" s="338"/>
-      <c r="I1" s="338"/>
-      <c r="J1" s="338"/>
-      <c r="K1" s="338"/>
-      <c r="L1" s="338"/>
-      <c r="M1" s="338"/>
-      <c r="N1" s="338"/>
-      <c r="O1" s="338"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
+      <c r="N1" s="325"/>
+      <c r="O1" s="325"/>
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="326" t="s">
+      <c r="A2" s="333" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="328"/>
-      <c r="G2" s="339" t="s">
+      <c r="B2" s="334"/>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="335"/>
+      <c r="G2" s="326" t="s">
         <v>242</v>
       </c>
-      <c r="H2" s="339"/>
-      <c r="I2" s="339"/>
-      <c r="J2" s="339"/>
-      <c r="K2" s="339"/>
-      <c r="L2" s="339"/>
-      <c r="M2" s="322" t="s">
+      <c r="H2" s="326"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="326"/>
+      <c r="L2" s="326"/>
+      <c r="M2" s="329" t="s">
         <v>290</v>
       </c>
-      <c r="N2" s="322"/>
-      <c r="O2" s="322"/>
+      <c r="N2" s="329"/>
+      <c r="O2" s="329"/>
       <c r="P2" s="87"/>
       <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="329" t="s">
+      <c r="A3" s="336" t="s">
         <v>486</v>
       </c>
-      <c r="B3" s="330"/>
-      <c r="C3" s="330"/>
-      <c r="D3" s="330"/>
-      <c r="E3" s="330"/>
-      <c r="F3" s="331"/>
-      <c r="G3" s="341" t="s">
+      <c r="B3" s="337"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
+      <c r="G3" s="328" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="341"/>
-      <c r="I3" s="341"/>
-      <c r="J3" s="341"/>
-      <c r="K3" s="341"/>
-      <c r="L3" s="341"/>
+      <c r="H3" s="328"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="328"/>
+      <c r="K3" s="328"/>
+      <c r="L3" s="328"/>
       <c r="M3" s="202" t="s">
         <v>294</v>
       </c>
@@ -8658,24 +8866,24 @@
       <c r="P3" s="193"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="332" t="s">
+      <c r="A4" s="339" t="s">
         <v>487</v>
       </c>
-      <c r="B4" s="333"/>
-      <c r="C4" s="333"/>
-      <c r="D4" s="333"/>
-      <c r="E4" s="333"/>
-      <c r="F4" s="334"/>
-      <c r="G4" s="340" t="s">
+      <c r="B4" s="340"/>
+      <c r="C4" s="340"/>
+      <c r="D4" s="340"/>
+      <c r="E4" s="340"/>
+      <c r="F4" s="341"/>
+      <c r="G4" s="327" t="s">
         <v>243</v>
       </c>
-      <c r="H4" s="340"/>
-      <c r="I4" s="340"/>
-      <c r="J4" s="340" t="s">
+      <c r="H4" s="327"/>
+      <c r="I4" s="327"/>
+      <c r="J4" s="327" t="s">
         <v>297</v>
       </c>
-      <c r="K4" s="340"/>
-      <c r="L4" s="340"/>
+      <c r="K4" s="327"/>
+      <c r="L4" s="327"/>
       <c r="M4" s="203" t="s">
         <v>152</v>
       </c>
@@ -8687,12 +8895,12 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="335"/>
-      <c r="B5" s="336"/>
-      <c r="C5" s="336"/>
-      <c r="D5" s="336"/>
-      <c r="E5" s="336"/>
-      <c r="F5" s="337"/>
+      <c r="A5" s="322"/>
+      <c r="B5" s="323"/>
+      <c r="C5" s="323"/>
+      <c r="D5" s="323"/>
+      <c r="E5" s="323"/>
+      <c r="F5" s="324"/>
       <c r="G5" s="321" t="s">
         <v>274</v>
       </c>
@@ -8712,14 +8920,14 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="335" t="s">
+      <c r="A6" s="322" t="s">
         <v>488</v>
       </c>
-      <c r="B6" s="336"/>
-      <c r="C6" s="336"/>
-      <c r="D6" s="336"/>
-      <c r="E6" s="336"/>
-      <c r="F6" s="337"/>
+      <c r="B6" s="323"/>
+      <c r="C6" s="323"/>
+      <c r="D6" s="323"/>
+      <c r="E6" s="323"/>
+      <c r="F6" s="324"/>
       <c r="G6" s="321" t="s">
         <v>280</v>
       </c>
@@ -8737,14 +8945,14 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="335" t="s">
+      <c r="A7" s="322" t="s">
         <v>489</v>
       </c>
-      <c r="B7" s="336"/>
-      <c r="C7" s="336"/>
-      <c r="D7" s="336"/>
-      <c r="E7" s="336"/>
-      <c r="F7" s="337"/>
+      <c r="B7" s="323"/>
+      <c r="C7" s="323"/>
+      <c r="D7" s="323"/>
+      <c r="E7" s="323"/>
+      <c r="F7" s="324"/>
       <c r="G7" s="321"/>
       <c r="H7" s="321"/>
       <c r="I7" s="321"/>
@@ -8756,12 +8964,12 @@
       <c r="O7" s="205"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="335"/>
-      <c r="B8" s="336"/>
-      <c r="C8" s="336"/>
-      <c r="D8" s="336"/>
-      <c r="E8" s="336"/>
-      <c r="F8" s="337"/>
+      <c r="A8" s="322"/>
+      <c r="B8" s="323"/>
+      <c r="C8" s="323"/>
+      <c r="D8" s="323"/>
+      <c r="E8" s="323"/>
+      <c r="F8" s="324"/>
       <c r="G8" s="321"/>
       <c r="H8" s="321"/>
       <c r="I8" s="321"/>
@@ -8774,17 +8982,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="323" t="s">
+      <c r="A10" s="330" t="s">
         <v>349</v>
       </c>
-      <c r="B10" s="324"/>
-      <c r="C10" s="324"/>
-      <c r="D10" s="324"/>
-      <c r="E10" s="324"/>
-      <c r="F10" s="324"/>
-      <c r="G10" s="324"/>
-      <c r="H10" s="324"/>
-      <c r="I10" s="325"/>
+      <c r="B10" s="331"/>
+      <c r="C10" s="331"/>
+      <c r="D10" s="331"/>
+      <c r="E10" s="331"/>
+      <c r="F10" s="331"/>
+      <c r="G10" s="331"/>
+      <c r="H10" s="331"/>
+      <c r="I10" s="332"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="129" t="s">
@@ -9391,20 +9599,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="G4:I4"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="M2:O2"/>
@@ -9417,6 +9611,20 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9476,7 +9684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -9508,68 +9716,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="338" t="s">
+      <c r="A1" s="325" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="338"/>
-      <c r="H1" s="338"/>
-      <c r="I1" s="338"/>
-      <c r="J1" s="338"/>
-      <c r="K1" s="338"/>
-      <c r="L1" s="338"/>
-      <c r="M1" s="338"/>
-      <c r="N1" s="338"/>
-      <c r="O1" s="338"/>
-      <c r="P1" s="338"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
+      <c r="N1" s="325"/>
+      <c r="O1" s="325"/>
+      <c r="P1" s="325"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="339" t="s">
+      <c r="A2" s="326" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="339"/>
-      <c r="C2" s="339"/>
-      <c r="D2" s="339"/>
-      <c r="E2" s="339"/>
-      <c r="F2" s="339"/>
-      <c r="G2" s="339" t="s">
+      <c r="B2" s="326"/>
+      <c r="C2" s="326"/>
+      <c r="D2" s="326"/>
+      <c r="E2" s="326"/>
+      <c r="F2" s="326"/>
+      <c r="G2" s="326" t="s">
         <v>242</v>
       </c>
-      <c r="H2" s="339"/>
-      <c r="I2" s="339"/>
-      <c r="J2" s="339"/>
-      <c r="K2" s="339"/>
-      <c r="L2" s="339"/>
-      <c r="M2" s="322" t="s">
+      <c r="H2" s="326"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="326"/>
+      <c r="L2" s="326"/>
+      <c r="M2" s="329" t="s">
         <v>289</v>
       </c>
-      <c r="N2" s="322"/>
-      <c r="O2" s="322"/>
-      <c r="P2" s="322"/>
+      <c r="N2" s="329"/>
+      <c r="O2" s="329"/>
+      <c r="P2" s="329"/>
       <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="341" t="s">
+      <c r="A3" s="328" t="s">
         <v>490</v>
       </c>
-      <c r="B3" s="341"/>
-      <c r="C3" s="341"/>
-      <c r="D3" s="341"/>
-      <c r="E3" s="341"/>
-      <c r="F3" s="341"/>
-      <c r="G3" s="341" t="s">
+      <c r="B3" s="328"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="328" t="s">
         <v>291</v>
       </c>
-      <c r="H3" s="341"/>
-      <c r="I3" s="341"/>
-      <c r="J3" s="341"/>
-      <c r="K3" s="341"/>
-      <c r="L3" s="341"/>
+      <c r="H3" s="328"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="328"/>
+      <c r="K3" s="328"/>
+      <c r="L3" s="328"/>
       <c r="M3" s="202" t="s">
         <v>293</v>
       </c>
@@ -9585,22 +9793,22 @@
       <c r="Q3" s="192"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="332" t="s">
+      <c r="A4" s="339" t="s">
         <v>487</v>
       </c>
-      <c r="B4" s="333"/>
-      <c r="C4" s="333"/>
-      <c r="D4" s="333"/>
-      <c r="E4" s="333"/>
-      <c r="F4" s="334"/>
-      <c r="G4" s="340" t="s">
+      <c r="B4" s="340"/>
+      <c r="C4" s="340"/>
+      <c r="D4" s="340"/>
+      <c r="E4" s="340"/>
+      <c r="F4" s="341"/>
+      <c r="G4" s="327" t="s">
         <v>244</v>
       </c>
-      <c r="H4" s="340"/>
-      <c r="I4" s="340"/>
-      <c r="J4" s="340"/>
-      <c r="K4" s="340"/>
-      <c r="L4" s="340"/>
+      <c r="H4" s="327"/>
+      <c r="I4" s="327"/>
+      <c r="J4" s="327"/>
+      <c r="K4" s="327"/>
+      <c r="L4" s="327"/>
       <c r="M4" s="203" t="s">
         <v>248</v>
       </c>
@@ -9615,12 +9823,12 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="335"/>
-      <c r="B5" s="336"/>
-      <c r="C5" s="336"/>
-      <c r="D5" s="336"/>
-      <c r="E5" s="336"/>
-      <c r="F5" s="337"/>
+      <c r="A5" s="322"/>
+      <c r="B5" s="323"/>
+      <c r="C5" s="323"/>
+      <c r="D5" s="323"/>
+      <c r="E5" s="323"/>
+      <c r="F5" s="324"/>
       <c r="G5" s="342" t="s">
         <v>4</v>
       </c>
@@ -9641,14 +9849,14 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="335" t="s">
+      <c r="A6" s="322" t="s">
         <v>493</v>
       </c>
-      <c r="B6" s="336"/>
-      <c r="C6" s="336"/>
-      <c r="D6" s="336"/>
-      <c r="E6" s="336"/>
-      <c r="F6" s="337"/>
+      <c r="B6" s="323"/>
+      <c r="C6" s="323"/>
+      <c r="D6" s="323"/>
+      <c r="E6" s="323"/>
+      <c r="F6" s="324"/>
       <c r="G6" s="342" t="s">
         <v>4</v>
       </c>
@@ -9667,12 +9875,12 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="335"/>
-      <c r="B7" s="336"/>
-      <c r="C7" s="336"/>
-      <c r="D7" s="336"/>
-      <c r="E7" s="336"/>
-      <c r="F7" s="337"/>
+      <c r="A7" s="322"/>
+      <c r="B7" s="323"/>
+      <c r="C7" s="323"/>
+      <c r="D7" s="323"/>
+      <c r="E7" s="323"/>
+      <c r="F7" s="324"/>
       <c r="G7" s="342"/>
       <c r="H7" s="342"/>
       <c r="I7" s="342"/>
@@ -9685,12 +9893,12 @@
       <c r="P7" s="205"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="335"/>
-      <c r="B8" s="336"/>
-      <c r="C8" s="336"/>
-      <c r="D8" s="336"/>
-      <c r="E8" s="336"/>
-      <c r="F8" s="337"/>
+      <c r="A8" s="322"/>
+      <c r="B8" s="323"/>
+      <c r="C8" s="323"/>
+      <c r="D8" s="323"/>
+      <c r="E8" s="323"/>
+      <c r="F8" s="324"/>
       <c r="G8" s="342"/>
       <c r="H8" s="342"/>
       <c r="I8" s="342"/>
@@ -9704,17 +9912,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="323" t="s">
+      <c r="A10" s="330" t="s">
         <v>348</v>
       </c>
-      <c r="B10" s="324"/>
-      <c r="C10" s="324"/>
-      <c r="D10" s="324"/>
-      <c r="E10" s="324"/>
-      <c r="F10" s="324"/>
-      <c r="G10" s="324"/>
-      <c r="H10" s="324"/>
-      <c r="I10" s="325"/>
+      <c r="B10" s="331"/>
+      <c r="C10" s="331"/>
+      <c r="D10" s="331"/>
+      <c r="E10" s="331"/>
+      <c r="F10" s="331"/>
+      <c r="G10" s="331"/>
+      <c r="H10" s="331"/>
+      <c r="I10" s="332"/>
     </row>
     <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="129" t="s">
@@ -10054,6 +10262,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -10068,13 +10283,6 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10134,13 +10342,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -11096,7 +11304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
@@ -11557,7 +11765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:T12"/>
   <sheetViews>
@@ -11839,7 +12047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:P15"/>
   <sheetViews>

--- a/test_templates/test_batch_template5.xlsx
+++ b/test_templates/test_batch_template5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coverney\Documents\GitHub\TASBEFlowAnalytics\test_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FA2C84-9BA7-42E1-A1E3-98247CF8E199}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F39317-2DE7-4EF7-BAD5-55364822FCEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Calibration" sheetId="1" r:id="rId3"/>
     <sheet name="Comparative Analysis" sheetId="12" r:id="rId4"/>
     <sheet name="Transfer Curve Analysis" sheetId="13" r:id="rId5"/>
-    <sheet name="Optional Settings" sheetId="15" r:id="rId6"/>
+    <sheet name="Optional Settings" sheetId="16" r:id="rId6"/>
     <sheet name="96w" sheetId="9" r:id="rId7"/>
     <sheet name="48w" sheetId="11" r:id="rId8"/>
     <sheet name="24w" sheetId="10" r:id="rId9"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="600">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2659,6 +2659,171 @@
   </si>
   <si>
     <t>CSV Header 4</t>
+  </si>
+  <si>
+    <t>gating.deviations</t>
+  </si>
+  <si>
+    <t>Number of standard deviations within which gate selects data</t>
+  </si>
+  <si>
+    <t>gating.tightening</t>
+  </si>
+  <si>
+    <t>Amount that selected gate components are further tightened (range: [0,1])</t>
+  </si>
+  <si>
+    <t>gating.kComponents</t>
+  </si>
+  <si>
+    <t>Number of gaussian components in a gate</t>
+  </si>
+  <si>
+    <t>gating.channelNames</t>
+  </si>
+  <si>
+    <t>Channels to use for gating</t>
+  </si>
+  <si>
+    <t>FSC-A,SSC-A</t>
+  </si>
+  <si>
+    <t>gating.fraction</t>
+  </si>
+  <si>
+    <t>Fraction of range considered saturated and thus excluded from computation</t>
+  </si>
+  <si>
+    <t>gating.selectedComponents</t>
+  </si>
+  <si>
+    <t>Set to force selection of particular components</t>
+  </si>
+  <si>
+    <t>gating.showNonselected</t>
+  </si>
+  <si>
+    <t>When true, show all gate components; when false, selected components only.</t>
+  </si>
+  <si>
+    <t>gating.largeOutliers</t>
+  </si>
+  <si>
+    <t>When true, plot gate outliers with large dots</t>
+  </si>
+  <si>
+    <t>gating.range</t>
+  </si>
+  <si>
+    <t>Force gate heatmap plotting range of [x_min y_min; x_max y_max]</t>
+  </si>
+  <si>
+    <t>gating.density</t>
+  </si>
+  <si>
+    <t>Gate heatmap style: set to 1 for image, 0 for contour</t>
+  </si>
+  <si>
+    <t>gating.plot</t>
+  </si>
+  <si>
+    <t>Determines whether gating plots should be created</t>
+  </si>
+  <si>
+    <t>gating.plotSize</t>
+  </si>
+  <si>
+    <t>Size (in inches) [X Y] for gating figures</t>
+  </si>
+  <si>
+    <t>gating.visiblePlots</t>
+  </si>
+  <si>
+    <t>If true, gating plots are visible; otherwise, they are hidden for later saving</t>
+  </si>
+  <si>
+    <t>autofluorescence</t>
+  </si>
+  <si>
+    <t>Settings for autofluorescence models</t>
+  </si>
+  <si>
+    <t>autofluorescence.dropFraction</t>
+  </si>
+  <si>
+    <t>Fraction of extrema (high and low) to drop before computing autofluorescence</t>
+  </si>
+  <si>
+    <t>autofluorescence.plot</t>
+  </si>
+  <si>
+    <t>Determines whether autofluorescence plots should be created</t>
+  </si>
+  <si>
+    <t>autofluorescence.visiblePlots</t>
+  </si>
+  <si>
+    <t>If true, autofluorescence plots are visible; otherwise, they are hidden for later saving</t>
+  </si>
+  <si>
+    <t>autofluorescence.plotSize</t>
+  </si>
+  <si>
+    <t>Size (in inches) [X Y] for autofluorescence figures</t>
+  </si>
+  <si>
+    <t>colortranslation</t>
+  </si>
+  <si>
+    <t>Settings for color translation models</t>
+  </si>
+  <si>
+    <t>colortranslation.rangeMin</t>
+  </si>
+  <si>
+    <t>Minimum for color translation histogram range (log10 scale)</t>
+  </si>
+  <si>
+    <t>colortranslation.rangeMax</t>
+  </si>
+  <si>
+    <t>Maximum in histogram for computing color translation (log10 scale)</t>
+  </si>
+  <si>
+    <t>colortranslation.binIncrement</t>
+  </si>
+  <si>
+    <t>Resolution of histogram bins used for computing color translation (log10 scale)</t>
+  </si>
+  <si>
+    <t>colortranslation.minSamples</t>
+  </si>
+  <si>
+    <t>Minimum number of samples in a histogram bin for use in computing color translation</t>
+  </si>
+  <si>
+    <t>colortranslation.channelMinimum</t>
+  </si>
+  <si>
+    <t>If set to [M1, M2, ...] trims channel i values below 10^Mi; otherwise drops those below 10^3</t>
+  </si>
+  <si>
+    <t>colortranslation.plot</t>
+  </si>
+  <si>
+    <t>Determines whether color translation plots should be created</t>
+  </si>
+  <si>
+    <t>colortranslation.visiblePlots</t>
+  </si>
+  <si>
+    <t>If true, color translation plots are visible; otherwise, they are hidden for later saving</t>
+  </si>
+  <si>
+    <t>colortranslation.plotSize</t>
+  </si>
+  <si>
+    <t>Size (in inches) [X Y] for color translation figures</t>
   </si>
 </sst>
 </file>
@@ -2972,7 +3137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -3561,15 +3726,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -3647,7 +3803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="373">
+  <cellXfs count="370">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3710,26 +3866,11 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4130,9 +4271,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -4192,13 +4330,6 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4318,34 +4449,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4353,11 +4461,145 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4401,89 +4643,11 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4545,7 +4709,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4582,6 +4746,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4606,45 +4809,6 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4700,61 +4864,41 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4848,7 +4992,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4917,7 +5061,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4991,7 +5135,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5065,7 +5209,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5134,7 +5278,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5208,7 +5352,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5277,7 +5421,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5606,662 +5750,641 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="153" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="84" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="84" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="84" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="84" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="139" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="84" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="84" customWidth="1"/>
-    <col min="9" max="9" width="20" style="84" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="84" customWidth="1"/>
-    <col min="11" max="11" width="6" style="84" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="84" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="84"/>
+    <col min="1" max="1" width="20.875" style="148" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="79" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="79" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="79" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="134" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="79" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="79" customWidth="1"/>
+    <col min="9" max="9" width="20" style="79" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="79" customWidth="1"/>
+    <col min="11" max="11" width="6" style="79" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="79" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="256" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="271"/>
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="258"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="85"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="248" t="s">
+      <c r="A3" s="274" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="249"/>
+      <c r="B3" s="275"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="262" t="s">
+      <c r="A4" s="270" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="263"/>
+      <c r="B4" s="271"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="264" t="s">
+      <c r="A5" s="288" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="265"/>
+      <c r="B5" s="289"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="85"/>
+      <c r="B6" s="80"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="274" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="250"/>
-      <c r="C7" s="250"/>
-      <c r="D7" s="250"/>
-      <c r="E7" s="250"/>
-      <c r="F7" s="250"/>
-      <c r="G7" s="250"/>
-      <c r="H7" s="250"/>
-      <c r="I7" s="250"/>
-      <c r="J7" s="250"/>
-      <c r="K7" s="249"/>
+      <c r="B7" s="276"/>
+      <c r="C7" s="276"/>
+      <c r="D7" s="276"/>
+      <c r="E7" s="276"/>
+      <c r="F7" s="276"/>
+      <c r="G7" s="276"/>
+      <c r="H7" s="276"/>
+      <c r="I7" s="276"/>
+      <c r="J7" s="276"/>
+      <c r="K7" s="275"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="272" t="s">
+      <c r="A8" s="259" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="273"/>
-      <c r="C8" s="273"/>
-      <c r="D8" s="273"/>
-      <c r="E8" s="273"/>
-      <c r="F8" s="273"/>
-      <c r="G8" s="273"/>
-      <c r="H8" s="273"/>
-      <c r="I8" s="273"/>
-      <c r="J8" s="273"/>
-      <c r="K8" s="274"/>
+      <c r="B8" s="260"/>
+      <c r="C8" s="260"/>
+      <c r="D8" s="260"/>
+      <c r="E8" s="260"/>
+      <c r="F8" s="260"/>
+      <c r="G8" s="260"/>
+      <c r="H8" s="260"/>
+      <c r="I8" s="260"/>
+      <c r="J8" s="260"/>
+      <c r="K8" s="261"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="275"/>
-      <c r="B9" s="276"/>
-      <c r="C9" s="276"/>
-      <c r="D9" s="276"/>
-      <c r="E9" s="276"/>
-      <c r="F9" s="276"/>
-      <c r="G9" s="276"/>
-      <c r="H9" s="276"/>
-      <c r="I9" s="276"/>
-      <c r="J9" s="276"/>
-      <c r="K9" s="277"/>
+      <c r="A9" s="262"/>
+      <c r="B9" s="263"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="263"/>
+      <c r="H9" s="263"/>
+      <c r="I9" s="263"/>
+      <c r="J9" s="263"/>
+      <c r="K9" s="264"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="154"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="140"/>
+      <c r="A10" s="149"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="135"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="251" t="s">
+      <c r="A11" s="277" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="252"/>
-      <c r="C11" s="252"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="140"/>
+      <c r="B11" s="278"/>
+      <c r="C11" s="278"/>
+      <c r="D11" s="279"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="135"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="254" t="s">
+      <c r="A12" s="280" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="255"/>
-      <c r="C12" s="256" t="s">
+      <c r="B12" s="281"/>
+      <c r="C12" s="282" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="257"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="140"/>
+      <c r="D12" s="283"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="135"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="258"/>
-      <c r="B13" s="259"/>
-      <c r="C13" s="260"/>
-      <c r="D13" s="261"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="140"/>
+      <c r="A13" s="284"/>
+      <c r="B13" s="285"/>
+      <c r="C13" s="286"/>
+      <c r="D13" s="287"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="135"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="251" t="s">
+      <c r="A15" s="277" t="s">
         <v>271</v>
       </c>
-      <c r="B15" s="253"/>
-      <c r="E15" s="251" t="s">
+      <c r="B15" s="279"/>
+      <c r="E15" s="277" t="s">
         <v>310</v>
       </c>
-      <c r="F15" s="252"/>
-      <c r="G15" s="252"/>
-      <c r="H15" s="252"/>
-      <c r="I15" s="253"/>
+      <c r="F15" s="278"/>
+      <c r="G15" s="278"/>
+      <c r="H15" s="278"/>
+      <c r="I15" s="279"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="262" t="s">
+      <c r="A16" s="270" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="263"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="278" t="s">
+      <c r="B16" s="271"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="265" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="279"/>
-      <c r="G16" s="279"/>
-      <c r="H16" s="279"/>
-      <c r="I16" s="280"/>
+      <c r="F16" s="266"/>
+      <c r="G16" s="266"/>
+      <c r="H16" s="266"/>
+      <c r="I16" s="267"/>
     </row>
     <row r="17" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="155" t="s">
+      <c r="A17" s="150" t="s">
         <v>233</v>
       </c>
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="108" t="s">
         <v>274</v>
       </c>
-      <c r="C17" s="88"/>
-      <c r="E17" s="281" t="s">
+      <c r="C17" s="83"/>
+      <c r="E17" s="268" t="s">
         <v>231</v>
       </c>
-      <c r="F17" s="282"/>
-      <c r="G17" s="199" t="s">
+      <c r="F17" s="269"/>
+      <c r="G17" s="193" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="199" t="s">
+      <c r="H17" s="193" t="s">
         <v>158</v>
       </c>
-      <c r="I17" s="187" t="s">
+      <c r="I17" s="181" t="s">
         <v>351</v>
       </c>
-      <c r="J17" s="359" t="s">
+      <c r="J17" s="272" t="s">
         <v>541</v>
       </c>
-      <c r="K17" s="360"/>
+      <c r="K17" s="273"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="156" t="s">
+      <c r="A18" s="151" t="s">
         <v>265</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="84" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="88"/>
-      <c r="E18" s="82">
+      <c r="C18" s="83"/>
+      <c r="E18" s="77">
         <v>1</v>
       </c>
-      <c r="F18" s="92" t="s">
+      <c r="F18" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32" t="s">
+      <c r="G18" s="27"/>
+      <c r="H18" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="266" t="s">
+      <c r="I18" s="244" t="s">
         <v>480</v>
       </c>
-      <c r="J18" s="361"/>
-      <c r="K18" s="362"/>
+      <c r="J18" s="232"/>
+      <c r="K18" s="233"/>
     </row>
     <row r="19" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="157" t="s">
+      <c r="A19" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="88"/>
-      <c r="E19" s="82">
+      <c r="B19" s="109"/>
+      <c r="C19" s="83"/>
+      <c r="E19" s="77">
         <v>2</v>
       </c>
-      <c r="F19" s="92" t="s">
+      <c r="F19" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="73" t="s">
+      <c r="H19" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="I19" s="266"/>
-      <c r="J19" s="361"/>
-      <c r="K19" s="362"/>
+      <c r="I19" s="244"/>
+      <c r="J19" s="232"/>
+      <c r="K19" s="233"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="157" t="s">
+      <c r="A20" s="152" t="s">
         <v>284</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="90"/>
-      <c r="E20" s="83">
+      <c r="B20" s="109"/>
+      <c r="C20" s="85"/>
+      <c r="E20" s="78">
         <v>3</v>
       </c>
-      <c r="F20" s="138" t="s">
+      <c r="F20" s="133" t="s">
         <v>170</v>
       </c>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="267"/>
-      <c r="J20" s="363"/>
-      <c r="K20" s="364"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="245"/>
+      <c r="J20" s="234"/>
+      <c r="K20" s="235"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="157" t="s">
+      <c r="A21" s="152" t="s">
         <v>288</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="31"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="26"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="158"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="88"/>
-      <c r="J22" s="80"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="83"/>
+      <c r="J22" s="75"/>
     </row>
     <row r="23" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="159"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="90"/>
+      <c r="A23" s="154"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="85"/>
       <c r="E23" s="246" t="s">
         <v>194</v>
       </c>
-      <c r="F23" s="268"/>
-      <c r="G23" s="268"/>
-      <c r="H23" s="268"/>
-      <c r="I23" s="247"/>
+      <c r="F23" s="247"/>
+      <c r="G23" s="247"/>
+      <c r="H23" s="247"/>
+      <c r="I23" s="248"/>
     </row>
     <row r="24" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="246" t="s">
         <v>236</v>
       </c>
-      <c r="B24" s="247"/>
-      <c r="C24" s="31"/>
-      <c r="E24" s="286" t="s">
+      <c r="B24" s="248"/>
+      <c r="C24" s="26"/>
+      <c r="E24" s="252" t="s">
         <v>231</v>
       </c>
-      <c r="F24" s="287"/>
-      <c r="G24" s="199" t="s">
+      <c r="F24" s="253"/>
+      <c r="G24" s="193" t="s">
         <v>157</v>
       </c>
-      <c r="H24" s="199" t="s">
+      <c r="H24" s="193" t="s">
         <v>158</v>
       </c>
-      <c r="I24" s="187" t="s">
+      <c r="I24" s="181" t="s">
         <v>352</v>
       </c>
-      <c r="J24" s="359" t="s">
+      <c r="J24" s="272" t="s">
         <v>542</v>
       </c>
-      <c r="K24" s="360"/>
+      <c r="K24" s="273"/>
     </row>
     <row r="25" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="155" t="s">
+      <c r="A25" s="150" t="s">
         <v>233</v>
       </c>
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="108" t="s">
         <v>280</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="E25" s="82">
+      <c r="C25" s="26"/>
+      <c r="E25" s="77">
         <v>1</v>
       </c>
-      <c r="F25" s="92" t="s">
+      <c r="F25" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32" t="s">
+      <c r="G25" s="27"/>
+      <c r="H25" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="283" t="s">
+      <c r="I25" s="249" t="s">
         <v>481</v>
       </c>
-      <c r="J25" s="361"/>
-      <c r="K25" s="362"/>
+      <c r="J25" s="232"/>
+      <c r="K25" s="233"/>
     </row>
     <row r="26" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="156" t="s">
+      <c r="A26" s="151" t="s">
         <v>265</v>
       </c>
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="84" t="s">
         <v>234</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="E26" s="82">
+      <c r="C26" s="83"/>
+      <c r="E26" s="77">
         <v>2</v>
       </c>
-      <c r="F26" s="92" t="s">
+      <c r="F26" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="73" t="s">
+      <c r="H26" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="I26" s="284"/>
-      <c r="J26" s="361"/>
-      <c r="K26" s="362"/>
+      <c r="I26" s="250"/>
+      <c r="J26" s="232"/>
+      <c r="K26" s="233"/>
     </row>
     <row r="27" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="157" t="s">
+      <c r="A27" s="152" t="s">
         <v>281</v>
       </c>
-      <c r="B27" s="114"/>
-      <c r="C27" s="90"/>
-      <c r="E27" s="83">
+      <c r="B27" s="109"/>
+      <c r="C27" s="85"/>
+      <c r="E27" s="78">
         <v>3</v>
       </c>
-      <c r="F27" s="138" t="s">
+      <c r="F27" s="133" t="s">
         <v>170</v>
       </c>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="285"/>
-      <c r="J27" s="363"/>
-      <c r="K27" s="364"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="251"/>
+      <c r="J27" s="234"/>
+      <c r="K27" s="235"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="157" t="s">
+      <c r="A28" s="152" t="s">
         <v>282</v>
       </c>
-      <c r="B28" s="114"/>
-      <c r="C28" s="31"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="80"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="26"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="75"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="157"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="31"/>
-      <c r="I29" s="80"/>
+      <c r="A29" s="152"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="26"/>
+      <c r="I29" s="75"/>
     </row>
     <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="158"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="88"/>
+      <c r="A30" s="153"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="83"/>
       <c r="E30" s="246" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="268"/>
-      <c r="G30" s="268"/>
-      <c r="H30" s="268"/>
-      <c r="I30" s="247"/>
+      <c r="F30" s="247"/>
+      <c r="G30" s="247"/>
+      <c r="H30" s="247"/>
+      <c r="I30" s="248"/>
     </row>
     <row r="31" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="159"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="E31" s="288" t="s">
+      <c r="A31" s="154"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="E31" s="254" t="s">
         <v>458</v>
       </c>
-      <c r="F31" s="289"/>
-      <c r="G31" s="197" t="s">
+      <c r="F31" s="255"/>
+      <c r="G31" s="191" t="s">
         <v>157</v>
       </c>
-      <c r="H31" s="197" t="s">
+      <c r="H31" s="191" t="s">
         <v>158</v>
       </c>
-      <c r="I31" s="187" t="s">
+      <c r="I31" s="181" t="s">
         <v>353</v>
       </c>
-      <c r="J31" s="365" t="s">
+      <c r="J31" s="236" t="s">
         <v>543</v>
       </c>
-      <c r="K31" s="366"/>
+      <c r="K31" s="237"/>
     </row>
     <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="246" t="s">
         <v>237</v>
       </c>
-      <c r="B32" s="247"/>
-      <c r="C32" s="31"/>
-      <c r="E32" s="82">
+      <c r="B32" s="248"/>
+      <c r="C32" s="26"/>
+      <c r="E32" s="77">
         <v>1</v>
       </c>
-      <c r="F32" s="92" t="s">
+      <c r="F32" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="266"/>
-      <c r="J32" s="367"/>
-      <c r="K32" s="368"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="244"/>
+      <c r="J32" s="238"/>
+      <c r="K32" s="239"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="155" t="s">
+      <c r="A33" s="150" t="s">
         <v>233</v>
       </c>
-      <c r="B33" s="113" t="s">
+      <c r="B33" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="C33" s="88"/>
-      <c r="E33" s="82">
+      <c r="C33" s="83"/>
+      <c r="E33" s="77">
         <v>2</v>
       </c>
-      <c r="F33" s="92" t="s">
+      <c r="F33" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="32" t="s">
+      <c r="G33" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="266"/>
-      <c r="J33" s="369"/>
-      <c r="K33" s="370"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="244"/>
+      <c r="J33" s="240"/>
+      <c r="K33" s="241"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="156" t="s">
+      <c r="A34" s="151" t="s">
         <v>235</v>
       </c>
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="84" t="s">
         <v>234</v>
       </c>
-      <c r="E34" s="82">
+      <c r="E34" s="77">
         <v>3</v>
       </c>
-      <c r="F34" s="92"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="266"/>
-      <c r="J34" s="369"/>
-      <c r="K34" s="370"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="244"/>
+      <c r="J34" s="240"/>
+      <c r="K34" s="241"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="157" t="s">
+      <c r="A35" s="152" t="s">
         <v>220</v>
       </c>
-      <c r="B35" s="114"/>
-      <c r="E35" s="82">
+      <c r="B35" s="109"/>
+      <c r="E35" s="77">
         <v>4</v>
       </c>
-      <c r="F35" s="92"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="266"/>
-      <c r="J35" s="369"/>
-      <c r="K35" s="370"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="244"/>
+      <c r="J35" s="240"/>
+      <c r="K35" s="241"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="157" t="s">
+      <c r="A36" s="152" t="s">
         <v>221</v>
       </c>
-      <c r="B36" s="114"/>
-      <c r="E36" s="82">
+      <c r="B36" s="109"/>
+      <c r="E36" s="77">
         <v>5</v>
       </c>
-      <c r="F36" s="92"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="266"/>
-      <c r="J36" s="369"/>
-      <c r="K36" s="370"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="244"/>
+      <c r="J36" s="240"/>
+      <c r="K36" s="241"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="157" t="s">
+      <c r="A37" s="152" t="s">
         <v>222</v>
       </c>
-      <c r="B37" s="114"/>
-      <c r="E37" s="83">
+      <c r="B37" s="109"/>
+      <c r="E37" s="78">
         <v>6</v>
       </c>
-      <c r="F37" s="138"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="267"/>
-      <c r="J37" s="371"/>
-      <c r="K37" s="372"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="245"/>
+      <c r="J37" s="242"/>
+      <c r="K37" s="243"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="158" t="s">
+      <c r="A38" s="153" t="s">
         <v>223</v>
       </c>
-      <c r="B38" s="115"/>
+      <c r="B38" s="110"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="160"/>
-      <c r="B39" s="119"/>
+      <c r="A39" s="155"/>
+      <c r="B39" s="114"/>
     </row>
     <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E40" s="246" t="s">
         <v>196</v>
       </c>
-      <c r="F40" s="268"/>
-      <c r="G40" s="268"/>
-      <c r="H40" s="268"/>
-      <c r="I40" s="247"/>
+      <c r="F40" s="247"/>
+      <c r="G40" s="247"/>
+      <c r="H40" s="247"/>
+      <c r="I40" s="248"/>
     </row>
     <row r="41" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="286"/>
-      <c r="F41" s="287"/>
-      <c r="G41" s="81" t="s">
+      <c r="E41" s="252"/>
+      <c r="F41" s="253"/>
+      <c r="G41" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="H41" s="81" t="s">
+      <c r="H41" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="I41" s="187" t="s">
+      <c r="I41" s="181" t="s">
         <v>354</v>
       </c>
-      <c r="J41" s="365" t="s">
+      <c r="J41" s="236" t="s">
         <v>544</v>
       </c>
-      <c r="K41" s="366"/>
+      <c r="K41" s="237"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E42" s="82">
+      <c r="E42" s="77">
         <v>1</v>
       </c>
-      <c r="F42" s="92"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="266"/>
-      <c r="J42" s="367"/>
-      <c r="K42" s="368"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="244"/>
+      <c r="J42" s="238"/>
+      <c r="K42" s="239"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E43" s="82">
+      <c r="E43" s="77">
         <v>2</v>
       </c>
-      <c r="F43" s="92"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="266"/>
-      <c r="J43" s="369"/>
-      <c r="K43" s="370"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="244"/>
+      <c r="J43" s="240"/>
+      <c r="K43" s="241"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E44" s="82">
+      <c r="E44" s="77">
         <v>3</v>
       </c>
-      <c r="F44" s="92"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="266"/>
-      <c r="J44" s="369"/>
-      <c r="K44" s="370"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="244"/>
+      <c r="J44" s="240"/>
+      <c r="K44" s="241"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E45" s="82">
+      <c r="E45" s="77">
         <v>4</v>
       </c>
-      <c r="F45" s="92"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="266"/>
-      <c r="J45" s="369"/>
-      <c r="K45" s="370"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="244"/>
+      <c r="J45" s="240"/>
+      <c r="K45" s="241"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E46" s="82">
+      <c r="E46" s="77">
         <v>5</v>
       </c>
-      <c r="F46" s="92"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="266"/>
-      <c r="J46" s="369"/>
-      <c r="K46" s="370"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="244"/>
+      <c r="J46" s="240"/>
+      <c r="K46" s="241"/>
     </row>
     <row r="47" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="83">
+      <c r="E47" s="78">
         <v>6</v>
       </c>
-      <c r="F47" s="138"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="267"/>
-      <c r="J47" s="371"/>
-      <c r="K47" s="372"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="245"/>
+      <c r="J47" s="242"/>
+      <c r="K47" s="243"/>
     </row>
     <row r="48" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="J25:K27"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K37"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K47"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -6278,6 +6401,27 @@
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
     <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="J25:K27"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K37"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6343,17 +6487,17 @@
       <c r="H2" s="296"/>
       <c r="I2" s="296"/>
       <c r="J2" s="297"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="167" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="170" t="s">
         <v>312</v>
       </c>
       <c r="C3" s="298" t="s">
@@ -6363,667 +6507,667 @@
       <c r="E3" s="299"/>
       <c r="F3" s="299"/>
       <c r="G3" s="300"/>
-      <c r="H3" s="175" t="s">
+      <c r="H3" s="170" t="s">
         <v>313</v>
       </c>
-      <c r="I3" s="175" t="s">
+      <c r="I3" s="170" t="s">
         <v>314</v>
       </c>
-      <c r="J3" s="176" t="s">
+      <c r="J3" s="171" t="s">
         <v>315</v>
       </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="137" t="s">
+      <c r="D4" s="132" t="s">
         <v>274</v>
       </c>
-      <c r="E4" s="137" t="s">
+      <c r="E4" s="132" t="s">
         <v>287</v>
       </c>
-      <c r="F4" s="137" t="s">
+      <c r="F4" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="G4" s="137" t="s">
+      <c r="G4" s="132" t="s">
         <v>295</v>
       </c>
-      <c r="H4" s="137" t="s">
+      <c r="H4" s="132" t="s">
         <v>198</v>
       </c>
-      <c r="I4" s="137" t="s">
+      <c r="I4" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="191" t="s">
+      <c r="J4" s="185" t="s">
         <v>401</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106">
+      <c r="A5" s="101">
         <v>1</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="72" t="s">
         <v>400</v>
       </c>
-      <c r="C5" s="107">
+      <c r="C5" s="102">
         <v>0.1</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="102" t="s">
         <v>282</v>
       </c>
-      <c r="G5" s="107">
+      <c r="G5" s="102">
         <v>0.1</v>
       </c>
-      <c r="H5" s="108">
+      <c r="H5" s="103">
         <v>1</v>
       </c>
-      <c r="I5" s="109" t="s">
+      <c r="I5" s="104" t="s">
         <v>199</v>
       </c>
-      <c r="J5" s="110"/>
-      <c r="K5" s="198" t="s">
+      <c r="J5" s="105"/>
+      <c r="K5" s="192" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="106">
+      <c r="A6" s="101">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="107">
+      <c r="C6" s="102">
         <v>0.2</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="102" t="s">
         <v>221</v>
       </c>
-      <c r="F6" s="107" t="s">
+      <c r="F6" s="102" t="s">
         <v>282</v>
       </c>
-      <c r="G6" s="107">
+      <c r="G6" s="102">
         <v>0.2</v>
       </c>
-      <c r="H6" s="108">
+      <c r="H6" s="103">
         <v>1</v>
       </c>
-      <c r="I6" s="109" t="s">
+      <c r="I6" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="J6" s="110"/>
-      <c r="K6" s="198" t="s">
+      <c r="J6" s="105"/>
+      <c r="K6" s="192" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="106">
+      <c r="A7" s="101">
         <f t="shared" ref="A7:A13" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="107">
+      <c r="C7" s="102">
         <v>0.5</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="102" t="s">
         <v>222</v>
       </c>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="108">
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="103">
         <v>1</v>
       </c>
-      <c r="I7" s="109" t="s">
+      <c r="I7" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="198" t="s">
+      <c r="J7" s="105"/>
+      <c r="K7" s="192" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106">
+      <c r="A8" s="101">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="107">
+      <c r="C8" s="102">
         <v>1</v>
       </c>
-      <c r="D8" s="107" t="s">
+      <c r="D8" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="107" t="s">
+      <c r="F8" s="102" t="s">
         <v>281</v>
       </c>
-      <c r="G8" s="107">
+      <c r="G8" s="102">
         <v>0.1</v>
       </c>
-      <c r="H8" s="108">
+      <c r="H8" s="103">
         <v>1</v>
       </c>
-      <c r="I8" s="109" t="s">
+      <c r="I8" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="J8" s="110"/>
-      <c r="K8" s="198" t="s">
+      <c r="J8" s="105"/>
+      <c r="K8" s="192" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="106">
+      <c r="A9" s="101">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="107">
+      <c r="C9" s="102">
         <v>2</v>
       </c>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107" t="s">
+      <c r="E9" s="102"/>
+      <c r="F9" s="102" t="s">
         <v>281</v>
       </c>
-      <c r="G9" s="107">
+      <c r="G9" s="102">
         <v>0.2</v>
       </c>
-      <c r="H9" s="108">
+      <c r="H9" s="103">
         <v>1</v>
       </c>
-      <c r="I9" s="109" t="s">
+      <c r="I9" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="J9" s="110"/>
-      <c r="K9" s="198" t="s">
+      <c r="J9" s="105"/>
+      <c r="K9" s="192" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="106">
+      <c r="A10" s="101">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="107">
+      <c r="C10" s="102">
         <v>5</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="102" t="s">
         <v>288</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="108">
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="103">
         <v>1</v>
       </c>
-      <c r="I10" s="109" t="s">
+      <c r="I10" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="J10" s="110"/>
-      <c r="K10" s="198" t="s">
+      <c r="J10" s="105"/>
+      <c r="K10" s="192" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="106">
+      <c r="A11" s="101">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="107">
+      <c r="C11" s="102">
         <v>10</v>
       </c>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="102" t="s">
         <v>288</v>
       </c>
-      <c r="E11" s="107" t="s">
+      <c r="E11" s="102" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="108">
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="103">
         <v>1</v>
       </c>
-      <c r="I11" s="109" t="s">
+      <c r="I11" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="J11" s="110"/>
-      <c r="K11" s="198" t="s">
+      <c r="J11" s="105"/>
+      <c r="K11" s="192" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="106">
+      <c r="A12" s="101">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="107">
+      <c r="C12" s="102">
         <v>20</v>
       </c>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="102" t="s">
         <v>288</v>
       </c>
-      <c r="E12" s="107" t="s">
+      <c r="E12" s="102" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="108">
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="103">
         <v>1</v>
       </c>
-      <c r="I12" s="109" t="s">
+      <c r="I12" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="J12" s="110"/>
-      <c r="K12" s="198" t="s">
+      <c r="J12" s="105"/>
+      <c r="K12" s="192" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="106">
+      <c r="A13" s="101">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="C13" s="107">
+      <c r="C13" s="102">
         <v>50</v>
       </c>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="102" t="s">
         <v>288</v>
       </c>
-      <c r="E13" s="107" t="s">
+      <c r="E13" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="108">
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="103">
         <v>1</v>
       </c>
-      <c r="I13" s="109" t="s">
+      <c r="I13" s="104" t="s">
         <v>207</v>
       </c>
-      <c r="J13" s="110"/>
-      <c r="K13" s="198" t="s">
+      <c r="J13" s="105"/>
+      <c r="K13" s="192" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="106">
+      <c r="A14" s="101">
         <f>A13+1</f>
         <v>10</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="107">
+      <c r="C14" s="102">
         <v>100</v>
       </c>
-      <c r="D14" s="107" t="s">
+      <c r="D14" s="102" t="s">
         <v>284</v>
       </c>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107" t="s">
+      <c r="E14" s="102"/>
+      <c r="F14" s="102" t="s">
         <v>282</v>
       </c>
-      <c r="G14" s="107">
+      <c r="G14" s="102">
         <v>100</v>
       </c>
-      <c r="H14" s="108">
+      <c r="H14" s="103">
         <v>1</v>
       </c>
-      <c r="I14" s="109" t="s">
+      <c r="I14" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="J14" s="110"/>
-      <c r="K14" s="198" t="s">
+      <c r="J14" s="105"/>
+      <c r="K14" s="192" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="106">
+      <c r="A15" s="101">
         <f t="shared" ref="A15:A25" si="1">A14+1</f>
         <v>11</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="107">
+      <c r="C15" s="102">
         <v>200</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="D15" s="102" t="s">
         <v>284</v>
       </c>
-      <c r="E15" s="107" t="s">
+      <c r="E15" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="F15" s="107" t="s">
+      <c r="F15" s="102" t="s">
         <v>282</v>
       </c>
-      <c r="G15" s="107">
+      <c r="G15" s="102">
         <v>200</v>
       </c>
-      <c r="H15" s="108">
+      <c r="H15" s="103">
         <v>1</v>
       </c>
-      <c r="I15" s="109" t="s">
+      <c r="I15" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="J15" s="110"/>
-      <c r="K15" s="198" t="s">
+      <c r="J15" s="105"/>
+      <c r="K15" s="192" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="106">
+      <c r="A16" s="101">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="107">
+      <c r="C16" s="102">
         <v>500</v>
       </c>
-      <c r="D16" s="107" t="s">
+      <c r="D16" s="102" t="s">
         <v>284</v>
       </c>
-      <c r="E16" s="107" t="s">
+      <c r="E16" s="102" t="s">
         <v>221</v>
       </c>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="108">
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="103">
         <v>1</v>
       </c>
-      <c r="I16" s="109" t="s">
+      <c r="I16" s="104" t="s">
         <v>210</v>
       </c>
-      <c r="J16" s="110"/>
-      <c r="K16" s="198" t="s">
+      <c r="J16" s="105"/>
+      <c r="K16" s="192" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="106">
+      <c r="A17" s="101">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="107">
+      <c r="C17" s="102">
         <v>1000</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="102" t="s">
         <v>284</v>
       </c>
-      <c r="E17" s="107" t="s">
+      <c r="E17" s="102" t="s">
         <v>222</v>
       </c>
-      <c r="F17" s="107" t="s">
+      <c r="F17" s="102" t="s">
         <v>281</v>
       </c>
-      <c r="G17" s="107">
+      <c r="G17" s="102">
         <v>100</v>
       </c>
-      <c r="H17" s="108">
+      <c r="H17" s="103">
         <v>1</v>
       </c>
-      <c r="I17" s="109" t="s">
+      <c r="I17" s="104" t="s">
         <v>211</v>
       </c>
-      <c r="J17" s="110"/>
-      <c r="K17" s="198" t="s">
+      <c r="J17" s="105"/>
+      <c r="K17" s="192" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106">
+      <c r="A18" s="101">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="107">
+      <c r="C18" s="102">
         <v>2000</v>
       </c>
-      <c r="D18" s="107" t="s">
+      <c r="D18" s="102" t="s">
         <v>284</v>
       </c>
-      <c r="E18" s="107" t="s">
+      <c r="E18" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="F18" s="107" t="s">
+      <c r="F18" s="102" t="s">
         <v>281</v>
       </c>
-      <c r="G18" s="107">
+      <c r="G18" s="102">
         <v>200</v>
       </c>
-      <c r="H18" s="108">
+      <c r="H18" s="103">
         <v>1</v>
       </c>
-      <c r="I18" s="109" t="s">
+      <c r="I18" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="J18" s="110"/>
-      <c r="K18" s="198" t="s">
+      <c r="J18" s="105"/>
+      <c r="K18" s="192" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="106">
+      <c r="A19" s="101">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="108">
+      <c r="C19" s="71"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="103">
         <v>2</v>
       </c>
-      <c r="I19" s="109"/>
-      <c r="J19" s="110" t="s">
+      <c r="I19" s="104"/>
+      <c r="J19" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="198" t="s">
+      <c r="K19" s="192" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="106">
+      <c r="A20" s="101">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="108">
+      <c r="C20" s="71"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="103">
         <v>2</v>
       </c>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110" t="s">
+      <c r="I20" s="104"/>
+      <c r="J20" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="198" t="s">
+      <c r="K20" s="192" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="106">
+      <c r="A21" s="101">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="108">
+      <c r="C21" s="71"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="103">
         <v>2</v>
       </c>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110" t="s">
+      <c r="I21" s="104"/>
+      <c r="J21" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="198" t="s">
+      <c r="K21" s="192" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="106">
+      <c r="A22" s="101">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="108">
+      <c r="C22" s="71"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="103">
         <v>2</v>
       </c>
-      <c r="I22" s="109"/>
-      <c r="J22" s="110" t="s">
+      <c r="I22" s="104"/>
+      <c r="J22" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="198" t="s">
+      <c r="K22" s="192" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="106">
+      <c r="A23" s="101">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="108">
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="103">
         <v>2</v>
       </c>
-      <c r="I23" s="109"/>
-      <c r="J23" s="110" t="s">
+      <c r="I23" s="104"/>
+      <c r="J23" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="198" t="s">
+      <c r="K23" s="192" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="106">
+      <c r="A24" s="101">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="108">
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="103">
         <v>2</v>
       </c>
-      <c r="I24" s="109"/>
-      <c r="J24" s="110" t="s">
+      <c r="I24" s="104"/>
+      <c r="J24" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="198" t="s">
+      <c r="K24" s="192" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="166">
+      <c r="A25" s="161">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="167" t="s">
+      <c r="B25" s="162" t="s">
         <v>301</v>
       </c>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="169">
+      <c r="C25" s="163"/>
+      <c r="D25" s="163"/>
+      <c r="E25" s="163"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="164">
         <v>2</v>
       </c>
-      <c r="I25" s="170"/>
-      <c r="J25" s="171" t="s">
+      <c r="I25" s="165"/>
+      <c r="J25" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="198" t="s">
+      <c r="K25" s="192" t="s">
         <v>479</v>
       </c>
     </row>
@@ -7051,152 +7195,152 @@
       <c r="R27" s="311"/>
     </row>
     <row r="28" spans="1:18" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="135" t="s">
+      <c r="A28" s="130" t="s">
         <v>277</v>
       </c>
-      <c r="B28" s="188" t="s">
+      <c r="B28" s="182" t="s">
         <v>359</v>
       </c>
-      <c r="C28" s="186" t="s">
+      <c r="C28" s="180" t="s">
         <v>327</v>
       </c>
-      <c r="D28" s="186" t="s">
+      <c r="D28" s="180" t="s">
         <v>361</v>
       </c>
-      <c r="E28" s="186" t="s">
+      <c r="E28" s="180" t="s">
         <v>264</v>
       </c>
-      <c r="F28" s="186" t="s">
+      <c r="F28" s="180" t="s">
         <v>376</v>
       </c>
-      <c r="G28" s="186" t="s">
+      <c r="G28" s="180" t="s">
         <v>428</v>
       </c>
-      <c r="H28" s="190" t="s">
+      <c r="H28" s="184" t="s">
         <v>264</v>
       </c>
-      <c r="I28" s="190" t="s">
+      <c r="I28" s="184" t="s">
         <v>428</v>
       </c>
-      <c r="J28" s="190" t="s">
+      <c r="J28" s="184" t="s">
         <v>440</v>
       </c>
-      <c r="K28" s="190" t="s">
+      <c r="K28" s="184" t="s">
         <v>428</v>
       </c>
-      <c r="L28" s="121" t="s">
+      <c r="L28" s="116" t="s">
         <v>266</v>
       </c>
-      <c r="M28" s="244" t="s">
+      <c r="M28" s="230" t="s">
         <v>266</v>
       </c>
-      <c r="N28" s="121" t="s">
+      <c r="N28" s="116" t="s">
         <v>266</v>
       </c>
-      <c r="O28" s="121" t="s">
+      <c r="O28" s="116" t="s">
         <v>266</v>
       </c>
-      <c r="P28" s="186" t="s">
+      <c r="P28" s="180" t="s">
         <v>272</v>
       </c>
-      <c r="Q28" s="186" t="s">
+      <c r="Q28" s="180" t="s">
         <v>272</v>
       </c>
-      <c r="R28" s="189" t="s">
+      <c r="R28" s="183" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="143"/>
-      <c r="B29" s="95" t="s">
+      <c r="A29" s="138"/>
+      <c r="B29" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="95" t="s">
+      <c r="C29" s="90" t="s">
         <v>247</v>
       </c>
-      <c r="D29" s="95" t="s">
+      <c r="D29" s="90" t="s">
         <v>360</v>
       </c>
-      <c r="E29" s="95" t="s">
+      <c r="E29" s="90" t="s">
         <v>248</v>
       </c>
-      <c r="F29" s="95" t="s">
+      <c r="F29" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="G29" s="95" t="s">
+      <c r="G29" s="90" t="s">
         <v>362</v>
       </c>
-      <c r="H29" s="95" t="s">
+      <c r="H29" s="90" t="s">
         <v>429</v>
       </c>
-      <c r="I29" s="95" t="s">
+      <c r="I29" s="90" t="s">
         <v>432</v>
       </c>
-      <c r="J29" s="95" t="s">
+      <c r="J29" s="90" t="s">
         <v>434</v>
       </c>
-      <c r="K29" s="95" t="s">
+      <c r="K29" s="90" t="s">
         <v>435</v>
       </c>
-      <c r="L29" s="95" t="s">
+      <c r="L29" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="245" t="s">
+      <c r="M29" s="231" t="s">
         <v>540</v>
       </c>
-      <c r="N29" s="95" t="s">
+      <c r="N29" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="O29" s="95" t="s">
+      <c r="O29" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="P29" s="95" t="s">
+      <c r="P29" s="90" t="s">
         <v>249</v>
       </c>
-      <c r="Q29" s="95" t="s">
+      <c r="Q29" s="90" t="s">
         <v>250</v>
       </c>
-      <c r="R29" s="116" t="s">
+      <c r="R29" s="111" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="144"/>
-      <c r="B30" s="194" t="s">
+      <c r="A30" s="139"/>
+      <c r="B30" s="188" t="s">
         <v>431</v>
       </c>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151" t="s">
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146" t="s">
         <v>430</v>
       </c>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151" t="s">
+      <c r="H30" s="146"/>
+      <c r="I30" s="146" t="s">
         <v>433</v>
       </c>
-      <c r="J30" s="151">
+      <c r="J30" s="146">
         <v>3</v>
       </c>
-      <c r="K30" s="151" t="s">
+      <c r="K30" s="146" t="s">
         <v>436</v>
       </c>
-      <c r="L30" s="151">
+      <c r="L30" s="146">
         <v>100</v>
       </c>
-      <c r="M30" s="233"/>
-      <c r="N30" s="151">
+      <c r="M30" s="225"/>
+      <c r="N30" s="146">
         <v>0</v>
       </c>
-      <c r="O30" s="151"/>
-      <c r="P30" s="151">
+      <c r="O30" s="146"/>
+      <c r="P30" s="146">
         <v>4</v>
       </c>
-      <c r="Q30" s="151">
+      <c r="Q30" s="146">
         <v>10</v>
       </c>
-      <c r="R30" s="152">
+      <c r="R30" s="147">
         <v>10</v>
       </c>
     </row>
@@ -7268,13 +7412,13 @@
       <c r="G38" s="291"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="72" t="s">
         <v>309</v>
       </c>
-      <c r="B39" s="77" t="s">
+      <c r="B39" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="C39" s="77" t="s">
+      <c r="C39" s="72" t="s">
         <v>304</v>
       </c>
       <c r="D39" s="290" t="s">
@@ -7294,7 +7438,7 @@
       <c r="C40" t="s">
         <v>438</v>
       </c>
-      <c r="D40" s="174" t="s">
+      <c r="D40" s="169" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7308,7 +7452,7 @@
       <c r="C41" t="s">
         <v>438</v>
       </c>
-      <c r="D41" s="185" t="s">
+      <c r="D41" s="179" t="s">
         <v>329</v>
       </c>
     </row>
@@ -7322,7 +7466,7 @@
       <c r="C42" t="s">
         <v>438</v>
       </c>
-      <c r="D42" s="174" t="s">
+      <c r="D42" s="169" t="s">
         <v>330</v>
       </c>
     </row>
@@ -7336,7 +7480,7 @@
       <c r="C43" t="s">
         <v>438</v>
       </c>
-      <c r="D43" s="174" t="s">
+      <c r="D43" s="169" t="s">
         <v>350</v>
       </c>
     </row>
@@ -7350,7 +7494,7 @@
       <c r="C44" t="s">
         <v>438</v>
       </c>
-      <c r="D44" s="177" t="s">
+      <c r="D44" s="172" t="s">
         <v>331</v>
       </c>
     </row>
@@ -7364,7 +7508,7 @@
       <c r="C45" t="s">
         <v>438</v>
       </c>
-      <c r="D45" s="185" t="s">
+      <c r="D45" s="179" t="s">
         <v>403</v>
       </c>
     </row>
@@ -7378,7 +7522,7 @@
       <c r="C46" t="s">
         <v>438</v>
       </c>
-      <c r="D46" s="185" t="s">
+      <c r="D46" s="179" t="s">
         <v>383</v>
       </c>
     </row>
@@ -7392,7 +7536,7 @@
       <c r="C47" t="s">
         <v>438</v>
       </c>
-      <c r="D47" s="185" t="s">
+      <c r="D47" s="179" t="s">
         <v>404</v>
       </c>
     </row>
@@ -7406,7 +7550,7 @@
       <c r="C48" t="s">
         <v>438</v>
       </c>
-      <c r="D48" s="185" t="s">
+      <c r="D48" s="179" t="s">
         <v>406</v>
       </c>
     </row>
@@ -7420,7 +7564,7 @@
       <c r="C49" t="s">
         <v>438</v>
       </c>
-      <c r="D49" s="185" t="s">
+      <c r="D49" s="179" t="s">
         <v>405</v>
       </c>
     </row>
@@ -7434,7 +7578,7 @@
       <c r="C50" t="s">
         <v>438</v>
       </c>
-      <c r="D50" s="185" t="s">
+      <c r="D50" s="179" t="s">
         <v>407</v>
       </c>
     </row>
@@ -7448,7 +7592,7 @@
       <c r="C51" t="s">
         <v>438</v>
       </c>
-      <c r="D51" s="185" t="s">
+      <c r="D51" s="179" t="s">
         <v>410</v>
       </c>
     </row>
@@ -7462,7 +7606,7 @@
       <c r="C52" t="s">
         <v>438</v>
       </c>
-      <c r="D52" s="174" t="s">
+      <c r="D52" s="169" t="s">
         <v>439</v>
       </c>
     </row>
@@ -7476,7 +7620,7 @@
       <c r="C53" t="s">
         <v>438</v>
       </c>
-      <c r="D53" s="185" t="s">
+      <c r="D53" s="179" t="s">
         <v>413</v>
       </c>
     </row>
@@ -7490,7 +7634,7 @@
       <c r="C54" t="s">
         <v>438</v>
       </c>
-      <c r="D54" s="185" t="s">
+      <c r="D54" s="179" t="s">
         <v>413</v>
       </c>
     </row>
@@ -7504,7 +7648,7 @@
       <c r="C55" t="s">
         <v>438</v>
       </c>
-      <c r="D55" s="185" t="s">
+      <c r="D55" s="179" t="s">
         <v>413</v>
       </c>
     </row>
@@ -7518,7 +7662,7 @@
       <c r="C56" t="s">
         <v>438</v>
       </c>
-      <c r="D56" s="185" t="s">
+      <c r="D56" s="179" t="s">
         <v>413</v>
       </c>
     </row>
@@ -7532,7 +7676,7 @@
       <c r="C57" t="s">
         <v>438</v>
       </c>
-      <c r="D57" s="185" t="s">
+      <c r="D57" s="179" t="s">
         <v>413</v>
       </c>
     </row>
@@ -7546,7 +7690,7 @@
       <c r="C58" t="s">
         <v>438</v>
       </c>
-      <c r="D58" s="174" t="s">
+      <c r="D58" s="169" t="s">
         <v>414</v>
       </c>
     </row>
@@ -7560,7 +7704,7 @@
       <c r="C59" t="s">
         <v>438</v>
       </c>
-      <c r="D59" s="174" t="s">
+      <c r="D59" s="169" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7574,7 +7718,7 @@
       <c r="C60" t="s">
         <v>438</v>
       </c>
-      <c r="D60" s="174" t="s">
+      <c r="D60" s="169" t="s">
         <v>416</v>
       </c>
     </row>
@@ -7588,7 +7732,7 @@
       <c r="C61" t="s">
         <v>438</v>
       </c>
-      <c r="D61" s="174" t="s">
+      <c r="D61" s="169" t="s">
         <v>417</v>
       </c>
     </row>
@@ -7602,7 +7746,7 @@
       <c r="C62" t="s">
         <v>438</v>
       </c>
-      <c r="D62" s="174" t="s">
+      <c r="D62" s="169" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7616,7 +7760,7 @@
       <c r="C63" t="s">
         <v>438</v>
       </c>
-      <c r="D63" s="174" t="s">
+      <c r="D63" s="169" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7630,7 +7774,7 @@
       <c r="C64" t="s">
         <v>438</v>
       </c>
-      <c r="D64" s="174" t="s">
+      <c r="D64" s="169" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7644,7 +7788,7 @@
       <c r="C65" t="s">
         <v>438</v>
       </c>
-      <c r="D65" s="174" t="s">
+      <c r="D65" s="169" t="s">
         <v>421</v>
       </c>
     </row>
@@ -7658,7 +7802,7 @@
       <c r="C66" t="s">
         <v>438</v>
       </c>
-      <c r="D66" s="174" t="s">
+      <c r="D66" s="169" t="s">
         <v>422</v>
       </c>
     </row>
@@ -7672,7 +7816,7 @@
       <c r="C67" t="s">
         <v>438</v>
       </c>
-      <c r="D67" s="174" t="s">
+      <c r="D67" s="169" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7686,7 +7830,7 @@
       <c r="C68" t="s">
         <v>438</v>
       </c>
-      <c r="D68" s="174" t="s">
+      <c r="D68" s="169" t="s">
         <v>424</v>
       </c>
     </row>
@@ -7700,7 +7844,7 @@
       <c r="C69" t="s">
         <v>438</v>
       </c>
-      <c r="D69" s="174" t="s">
+      <c r="D69" s="169" t="s">
         <v>425</v>
       </c>
     </row>
@@ -7714,7 +7858,7 @@
       <c r="C70" t="s">
         <v>438</v>
       </c>
-      <c r="D70" s="174" t="s">
+      <c r="D70" s="169" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7728,7 +7872,7 @@
       <c r="C71" t="s">
         <v>438</v>
       </c>
-      <c r="D71" s="174" t="s">
+      <c r="D71" s="169" t="s">
         <v>427</v>
       </c>
     </row>
@@ -7826,7 +7970,7 @@
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="106" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="315" t="s">
         <v>375</v>
       </c>
@@ -7840,7 +7984,7 @@
       <c r="I1" s="316"/>
       <c r="J1" s="317"/>
     </row>
-    <row r="2" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="106" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="312" t="s">
         <v>11</v>
       </c>
@@ -7854,64 +7998,64 @@
       <c r="I2" s="313"/>
       <c r="J2" s="314"/>
     </row>
-    <row r="3" spans="1:10" s="111" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="129" t="s">
+    <row r="3" spans="1:10" s="106" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="124" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="124" t="s">
         <v>316</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="121" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="121" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="123" t="s">
+      <c r="E3" s="118" t="s">
         <v>266</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="119" t="s">
         <v>266</v>
       </c>
-      <c r="G3" s="130" t="s">
+      <c r="G3" s="125" t="s">
         <v>317</v>
       </c>
-      <c r="H3" s="164" t="s">
+      <c r="H3" s="159" t="s">
         <v>298</v>
       </c>
-      <c r="I3" s="126"/>
-      <c r="J3" s="128"/>
-    </row>
-    <row r="4" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="I3" s="121"/>
+      <c r="J3" s="123"/>
+    </row>
+    <row r="4" spans="1:10" s="106" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="94" t="s">
         <v>252</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="94" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="165" t="s">
+      <c r="H4" s="160" t="s">
         <v>299</v>
       </c>
-      <c r="I4" s="100"/>
-      <c r="J4" s="101"/>
-    </row>
-    <row r="5" spans="1:10" s="111" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+      <c r="I4" s="95"/>
+      <c r="J4" s="96"/>
+    </row>
+    <row r="5" spans="1:10" s="106" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="67" t="s">
         <v>171</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7923,14 +8067,14 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="196" t="s">
+      <c r="G5" s="190" t="s">
         <v>300</v>
       </c>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-    </row>
-    <row r="6" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="158"/>
+    </row>
+    <row r="6" spans="1:10" s="106" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="312" t="s">
         <v>12</v>
       </c>
@@ -7944,55 +8088,55 @@
       <c r="I6" s="313"/>
       <c r="J6" s="314"/>
     </row>
-    <row r="7" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+    <row r="7" spans="1:10" s="106" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="117" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="125" t="s">
         <v>318</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="128"/>
-    </row>
-    <row r="8" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="123"/>
+    </row>
+    <row r="8" spans="1:10" s="106" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="104"/>
-    </row>
-    <row r="9" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67" t="s">
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="99"/>
+    </row>
+    <row r="9" spans="1:10" s="106" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
-    </row>
-    <row r="10" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="66"/>
+    </row>
+    <row r="10" spans="1:10" s="106" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="312" t="s">
         <v>13</v>
       </c>
@@ -8006,62 +8150,62 @@
       <c r="I10" s="313"/>
       <c r="J10" s="314"/>
     </row>
-    <row r="11" spans="1:10" s="111" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="125"/>
-      <c r="B11" s="126" t="s">
+    <row r="11" spans="1:10" s="106" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="120"/>
+      <c r="B11" s="121" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="D11" s="173" t="s">
+      <c r="D11" s="168" t="s">
         <v>326</v>
       </c>
-      <c r="E11" s="126" t="s">
+      <c r="E11" s="121" t="s">
         <v>256</v>
       </c>
-      <c r="F11" s="131" t="s">
+      <c r="F11" s="126" t="s">
         <v>320</v>
       </c>
-      <c r="G11" s="130" t="s">
+      <c r="G11" s="125" t="s">
         <v>319</v>
       </c>
-      <c r="H11" s="130" t="s">
+      <c r="H11" s="125" t="s">
         <v>321</v>
       </c>
-      <c r="I11" s="126"/>
-      <c r="J11" s="128"/>
-    </row>
-    <row r="12" spans="1:10" s="111" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
+      <c r="I11" s="121"/>
+      <c r="J11" s="123"/>
+    </row>
+    <row r="12" spans="1:10" s="106" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="90" t="s">
         <v>255</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="90" t="s">
         <v>257</v>
       </c>
-      <c r="F12" s="95" t="s">
+      <c r="F12" s="90" t="s">
         <v>258</v>
       </c>
-      <c r="G12" s="132" t="s">
+      <c r="G12" s="127" t="s">
         <v>259</v>
       </c>
-      <c r="H12" s="98" t="s">
+      <c r="H12" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
-    </row>
-    <row r="13" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="105" t="s">
+      <c r="I12" s="112"/>
+      <c r="J12" s="113"/>
+    </row>
+    <row r="13" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="100" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -8088,8 +8232,8 @@
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="105">
+    <row r="14" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="100">
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -8116,8 +8260,8 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="105">
+    <row r="15" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="100">
         <v>3</v>
       </c>
       <c r="B15" s="4"/>
@@ -8130,8 +8274,8 @@
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="105">
+    <row r="16" spans="1:10" s="106" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="100">
         <v>4</v>
       </c>
       <c r="B16" s="4"/>
@@ -8144,7 +8288,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="106" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="318" t="s">
         <v>496</v>
       </c>
@@ -8158,77 +8302,77 @@
       <c r="I17" s="319"/>
       <c r="J17" s="320"/>
     </row>
-    <row r="18" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="206"/>
-      <c r="B18" s="207" t="s">
+    <row r="18" spans="1:10" s="106" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="198"/>
+      <c r="B18" s="199" t="s">
         <v>273</v>
       </c>
-      <c r="C18" s="207" t="s">
+      <c r="C18" s="199" t="s">
         <v>254</v>
       </c>
-      <c r="D18" s="207" t="s">
+      <c r="D18" s="199" t="s">
         <v>256</v>
       </c>
-      <c r="E18" s="208" t="s">
+      <c r="E18" s="200" t="s">
         <v>320</v>
       </c>
-      <c r="F18" s="209" t="s">
+      <c r="F18" s="201" t="s">
         <v>319</v>
       </c>
-      <c r="G18" s="209"/>
-      <c r="H18" s="210"/>
-      <c r="I18" s="210"/>
-      <c r="J18" s="211"/>
-    </row>
-    <row r="19" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="212" t="s">
+      <c r="G18" s="201"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="203"/>
+    </row>
+    <row r="19" spans="1:10" s="106" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="204" t="s">
         <v>497</v>
       </c>
-      <c r="B19" s="213" t="s">
+      <c r="B19" s="205" t="s">
         <v>498</v>
       </c>
-      <c r="C19" s="214" t="s">
+      <c r="C19" s="206" t="s">
         <v>255</v>
       </c>
-      <c r="D19" s="214" t="s">
+      <c r="D19" s="206" t="s">
         <v>499</v>
       </c>
-      <c r="E19" s="214" t="s">
+      <c r="E19" s="206" t="s">
         <v>258</v>
       </c>
-      <c r="F19" s="215" t="s">
+      <c r="F19" s="207" t="s">
         <v>259</v>
       </c>
-      <c r="G19" s="213"/>
-      <c r="H19" s="216"/>
-      <c r="I19" s="216"/>
-      <c r="J19" s="217"/>
-    </row>
-    <row r="20" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="218"/>
-      <c r="B20" s="219"/>
-      <c r="C20" s="219"/>
-      <c r="D20" s="219"/>
-      <c r="E20" s="219"/>
-      <c r="F20" s="219"/>
-      <c r="G20" s="219"/>
-      <c r="H20" s="219"/>
-      <c r="I20" s="219"/>
-      <c r="J20" s="220"/>
-    </row>
-    <row r="21" spans="1:10" s="111" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="218"/>
-      <c r="B21" s="219"/>
-      <c r="C21" s="219"/>
-      <c r="D21" s="219"/>
-      <c r="E21" s="219"/>
-      <c r="F21" s="219"/>
-      <c r="G21" s="219"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="219"/>
-      <c r="J21" s="220"/>
-    </row>
-    <row r="22" spans="1:10" s="111" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="205"/>
+      <c r="H19" s="208"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="209"/>
+    </row>
+    <row r="20" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="210"/>
+      <c r="B20" s="211"/>
+      <c r="C20" s="211"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="211"/>
+      <c r="I20" s="211"/>
+      <c r="J20" s="212"/>
+    </row>
+    <row r="21" spans="1:10" s="106" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="210"/>
+      <c r="B21" s="211"/>
+      <c r="C21" s="211"/>
+      <c r="D21" s="211"/>
+      <c r="E21" s="211"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="211"/>
+      <c r="I21" s="211"/>
+      <c r="J21" s="212"/>
+    </row>
+    <row r="22" spans="1:10" s="106" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="312" t="s">
         <v>17</v>
       </c>
@@ -8242,48 +8386,48 @@
       <c r="I22" s="313"/>
       <c r="J22" s="314"/>
     </row>
-    <row r="23" spans="1:10" s="111" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="129" t="s">
+    <row r="23" spans="1:10" s="106" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="124" t="s">
         <v>322</v>
       </c>
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="125" t="s">
         <v>323</v>
       </c>
-      <c r="C23" s="130" t="s">
+      <c r="C23" s="125" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="130" t="s">
+      <c r="D23" s="125" t="s">
         <v>324</v>
       </c>
-      <c r="E23" s="126"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="128"/>
-    </row>
-    <row r="24" spans="1:10" s="111" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="s">
+      <c r="E23" s="121"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="123"/>
+    </row>
+    <row r="24" spans="1:10" s="106" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="95" t="s">
+      <c r="B24" s="90" t="s">
         <v>260</v>
       </c>
-      <c r="C24" s="95" t="s">
+      <c r="C24" s="90" t="s">
         <v>262</v>
       </c>
-      <c r="D24" s="98" t="s">
+      <c r="D24" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="E24" s="112"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="104"/>
-    </row>
-    <row r="25" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29">
+      <c r="E24" s="107"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="99"/>
+    </row>
+    <row r="25" spans="1:10" s="106" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24">
         <v>3</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -8292,7 +8436,7 @@
       <c r="C25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="151" t="s">
+      <c r="D25" s="146" t="s">
         <v>216</v>
       </c>
       <c r="E25" s="8"/>
@@ -8302,7 +8446,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="106" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="318" t="s">
         <v>500</v>
       </c>
@@ -8316,71 +8460,71 @@
       <c r="I26" s="319"/>
       <c r="J26" s="320"/>
     </row>
-    <row r="27" spans="1:10" s="111" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="221" t="s">
+    <row r="27" spans="1:10" s="106" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="213" t="s">
         <v>501</v>
       </c>
-      <c r="B27" s="222" t="s">
+      <c r="B27" s="214" t="s">
         <v>501</v>
       </c>
-      <c r="C27" s="223" t="s">
+      <c r="C27" s="215" t="s">
         <v>267</v>
       </c>
-      <c r="D27" s="223" t="s">
+      <c r="D27" s="215" t="s">
         <v>267</v>
       </c>
-      <c r="E27" s="224" t="s">
+      <c r="E27" s="216" t="s">
         <v>266</v>
       </c>
-      <c r="F27" s="225" t="s">
+      <c r="F27" s="217" t="s">
         <v>502</v>
       </c>
-      <c r="G27" s="224" t="s">
+      <c r="G27" s="216" t="s">
         <v>266</v>
       </c>
-      <c r="H27" s="226"/>
-      <c r="I27" s="226"/>
-      <c r="J27" s="227"/>
-    </row>
-    <row r="28" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="228" t="s">
+      <c r="H27" s="218"/>
+      <c r="I27" s="218"/>
+      <c r="J27" s="219"/>
+    </row>
+    <row r="28" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="220" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="213" t="s">
+      <c r="B28" s="205" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="229" t="s">
+      <c r="C28" s="221" t="s">
         <v>252</v>
       </c>
-      <c r="D28" s="229" t="s">
+      <c r="D28" s="221" t="s">
         <v>253</v>
       </c>
-      <c r="E28" s="229" t="s">
+      <c r="E28" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="229" t="s">
+      <c r="F28" s="221" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="213" t="s">
+      <c r="G28" s="205" t="s">
         <v>230</v>
       </c>
-      <c r="H28" s="230"/>
-      <c r="I28" s="230"/>
-      <c r="J28" s="231"/>
-    </row>
-    <row r="29" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="232"/>
-      <c r="B29" s="233"/>
-      <c r="C29" s="234"/>
-      <c r="D29" s="234"/>
-      <c r="E29" s="234"/>
-      <c r="F29" s="234"/>
-      <c r="G29" s="234"/>
-      <c r="H29" s="234"/>
-      <c r="I29" s="234"/>
-      <c r="J29" s="235"/>
-    </row>
-    <row r="30" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="222"/>
+      <c r="I28" s="222"/>
+      <c r="J28" s="223"/>
+    </row>
+    <row r="29" spans="1:10" s="106" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="224"/>
+      <c r="B29" s="225"/>
+      <c r="C29" s="226"/>
+      <c r="D29" s="226"/>
+      <c r="E29" s="226"/>
+      <c r="F29" s="226"/>
+      <c r="G29" s="226"/>
+      <c r="H29" s="226"/>
+      <c r="I29" s="226"/>
+      <c r="J29" s="227"/>
+    </row>
+    <row r="30" spans="1:10" s="106" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="312" t="s">
         <v>151</v>
       </c>
@@ -8394,56 +8538,56 @@
       <c r="I30" s="313"/>
       <c r="J30" s="314"/>
     </row>
-    <row r="31" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="129" t="s">
+    <row r="31" spans="1:10" s="106" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="124" t="s">
         <v>277</v>
       </c>
-      <c r="B31" s="190" t="s">
+      <c r="B31" s="184" t="s">
         <v>361</v>
       </c>
-      <c r="C31" s="130" t="s">
+      <c r="C31" s="125" t="s">
         <v>325</v>
       </c>
-      <c r="D31" s="130" t="s">
+      <c r="D31" s="125" t="s">
         <v>263</v>
       </c>
-      <c r="E31" s="186" t="s">
+      <c r="E31" s="180" t="s">
         <v>361</v>
       </c>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="149"/>
-    </row>
-    <row r="32" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="146"/>
-      <c r="B32" s="145" t="s">
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="144"/>
+    </row>
+    <row r="32" spans="1:10" s="106" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="141"/>
+      <c r="B32" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="145" t="s">
+      <c r="C32" s="140" t="s">
         <v>261</v>
       </c>
-      <c r="D32" s="95" t="s">
+      <c r="D32" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="E32" s="95" t="s">
+      <c r="E32" s="90" t="s">
         <v>362</v>
       </c>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="150"/>
-    </row>
-    <row r="33" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="144"/>
-      <c r="B33" s="195" t="s">
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="145"/>
+    </row>
+    <row r="33" spans="1:10" s="106" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="139"/>
+      <c r="B33" s="189" t="s">
         <v>452</v>
       </c>
-      <c r="C33" s="183"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="151" t="s">
+      <c r="C33" s="177"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="146" t="s">
         <v>453</v>
       </c>
       <c r="F33" s="8"/>
@@ -8452,8 +8596,8 @@
       <c r="I33" s="8"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:10" s="111" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="106" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:10" s="106" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="307" t="s">
         <v>276</v>
       </c>
@@ -8465,7 +8609,7 @@
       <c r="G35" s="308"/>
       <c r="H35" s="309"/>
     </row>
-    <row r="36" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="301" t="s">
         <v>355</v>
       </c>
@@ -8477,7 +8621,7 @@
       <c r="G36" s="302"/>
       <c r="H36" s="303"/>
     </row>
-    <row r="37" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="301"/>
       <c r="B37" s="302"/>
       <c r="C37" s="302"/>
@@ -8487,7 +8631,7 @@
       <c r="G37" s="302"/>
       <c r="H37" s="303"/>
     </row>
-    <row r="38" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="301"/>
       <c r="B38" s="302"/>
       <c r="C38" s="302"/>
@@ -8506,20 +8650,20 @@
       <c r="F39" s="305"/>
       <c r="G39" s="305"/>
       <c r="H39" s="306"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="111"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="106"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="111"/>
-      <c r="B40" s="111"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
+      <c r="A40" s="106"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="106"/>
     </row>
     <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="291" t="s">
@@ -8531,18 +8675,18 @@
       <c r="E41" s="291"/>
       <c r="F41" s="291"/>
       <c r="G41" s="291"/>
-      <c r="H41" s="111"/>
-      <c r="I41" s="111"/>
-      <c r="J41" s="111"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="106"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="77" t="s">
+      <c r="A42" s="72" t="s">
         <v>309</v>
       </c>
-      <c r="B42" s="77" t="s">
+      <c r="B42" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="C42" s="77" t="s">
+      <c r="C42" s="72" t="s">
         <v>304</v>
       </c>
       <c r="D42" s="290" t="s">
@@ -8551,9 +8695,9 @@
       <c r="E42" s="290"/>
       <c r="F42" s="290"/>
       <c r="G42" s="290"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="106"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -8565,7 +8709,7 @@
       <c r="C43" t="s">
         <v>455</v>
       </c>
-      <c r="D43" s="174" t="s">
+      <c r="D43" s="169" t="s">
         <v>363</v>
       </c>
     </row>
@@ -8579,7 +8723,7 @@
       <c r="C44" t="s">
         <v>455</v>
       </c>
-      <c r="D44" s="185" t="s">
+      <c r="D44" s="179" t="s">
         <v>329</v>
       </c>
     </row>
@@ -8593,7 +8737,7 @@
       <c r="C45" t="s">
         <v>455</v>
       </c>
-      <c r="D45" s="174" t="s">
+      <c r="D45" s="169" t="s">
         <v>330</v>
       </c>
     </row>
@@ -8607,7 +8751,7 @@
       <c r="C46" t="s">
         <v>455</v>
       </c>
-      <c r="D46" s="174" t="s">
+      <c r="D46" s="169" t="s">
         <v>350</v>
       </c>
     </row>
@@ -8621,7 +8765,7 @@
       <c r="C47" t="s">
         <v>455</v>
       </c>
-      <c r="D47" s="177" t="s">
+      <c r="D47" s="172" t="s">
         <v>331</v>
       </c>
     </row>
@@ -8635,7 +8779,7 @@
       <c r="C48" t="s">
         <v>455</v>
       </c>
-      <c r="D48" s="185" t="s">
+      <c r="D48" s="179" t="s">
         <v>365</v>
       </c>
     </row>
@@ -8649,7 +8793,7 @@
       <c r="C49" t="s">
         <v>455</v>
       </c>
-      <c r="D49" s="185" t="s">
+      <c r="D49" s="179" t="s">
         <v>368</v>
       </c>
     </row>
@@ -8663,7 +8807,7 @@
       <c r="C50" t="s">
         <v>455</v>
       </c>
-      <c r="D50" s="185" t="s">
+      <c r="D50" s="179" t="s">
         <v>454</v>
       </c>
     </row>
@@ -8677,7 +8821,7 @@
       <c r="C51" t="s">
         <v>455</v>
       </c>
-      <c r="D51" s="185" t="s">
+      <c r="D51" s="179" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8691,7 +8835,7 @@
       <c r="C52" t="s">
         <v>455</v>
       </c>
-      <c r="D52" s="185" t="s">
+      <c r="D52" s="179" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8705,7 +8849,7 @@
       <c r="C53" t="s">
         <v>455</v>
       </c>
-      <c r="D53" s="177" t="s">
+      <c r="D53" s="172" t="s">
         <v>457</v>
       </c>
     </row>
@@ -8792,115 +8936,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="338" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="325"/>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325"/>
-      <c r="N1" s="325"/>
-      <c r="O1" s="325"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
+      <c r="K1" s="338"/>
+      <c r="L1" s="338"/>
+      <c r="M1" s="338"/>
+      <c r="N1" s="338"/>
+      <c r="O1" s="338"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="333" t="s">
+      <c r="A2" s="326" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="334"/>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="335"/>
-      <c r="G2" s="326" t="s">
+      <c r="B2" s="327"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="328"/>
+      <c r="G2" s="339" t="s">
         <v>242</v>
       </c>
-      <c r="H2" s="326"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326"/>
-      <c r="K2" s="326"/>
-      <c r="L2" s="326"/>
-      <c r="M2" s="329" t="s">
+      <c r="H2" s="339"/>
+      <c r="I2" s="339"/>
+      <c r="J2" s="339"/>
+      <c r="K2" s="339"/>
+      <c r="L2" s="339"/>
+      <c r="M2" s="322" t="s">
         <v>290</v>
       </c>
-      <c r="N2" s="329"/>
-      <c r="O2" s="329"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
+      <c r="N2" s="322"/>
+      <c r="O2" s="322"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="336" t="s">
+      <c r="A3" s="329" t="s">
         <v>486</v>
       </c>
-      <c r="B3" s="337"/>
-      <c r="C3" s="337"/>
-      <c r="D3" s="337"/>
-      <c r="E3" s="337"/>
-      <c r="F3" s="338"/>
-      <c r="G3" s="328" t="s">
+      <c r="B3" s="330"/>
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="331"/>
+      <c r="G3" s="341" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="328"/>
-      <c r="I3" s="328"/>
-      <c r="J3" s="328"/>
-      <c r="K3" s="328"/>
-      <c r="L3" s="328"/>
-      <c r="M3" s="202" t="s">
+      <c r="H3" s="341"/>
+      <c r="I3" s="341"/>
+      <c r="J3" s="341"/>
+      <c r="K3" s="341"/>
+      <c r="L3" s="341"/>
+      <c r="M3" s="194" t="s">
         <v>294</v>
       </c>
-      <c r="N3" s="202" t="s">
+      <c r="N3" s="194" t="s">
         <v>361</v>
       </c>
-      <c r="O3" s="202" t="s">
+      <c r="O3" s="194" t="s">
         <v>361</v>
       </c>
-      <c r="P3" s="193"/>
+      <c r="P3" s="187"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="339" t="s">
+      <c r="A4" s="332" t="s">
         <v>487</v>
       </c>
-      <c r="B4" s="340"/>
-      <c r="C4" s="340"/>
-      <c r="D4" s="340"/>
-      <c r="E4" s="340"/>
-      <c r="F4" s="341"/>
-      <c r="G4" s="327" t="s">
+      <c r="B4" s="333"/>
+      <c r="C4" s="333"/>
+      <c r="D4" s="333"/>
+      <c r="E4" s="333"/>
+      <c r="F4" s="334"/>
+      <c r="G4" s="340" t="s">
         <v>243</v>
       </c>
-      <c r="H4" s="327"/>
-      <c r="I4" s="327"/>
-      <c r="J4" s="327" t="s">
+      <c r="H4" s="340"/>
+      <c r="I4" s="340"/>
+      <c r="J4" s="340" t="s">
         <v>297</v>
       </c>
-      <c r="K4" s="327"/>
-      <c r="L4" s="327"/>
-      <c r="M4" s="203" t="s">
+      <c r="K4" s="340"/>
+      <c r="L4" s="340"/>
+      <c r="M4" s="195" t="s">
         <v>152</v>
       </c>
-      <c r="N4" s="203" t="s">
+      <c r="N4" s="195" t="s">
         <v>362</v>
       </c>
-      <c r="O4" s="203" t="s">
+      <c r="O4" s="195" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="322"/>
-      <c r="B5" s="323"/>
-      <c r="C5" s="323"/>
-      <c r="D5" s="323"/>
-      <c r="E5" s="323"/>
-      <c r="F5" s="324"/>
+      <c r="A5" s="335"/>
+      <c r="B5" s="336"/>
+      <c r="C5" s="336"/>
+      <c r="D5" s="336"/>
+      <c r="E5" s="336"/>
+      <c r="F5" s="337"/>
       <c r="G5" s="321" t="s">
         <v>274</v>
       </c>
@@ -8911,23 +9055,23 @@
       </c>
       <c r="K5" s="321"/>
       <c r="L5" s="321"/>
-      <c r="M5" s="204"/>
-      <c r="N5" s="204" t="s">
+      <c r="M5" s="196"/>
+      <c r="N5" s="196" t="s">
         <v>379</v>
       </c>
-      <c r="O5" s="205" t="s">
+      <c r="O5" s="197" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="322" t="s">
+      <c r="A6" s="335" t="s">
         <v>488</v>
       </c>
-      <c r="B6" s="323"/>
-      <c r="C6" s="323"/>
-      <c r="D6" s="323"/>
-      <c r="E6" s="323"/>
-      <c r="F6" s="324"/>
+      <c r="B6" s="336"/>
+      <c r="C6" s="336"/>
+      <c r="D6" s="336"/>
+      <c r="E6" s="336"/>
+      <c r="F6" s="337"/>
       <c r="G6" s="321" t="s">
         <v>280</v>
       </c>
@@ -8936,147 +9080,147 @@
       <c r="J6" s="321"/>
       <c r="K6" s="321"/>
       <c r="L6" s="321"/>
-      <c r="M6" s="204"/>
-      <c r="N6" s="204" t="s">
+      <c r="M6" s="196"/>
+      <c r="N6" s="196" t="s">
         <v>380</v>
       </c>
-      <c r="O6" s="205" t="s">
+      <c r="O6" s="197" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="322" t="s">
+      <c r="A7" s="335" t="s">
         <v>489</v>
       </c>
-      <c r="B7" s="323"/>
-      <c r="C7" s="323"/>
-      <c r="D7" s="323"/>
-      <c r="E7" s="323"/>
-      <c r="F7" s="324"/>
+      <c r="B7" s="336"/>
+      <c r="C7" s="336"/>
+      <c r="D7" s="336"/>
+      <c r="E7" s="336"/>
+      <c r="F7" s="337"/>
       <c r="G7" s="321"/>
       <c r="H7" s="321"/>
       <c r="I7" s="321"/>
       <c r="J7" s="321"/>
       <c r="K7" s="321"/>
       <c r="L7" s="321"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="205"/>
+      <c r="M7" s="196"/>
+      <c r="N7" s="196"/>
+      <c r="O7" s="197"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="322"/>
-      <c r="B8" s="323"/>
-      <c r="C8" s="323"/>
-      <c r="D8" s="323"/>
-      <c r="E8" s="323"/>
-      <c r="F8" s="324"/>
+      <c r="A8" s="335"/>
+      <c r="B8" s="336"/>
+      <c r="C8" s="336"/>
+      <c r="D8" s="336"/>
+      <c r="E8" s="336"/>
+      <c r="F8" s="337"/>
       <c r="G8" s="321"/>
       <c r="H8" s="321"/>
       <c r="I8" s="321"/>
       <c r="J8" s="321"/>
       <c r="K8" s="321"/>
       <c r="L8" s="321"/>
-      <c r="M8" s="204"/>
-      <c r="N8" s="204"/>
-      <c r="O8" s="205"/>
+      <c r="M8" s="196"/>
+      <c r="N8" s="196"/>
+      <c r="O8" s="197"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="330" t="s">
+      <c r="A10" s="323" t="s">
         <v>349</v>
       </c>
-      <c r="B10" s="331"/>
-      <c r="C10" s="331"/>
-      <c r="D10" s="331"/>
-      <c r="E10" s="331"/>
-      <c r="F10" s="331"/>
-      <c r="G10" s="331"/>
-      <c r="H10" s="331"/>
-      <c r="I10" s="332"/>
+      <c r="B10" s="324"/>
+      <c r="C10" s="324"/>
+      <c r="D10" s="324"/>
+      <c r="E10" s="324"/>
+      <c r="F10" s="324"/>
+      <c r="G10" s="324"/>
+      <c r="H10" s="324"/>
+      <c r="I10" s="325"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="124" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="125" t="s">
         <v>327</v>
       </c>
-      <c r="C11" s="186" t="s">
+      <c r="C11" s="180" t="s">
         <v>361</v>
       </c>
-      <c r="D11" s="123" t="s">
+      <c r="D11" s="118" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="244" t="s">
+      <c r="E11" s="230" t="s">
         <v>266</v>
       </c>
-      <c r="F11" s="123" t="s">
+      <c r="F11" s="118" t="s">
         <v>266</v>
       </c>
-      <c r="G11" s="123" t="s">
+      <c r="G11" s="118" t="s">
         <v>266</v>
       </c>
-      <c r="H11" s="130" t="s">
+      <c r="H11" s="125" t="s">
         <v>272</v>
       </c>
-      <c r="I11" s="130" t="s">
+      <c r="I11" s="125" t="s">
         <v>272</v>
       </c>
-      <c r="J11" s="142" t="s">
+      <c r="J11" s="137" t="s">
         <v>272</v>
       </c>
-      <c r="L11" s="184"/>
-      <c r="M11" s="184"/>
+      <c r="L11" s="178"/>
+      <c r="M11" s="178"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="146"/>
-      <c r="B12" s="145" t="s">
+      <c r="A12" s="141"/>
+      <c r="B12" s="140" t="s">
         <v>247</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="90" t="s">
         <v>360</v>
       </c>
-      <c r="D12" s="145" t="s">
+      <c r="D12" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="245" t="s">
+      <c r="E12" s="231" t="s">
         <v>540</v>
       </c>
-      <c r="F12" s="145" t="s">
+      <c r="F12" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="145" t="s">
+      <c r="G12" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="145" t="s">
+      <c r="H12" s="140" t="s">
         <v>249</v>
       </c>
-      <c r="I12" s="145" t="s">
+      <c r="I12" s="140" t="s">
         <v>250</v>
       </c>
-      <c r="J12" s="147" t="s">
+      <c r="J12" s="142" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="144"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="151">
+      <c r="A13" s="139"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="146">
         <v>100</v>
       </c>
-      <c r="E13" s="233"/>
-      <c r="F13" s="151">
+      <c r="E13" s="225"/>
+      <c r="F13" s="146">
         <v>0</v>
       </c>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151">
+      <c r="G13" s="146"/>
+      <c r="H13" s="146">
         <v>4</v>
       </c>
-      <c r="I13" s="151">
+      <c r="I13" s="146">
         <v>10</v>
       </c>
-      <c r="J13" s="152">
+      <c r="J13" s="147">
         <v>10</v>
       </c>
     </row>
@@ -9147,13 +9291,13 @@
       <c r="G21" s="291"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="72" t="s">
         <v>309</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="72" t="s">
         <v>304</v>
       </c>
       <c r="D22" s="290" t="s">
@@ -9173,7 +9317,7 @@
       <c r="C23" t="s">
         <v>441</v>
       </c>
-      <c r="D23" s="174" t="s">
+      <c r="D23" s="169" t="s">
         <v>363</v>
       </c>
     </row>
@@ -9187,7 +9331,7 @@
       <c r="C24" t="s">
         <v>441</v>
       </c>
-      <c r="D24" s="185" t="s">
+      <c r="D24" s="179" t="s">
         <v>329</v>
       </c>
     </row>
@@ -9201,7 +9345,7 @@
       <c r="C25" t="s">
         <v>441</v>
       </c>
-      <c r="D25" s="174" t="s">
+      <c r="D25" s="169" t="s">
         <v>330</v>
       </c>
     </row>
@@ -9215,7 +9359,7 @@
       <c r="C26" t="s">
         <v>441</v>
       </c>
-      <c r="D26" s="174" t="s">
+      <c r="D26" s="169" t="s">
         <v>350</v>
       </c>
     </row>
@@ -9229,7 +9373,7 @@
       <c r="C27" t="s">
         <v>441</v>
       </c>
-      <c r="D27" s="177" t="s">
+      <c r="D27" s="172" t="s">
         <v>331</v>
       </c>
     </row>
@@ -9243,7 +9387,7 @@
       <c r="C28" t="s">
         <v>441</v>
       </c>
-      <c r="D28" s="185" t="s">
+      <c r="D28" s="179" t="s">
         <v>384</v>
       </c>
     </row>
@@ -9257,7 +9401,7 @@
       <c r="C29" t="s">
         <v>441</v>
       </c>
-      <c r="D29" s="185" t="s">
+      <c r="D29" s="179" t="s">
         <v>383</v>
       </c>
     </row>
@@ -9271,7 +9415,7 @@
       <c r="C30" t="s">
         <v>441</v>
       </c>
-      <c r="D30" s="185" t="s">
+      <c r="D30" s="179" t="s">
         <v>385</v>
       </c>
     </row>
@@ -9285,7 +9429,7 @@
       <c r="C31" t="s">
         <v>441</v>
       </c>
-      <c r="D31" s="185" t="s">
+      <c r="D31" s="179" t="s">
         <v>338</v>
       </c>
     </row>
@@ -9299,7 +9443,7 @@
       <c r="C32" t="s">
         <v>441</v>
       </c>
-      <c r="D32" s="185" t="s">
+      <c r="D32" s="179" t="s">
         <v>386</v>
       </c>
     </row>
@@ -9313,7 +9457,7 @@
       <c r="C33" t="s">
         <v>441</v>
       </c>
-      <c r="D33" s="185" t="s">
+      <c r="D33" s="179" t="s">
         <v>387</v>
       </c>
     </row>
@@ -9327,7 +9471,7 @@
       <c r="C34" t="s">
         <v>441</v>
       </c>
-      <c r="D34" s="174" t="s">
+      <c r="D34" s="169" t="s">
         <v>388</v>
       </c>
     </row>
@@ -9341,7 +9485,7 @@
       <c r="C35" t="s">
         <v>441</v>
       </c>
-      <c r="D35" s="174" t="s">
+      <c r="D35" s="169" t="s">
         <v>389</v>
       </c>
     </row>
@@ -9355,7 +9499,7 @@
       <c r="C36" t="s">
         <v>441</v>
       </c>
-      <c r="D36" s="174" t="s">
+      <c r="D36" s="169" t="s">
         <v>390</v>
       </c>
     </row>
@@ -9369,7 +9513,7 @@
       <c r="C37" t="s">
         <v>441</v>
       </c>
-      <c r="D37" s="174" t="s">
+      <c r="D37" s="169" t="s">
         <v>391</v>
       </c>
     </row>
@@ -9383,7 +9527,7 @@
       <c r="C38" t="s">
         <v>441</v>
       </c>
-      <c r="D38" s="174" t="s">
+      <c r="D38" s="169" t="s">
         <v>392</v>
       </c>
     </row>
@@ -9397,7 +9541,7 @@
       <c r="C39" t="s">
         <v>441</v>
       </c>
-      <c r="D39" s="174" t="s">
+      <c r="D39" s="169" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9411,7 +9555,7 @@
       <c r="C40" t="s">
         <v>441</v>
       </c>
-      <c r="D40" s="174" t="s">
+      <c r="D40" s="169" t="s">
         <v>394</v>
       </c>
     </row>
@@ -9425,7 +9569,7 @@
       <c r="C41" t="s">
         <v>441</v>
       </c>
-      <c r="D41" s="174" t="s">
+      <c r="D41" s="169" t="s">
         <v>442</v>
       </c>
     </row>
@@ -9439,7 +9583,7 @@
       <c r="C42" t="s">
         <v>441</v>
       </c>
-      <c r="D42" s="174" t="s">
+      <c r="D42" s="169" t="s">
         <v>395</v>
       </c>
     </row>
@@ -9453,7 +9597,7 @@
       <c r="C43" t="s">
         <v>441</v>
       </c>
-      <c r="D43" s="174" t="s">
+      <c r="D43" s="169" t="s">
         <v>443</v>
       </c>
     </row>
@@ -9467,7 +9611,7 @@
       <c r="C44" t="s">
         <v>441</v>
       </c>
-      <c r="D44" s="174" t="s">
+      <c r="D44" s="169" t="s">
         <v>395</v>
       </c>
     </row>
@@ -9481,7 +9625,7 @@
       <c r="C45" t="s">
         <v>441</v>
       </c>
-      <c r="D45" s="174" t="s">
+      <c r="D45" s="169" t="s">
         <v>444</v>
       </c>
     </row>
@@ -9495,7 +9639,7 @@
       <c r="C46" t="s">
         <v>441</v>
       </c>
-      <c r="D46" s="174" t="s">
+      <c r="D46" s="169" t="s">
         <v>445</v>
       </c>
     </row>
@@ -9509,7 +9653,7 @@
       <c r="C47" t="s">
         <v>441</v>
       </c>
-      <c r="D47" s="174" t="s">
+      <c r="D47" s="169" t="s">
         <v>446</v>
       </c>
     </row>
@@ -9523,7 +9667,7 @@
       <c r="C48" t="s">
         <v>441</v>
       </c>
-      <c r="D48" s="174" t="s">
+      <c r="D48" s="169" t="s">
         <v>447</v>
       </c>
     </row>
@@ -9537,7 +9681,7 @@
       <c r="C49" t="s">
         <v>441</v>
       </c>
-      <c r="D49" s="174" t="s">
+      <c r="D49" s="169" t="s">
         <v>448</v>
       </c>
     </row>
@@ -9551,7 +9695,7 @@
       <c r="C50" t="s">
         <v>441</v>
       </c>
-      <c r="D50" s="174" t="s">
+      <c r="D50" s="169" t="s">
         <v>449</v>
       </c>
     </row>
@@ -9565,7 +9709,7 @@
       <c r="C51" t="s">
         <v>441</v>
       </c>
-      <c r="D51" s="174" t="s">
+      <c r="D51" s="169" t="s">
         <v>450</v>
       </c>
     </row>
@@ -9579,7 +9723,7 @@
       <c r="C52" t="s">
         <v>441</v>
       </c>
-      <c r="D52" s="185" t="s">
+      <c r="D52" s="179" t="s">
         <v>387</v>
       </c>
     </row>
@@ -9593,12 +9737,26 @@
       <c r="C53" t="s">
         <v>441</v>
       </c>
-      <c r="D53" s="174" t="s">
+      <c r="D53" s="169" t="s">
         <v>396</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="M2:O2"/>
@@ -9611,20 +9769,6 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9716,119 +9860,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="338" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="325"/>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325"/>
-      <c r="N1" s="325"/>
-      <c r="O1" s="325"/>
-      <c r="P1" s="325"/>
-      <c r="Q1" s="30"/>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
+      <c r="K1" s="338"/>
+      <c r="L1" s="338"/>
+      <c r="M1" s="338"/>
+      <c r="N1" s="338"/>
+      <c r="O1" s="338"/>
+      <c r="P1" s="338"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="326" t="s">
+      <c r="A2" s="339" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="326"/>
-      <c r="C2" s="326"/>
-      <c r="D2" s="326"/>
-      <c r="E2" s="326"/>
-      <c r="F2" s="326"/>
-      <c r="G2" s="326" t="s">
+      <c r="B2" s="339"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="339"/>
+      <c r="G2" s="339" t="s">
         <v>242</v>
       </c>
-      <c r="H2" s="326"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326"/>
-      <c r="K2" s="326"/>
-      <c r="L2" s="326"/>
-      <c r="M2" s="329" t="s">
+      <c r="H2" s="339"/>
+      <c r="I2" s="339"/>
+      <c r="J2" s="339"/>
+      <c r="K2" s="339"/>
+      <c r="L2" s="339"/>
+      <c r="M2" s="322" t="s">
         <v>289</v>
       </c>
-      <c r="N2" s="329"/>
-      <c r="O2" s="329"/>
-      <c r="P2" s="329"/>
-      <c r="Q2" s="87"/>
+      <c r="N2" s="322"/>
+      <c r="O2" s="322"/>
+      <c r="P2" s="322"/>
+      <c r="Q2" s="82"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="328" t="s">
+      <c r="A3" s="341" t="s">
         <v>490</v>
       </c>
-      <c r="B3" s="328"/>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328"/>
-      <c r="F3" s="328"/>
-      <c r="G3" s="328" t="s">
+      <c r="B3" s="341"/>
+      <c r="C3" s="341"/>
+      <c r="D3" s="341"/>
+      <c r="E3" s="341"/>
+      <c r="F3" s="341"/>
+      <c r="G3" s="341" t="s">
         <v>291</v>
       </c>
-      <c r="H3" s="328"/>
-      <c r="I3" s="328"/>
-      <c r="J3" s="328"/>
-      <c r="K3" s="328"/>
-      <c r="L3" s="328"/>
-      <c r="M3" s="202" t="s">
+      <c r="H3" s="341"/>
+      <c r="I3" s="341"/>
+      <c r="J3" s="341"/>
+      <c r="K3" s="341"/>
+      <c r="L3" s="341"/>
+      <c r="M3" s="194" t="s">
         <v>293</v>
       </c>
-      <c r="N3" s="202" t="s">
+      <c r="N3" s="194" t="s">
         <v>292</v>
       </c>
-      <c r="O3" s="202" t="s">
+      <c r="O3" s="194" t="s">
         <v>361</v>
       </c>
-      <c r="P3" s="202" t="s">
+      <c r="P3" s="194" t="s">
         <v>361</v>
       </c>
-      <c r="Q3" s="192"/>
+      <c r="Q3" s="186"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="339" t="s">
+      <c r="A4" s="332" t="s">
         <v>487</v>
       </c>
-      <c r="B4" s="340"/>
-      <c r="C4" s="340"/>
-      <c r="D4" s="340"/>
-      <c r="E4" s="340"/>
-      <c r="F4" s="341"/>
-      <c r="G4" s="327" t="s">
+      <c r="B4" s="333"/>
+      <c r="C4" s="333"/>
+      <c r="D4" s="333"/>
+      <c r="E4" s="333"/>
+      <c r="F4" s="334"/>
+      <c r="G4" s="340" t="s">
         <v>244</v>
       </c>
-      <c r="H4" s="327"/>
-      <c r="I4" s="327"/>
-      <c r="J4" s="327"/>
-      <c r="K4" s="327"/>
-      <c r="L4" s="327"/>
-      <c r="M4" s="203" t="s">
+      <c r="H4" s="340"/>
+      <c r="I4" s="340"/>
+      <c r="J4" s="340"/>
+      <c r="K4" s="340"/>
+      <c r="L4" s="340"/>
+      <c r="M4" s="195" t="s">
         <v>248</v>
       </c>
-      <c r="N4" s="203" t="s">
+      <c r="N4" s="195" t="s">
         <v>152</v>
       </c>
-      <c r="O4" s="203" t="s">
+      <c r="O4" s="195" t="s">
         <v>362</v>
       </c>
-      <c r="P4" s="203" t="s">
+      <c r="P4" s="195" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="322"/>
-      <c r="B5" s="323"/>
-      <c r="C5" s="323"/>
-      <c r="D5" s="323"/>
-      <c r="E5" s="323"/>
-      <c r="F5" s="324"/>
+      <c r="A5" s="335"/>
+      <c r="B5" s="336"/>
+      <c r="C5" s="336"/>
+      <c r="D5" s="336"/>
+      <c r="E5" s="336"/>
+      <c r="F5" s="337"/>
       <c r="G5" s="342" t="s">
         <v>4</v>
       </c>
@@ -9837,26 +9981,26 @@
       <c r="J5" s="342"/>
       <c r="K5" s="342"/>
       <c r="L5" s="342"/>
-      <c r="M5" s="204" t="s">
+      <c r="M5" s="196" t="s">
         <v>286</v>
       </c>
-      <c r="N5" s="204"/>
-      <c r="O5" s="204" t="s">
+      <c r="N5" s="196"/>
+      <c r="O5" s="196" t="s">
         <v>491</v>
       </c>
-      <c r="P5" s="204" t="s">
+      <c r="P5" s="196" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="322" t="s">
+      <c r="A6" s="335" t="s">
         <v>493</v>
       </c>
-      <c r="B6" s="323"/>
-      <c r="C6" s="323"/>
-      <c r="D6" s="323"/>
-      <c r="E6" s="323"/>
-      <c r="F6" s="324"/>
+      <c r="B6" s="336"/>
+      <c r="C6" s="336"/>
+      <c r="D6" s="336"/>
+      <c r="E6" s="336"/>
+      <c r="F6" s="337"/>
       <c r="G6" s="342" t="s">
         <v>4</v>
       </c>
@@ -9865,147 +10009,147 @@
       <c r="J6" s="342"/>
       <c r="K6" s="342"/>
       <c r="L6" s="342"/>
-      <c r="M6" s="204"/>
-      <c r="N6" s="204"/>
-      <c r="O6" s="204" t="s">
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="P6" s="204" t="s">
+      <c r="P6" s="196" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="322"/>
-      <c r="B7" s="323"/>
-      <c r="C7" s="323"/>
-      <c r="D7" s="323"/>
-      <c r="E7" s="323"/>
-      <c r="F7" s="324"/>
+      <c r="A7" s="335"/>
+      <c r="B7" s="336"/>
+      <c r="C7" s="336"/>
+      <c r="D7" s="336"/>
+      <c r="E7" s="336"/>
+      <c r="F7" s="337"/>
       <c r="G7" s="342"/>
       <c r="H7" s="342"/>
       <c r="I7" s="342"/>
       <c r="J7" s="342"/>
       <c r="K7" s="342"/>
       <c r="L7" s="342"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
-      <c r="P7" s="205"/>
+      <c r="M7" s="196"/>
+      <c r="N7" s="196"/>
+      <c r="O7" s="196"/>
+      <c r="P7" s="197"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="322"/>
-      <c r="B8" s="323"/>
-      <c r="C8" s="323"/>
-      <c r="D8" s="323"/>
-      <c r="E8" s="323"/>
-      <c r="F8" s="324"/>
+      <c r="A8" s="335"/>
+      <c r="B8" s="336"/>
+      <c r="C8" s="336"/>
+      <c r="D8" s="336"/>
+      <c r="E8" s="336"/>
+      <c r="F8" s="337"/>
       <c r="G8" s="342"/>
       <c r="H8" s="342"/>
       <c r="I8" s="342"/>
       <c r="J8" s="342"/>
       <c r="K8" s="342"/>
       <c r="L8" s="342"/>
-      <c r="M8" s="204"/>
-      <c r="N8" s="204"/>
-      <c r="O8" s="204"/>
-      <c r="P8" s="205"/>
+      <c r="M8" s="196"/>
+      <c r="N8" s="196"/>
+      <c r="O8" s="196"/>
+      <c r="P8" s="197"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="330" t="s">
+      <c r="A10" s="323" t="s">
         <v>348</v>
       </c>
-      <c r="B10" s="331"/>
-      <c r="C10" s="331"/>
-      <c r="D10" s="331"/>
-      <c r="E10" s="331"/>
-      <c r="F10" s="331"/>
-      <c r="G10" s="331"/>
-      <c r="H10" s="331"/>
-      <c r="I10" s="332"/>
+      <c r="B10" s="324"/>
+      <c r="C10" s="324"/>
+      <c r="D10" s="324"/>
+      <c r="E10" s="324"/>
+      <c r="F10" s="324"/>
+      <c r="G10" s="324"/>
+      <c r="H10" s="324"/>
+      <c r="I10" s="325"/>
     </row>
     <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="124" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="125" t="s">
         <v>327</v>
       </c>
-      <c r="C11" s="186" t="s">
+      <c r="C11" s="180" t="s">
         <v>361</v>
       </c>
-      <c r="D11" s="123" t="s">
+      <c r="D11" s="118" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="244" t="s">
+      <c r="E11" s="230" t="s">
         <v>266</v>
       </c>
-      <c r="F11" s="123" t="s">
+      <c r="F11" s="118" t="s">
         <v>266</v>
       </c>
-      <c r="G11" s="123" t="s">
+      <c r="G11" s="118" t="s">
         <v>266</v>
       </c>
-      <c r="H11" s="130" t="s">
+      <c r="H11" s="125" t="s">
         <v>272</v>
       </c>
-      <c r="I11" s="130" t="s">
+      <c r="I11" s="125" t="s">
         <v>272</v>
       </c>
-      <c r="J11" s="142" t="s">
+      <c r="J11" s="137" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="146"/>
-      <c r="B12" s="145" t="s">
+      <c r="A12" s="141"/>
+      <c r="B12" s="140" t="s">
         <v>247</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="90" t="s">
         <v>360</v>
       </c>
-      <c r="D12" s="145" t="s">
+      <c r="D12" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="245" t="s">
+      <c r="E12" s="231" t="s">
         <v>540</v>
       </c>
-      <c r="F12" s="145" t="s">
+      <c r="F12" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="145" t="s">
+      <c r="G12" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="145" t="s">
+      <c r="H12" s="140" t="s">
         <v>249</v>
       </c>
-      <c r="I12" s="145" t="s">
+      <c r="I12" s="140" t="s">
         <v>250</v>
       </c>
-      <c r="J12" s="147" t="s">
+      <c r="J12" s="142" t="s">
         <v>251</v>
       </c>
-      <c r="L12" s="162"/>
+      <c r="L12" s="157"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="144"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="151">
+      <c r="A13" s="139"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="146">
         <v>100</v>
       </c>
-      <c r="E13" s="233"/>
-      <c r="F13" s="151">
+      <c r="E13" s="225"/>
+      <c r="F13" s="146">
         <v>0</v>
       </c>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151">
+      <c r="G13" s="146"/>
+      <c r="H13" s="146">
         <v>4</v>
       </c>
-      <c r="I13" s="151">
+      <c r="I13" s="146">
         <v>10</v>
       </c>
-      <c r="J13" s="152">
+      <c r="J13" s="147">
         <v>10</v>
       </c>
     </row>
@@ -10076,13 +10220,13 @@
       <c r="G21" s="291"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="72" t="s">
         <v>309</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="72" t="s">
         <v>304</v>
       </c>
       <c r="D22" s="290" t="s">
@@ -10102,7 +10246,7 @@
       <c r="C23" t="s">
         <v>451</v>
       </c>
-      <c r="D23" s="174" t="s">
+      <c r="D23" s="169" t="s">
         <v>363</v>
       </c>
     </row>
@@ -10116,7 +10260,7 @@
       <c r="C24" t="s">
         <v>451</v>
       </c>
-      <c r="D24" s="185" t="s">
+      <c r="D24" s="179" t="s">
         <v>329</v>
       </c>
     </row>
@@ -10130,7 +10274,7 @@
       <c r="C25" t="s">
         <v>451</v>
       </c>
-      <c r="D25" s="174" t="s">
+      <c r="D25" s="169" t="s">
         <v>330</v>
       </c>
     </row>
@@ -10144,7 +10288,7 @@
       <c r="C26" t="s">
         <v>451</v>
       </c>
-      <c r="D26" s="174" t="s">
+      <c r="D26" s="169" t="s">
         <v>350</v>
       </c>
     </row>
@@ -10158,7 +10302,7 @@
       <c r="C27" t="s">
         <v>451</v>
       </c>
-      <c r="D27" s="177" t="s">
+      <c r="D27" s="172" t="s">
         <v>331</v>
       </c>
     </row>
@@ -10172,7 +10316,7 @@
       <c r="C28" t="s">
         <v>451</v>
       </c>
-      <c r="D28" s="185" t="s">
+      <c r="D28" s="179" t="s">
         <v>397</v>
       </c>
     </row>
@@ -10186,7 +10330,7 @@
       <c r="C29" t="s">
         <v>451</v>
       </c>
-      <c r="D29" s="185" t="s">
+      <c r="D29" s="179" t="s">
         <v>383</v>
       </c>
     </row>
@@ -10200,7 +10344,7 @@
       <c r="C30" t="s">
         <v>451</v>
       </c>
-      <c r="D30" s="185" t="s">
+      <c r="D30" s="179" t="s">
         <v>398</v>
       </c>
     </row>
@@ -10214,7 +10358,7 @@
       <c r="C31" t="s">
         <v>451</v>
       </c>
-      <c r="D31" s="185" t="s">
+      <c r="D31" s="179" t="s">
         <v>340</v>
       </c>
     </row>
@@ -10228,7 +10372,7 @@
       <c r="C32" t="s">
         <v>451</v>
       </c>
-      <c r="D32" s="185" t="s">
+      <c r="D32" s="179" t="s">
         <v>341</v>
       </c>
     </row>
@@ -10242,7 +10386,7 @@
       <c r="C33" t="s">
         <v>451</v>
       </c>
-      <c r="D33" s="174" t="s">
+      <c r="D33" s="169" t="s">
         <v>399</v>
       </c>
     </row>
@@ -10256,19 +10400,12 @@
       <c r="C34" t="s">
         <v>451</v>
       </c>
-      <c r="D34" s="185" t="s">
+      <c r="D34" s="179" t="s">
         <v>344</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -10283,6 +10420,13 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10342,22 +10486,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA114EAE-FE7B-4FA6-B089-7E8AF5B9A02B}">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
     <col min="2" max="2" width="94.25" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="182" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="66" customWidth="1"/>
+    <col min="3" max="3" width="16" style="176" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="61" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
     <col min="7" max="16384" width="9" style="10"/>
@@ -10370,15 +10514,15 @@
       <c r="B1" s="344"/>
       <c r="C1" s="344"/>
       <c r="D1" s="345"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="64"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -10390,10 +10534,10 @@
       <c r="C2" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="236" t="s">
+      <c r="D2" s="359" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="133" t="s">
+      <c r="F2" s="128" t="s">
         <v>76</v>
       </c>
     </row>
@@ -10404,9 +10548,9 @@
       <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="179"/>
-      <c r="D3" s="22"/>
-      <c r="F3" s="134" t="s">
+      <c r="C3" s="173"/>
+      <c r="D3" s="360"/>
+      <c r="F3" s="129" t="s">
         <v>77</v>
       </c>
     </row>
@@ -10417,8 +10561,8 @@
       <c r="B4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="180"/>
-      <c r="D4" s="23">
+      <c r="C4" s="174"/>
+      <c r="D4" s="361">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -10432,20 +10576,20 @@
       <c r="B5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="180"/>
-      <c r="D5" s="23">
+      <c r="C5" s="174"/>
+      <c r="D5" s="361">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="200" t="s">
+      <c r="A6" s="12" t="s">
         <v>503</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="C6" s="237"/>
-      <c r="D6" s="23">
+      <c r="C6" s="362"/>
+      <c r="D6" s="361">
         <v>1000000</v>
       </c>
     </row>
@@ -10456,8 +10600,8 @@
       <c r="B7" s="16" t="s">
         <v>506</v>
       </c>
-      <c r="C7" s="238"/>
-      <c r="D7" s="23">
+      <c r="C7" s="362"/>
+      <c r="D7" s="361">
         <v>0</v>
       </c>
     </row>
@@ -10468,8 +10612,8 @@
       <c r="B8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="239"/>
-      <c r="D8" s="23">
+      <c r="C8" s="174"/>
+      <c r="D8" s="361">
         <v>0</v>
       </c>
     </row>
@@ -10480,8 +10624,8 @@
       <c r="B9" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="C9" s="239"/>
-      <c r="D9" s="23">
+      <c r="C9" s="174"/>
+      <c r="D9" s="361">
         <v>0</v>
       </c>
     </row>
@@ -10492,86 +10636,86 @@
       <c r="B10" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="C10" s="201"/>
-      <c r="D10" s="23">
+      <c r="C10" s="363"/>
+      <c r="D10" s="361">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="200" t="s">
+      <c r="A11" s="12" t="s">
         <v>509</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="C11" s="237"/>
-      <c r="D11" s="23">
+      <c r="C11" s="362"/>
+      <c r="D11" s="361">
         <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="200" t="s">
+      <c r="A12" s="12" t="s">
         <v>511</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="C12" s="237"/>
-      <c r="D12" s="23">
+      <c r="C12" s="362"/>
+      <c r="D12" s="361">
         <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="200" t="s">
+      <c r="A13" s="12" t="s">
         <v>513</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="C13" s="237"/>
-      <c r="D13" s="23"/>
+      <c r="C13" s="362"/>
+      <c r="D13" s="361"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="200" t="s">
+      <c r="A14" s="12" t="s">
         <v>515</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="C14" s="237"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="362"/>
+      <c r="D14" s="361"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="200" t="s">
+      <c r="A15" s="12" t="s">
         <v>517</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="C15" s="237"/>
-      <c r="D15" s="23">
+      <c r="C15" s="362"/>
+      <c r="D15" s="361">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="200" t="s">
+      <c r="A16" s="12" t="s">
         <v>519</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="C16" s="237"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="362"/>
+      <c r="D16" s="361"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="200" t="s">
+      <c r="A17" s="12" t="s">
         <v>521</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="C17" s="237"/>
-      <c r="D17" s="23"/>
+      <c r="C17" s="362"/>
+      <c r="D17" s="361"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
@@ -10580,8 +10724,8 @@
       <c r="B18" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="C18" s="201"/>
-      <c r="D18" s="23">
+      <c r="C18" s="363"/>
+      <c r="D18" s="361">
         <v>1</v>
       </c>
     </row>
@@ -10592,8 +10736,8 @@
       <c r="B19" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="180"/>
-      <c r="D19" s="23"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="361"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -10602,8 +10746,8 @@
       <c r="B20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="179"/>
-      <c r="D20" s="22"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="360"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
@@ -10612,8 +10756,8 @@
       <c r="B21" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="180"/>
-      <c r="D21" s="23">
+      <c r="C21" s="174"/>
+      <c r="D21" s="361">
         <v>0</v>
       </c>
     </row>
@@ -10624,8 +10768,8 @@
       <c r="B22" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="180"/>
-      <c r="D22" s="24" t="s">
+      <c r="C22" s="174"/>
+      <c r="D22" s="364" t="s">
         <v>66</v>
       </c>
     </row>
@@ -10636,8 +10780,8 @@
       <c r="B23" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="180"/>
-      <c r="D23" s="24" t="s">
+      <c r="C23" s="174"/>
+      <c r="D23" s="364" t="s">
         <v>67</v>
       </c>
     </row>
@@ -10648,8 +10792,8 @@
       <c r="B24" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="180"/>
-      <c r="D24" s="23">
+      <c r="C24" s="174"/>
+      <c r="D24" s="361">
         <v>0</v>
       </c>
     </row>
@@ -10660,8 +10804,8 @@
       <c r="B25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="180"/>
-      <c r="D25" s="23" t="s">
+      <c r="C25" s="174"/>
+      <c r="D25" s="361" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10672,8 +10816,8 @@
       <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="179"/>
-      <c r="D26" s="22"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="360"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
@@ -10682,8 +10826,8 @@
       <c r="B27" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="180"/>
-      <c r="D27" s="23"/>
+      <c r="C27" s="174"/>
+      <c r="D27" s="361"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
@@ -10692,8 +10836,8 @@
       <c r="B28" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="180"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="361"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
@@ -10702,8 +10846,8 @@
       <c r="B29" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="180"/>
-      <c r="D29" s="23"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="361"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
@@ -10712,8 +10856,8 @@
       <c r="B30" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="180"/>
-      <c r="D30" s="23"/>
+      <c r="C30" s="174"/>
+      <c r="D30" s="361"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
@@ -10722,8 +10866,8 @@
       <c r="B31" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="180"/>
-      <c r="D31" s="23">
+      <c r="C31" s="174"/>
+      <c r="D31" s="361">
         <v>1</v>
       </c>
     </row>
@@ -10734,8 +10878,8 @@
       <c r="B32" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="180"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="174"/>
+      <c r="D32" s="361"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
@@ -10744,8 +10888,8 @@
       <c r="B33" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="180"/>
-      <c r="D33" s="23"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="361"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
@@ -10754,8 +10898,8 @@
       <c r="B34" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="180"/>
-      <c r="D34" s="23"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="361"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
@@ -10764,8 +10908,8 @@
       <c r="B35" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="179"/>
-      <c r="D35" s="22"/>
+      <c r="C35" s="173"/>
+      <c r="D35" s="360"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
@@ -10774,8 +10918,8 @@
       <c r="B36" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="180"/>
-      <c r="D36" s="23">
+      <c r="C36" s="174"/>
+      <c r="D36" s="361">
         <v>100</v>
       </c>
     </row>
@@ -10786,8 +10930,8 @@
       <c r="B37" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="180"/>
-      <c r="D37" s="23">
+      <c r="C37" s="174"/>
+      <c r="D37" s="361">
         <v>65535</v>
       </c>
     </row>
@@ -10798,8 +10942,8 @@
       <c r="B38" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="180"/>
-      <c r="D38" s="23">
+      <c r="C38" s="174"/>
+      <c r="D38" s="361">
         <v>10</v>
       </c>
     </row>
@@ -10810,8 +10954,8 @@
       <c r="B39" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="180"/>
-      <c r="D39" s="23">
+      <c r="C39" s="174"/>
+      <c r="D39" s="361">
         <v>0.1</v>
       </c>
     </row>
@@ -10822,8 +10966,8 @@
       <c r="B40" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="180"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="361"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
@@ -10832,8 +10976,8 @@
       <c r="B41" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="180"/>
-      <c r="D41" s="23"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="361"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
@@ -10842,8 +10986,8 @@
       <c r="B42" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="180"/>
-      <c r="D42" s="23"/>
+      <c r="C42" s="174"/>
+      <c r="D42" s="361"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
@@ -10852,8 +10996,8 @@
       <c r="B43" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="179"/>
-      <c r="D43" s="22"/>
+      <c r="C43" s="173"/>
+      <c r="D43" s="360"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
@@ -10862,8 +11006,8 @@
       <c r="B44" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="180"/>
-      <c r="D44" s="23"/>
+      <c r="C44" s="174"/>
+      <c r="D44" s="361"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
@@ -10872,8 +11016,8 @@
       <c r="B45" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="180"/>
-      <c r="D45" s="23">
+      <c r="C45" s="174"/>
+      <c r="D45" s="361">
         <v>0.02</v>
       </c>
     </row>
@@ -10884,8 +11028,8 @@
       <c r="B46" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="180"/>
-      <c r="D46" s="23"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="361"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
@@ -10894,8 +11038,8 @@
       <c r="B47" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="180"/>
-      <c r="D47" s="23"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="361"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
@@ -10904,8 +11048,8 @@
       <c r="B48" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="180"/>
-      <c r="D48" s="23"/>
+      <c r="C48" s="174"/>
+      <c r="D48" s="361"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
@@ -10914,8 +11058,8 @@
       <c r="B49" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="180"/>
-      <c r="D49" s="24" t="s">
+      <c r="C49" s="174"/>
+      <c r="D49" s="364" t="s">
         <v>70</v>
       </c>
     </row>
@@ -10926,8 +11070,8 @@
       <c r="B50" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C50" s="180"/>
-      <c r="D50" s="24">
+      <c r="C50" s="174"/>
+      <c r="D50" s="364">
         <v>0</v>
       </c>
     </row>
@@ -10938,8 +11082,8 @@
       <c r="B51" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="C51" s="240"/>
-      <c r="D51" s="241"/>
+      <c r="C51" s="365"/>
+      <c r="D51" s="228"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
@@ -10948,8 +11092,8 @@
       <c r="B52" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="C52" s="238"/>
-      <c r="D52" s="242">
+      <c r="C52" s="362"/>
+      <c r="D52" s="229">
         <v>0.02</v>
       </c>
     </row>
@@ -10960,8 +11104,8 @@
       <c r="B53" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="C53" s="238"/>
-      <c r="D53" s="242"/>
+      <c r="C53" s="362"/>
+      <c r="D53" s="229"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
@@ -10970,8 +11114,8 @@
       <c r="B54" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="C54" s="238"/>
-      <c r="D54" s="242"/>
+      <c r="C54" s="362"/>
+      <c r="D54" s="229"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
@@ -10980,8 +11124,8 @@
       <c r="B55" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="C55" s="238"/>
-      <c r="D55" s="242"/>
+      <c r="C55" s="362"/>
+      <c r="D55" s="229"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
@@ -10990,8 +11134,8 @@
       <c r="B56" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="C56" s="238"/>
-      <c r="D56" s="24" t="s">
+      <c r="C56" s="362"/>
+      <c r="D56" s="364" t="s">
         <v>70</v>
       </c>
     </row>
@@ -11002,16 +11146,16 @@
       <c r="B57" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="179"/>
-      <c r="D57" s="22"/>
+      <c r="C57" s="173"/>
+      <c r="D57" s="360"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B58" s="15"/>
-      <c r="C58" s="180"/>
-      <c r="D58" s="23"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="361"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
@@ -11020,8 +11164,8 @@
       <c r="B59" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="180"/>
-      <c r="D59" s="23"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="361"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
@@ -11030,8 +11174,8 @@
       <c r="B60" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="180"/>
-      <c r="D60" s="23"/>
+      <c r="C60" s="174"/>
+      <c r="D60" s="361"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
@@ -11040,8 +11184,8 @@
       <c r="B61" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="180"/>
-      <c r="D61" s="23"/>
+      <c r="C61" s="174"/>
+      <c r="D61" s="361"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
@@ -11050,8 +11194,8 @@
       <c r="B62" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C62" s="180"/>
-      <c r="D62" s="23"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="361"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
@@ -11060,8 +11204,8 @@
       <c r="B63" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="180"/>
-      <c r="D63" s="23"/>
+      <c r="C63" s="174"/>
+      <c r="D63" s="361"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -11070,8 +11214,8 @@
       <c r="B64" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="180"/>
-      <c r="D64" s="23"/>
+      <c r="C64" s="174"/>
+      <c r="D64" s="361"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
@@ -11080,8 +11224,8 @@
       <c r="B65" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="180"/>
-      <c r="D65" s="23"/>
+      <c r="C65" s="174"/>
+      <c r="D65" s="361"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
@@ -11090,8 +11234,8 @@
       <c r="B66" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="180"/>
-      <c r="D66" s="23"/>
+      <c r="C66" s="174"/>
+      <c r="D66" s="361"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
@@ -11100,8 +11244,8 @@
       <c r="B67" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="180"/>
-      <c r="D67" s="23"/>
+      <c r="C67" s="174"/>
+      <c r="D67" s="361"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
@@ -11110,8 +11254,8 @@
       <c r="B68" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C68" s="180"/>
-      <c r="D68" s="23"/>
+      <c r="C68" s="174"/>
+      <c r="D68" s="361"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
@@ -11120,8 +11264,8 @@
       <c r="B69" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C69" s="180"/>
-      <c r="D69" s="23">
+      <c r="C69" s="174"/>
+      <c r="D69" s="361">
         <v>1</v>
       </c>
     </row>
@@ -11132,8 +11276,8 @@
       <c r="B70" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C70" s="180"/>
-      <c r="D70" s="23">
+      <c r="C70" s="174"/>
+      <c r="D70" s="361">
         <v>1</v>
       </c>
     </row>
@@ -11144,8 +11288,8 @@
       <c r="B71" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C71" s="180"/>
-      <c r="D71" s="23">
+      <c r="C71" s="174"/>
+      <c r="D71" s="361">
         <v>1</v>
       </c>
     </row>
@@ -11156,8 +11300,8 @@
       <c r="B72" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C72" s="180"/>
-      <c r="D72" s="23">
+      <c r="C72" s="174"/>
+      <c r="D72" s="361">
         <v>1</v>
       </c>
     </row>
@@ -11168,8 +11312,8 @@
       <c r="B73" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="180"/>
-      <c r="D73" s="23">
+      <c r="C73" s="174"/>
+      <c r="D73" s="361">
         <v>1</v>
       </c>
     </row>
@@ -11180,8 +11324,8 @@
       <c r="B74" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C74" s="180"/>
-      <c r="D74" s="23">
+      <c r="C74" s="174"/>
+      <c r="D74" s="361">
         <v>0</v>
       </c>
     </row>
@@ -11192,8 +11336,8 @@
       <c r="B75" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="180"/>
-      <c r="D75" s="23"/>
+      <c r="C75" s="174"/>
+      <c r="D75" s="361"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
@@ -11202,8 +11346,8 @@
       <c r="B76" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C76" s="180"/>
-      <c r="D76" s="23"/>
+      <c r="C76" s="174"/>
+      <c r="D76" s="361"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
@@ -11212,8 +11356,8 @@
       <c r="B77" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C77" s="179"/>
-      <c r="D77" s="178"/>
+      <c r="C77" s="173"/>
+      <c r="D77" s="366"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
@@ -11222,8 +11366,8 @@
       <c r="B78" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C78" s="180"/>
-      <c r="D78" s="25">
+      <c r="C78" s="174"/>
+      <c r="D78" s="229">
         <v>0</v>
       </c>
     </row>
@@ -11234,8 +11378,8 @@
       <c r="B79" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="C79" s="179"/>
-      <c r="D79" s="178"/>
+      <c r="C79" s="173"/>
+      <c r="D79" s="366"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
@@ -11244,8 +11388,8 @@
       <c r="B80" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="C80" s="180"/>
-      <c r="D80" s="25">
+      <c r="C80" s="174"/>
+      <c r="D80" s="229">
         <v>0</v>
       </c>
     </row>
@@ -11253,48 +11397,346 @@
       <c r="A81" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="B81" s="243" t="s">
+      <c r="B81" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="C81" s="179"/>
-      <c r="D81" s="178"/>
+      <c r="C81" s="173"/>
+      <c r="D81" s="366"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="367" t="s">
+        <v>545</v>
+      </c>
+      <c r="B82" s="368" t="s">
+        <v>546</v>
+      </c>
+      <c r="C82" s="368"/>
+      <c r="D82" s="364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="367" t="s">
+        <v>547</v>
+      </c>
+      <c r="B83" s="368" t="s">
+        <v>548</v>
+      </c>
+      <c r="C83" s="368"/>
+      <c r="D83" s="364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="367" t="s">
+        <v>549</v>
+      </c>
+      <c r="B84" s="368" t="s">
+        <v>550</v>
+      </c>
+      <c r="C84" s="368"/>
+      <c r="D84" s="364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="367" t="s">
+        <v>551</v>
+      </c>
+      <c r="B85" s="368" t="s">
+        <v>552</v>
+      </c>
+      <c r="C85" s="368"/>
+      <c r="D85" s="364" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="367" t="s">
+        <v>554</v>
+      </c>
+      <c r="B86" s="368" t="s">
+        <v>555</v>
+      </c>
+      <c r="C86" s="368"/>
+      <c r="D86" s="364">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="367" t="s">
+        <v>556</v>
+      </c>
+      <c r="B87" s="368" t="s">
+        <v>557</v>
+      </c>
+      <c r="C87" s="368"/>
+      <c r="D87" s="364"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="367" t="s">
+        <v>558</v>
+      </c>
+      <c r="B88" s="368" t="s">
+        <v>559</v>
+      </c>
+      <c r="C88" s="368"/>
+      <c r="D88" s="364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="367" t="s">
+        <v>560</v>
+      </c>
+      <c r="B89" s="368" t="s">
+        <v>561</v>
+      </c>
+      <c r="C89" s="368"/>
+      <c r="D89" s="364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="367" t="s">
+        <v>562</v>
+      </c>
+      <c r="B90" s="368" t="s">
+        <v>563</v>
+      </c>
+      <c r="C90" s="368"/>
+      <c r="D90" s="364"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="367" t="s">
+        <v>564</v>
+      </c>
+      <c r="B91" s="368" t="s">
+        <v>565</v>
+      </c>
+      <c r="C91" s="368"/>
+      <c r="D91" s="364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="367" t="s">
+        <v>566</v>
+      </c>
+      <c r="B92" s="368" t="s">
+        <v>567</v>
+      </c>
+      <c r="C92" s="368"/>
+      <c r="D92" s="364"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="367" t="s">
+        <v>568</v>
+      </c>
+      <c r="B93" s="368" t="s">
+        <v>569</v>
+      </c>
+      <c r="C93" s="368"/>
+      <c r="D93" s="364"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="367" t="s">
+        <v>570</v>
+      </c>
+      <c r="B94" s="368" t="s">
+        <v>571</v>
+      </c>
+      <c r="C94" s="368"/>
+      <c r="D94" s="364"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B95" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="C82" s="180"/>
-      <c r="D82" s="25">
+      <c r="C95" s="174"/>
+      <c r="D95" s="229">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="21" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="C96" s="17"/>
+      <c r="D96" s="228"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="367" t="s">
+        <v>574</v>
+      </c>
+      <c r="B97" s="368" t="s">
+        <v>575</v>
+      </c>
+      <c r="C97" s="368"/>
+      <c r="D97" s="364">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="367" t="s">
+        <v>576</v>
+      </c>
+      <c r="B98" s="368" t="s">
+        <v>577</v>
+      </c>
+      <c r="C98" s="368"/>
+      <c r="D98" s="364"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="367" t="s">
+        <v>578</v>
+      </c>
+      <c r="B99" s="368" t="s">
+        <v>579</v>
+      </c>
+      <c r="C99" s="368"/>
+      <c r="D99" s="364"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="367" t="s">
+        <v>580</v>
+      </c>
+      <c r="B100" s="368" t="s">
+        <v>581</v>
+      </c>
+      <c r="C100" s="368"/>
+      <c r="D100" s="364"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="C101" s="17"/>
+      <c r="D101" s="228"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="367" t="s">
+        <v>584</v>
+      </c>
+      <c r="B102" s="368" t="s">
+        <v>585</v>
+      </c>
+      <c r="C102" s="368"/>
+      <c r="D102" s="364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="367" t="s">
+        <v>586</v>
+      </c>
+      <c r="B103" s="368" t="s">
+        <v>587</v>
+      </c>
+      <c r="C103" s="368"/>
+      <c r="D103" s="364">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="367" t="s">
+        <v>588</v>
+      </c>
+      <c r="B104" s="368" t="s">
+        <v>589</v>
+      </c>
+      <c r="C104" s="368"/>
+      <c r="D104" s="364">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="367" t="s">
+        <v>590</v>
+      </c>
+      <c r="B105" s="368" t="s">
+        <v>591</v>
+      </c>
+      <c r="C105" s="368"/>
+      <c r="D105" s="364">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="367" t="s">
+        <v>592</v>
+      </c>
+      <c r="B106" s="368" t="s">
+        <v>593</v>
+      </c>
+      <c r="C106" s="368"/>
+      <c r="D106" s="364"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="367" t="s">
+        <v>594</v>
+      </c>
+      <c r="B107" s="368" t="s">
+        <v>595</v>
+      </c>
+      <c r="C107" s="368"/>
+      <c r="D107" s="364"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="367" t="s">
+        <v>596</v>
+      </c>
+      <c r="B108" s="368" t="s">
+        <v>597</v>
+      </c>
+      <c r="C108" s="368"/>
+      <c r="D108" s="364"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="367" t="s">
+        <v>598</v>
+      </c>
+      <c r="B109" s="368" t="s">
+        <v>599</v>
+      </c>
+      <c r="C109" s="368"/>
+      <c r="D109" s="364" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B110" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C83" s="179"/>
-      <c r="D83" s="178"/>
-    </row>
-    <row r="84" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="26" t="s">
+      <c r="C110" s="173"/>
+      <c r="D110" s="366"/>
+    </row>
+    <row r="111" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B84" s="27" t="s">
+      <c r="B111" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="C84" s="181"/>
-      <c r="D84" s="28">
+      <c r="C111" s="175"/>
+      <c r="D111" s="369">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MPcFcnLtNrTpyyzFl6iVyR1+u/VP8LUmSqngYMfCdurrquSstZ7USt5mIsdj+z4xO0Vl+QoNV3Dw+yNLcAS9yw==" saltValue="/H8pHgxgdieXrO4Wy/on7A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -11347,19 +11789,19 @@
       <c r="O1" s="350"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="346" t="s">
@@ -11375,116 +11817,116 @@
       <c r="J3" s="348"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="39">
+      <c r="B5" s="34">
         <v>1</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="39">
+      <c r="B6" s="34">
         <v>2</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="41"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="39">
+      <c r="B7" s="34">
         <v>3</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="39">
+      <c r="B8" s="34">
         <v>4</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="41"/>
-      <c r="N8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="39">
+      <c r="B9" s="34">
         <v>5</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="36"/>
     </row>
     <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="39">
+      <c r="B10" s="34">
         <v>6</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="36"/>
     </row>
     <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="42">
+      <c r="B11" s="37">
         <v>7</v>
       </c>
       <c r="C11" s="3"/>
@@ -11494,10 +11936,10 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="43"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="42">
+      <c r="B12" s="37">
         <v>8</v>
       </c>
       <c r="C12" s="3"/>
@@ -11507,10 +11949,10 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="43"/>
+      <c r="J12" s="38"/>
     </row>
     <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="42">
+      <c r="B13" s="37">
         <v>9</v>
       </c>
       <c r="C13" s="3"/>
@@ -11520,10 +11962,10 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="43"/>
+      <c r="J13" s="38"/>
     </row>
     <row r="14" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="42">
+      <c r="B14" s="37">
         <v>10</v>
       </c>
       <c r="C14" s="3"/>
@@ -11533,10 +11975,10 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="43"/>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="42">
+      <c r="B15" s="37">
         <v>11</v>
       </c>
       <c r="C15" s="3"/>
@@ -11546,10 +11988,10 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="43"/>
+      <c r="J15" s="38"/>
     </row>
     <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="44">
+      <c r="B16" s="39">
         <v>12</v>
       </c>
       <c r="C16" s="6"/>
@@ -11580,173 +12022,173 @@
       <c r="N19" s="348"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B20" s="36"/>
-      <c r="C20" s="45">
+      <c r="B20" s="31"/>
+      <c r="C20" s="40">
         <v>1</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="40">
         <v>2</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="40">
         <v>3</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="40">
         <v>4</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="40">
         <v>5</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="40">
         <v>6</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="41">
         <v>7</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="41">
         <v>8</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="41">
         <v>9</v>
       </c>
-      <c r="L20" s="46">
+      <c r="L20" s="41">
         <v>10</v>
       </c>
-      <c r="M20" s="46">
+      <c r="M20" s="41">
         <v>11</v>
       </c>
-      <c r="N20" s="47">
+      <c r="N20" s="42">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="43"/>
+      <c r="N21" s="38"/>
     </row>
     <row r="22" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="43"/>
+      <c r="N22" s="38"/>
     </row>
     <row r="23" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="43"/>
+      <c r="N23" s="38"/>
     </row>
     <row r="24" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="43"/>
+      <c r="N24" s="38"/>
     </row>
     <row r="25" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="43"/>
+      <c r="N25" s="38"/>
     </row>
     <row r="26" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="43"/>
+      <c r="N26" s="38"/>
     </row>
     <row r="27" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="43"/>
+      <c r="N27" s="38"/>
     </row>
     <row r="28" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -11802,15 +12244,15 @@
       <c r="S1" s="355"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="346" t="s">
@@ -11833,68 +12275,68 @@
       <c r="P3" s="352"/>
       <c r="Q3" s="352"/>
       <c r="R3" s="353"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
     </row>
     <row r="4" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="36"/>
-      <c r="C4" s="57">
+      <c r="B4" s="31"/>
+      <c r="C4" s="52">
         <v>1</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="40">
         <v>2</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="40">
         <v>3</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="40">
         <v>4</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="40">
         <v>5</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="40">
         <v>6</v>
       </c>
-      <c r="I4" s="58">
+      <c r="I4" s="53">
         <v>7</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="42">
         <v>8</v>
       </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="37" t="s">
+      <c r="L4" s="31"/>
+      <c r="M4" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="33" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="43"/>
-      <c r="L5" s="39">
+      <c r="I5" s="55"/>
+      <c r="J5" s="38"/>
+      <c r="L5" s="34">
         <v>1</v>
       </c>
       <c r="M5" s="3"/>
@@ -11902,21 +12344,21 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="43"/>
+      <c r="R5" s="38"/>
     </row>
     <row r="6" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="43"/>
-      <c r="L6" s="39">
+      <c r="I6" s="55"/>
+      <c r="J6" s="38"/>
+      <c r="L6" s="34">
         <v>2</v>
       </c>
       <c r="M6" s="3"/>
@@ -11924,21 +12366,21 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="R6" s="38"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="43"/>
-      <c r="L7" s="39">
+      <c r="I7" s="55"/>
+      <c r="J7" s="38"/>
+      <c r="L7" s="34">
         <v>3</v>
       </c>
       <c r="M7" s="3"/>
@@ -11946,21 +12388,21 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="R7" s="38"/>
     </row>
     <row r="8" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="43"/>
-      <c r="L8" s="39">
+      <c r="I8" s="55"/>
+      <c r="J8" s="38"/>
+      <c r="L8" s="34">
         <v>4</v>
       </c>
       <c r="M8" s="3"/>
@@ -11968,21 +12410,21 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="43"/>
+      <c r="R8" s="38"/>
     </row>
     <row r="9" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="59"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="43"/>
-      <c r="L9" s="39">
+      <c r="I9" s="55"/>
+      <c r="J9" s="38"/>
+      <c r="L9" s="34">
         <v>5</v>
       </c>
       <c r="M9" s="3"/>
@@ -11990,21 +12432,21 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="43"/>
+      <c r="R9" s="38"/>
     </row>
     <row r="10" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="62"/>
+      <c r="I10" s="57"/>
       <c r="J10" s="7"/>
-      <c r="L10" s="39">
+      <c r="L10" s="34">
         <v>6</v>
       </c>
       <c r="M10" s="3"/>
@@ -12012,10 +12454,10 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="43"/>
+      <c r="R10" s="38"/>
     </row>
     <row r="11" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="L11" s="42">
+      <c r="L11" s="37">
         <v>7</v>
       </c>
       <c r="M11" s="3"/>
@@ -12023,10 +12465,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="43"/>
+      <c r="R11" s="38"/>
     </row>
     <row r="12" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L12" s="44">
+      <c r="L12" s="39">
         <v>8</v>
       </c>
       <c r="M12" s="6"/>
@@ -12082,14 +12524,14 @@
       <c r="O1" s="358"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="51"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="346" t="s">
@@ -12108,45 +12550,45 @@
       <c r="L3" s="352"/>
       <c r="M3" s="352"/>
       <c r="N3" s="353"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
     </row>
     <row r="4" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="36"/>
-      <c r="C4" s="45">
+      <c r="B4" s="31"/>
+      <c r="C4" s="40">
         <v>1</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="40">
         <v>2</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="40">
         <v>3</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="40">
         <v>4</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="40">
         <v>5</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="47">
         <v>6</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="37" t="s">
+      <c r="J4" s="31"/>
+      <c r="K4" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="33" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="43" t="s">
         <v>220</v>
       </c>
       <c r="C5" s="3"/>
@@ -12154,17 +12596,17 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="43"/>
-      <c r="J5" s="39">
+      <c r="H5" s="38"/>
+      <c r="J5" s="34">
         <v>1</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="43"/>
+      <c r="N5" s="38"/>
     </row>
     <row r="6" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="43" t="s">
         <v>221</v>
       </c>
       <c r="C6" s="3"/>
@@ -12172,17 +12614,17 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="43"/>
-      <c r="J6" s="39">
+      <c r="H6" s="38"/>
+      <c r="J6" s="34">
         <v>2</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="43"/>
+      <c r="N6" s="38"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="43" t="s">
         <v>222</v>
       </c>
       <c r="C7" s="3"/>
@@ -12190,17 +12632,17 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="43"/>
-      <c r="J7" s="39">
+      <c r="H7" s="38"/>
+      <c r="J7" s="34">
         <v>3</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="43"/>
+      <c r="N7" s="38"/>
     </row>
     <row r="8" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="44" t="s">
         <v>223</v>
       </c>
       <c r="C8" s="6"/>
@@ -12209,27 +12651,27 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-      <c r="J8" s="39">
+      <c r="J8" s="34">
         <v>4</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="43"/>
+      <c r="N8" s="38"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H9" s="53"/>
-      <c r="J9" s="39">
+      <c r="H9" s="48"/>
+      <c r="J9" s="34">
         <v>5</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="43"/>
+      <c r="N9" s="38"/>
     </row>
     <row r="10" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H10" s="54"/>
-      <c r="J10" s="55">
+      <c r="H10" s="49"/>
+      <c r="J10" s="50">
         <v>6</v>
       </c>
       <c r="K10" s="6"/>
@@ -12238,19 +12680,19 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="H11" s="56"/>
+      <c r="H11" s="51"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H12" s="53"/>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H13" s="53"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="53"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H15" s="53"/>
+      <c r="H15" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
